--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="223">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -502,6 +502,21 @@
     <t>['32', '74']</t>
   </si>
   <si>
+    <t>['54', '79']</t>
+  </si>
+  <si>
+    <t>['57']</t>
+  </si>
+  <si>
+    <t>['39', '51', '62']</t>
+  </si>
+  <si>
+    <t>['17', '44']</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
     <t>['78']</t>
   </si>
   <si>
@@ -661,7 +676,13 @@
     <t>['32', '64', '90']</t>
   </si>
   <si>
-    <t>['57']</t>
+    <t>['45', '74']</t>
+  </si>
+  <si>
+    <t>['27', '80']</t>
+  </si>
+  <si>
+    <t>['25']</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1044,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK121"/>
+  <dimension ref="A1:BK128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1267,7 +1288,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1357,7 +1378,7 @@
         <v>1.5</v>
       </c>
       <c r="AT2">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1458,7 +1479,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1545,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT3">
         <v>2.29</v>
@@ -1649,7 +1670,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1736,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT4">
         <v>0.38</v>
@@ -1930,7 +1951,7 @@
         <v>2.5</v>
       </c>
       <c r="AT5">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2031,7 +2052,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2604,7 +2625,7 @@
         <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2795,7 +2816,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2882,10 +2903,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT10">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3073,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT11">
         <v>1.5</v>
@@ -3177,7 +3198,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3267,7 +3288,7 @@
         <v>2.13</v>
       </c>
       <c r="AT12">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU12">
         <v>1.23</v>
@@ -3458,7 +3479,7 @@
         <v>2.5</v>
       </c>
       <c r="AT13">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3646,7 +3667,7 @@
         <v>3</v>
       </c>
       <c r="AS14">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT14">
         <v>1.13</v>
@@ -3750,7 +3771,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3941,7 +3962,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4028,10 +4049,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT16">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4222,7 +4243,7 @@
         <v>1.75</v>
       </c>
       <c r="AT17">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4323,7 +4344,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4514,7 +4535,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -4896,7 +4917,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5087,7 +5108,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5174,10 +5195,10 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT22">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU22">
         <v>1.42</v>
@@ -5365,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT23">
         <v>0.5</v>
@@ -5660,7 +5681,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -5747,7 +5768,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT25">
         <v>1.5</v>
@@ -5938,10 +5959,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT26">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU26">
         <v>1.81</v>
@@ -6129,7 +6150,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT27">
         <v>1.5</v>
@@ -6233,7 +6254,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6514,7 +6535,7 @@
         <v>2.13</v>
       </c>
       <c r="AT29">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AU29">
         <v>1.29</v>
@@ -6615,7 +6636,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6705,7 +6726,7 @@
         <v>3</v>
       </c>
       <c r="AT30">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU30">
         <v>1.64</v>
@@ -6806,7 +6827,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -6896,7 +6917,7 @@
         <v>1.75</v>
       </c>
       <c r="AT31">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU31">
         <v>1.34</v>
@@ -7087,7 +7108,7 @@
         <v>0.63</v>
       </c>
       <c r="AT32">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU32">
         <v>1.22</v>
@@ -7188,7 +7209,7 @@
         <v>81</v>
       </c>
       <c r="P33" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7379,7 +7400,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7761,7 +7782,7 @@
         <v>81</v>
       </c>
       <c r="P36" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -7848,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT36">
         <v>1</v>
@@ -8039,7 +8060,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT37">
         <v>1.13</v>
@@ -8230,7 +8251,7 @@
         <v>0.33</v>
       </c>
       <c r="AS38">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT38">
         <v>0.38</v>
@@ -8334,7 +8355,7 @@
         <v>81</v>
       </c>
       <c r="P39" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8421,7 +8442,7 @@
         <v>2</v>
       </c>
       <c r="AS39">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT39">
         <v>1.13</v>
@@ -8716,7 +8737,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q41">
         <v>13</v>
@@ -8806,7 +8827,7 @@
         <v>1.38</v>
       </c>
       <c r="AT41">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AU41">
         <v>1.22</v>
@@ -8997,7 +9018,7 @@
         <v>3</v>
       </c>
       <c r="AT42">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU42">
         <v>1.68</v>
@@ -9376,10 +9397,10 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT44">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU44">
         <v>1.57</v>
@@ -9480,7 +9501,7 @@
         <v>111</v>
       </c>
       <c r="P45" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9671,7 +9692,7 @@
         <v>112</v>
       </c>
       <c r="P46" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9952,7 +9973,7 @@
         <v>2.5</v>
       </c>
       <c r="AT47">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU47">
         <v>3.04</v>
@@ -10244,7 +10265,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10331,10 +10352,10 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT49">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU49">
         <v>1.43</v>
@@ -10435,7 +10456,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10522,7 +10543,7 @@
         <v>0.33</v>
       </c>
       <c r="AS50">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT50">
         <v>0.5</v>
@@ -10626,7 +10647,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10817,7 +10838,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -10907,7 +10928,7 @@
         <v>1.5</v>
       </c>
       <c r="AT52">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU52">
         <v>1.85</v>
@@ -11390,7 +11411,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -11480,7 +11501,7 @@
         <v>2.13</v>
       </c>
       <c r="AT55">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU55">
         <v>1.49</v>
@@ -11668,7 +11689,7 @@
         <v>0.25</v>
       </c>
       <c r="AS56">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT56">
         <v>0.38</v>
@@ -11772,7 +11793,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -11859,10 +11880,10 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT57">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU57">
         <v>1.9</v>
@@ -11963,7 +11984,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12050,7 +12071,7 @@
         <v>2.33</v>
       </c>
       <c r="AS58">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT58">
         <v>2.29</v>
@@ -12154,7 +12175,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12345,7 +12366,7 @@
         <v>123</v>
       </c>
       <c r="P60" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12536,7 +12557,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -12623,7 +12644,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT61">
         <v>1</v>
@@ -12817,7 +12838,7 @@
         <v>0.63</v>
       </c>
       <c r="AT62">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU62">
         <v>1.5</v>
@@ -13005,10 +13026,10 @@
         <v>0.33</v>
       </c>
       <c r="AS63">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT63">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AU63">
         <v>1.37</v>
@@ -13199,7 +13220,7 @@
         <v>2.5</v>
       </c>
       <c r="AT64">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU64">
         <v>1.44</v>
@@ -13387,10 +13408,10 @@
         <v>1.5</v>
       </c>
       <c r="AS65">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT65">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU65">
         <v>2.05</v>
@@ -13578,7 +13599,7 @@
         <v>2.25</v>
       </c>
       <c r="AS66">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT66">
         <v>1.5</v>
@@ -13873,7 +13894,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -13963,7 +13984,7 @@
         <v>1.38</v>
       </c>
       <c r="AT68">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU68">
         <v>1.24</v>
@@ -14255,7 +14276,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14345,7 +14366,7 @@
         <v>2.13</v>
       </c>
       <c r="AT70">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU70">
         <v>1.63</v>
@@ -14533,10 +14554,10 @@
         <v>1.2</v>
       </c>
       <c r="AS71">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT71">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU71">
         <v>1.7</v>
@@ -14828,7 +14849,7 @@
         <v>81</v>
       </c>
       <c r="P73" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -14915,7 +14936,7 @@
         <v>2.5</v>
       </c>
       <c r="AS73">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT73">
         <v>2.29</v>
@@ -15210,7 +15231,7 @@
         <v>81</v>
       </c>
       <c r="P75" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q75">
         <v>1</v>
@@ -15297,7 +15318,7 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT75">
         <v>1.5</v>
@@ -15401,7 +15422,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15491,7 +15512,7 @@
         <v>0.63</v>
       </c>
       <c r="AT76">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AU76">
         <v>1.45</v>
@@ -15592,7 +15613,7 @@
         <v>81</v>
       </c>
       <c r="P77" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q77">
         <v>1</v>
@@ -15679,7 +15700,7 @@
         <v>0.2</v>
       </c>
       <c r="AS77">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT77">
         <v>0.5</v>
@@ -15873,7 +15894,7 @@
         <v>2.5</v>
       </c>
       <c r="AT78">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU78">
         <v>1.49</v>
@@ -15974,7 +15995,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16252,7 +16273,7 @@
         <v>2</v>
       </c>
       <c r="AS80">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT80">
         <v>1.5</v>
@@ -16443,10 +16464,10 @@
         <v>0</v>
       </c>
       <c r="AS81">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT81">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU81">
         <v>2.08</v>
@@ -16637,7 +16658,7 @@
         <v>2.5</v>
       </c>
       <c r="AT82">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU82">
         <v>2.83</v>
@@ -16738,7 +16759,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q83">
         <v>11</v>
@@ -16825,7 +16846,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT83">
         <v>1.13</v>
@@ -17019,7 +17040,7 @@
         <v>1.75</v>
       </c>
       <c r="AT84">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU84">
         <v>1.5</v>
@@ -17120,7 +17141,7 @@
         <v>140</v>
       </c>
       <c r="P85" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -17207,10 +17228,10 @@
         <v>0</v>
       </c>
       <c r="AS85">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT85">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU85">
         <v>1.61</v>
@@ -17311,7 +17332,7 @@
         <v>141</v>
       </c>
       <c r="P86" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17398,7 +17419,7 @@
         <v>0.67</v>
       </c>
       <c r="AS86">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT86">
         <v>0.5</v>
@@ -17884,7 +17905,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -17971,7 +17992,7 @@
         <v>1.4</v>
       </c>
       <c r="AS89">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT89">
         <v>1.5</v>
@@ -18075,7 +18096,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18356,7 +18377,7 @@
         <v>1.38</v>
       </c>
       <c r="AT91">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU91">
         <v>1.49</v>
@@ -18457,7 +18478,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q92">
         <v>2</v>
@@ -18544,7 +18565,7 @@
         <v>1.4</v>
       </c>
       <c r="AS92">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT92">
         <v>1</v>
@@ -18738,7 +18759,7 @@
         <v>0.75</v>
       </c>
       <c r="AT93">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU93">
         <v>1.3</v>
@@ -18926,10 +18947,10 @@
         <v>0.6</v>
       </c>
       <c r="AS94">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT94">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU94">
         <v>2.01</v>
@@ -19120,7 +19141,7 @@
         <v>2.5</v>
       </c>
       <c r="AT95">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AU95">
         <v>2.61</v>
@@ -19308,7 +19329,7 @@
         <v>1.17</v>
       </c>
       <c r="AS96">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT96">
         <v>1.13</v>
@@ -19603,7 +19624,7 @@
         <v>81</v>
       </c>
       <c r="P98" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19881,10 +19902,10 @@
         <v>1.33</v>
       </c>
       <c r="AS99">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT99">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU99">
         <v>2.23</v>
@@ -20072,10 +20093,10 @@
         <v>1.5</v>
       </c>
       <c r="AS100">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT100">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU100">
         <v>2.04</v>
@@ -20367,7 +20388,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q102">
         <v>7</v>
@@ -20454,7 +20475,7 @@
         <v>1.14</v>
       </c>
       <c r="AS102">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT102">
         <v>1.13</v>
@@ -20839,7 +20860,7 @@
         <v>3</v>
       </c>
       <c r="AT104">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU104">
         <v>1.62</v>
@@ -21030,7 +21051,7 @@
         <v>2.5</v>
       </c>
       <c r="AT105">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU105">
         <v>1.55</v>
@@ -21218,10 +21239,10 @@
         <v>1.2</v>
       </c>
       <c r="AS106">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT106">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU106">
         <v>1.54</v>
@@ -21409,7 +21430,7 @@
         <v>1.29</v>
       </c>
       <c r="AS107">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT107">
         <v>1.13</v>
@@ -21513,7 +21534,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -21704,7 +21725,7 @@
         <v>81</v>
       </c>
       <c r="P109" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q109">
         <v>3</v>
@@ -21794,7 +21815,7 @@
         <v>1.5</v>
       </c>
       <c r="AT109">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU109">
         <v>1.86</v>
@@ -21895,7 +21916,7 @@
         <v>157</v>
       </c>
       <c r="P110" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22277,7 +22298,7 @@
         <v>83</v>
       </c>
       <c r="P112" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22364,7 +22385,7 @@
         <v>1.67</v>
       </c>
       <c r="AS112">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT112">
         <v>1.5</v>
@@ -22659,7 +22680,7 @@
         <v>81</v>
       </c>
       <c r="P114" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q114">
         <v>4</v>
@@ -22746,10 +22767,10 @@
         <v>1.4</v>
       </c>
       <c r="AS114">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT114">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU114">
         <v>1.44</v>
@@ -22937,10 +22958,10 @@
         <v>0.17</v>
       </c>
       <c r="AS115">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT115">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AU115">
         <v>2.05</v>
@@ -23041,7 +23062,7 @@
         <v>92</v>
       </c>
       <c r="P116" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23131,7 +23152,7 @@
         <v>0.75</v>
       </c>
       <c r="AT116">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU116">
         <v>1.3</v>
@@ -23232,7 +23253,7 @@
         <v>112</v>
       </c>
       <c r="P117" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -23319,10 +23340,10 @@
         <v>0.17</v>
       </c>
       <c r="AS117">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT117">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU117">
         <v>1.04</v>
@@ -23614,7 +23635,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23704,7 +23725,7 @@
         <v>1.75</v>
       </c>
       <c r="AT119">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU119">
         <v>1.72</v>
@@ -23805,7 +23826,7 @@
         <v>161</v>
       </c>
       <c r="P120" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
       <c r="Q120">
         <v>10</v>
@@ -23892,7 +23913,7 @@
         <v>1.14</v>
       </c>
       <c r="AS120">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT120">
         <v>1</v>
@@ -24138,6 +24159,1343 @@
       </c>
       <c r="BK121">
         <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:63">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>2433455</v>
+      </c>
+      <c r="C122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>64</v>
+      </c>
+      <c r="E122" s="2">
+        <v>44864.32291666666</v>
+      </c>
+      <c r="F122">
+        <v>16</v>
+      </c>
+      <c r="G122" t="s">
+        <v>80</v>
+      </c>
+      <c r="H122" t="s">
+        <v>71</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>2</v>
+      </c>
+      <c r="M122">
+        <v>2</v>
+      </c>
+      <c r="N122">
+        <v>4</v>
+      </c>
+      <c r="O122" t="s">
+        <v>162</v>
+      </c>
+      <c r="P122" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q122">
+        <v>6</v>
+      </c>
+      <c r="R122">
+        <v>3</v>
+      </c>
+      <c r="S122">
+        <v>9</v>
+      </c>
+      <c r="T122">
+        <v>1.67</v>
+      </c>
+      <c r="U122">
+        <v>2.4</v>
+      </c>
+      <c r="V122">
+        <v>9.5</v>
+      </c>
+      <c r="W122">
+        <v>1.36</v>
+      </c>
+      <c r="X122">
+        <v>3</v>
+      </c>
+      <c r="Y122">
+        <v>2.5</v>
+      </c>
+      <c r="Z122">
+        <v>1.5</v>
+      </c>
+      <c r="AA122">
+        <v>6</v>
+      </c>
+      <c r="AB122">
+        <v>1.11</v>
+      </c>
+      <c r="AC122">
+        <v>1.25</v>
+      </c>
+      <c r="AD122">
+        <v>5.2</v>
+      </c>
+      <c r="AE122">
+        <v>9.5</v>
+      </c>
+      <c r="AF122">
+        <v>1.05</v>
+      </c>
+      <c r="AG122">
+        <v>9</v>
+      </c>
+      <c r="AH122">
+        <v>1.25</v>
+      </c>
+      <c r="AI122">
+        <v>3.75</v>
+      </c>
+      <c r="AJ122">
+        <v>1.82</v>
+      </c>
+      <c r="AK122">
+        <v>1.93</v>
+      </c>
+      <c r="AL122">
+        <v>2.25</v>
+      </c>
+      <c r="AM122">
+        <v>1.6</v>
+      </c>
+      <c r="AN122">
+        <v>1.04</v>
+      </c>
+      <c r="AO122">
+        <v>1.17</v>
+      </c>
+      <c r="AP122">
+        <v>3.2</v>
+      </c>
+      <c r="AQ122">
+        <v>2.67</v>
+      </c>
+      <c r="AR122">
+        <v>0.14</v>
+      </c>
+      <c r="AS122">
+        <v>2.43</v>
+      </c>
+      <c r="AT122">
+        <v>0.25</v>
+      </c>
+      <c r="AU122">
+        <v>1.74</v>
+      </c>
+      <c r="AV122">
+        <v>0.98</v>
+      </c>
+      <c r="AW122">
+        <v>2.72</v>
+      </c>
+      <c r="AX122">
+        <v>0</v>
+      </c>
+      <c r="AY122">
+        <v>0</v>
+      </c>
+      <c r="AZ122">
+        <v>0</v>
+      </c>
+      <c r="BA122">
+        <v>0</v>
+      </c>
+      <c r="BB122">
+        <v>0</v>
+      </c>
+      <c r="BC122">
+        <v>0</v>
+      </c>
+      <c r="BD122">
+        <v>0</v>
+      </c>
+      <c r="BE122">
+        <v>0</v>
+      </c>
+      <c r="BF122">
+        <v>6</v>
+      </c>
+      <c r="BG122">
+        <v>3</v>
+      </c>
+      <c r="BH122">
+        <v>9</v>
+      </c>
+      <c r="BI122">
+        <v>4</v>
+      </c>
+      <c r="BJ122">
+        <v>15</v>
+      </c>
+      <c r="BK122">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:63">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>2433451</v>
+      </c>
+      <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" t="s">
+        <v>64</v>
+      </c>
+      <c r="E123" s="2">
+        <v>44864.42708333334</v>
+      </c>
+      <c r="F123">
+        <v>16</v>
+      </c>
+      <c r="G123" t="s">
+        <v>78</v>
+      </c>
+      <c r="H123" t="s">
+        <v>65</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>2</v>
+      </c>
+      <c r="N123">
+        <v>3</v>
+      </c>
+      <c r="O123" t="s">
+        <v>163</v>
+      </c>
+      <c r="P123" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q123">
+        <v>1</v>
+      </c>
+      <c r="R123">
+        <v>6</v>
+      </c>
+      <c r="S123">
+        <v>7</v>
+      </c>
+      <c r="T123">
+        <v>5.5</v>
+      </c>
+      <c r="U123">
+        <v>2.25</v>
+      </c>
+      <c r="V123">
+        <v>2</v>
+      </c>
+      <c r="W123">
+        <v>1.36</v>
+      </c>
+      <c r="X123">
+        <v>3</v>
+      </c>
+      <c r="Y123">
+        <v>2.62</v>
+      </c>
+      <c r="Z123">
+        <v>1.44</v>
+      </c>
+      <c r="AA123">
+        <v>6</v>
+      </c>
+      <c r="AB123">
+        <v>1.11</v>
+      </c>
+      <c r="AC123">
+        <v>5.4</v>
+      </c>
+      <c r="AD123">
+        <v>3.8</v>
+      </c>
+      <c r="AE123">
+        <v>1.54</v>
+      </c>
+      <c r="AF123">
+        <v>1.05</v>
+      </c>
+      <c r="AG123">
+        <v>9</v>
+      </c>
+      <c r="AH123">
+        <v>1.29</v>
+      </c>
+      <c r="AI123">
+        <v>3.5</v>
+      </c>
+      <c r="AJ123">
+        <v>1.77</v>
+      </c>
+      <c r="AK123">
+        <v>1.96</v>
+      </c>
+      <c r="AL123">
+        <v>1.91</v>
+      </c>
+      <c r="AM123">
+        <v>1.8</v>
+      </c>
+      <c r="AN123">
+        <v>2.38</v>
+      </c>
+      <c r="AO123">
+        <v>1.25</v>
+      </c>
+      <c r="AP123">
+        <v>1.11</v>
+      </c>
+      <c r="AQ123">
+        <v>0.71</v>
+      </c>
+      <c r="AR123">
+        <v>0.14</v>
+      </c>
+      <c r="AS123">
+        <v>0.63</v>
+      </c>
+      <c r="AT123">
+        <v>0.5</v>
+      </c>
+      <c r="AU123">
+        <v>1.05</v>
+      </c>
+      <c r="AV123">
+        <v>1.62</v>
+      </c>
+      <c r="AW123">
+        <v>2.67</v>
+      </c>
+      <c r="AX123">
+        <v>0</v>
+      </c>
+      <c r="AY123">
+        <v>0</v>
+      </c>
+      <c r="AZ123">
+        <v>0</v>
+      </c>
+      <c r="BA123">
+        <v>0</v>
+      </c>
+      <c r="BB123">
+        <v>0</v>
+      </c>
+      <c r="BC123">
+        <v>0</v>
+      </c>
+      <c r="BD123">
+        <v>0</v>
+      </c>
+      <c r="BE123">
+        <v>0</v>
+      </c>
+      <c r="BF123">
+        <v>3</v>
+      </c>
+      <c r="BG123">
+        <v>4</v>
+      </c>
+      <c r="BH123">
+        <v>2</v>
+      </c>
+      <c r="BI123">
+        <v>3</v>
+      </c>
+      <c r="BJ123">
+        <v>5</v>
+      </c>
+      <c r="BK123">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:63">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>2433452</v>
+      </c>
+      <c r="C124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="2">
+        <v>44864.53125</v>
+      </c>
+      <c r="F124">
+        <v>16</v>
+      </c>
+      <c r="G124" t="s">
+        <v>74</v>
+      </c>
+      <c r="H124" t="s">
+        <v>66</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>2</v>
+      </c>
+      <c r="L124">
+        <v>3</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>4</v>
+      </c>
+      <c r="O124" t="s">
+        <v>164</v>
+      </c>
+      <c r="P124" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q124">
+        <v>9</v>
+      </c>
+      <c r="R124">
+        <v>2</v>
+      </c>
+      <c r="S124">
+        <v>11</v>
+      </c>
+      <c r="T124">
+        <v>1.5</v>
+      </c>
+      <c r="U124">
+        <v>2.88</v>
+      </c>
+      <c r="V124">
+        <v>9</v>
+      </c>
+      <c r="W124">
+        <v>1.25</v>
+      </c>
+      <c r="X124">
+        <v>3.75</v>
+      </c>
+      <c r="Y124">
+        <v>2</v>
+      </c>
+      <c r="Z124">
+        <v>1.73</v>
+      </c>
+      <c r="AA124">
+        <v>4.5</v>
+      </c>
+      <c r="AB124">
+        <v>1.17</v>
+      </c>
+      <c r="AC124">
+        <v>1.1</v>
+      </c>
+      <c r="AD124">
+        <v>6.9</v>
+      </c>
+      <c r="AE124">
+        <v>15</v>
+      </c>
+      <c r="AF124">
+        <v>1.02</v>
+      </c>
+      <c r="AG124">
+        <v>12</v>
+      </c>
+      <c r="AH124">
+        <v>1.17</v>
+      </c>
+      <c r="AI124">
+        <v>4.5</v>
+      </c>
+      <c r="AJ124">
+        <v>1.45</v>
+      </c>
+      <c r="AK124">
+        <v>2.65</v>
+      </c>
+      <c r="AL124">
+        <v>2.3</v>
+      </c>
+      <c r="AM124">
+        <v>1.57</v>
+      </c>
+      <c r="AN124">
+        <v>1.02</v>
+      </c>
+      <c r="AO124">
+        <v>1.1</v>
+      </c>
+      <c r="AP124">
+        <v>4.75</v>
+      </c>
+      <c r="AQ124">
+        <v>2.67</v>
+      </c>
+      <c r="AR124">
+        <v>0.86</v>
+      </c>
+      <c r="AS124">
+        <v>2.71</v>
+      </c>
+      <c r="AT124">
+        <v>0.75</v>
+      </c>
+      <c r="AU124">
+        <v>2.01</v>
+      </c>
+      <c r="AV124">
+        <v>1.3</v>
+      </c>
+      <c r="AW124">
+        <v>3.31</v>
+      </c>
+      <c r="AX124">
+        <v>1.19</v>
+      </c>
+      <c r="AY124">
+        <v>10</v>
+      </c>
+      <c r="AZ124">
+        <v>7.6</v>
+      </c>
+      <c r="BA124">
+        <v>0</v>
+      </c>
+      <c r="BB124">
+        <v>1.57</v>
+      </c>
+      <c r="BC124">
+        <v>1.95</v>
+      </c>
+      <c r="BD124">
+        <v>2.55</v>
+      </c>
+      <c r="BE124">
+        <v>0</v>
+      </c>
+      <c r="BF124">
+        <v>8</v>
+      </c>
+      <c r="BG124">
+        <v>3</v>
+      </c>
+      <c r="BH124">
+        <v>13</v>
+      </c>
+      <c r="BI124">
+        <v>2</v>
+      </c>
+      <c r="BJ124">
+        <v>21</v>
+      </c>
+      <c r="BK124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:63">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>2433450</v>
+      </c>
+      <c r="C125" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="2">
+        <v>44865.52083333334</v>
+      </c>
+      <c r="F125">
+        <v>16</v>
+      </c>
+      <c r="G125" t="s">
+        <v>73</v>
+      </c>
+      <c r="H125" t="s">
+        <v>72</v>
+      </c>
+      <c r="I125">
+        <v>2</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>2</v>
+      </c>
+      <c r="L125">
+        <v>2</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>2</v>
+      </c>
+      <c r="O125" t="s">
+        <v>165</v>
+      </c>
+      <c r="P125" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q125">
+        <v>5</v>
+      </c>
+      <c r="R125">
+        <v>5</v>
+      </c>
+      <c r="S125">
+        <v>10</v>
+      </c>
+      <c r="T125">
+        <v>3.18</v>
+      </c>
+      <c r="U125">
+        <v>2</v>
+      </c>
+      <c r="V125">
+        <v>3.38</v>
+      </c>
+      <c r="W125">
+        <v>1.48</v>
+      </c>
+      <c r="X125">
+        <v>2.5</v>
+      </c>
+      <c r="Y125">
+        <v>3</v>
+      </c>
+      <c r="Z125">
+        <v>1.36</v>
+      </c>
+      <c r="AA125">
+        <v>7.5</v>
+      </c>
+      <c r="AB125">
+        <v>1.07</v>
+      </c>
+      <c r="AC125">
+        <v>2.38</v>
+      </c>
+      <c r="AD125">
+        <v>3.2</v>
+      </c>
+      <c r="AE125">
+        <v>2.85</v>
+      </c>
+      <c r="AF125">
+        <v>1.08</v>
+      </c>
+      <c r="AG125">
+        <v>7</v>
+      </c>
+      <c r="AH125">
+        <v>1.4</v>
+      </c>
+      <c r="AI125">
+        <v>2.8</v>
+      </c>
+      <c r="AJ125">
+        <v>2.14</v>
+      </c>
+      <c r="AK125">
+        <v>1.66</v>
+      </c>
+      <c r="AL125">
+        <v>1.85</v>
+      </c>
+      <c r="AM125">
+        <v>1.83</v>
+      </c>
+      <c r="AN125">
+        <v>1.44</v>
+      </c>
+      <c r="AO125">
+        <v>1.33</v>
+      </c>
+      <c r="AP125">
+        <v>1.44</v>
+      </c>
+      <c r="AQ125">
+        <v>1</v>
+      </c>
+      <c r="AR125">
+        <v>0.29</v>
+      </c>
+      <c r="AS125">
+        <v>1.25</v>
+      </c>
+      <c r="AT125">
+        <v>0.25</v>
+      </c>
+      <c r="AU125">
+        <v>1.41</v>
+      </c>
+      <c r="AV125">
+        <v>1.21</v>
+      </c>
+      <c r="AW125">
+        <v>2.62</v>
+      </c>
+      <c r="AX125">
+        <v>0</v>
+      </c>
+      <c r="AY125">
+        <v>0</v>
+      </c>
+      <c r="AZ125">
+        <v>0</v>
+      </c>
+      <c r="BA125">
+        <v>0</v>
+      </c>
+      <c r="BB125">
+        <v>0</v>
+      </c>
+      <c r="BC125">
+        <v>0</v>
+      </c>
+      <c r="BD125">
+        <v>0</v>
+      </c>
+      <c r="BE125">
+        <v>0</v>
+      </c>
+      <c r="BF125">
+        <v>7</v>
+      </c>
+      <c r="BG125">
+        <v>0</v>
+      </c>
+      <c r="BH125">
+        <v>4</v>
+      </c>
+      <c r="BI125">
+        <v>4</v>
+      </c>
+      <c r="BJ125">
+        <v>11</v>
+      </c>
+      <c r="BK125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:63">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>2433378</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="2">
+        <v>44866.51041666666</v>
+      </c>
+      <c r="F126">
+        <v>7</v>
+      </c>
+      <c r="G126" t="s">
+        <v>67</v>
+      </c>
+      <c r="H126" t="s">
+        <v>70</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <v>1</v>
+      </c>
+      <c r="O126" t="s">
+        <v>81</v>
+      </c>
+      <c r="P126" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q126">
+        <v>8</v>
+      </c>
+      <c r="R126">
+        <v>1</v>
+      </c>
+      <c r="S126">
+        <v>9</v>
+      </c>
+      <c r="T126">
+        <v>3.98</v>
+      </c>
+      <c r="U126">
+        <v>2.01</v>
+      </c>
+      <c r="V126">
+        <v>2.76</v>
+      </c>
+      <c r="W126">
+        <v>1.5</v>
+      </c>
+      <c r="X126">
+        <v>2.5</v>
+      </c>
+      <c r="Y126">
+        <v>3.4</v>
+      </c>
+      <c r="Z126">
+        <v>1.3</v>
+      </c>
+      <c r="AA126">
+        <v>10</v>
+      </c>
+      <c r="AB126">
+        <v>1.06</v>
+      </c>
+      <c r="AC126">
+        <v>3.3</v>
+      </c>
+      <c r="AD126">
+        <v>2.88</v>
+      </c>
+      <c r="AE126">
+        <v>2.2</v>
+      </c>
+      <c r="AF126">
+        <v>1.04</v>
+      </c>
+      <c r="AG126">
+        <v>7.8</v>
+      </c>
+      <c r="AH126">
+        <v>1.38</v>
+      </c>
+      <c r="AI126">
+        <v>2.99</v>
+      </c>
+      <c r="AJ126">
+        <v>2.2</v>
+      </c>
+      <c r="AK126">
+        <v>1.62</v>
+      </c>
+      <c r="AL126">
+        <v>1.91</v>
+      </c>
+      <c r="AM126">
+        <v>1.8</v>
+      </c>
+      <c r="AN126">
+        <v>1.62</v>
+      </c>
+      <c r="AO126">
+        <v>1.28</v>
+      </c>
+      <c r="AP126">
+        <v>1.31</v>
+      </c>
+      <c r="AQ126">
+        <v>2.57</v>
+      </c>
+      <c r="AR126">
+        <v>1.86</v>
+      </c>
+      <c r="AS126">
+        <v>2.25</v>
+      </c>
+      <c r="AT126">
+        <v>2</v>
+      </c>
+      <c r="AU126">
+        <v>1.58</v>
+      </c>
+      <c r="AV126">
+        <v>1.42</v>
+      </c>
+      <c r="AW126">
+        <v>3</v>
+      </c>
+      <c r="AX126">
+        <v>2.38</v>
+      </c>
+      <c r="AY126">
+        <v>7.4</v>
+      </c>
+      <c r="AZ126">
+        <v>1.8</v>
+      </c>
+      <c r="BA126">
+        <v>0</v>
+      </c>
+      <c r="BB126">
+        <v>1.41</v>
+      </c>
+      <c r="BC126">
+        <v>1.75</v>
+      </c>
+      <c r="BD126">
+        <v>2.21</v>
+      </c>
+      <c r="BE126">
+        <v>2.89</v>
+      </c>
+      <c r="BF126">
+        <v>6</v>
+      </c>
+      <c r="BG126">
+        <v>2</v>
+      </c>
+      <c r="BH126">
+        <v>13</v>
+      </c>
+      <c r="BI126">
+        <v>4</v>
+      </c>
+      <c r="BJ126">
+        <v>19</v>
+      </c>
+      <c r="BK126">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:63">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>2433352</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="2">
+        <v>44867.51041666666</v>
+      </c>
+      <c r="F127">
+        <v>4</v>
+      </c>
+      <c r="G127" t="s">
+        <v>76</v>
+      </c>
+      <c r="H127" t="s">
+        <v>75</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127" t="s">
+        <v>81</v>
+      </c>
+      <c r="P127" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q127">
+        <v>3</v>
+      </c>
+      <c r="R127">
+        <v>6</v>
+      </c>
+      <c r="S127">
+        <v>9</v>
+      </c>
+      <c r="T127">
+        <v>3.75</v>
+      </c>
+      <c r="U127">
+        <v>1.95</v>
+      </c>
+      <c r="V127">
+        <v>3.4</v>
+      </c>
+      <c r="W127">
+        <v>1.53</v>
+      </c>
+      <c r="X127">
+        <v>2.38</v>
+      </c>
+      <c r="Y127">
+        <v>3.75</v>
+      </c>
+      <c r="Z127">
+        <v>1.25</v>
+      </c>
+      <c r="AA127">
+        <v>11</v>
+      </c>
+      <c r="AB127">
+        <v>1.05</v>
+      </c>
+      <c r="AC127">
+        <v>3.4</v>
+      </c>
+      <c r="AD127">
+        <v>3.1</v>
+      </c>
+      <c r="AE127">
+        <v>2.1</v>
+      </c>
+      <c r="AF127">
+        <v>1.11</v>
+      </c>
+      <c r="AG127">
+        <v>6.24</v>
+      </c>
+      <c r="AH127">
+        <v>1.47</v>
+      </c>
+      <c r="AI127">
+        <v>2.55</v>
+      </c>
+      <c r="AJ127">
+        <v>2.2</v>
+      </c>
+      <c r="AK127">
+        <v>1.6</v>
+      </c>
+      <c r="AL127">
+        <v>2.1</v>
+      </c>
+      <c r="AM127">
+        <v>1.67</v>
+      </c>
+      <c r="AN127">
+        <v>1.47</v>
+      </c>
+      <c r="AO127">
+        <v>1.3</v>
+      </c>
+      <c r="AP127">
+        <v>1.3</v>
+      </c>
+      <c r="AQ127">
+        <v>2.29</v>
+      </c>
+      <c r="AR127">
+        <v>1.17</v>
+      </c>
+      <c r="AS127">
+        <v>2.13</v>
+      </c>
+      <c r="AT127">
+        <v>1.14</v>
+      </c>
+      <c r="AU127">
+        <v>1.86</v>
+      </c>
+      <c r="AV127">
+        <v>2.17</v>
+      </c>
+      <c r="AW127">
+        <v>4.03</v>
+      </c>
+      <c r="AX127">
+        <v>2.19</v>
+      </c>
+      <c r="AY127">
+        <v>7.4</v>
+      </c>
+      <c r="AZ127">
+        <v>1.97</v>
+      </c>
+      <c r="BA127">
+        <v>1.31</v>
+      </c>
+      <c r="BB127">
+        <v>1.58</v>
+      </c>
+      <c r="BC127">
+        <v>1.95</v>
+      </c>
+      <c r="BD127">
+        <v>2.45</v>
+      </c>
+      <c r="BE127">
+        <v>3.3</v>
+      </c>
+      <c r="BF127">
+        <v>0</v>
+      </c>
+      <c r="BG127">
+        <v>3</v>
+      </c>
+      <c r="BH127">
+        <v>3</v>
+      </c>
+      <c r="BI127">
+        <v>4</v>
+      </c>
+      <c r="BJ127">
+        <v>3</v>
+      </c>
+      <c r="BK127">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:63">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>2433460</v>
+      </c>
+      <c r="C128" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" t="s">
+        <v>64</v>
+      </c>
+      <c r="E128" s="2">
+        <v>44869.5</v>
+      </c>
+      <c r="F128">
+        <v>17</v>
+      </c>
+      <c r="G128" t="s">
+        <v>66</v>
+      </c>
+      <c r="H128" t="s">
+        <v>78</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>2</v>
+      </c>
+      <c r="O128" t="s">
+        <v>166</v>
+      </c>
+      <c r="P128" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q128">
+        <v>6</v>
+      </c>
+      <c r="R128">
+        <v>4</v>
+      </c>
+      <c r="S128">
+        <v>10</v>
+      </c>
+      <c r="T128">
+        <v>2.5</v>
+      </c>
+      <c r="U128">
+        <v>2.05</v>
+      </c>
+      <c r="V128">
+        <v>4.2</v>
+      </c>
+      <c r="W128">
+        <v>1.4</v>
+      </c>
+      <c r="X128">
+        <v>2.75</v>
+      </c>
+      <c r="Y128">
+        <v>3</v>
+      </c>
+      <c r="Z128">
+        <v>1.36</v>
+      </c>
+      <c r="AA128">
+        <v>7</v>
+      </c>
+      <c r="AB128">
+        <v>1.08</v>
+      </c>
+      <c r="AC128">
+        <v>1.8</v>
+      </c>
+      <c r="AD128">
+        <v>3.3</v>
+      </c>
+      <c r="AE128">
+        <v>3.45</v>
+      </c>
+      <c r="AF128">
+        <v>1.07</v>
+      </c>
+      <c r="AG128">
+        <v>7.5</v>
+      </c>
+      <c r="AH128">
+        <v>1.36</v>
+      </c>
+      <c r="AI128">
+        <v>3</v>
+      </c>
+      <c r="AJ128">
+        <v>2.05</v>
+      </c>
+      <c r="AK128">
+        <v>1.73</v>
+      </c>
+      <c r="AL128">
+        <v>1.91</v>
+      </c>
+      <c r="AM128">
+        <v>1.8</v>
+      </c>
+      <c r="AN128">
+        <v>1.22</v>
+      </c>
+      <c r="AO128">
+        <v>1.29</v>
+      </c>
+      <c r="AP128">
+        <v>1.83</v>
+      </c>
+      <c r="AQ128">
+        <v>0.88</v>
+      </c>
+      <c r="AR128">
+        <v>0.75</v>
+      </c>
+      <c r="AS128">
+        <v>0.89</v>
+      </c>
+      <c r="AT128">
+        <v>0.78</v>
+      </c>
+      <c r="AU128">
+        <v>1.43</v>
+      </c>
+      <c r="AV128">
+        <v>0.87</v>
+      </c>
+      <c r="AW128">
+        <v>2.3</v>
+      </c>
+      <c r="AX128">
+        <v>1.54</v>
+      </c>
+      <c r="AY128">
+        <v>8.5</v>
+      </c>
+      <c r="AZ128">
+        <v>3.26</v>
+      </c>
+      <c r="BA128">
+        <v>1.32</v>
+      </c>
+      <c r="BB128">
+        <v>1.62</v>
+      </c>
+      <c r="BC128">
+        <v>2.1</v>
+      </c>
+      <c r="BD128">
+        <v>2.8</v>
+      </c>
+      <c r="BE128">
+        <v>3.8</v>
+      </c>
+      <c r="BF128">
+        <v>4</v>
+      </c>
+      <c r="BG128">
+        <v>4</v>
+      </c>
+      <c r="BH128">
+        <v>10</v>
+      </c>
+      <c r="BI128">
+        <v>6</v>
+      </c>
+      <c r="BJ128">
+        <v>14</v>
+      </c>
+      <c r="BK128">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="241">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -517,6 +517,36 @@
     <t>['75']</t>
   </si>
   <si>
+    <t>['13', '18', '59', '59', '67', '83']</t>
+  </si>
+  <si>
+    <t>['55', '82']</t>
+  </si>
+  <si>
+    <t>['47', '68']</t>
+  </si>
+  <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['48', '66']</t>
+  </si>
+  <si>
+    <t>['4', '64']</t>
+  </si>
+  <si>
+    <t>['13', '34', '54']</t>
+  </si>
+  <si>
+    <t>['68', '90+5']</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['80']</t>
+  </si>
+  <si>
     <t>['78']</t>
   </si>
   <si>
@@ -683,6 +713,30 @@
   </si>
   <si>
     <t>['25']</t>
+  </si>
+  <si>
+    <t>['25', '51']</t>
+  </si>
+  <si>
+    <t>['19', '28', '38']</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>['64', '74']</t>
+  </si>
+  <si>
+    <t>['77', '89']</t>
+  </si>
+  <si>
+    <t>['30', '62']</t>
+  </si>
+  <si>
+    <t>['60', '66']</t>
+  </si>
+  <si>
+    <t>['83']</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1098,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK128"/>
+  <dimension ref="A1:BK143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1288,7 +1342,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1375,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT2">
         <v>0.78</v>
@@ -1479,7 +1533,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1569,7 +1623,7 @@
         <v>0.89</v>
       </c>
       <c r="AT3">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1670,7 +1724,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1757,10 +1811,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT4">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1948,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT5">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2052,7 +2106,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2139,10 +2193,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT6">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2330,10 +2384,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AT7">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2521,10 +2575,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT8">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2625,7 +2679,7 @@
         <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2712,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT9">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2816,7 +2870,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2903,10 +2957,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT10">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3094,10 +3148,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT11">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3198,7 +3252,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3285,10 +3339,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT12">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU12">
         <v>1.23</v>
@@ -3476,10 +3530,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AT13">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3667,10 +3721,10 @@
         <v>3</v>
       </c>
       <c r="AS14">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT14">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3771,7 +3825,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3858,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT15">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3962,7 +4016,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4049,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT16">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4240,10 +4294,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT17">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4344,7 +4398,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4431,10 +4485,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT18">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU18">
         <v>0.97</v>
@@ -4535,7 +4589,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -4622,10 +4676,10 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT19">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU19">
         <v>0.96</v>
@@ -4813,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT20">
         <v>1</v>
@@ -4917,7 +4971,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5004,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT21">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU21">
         <v>2.4</v>
@@ -5108,7 +5162,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5195,7 +5249,7 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT22">
         <v>0.78</v>
@@ -5389,7 +5443,7 @@
         <v>0.89</v>
       </c>
       <c r="AT23">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU23">
         <v>0.78</v>
@@ -5577,10 +5631,10 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AT24">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU24">
         <v>1.75</v>
@@ -5681,7 +5735,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -5768,10 +5822,10 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT25">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU25">
         <v>1.07</v>
@@ -5959,10 +6013,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT26">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU26">
         <v>1.81</v>
@@ -6150,10 +6204,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT27">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU27">
         <v>1.65</v>
@@ -6254,7 +6308,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6341,10 +6395,10 @@
         <v>1.5</v>
       </c>
       <c r="AS28">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT28">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU28">
         <v>0.9399999999999999</v>
@@ -6532,10 +6586,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT29">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU29">
         <v>1.29</v>
@@ -6636,7 +6690,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6723,10 +6777,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AT30">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU30">
         <v>1.64</v>
@@ -6827,7 +6881,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -6914,10 +6968,10 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT31">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU31">
         <v>1.34</v>
@@ -7105,7 +7159,7 @@
         <v>1.5</v>
       </c>
       <c r="AS32">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT32">
         <v>0.78</v>
@@ -7209,7 +7263,7 @@
         <v>81</v>
       </c>
       <c r="P33" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7296,10 +7350,10 @@
         <v>1.5</v>
       </c>
       <c r="AS33">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT33">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU33">
         <v>1.33</v>
@@ -7400,7 +7454,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7487,10 +7541,10 @@
         <v>0.5</v>
       </c>
       <c r="AS34">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT34">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU34">
         <v>1.22</v>
@@ -7678,10 +7732,10 @@
         <v>0.5</v>
       </c>
       <c r="AS35">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AT35">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU35">
         <v>3.77</v>
@@ -7782,7 +7836,7 @@
         <v>81</v>
       </c>
       <c r="P36" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8060,10 +8114,10 @@
         <v>1.5</v>
       </c>
       <c r="AS37">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT37">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU37">
         <v>1.6</v>
@@ -8251,10 +8305,10 @@
         <v>0.33</v>
       </c>
       <c r="AS38">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT38">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU38">
         <v>1.46</v>
@@ -8355,7 +8409,7 @@
         <v>81</v>
       </c>
       <c r="P39" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8442,10 +8496,10 @@
         <v>2</v>
       </c>
       <c r="AS39">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT39">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU39">
         <v>1.05</v>
@@ -8633,10 +8687,10 @@
         <v>2</v>
       </c>
       <c r="AS40">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT40">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU40">
         <v>1.51</v>
@@ -8737,7 +8791,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="Q41">
         <v>13</v>
@@ -8824,10 +8878,10 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT41">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU41">
         <v>1.22</v>
@@ -9015,10 +9069,10 @@
         <v>1.5</v>
       </c>
       <c r="AS42">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AT42">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU42">
         <v>1.68</v>
@@ -9206,10 +9260,10 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT43">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU43">
         <v>1.44</v>
@@ -9397,10 +9451,10 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT44">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU44">
         <v>1.57</v>
@@ -9501,7 +9555,7 @@
         <v>111</v>
       </c>
       <c r="P45" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9588,10 +9642,10 @@
         <v>2</v>
       </c>
       <c r="AS45">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT45">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU45">
         <v>2.02</v>
@@ -9692,7 +9746,7 @@
         <v>112</v>
       </c>
       <c r="P46" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9779,10 +9833,10 @@
         <v>1</v>
       </c>
       <c r="AS46">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT46">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU46">
         <v>1.55</v>
@@ -9970,7 +10024,7 @@
         <v>2</v>
       </c>
       <c r="AS47">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AT47">
         <v>0.78</v>
@@ -10161,7 +10215,7 @@
         <v>2</v>
       </c>
       <c r="AS48">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT48">
         <v>1</v>
@@ -10265,7 +10319,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10355,7 +10409,7 @@
         <v>0.89</v>
       </c>
       <c r="AT49">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU49">
         <v>1.43</v>
@@ -10456,7 +10510,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10543,10 +10597,10 @@
         <v>0.33</v>
       </c>
       <c r="AS50">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT50">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU50">
         <v>0</v>
@@ -10647,7 +10701,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10734,10 +10788,10 @@
         <v>2</v>
       </c>
       <c r="AS51">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT51">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU51">
         <v>1</v>
@@ -10838,7 +10892,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -10925,10 +10979,10 @@
         <v>1</v>
       </c>
       <c r="AS52">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT52">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU52">
         <v>1.85</v>
@@ -11116,10 +11170,10 @@
         <v>1.33</v>
       </c>
       <c r="AS53">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT53">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU53">
         <v>1.26</v>
@@ -11307,10 +11361,10 @@
         <v>2.25</v>
       </c>
       <c r="AS54">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT54">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU54">
         <v>1.59</v>
@@ -11411,7 +11465,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -11498,10 +11552,10 @@
         <v>0</v>
       </c>
       <c r="AS55">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT55">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU55">
         <v>1.49</v>
@@ -11689,10 +11743,10 @@
         <v>0.25</v>
       </c>
       <c r="AS56">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT56">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU56">
         <v>0.96</v>
@@ -11793,7 +11847,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -11880,10 +11934,10 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT57">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU57">
         <v>1.9</v>
@@ -11984,7 +12038,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12071,10 +12125,10 @@
         <v>2.33</v>
       </c>
       <c r="AS58">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT58">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU58">
         <v>1.54</v>
@@ -12175,7 +12229,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12262,10 +12316,10 @@
         <v>2.33</v>
       </c>
       <c r="AS59">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AT59">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU59">
         <v>1.69</v>
@@ -12366,7 +12420,7 @@
         <v>123</v>
       </c>
       <c r="P60" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12453,10 +12507,10 @@
         <v>0.25</v>
       </c>
       <c r="AS60">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT60">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU60">
         <v>0.97</v>
@@ -12557,7 +12611,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -12644,7 +12698,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT61">
         <v>1</v>
@@ -12835,10 +12889,10 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT62">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU62">
         <v>1.5</v>
@@ -13026,10 +13080,10 @@
         <v>0.33</v>
       </c>
       <c r="AS63">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT63">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU63">
         <v>1.37</v>
@@ -13217,10 +13271,10 @@
         <v>0</v>
       </c>
       <c r="AS64">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT64">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU64">
         <v>1.44</v>
@@ -13408,7 +13462,7 @@
         <v>1.5</v>
       </c>
       <c r="AS65">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT65">
         <v>0.78</v>
@@ -13602,7 +13656,7 @@
         <v>0.89</v>
       </c>
       <c r="AT66">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU66">
         <v>1.66</v>
@@ -13790,10 +13844,10 @@
         <v>1.5</v>
       </c>
       <c r="AS67">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AT67">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU67">
         <v>3.06</v>
@@ -13894,7 +13948,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -13981,10 +14035,10 @@
         <v>0</v>
       </c>
       <c r="AS68">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT68">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU68">
         <v>1.24</v>
@@ -14172,10 +14226,10 @@
         <v>1.75</v>
       </c>
       <c r="AS69">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT69">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU69">
         <v>1.9</v>
@@ -14276,7 +14330,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14363,10 +14417,10 @@
         <v>1.5</v>
       </c>
       <c r="AS70">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT70">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU70">
         <v>1.63</v>
@@ -14554,7 +14608,7 @@
         <v>1.2</v>
       </c>
       <c r="AS71">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT71">
         <v>0.78</v>
@@ -14745,10 +14799,10 @@
         <v>1.8</v>
       </c>
       <c r="AS72">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AT72">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU72">
         <v>1.73</v>
@@ -14849,7 +14903,7 @@
         <v>81</v>
       </c>
       <c r="P73" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -14936,10 +14990,10 @@
         <v>2.5</v>
       </c>
       <c r="AS73">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT73">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU73">
         <v>1.65</v>
@@ -15127,10 +15181,10 @@
         <v>0.4</v>
       </c>
       <c r="AS74">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT74">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU74">
         <v>1.52</v>
@@ -15231,7 +15285,7 @@
         <v>81</v>
       </c>
       <c r="P75" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="Q75">
         <v>1</v>
@@ -15321,7 +15375,7 @@
         <v>0.89</v>
       </c>
       <c r="AT75">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU75">
         <v>1.67</v>
@@ -15422,7 +15476,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15509,10 +15563,10 @@
         <v>0.25</v>
       </c>
       <c r="AS76">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT76">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU76">
         <v>1.45</v>
@@ -15613,7 +15667,7 @@
         <v>81</v>
       </c>
       <c r="P77" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="Q77">
         <v>1</v>
@@ -15700,10 +15754,10 @@
         <v>0.2</v>
       </c>
       <c r="AS77">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT77">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU77">
         <v>0.9399999999999999</v>
@@ -15891,10 +15945,10 @@
         <v>0.75</v>
       </c>
       <c r="AS78">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT78">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU78">
         <v>1.49</v>
@@ -15995,7 +16049,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16082,7 +16136,7 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT79">
         <v>1</v>
@@ -16273,10 +16327,10 @@
         <v>2</v>
       </c>
       <c r="AS80">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT80">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU80">
         <v>1.41</v>
@@ -16464,10 +16518,10 @@
         <v>0</v>
       </c>
       <c r="AS81">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT81">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU81">
         <v>2.08</v>
@@ -16655,10 +16709,10 @@
         <v>2</v>
       </c>
       <c r="AS82">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AT82">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU82">
         <v>2.83</v>
@@ -16759,7 +16813,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="Q83">
         <v>11</v>
@@ -16846,10 +16900,10 @@
         <v>1.2</v>
       </c>
       <c r="AS83">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT83">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU83">
         <v>2.07</v>
@@ -17037,7 +17091,7 @@
         <v>1</v>
       </c>
       <c r="AS84">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT84">
         <v>0.78</v>
@@ -17141,7 +17195,7 @@
         <v>140</v>
       </c>
       <c r="P85" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -17231,7 +17285,7 @@
         <v>0.89</v>
       </c>
       <c r="AT85">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU85">
         <v>1.61</v>
@@ -17332,7 +17386,7 @@
         <v>141</v>
       </c>
       <c r="P86" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17419,10 +17473,10 @@
         <v>0.67</v>
       </c>
       <c r="AS86">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT86">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU86">
         <v>1.74</v>
@@ -17610,10 +17664,10 @@
         <v>1.5</v>
       </c>
       <c r="AS87">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT87">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU87">
         <v>1.88</v>
@@ -17801,10 +17855,10 @@
         <v>2.6</v>
       </c>
       <c r="AS88">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT88">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU88">
         <v>1.56</v>
@@ -17905,7 +17959,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -17992,10 +18046,10 @@
         <v>1.4</v>
       </c>
       <c r="AS89">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT89">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU89">
         <v>1.48</v>
@@ -18096,7 +18150,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18183,10 +18237,10 @@
         <v>0.5</v>
       </c>
       <c r="AS90">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AT90">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU90">
         <v>1.67</v>
@@ -18374,10 +18428,10 @@
         <v>1</v>
       </c>
       <c r="AS91">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT91">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU91">
         <v>1.49</v>
@@ -18478,7 +18532,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="Q92">
         <v>2</v>
@@ -18565,7 +18619,7 @@
         <v>1.4</v>
       </c>
       <c r="AS92">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT92">
         <v>1</v>
@@ -18756,10 +18810,10 @@
         <v>0</v>
       </c>
       <c r="AS93">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT93">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU93">
         <v>1.3</v>
@@ -18947,10 +19001,10 @@
         <v>0.6</v>
       </c>
       <c r="AS94">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT94">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU94">
         <v>2.01</v>
@@ -19138,10 +19192,10 @@
         <v>0.2</v>
       </c>
       <c r="AS95">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AT95">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU95">
         <v>2.61</v>
@@ -19329,10 +19383,10 @@
         <v>1.17</v>
       </c>
       <c r="AS96">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT96">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU96">
         <v>1.48</v>
@@ -19520,10 +19574,10 @@
         <v>1.67</v>
       </c>
       <c r="AS97">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT97">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU97">
         <v>1.62</v>
@@ -19624,7 +19678,7 @@
         <v>81</v>
       </c>
       <c r="P98" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19711,10 +19765,10 @@
         <v>1.4</v>
       </c>
       <c r="AS98">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT98">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU98">
         <v>1.38</v>
@@ -19902,10 +19956,10 @@
         <v>1.33</v>
       </c>
       <c r="AS99">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT99">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU99">
         <v>2.23</v>
@@ -20093,10 +20147,10 @@
         <v>1.5</v>
       </c>
       <c r="AS100">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT100">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU100">
         <v>2.04</v>
@@ -20284,10 +20338,10 @@
         <v>0.57</v>
       </c>
       <c r="AS101">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT101">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU101">
         <v>1.55</v>
@@ -20388,7 +20442,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="Q102">
         <v>7</v>
@@ -20475,10 +20529,10 @@
         <v>1.14</v>
       </c>
       <c r="AS102">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT102">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU102">
         <v>1.76</v>
@@ -20666,10 +20720,10 @@
         <v>0.43</v>
       </c>
       <c r="AS103">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT103">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU103">
         <v>1.81</v>
@@ -20857,7 +20911,7 @@
         <v>0.86</v>
       </c>
       <c r="AS104">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AT104">
         <v>0.78</v>
@@ -21048,10 +21102,10 @@
         <v>0.17</v>
       </c>
       <c r="AS105">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT105">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU105">
         <v>1.55</v>
@@ -21242,7 +21296,7 @@
         <v>0.89</v>
       </c>
       <c r="AT106">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU106">
         <v>1.54</v>
@@ -21430,10 +21484,10 @@
         <v>1.29</v>
       </c>
       <c r="AS107">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT107">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU107">
         <v>1.53</v>
@@ -21534,7 +21588,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -21621,10 +21675,10 @@
         <v>2.17</v>
       </c>
       <c r="AS108">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT108">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU108">
         <v>1.38</v>
@@ -21725,7 +21779,7 @@
         <v>81</v>
       </c>
       <c r="P109" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="Q109">
         <v>3</v>
@@ -21812,10 +21866,10 @@
         <v>1</v>
       </c>
       <c r="AS109">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT109">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU109">
         <v>1.86</v>
@@ -21916,7 +21970,7 @@
         <v>157</v>
       </c>
       <c r="P110" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22003,7 +22057,7 @@
         <v>1.17</v>
       </c>
       <c r="AS110">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT110">
         <v>1</v>
@@ -22194,10 +22248,10 @@
         <v>1.57</v>
       </c>
       <c r="AS111">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT111">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU111">
         <v>1.39</v>
@@ -22298,7 +22352,7 @@
         <v>83</v>
       </c>
       <c r="P112" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22385,10 +22439,10 @@
         <v>1.67</v>
       </c>
       <c r="AS112">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT112">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU112">
         <v>1.86</v>
@@ -22576,10 +22630,10 @@
         <v>1.67</v>
       </c>
       <c r="AS113">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AT113">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU113">
         <v>2.51</v>
@@ -22680,7 +22734,7 @@
         <v>81</v>
       </c>
       <c r="P114" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="Q114">
         <v>4</v>
@@ -22767,10 +22821,10 @@
         <v>1.4</v>
       </c>
       <c r="AS114">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT114">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU114">
         <v>1.44</v>
@@ -22958,10 +23012,10 @@
         <v>0.17</v>
       </c>
       <c r="AS115">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT115">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU115">
         <v>2.05</v>
@@ -23062,7 +23116,7 @@
         <v>92</v>
       </c>
       <c r="P116" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23149,10 +23203,10 @@
         <v>0.5</v>
       </c>
       <c r="AS116">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT116">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU116">
         <v>1.3</v>
@@ -23253,7 +23307,7 @@
         <v>112</v>
       </c>
       <c r="P117" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -23340,10 +23394,10 @@
         <v>0.17</v>
       </c>
       <c r="AS117">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT117">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU117">
         <v>1.04</v>
@@ -23531,10 +23585,10 @@
         <v>1.57</v>
       </c>
       <c r="AS118">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT118">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU118">
         <v>1.33</v>
@@ -23635,7 +23689,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23722,10 +23776,10 @@
         <v>1.67</v>
       </c>
       <c r="AS119">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT119">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU119">
         <v>1.72</v>
@@ -23913,7 +23967,7 @@
         <v>1.14</v>
       </c>
       <c r="AS120">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT120">
         <v>1</v>
@@ -24104,10 +24158,10 @@
         <v>1.57</v>
       </c>
       <c r="AS121">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AT121">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU121">
         <v>2.37</v>
@@ -24208,7 +24262,7 @@
         <v>162</v>
       </c>
       <c r="P122" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24295,10 +24349,10 @@
         <v>0.14</v>
       </c>
       <c r="AS122">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT122">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU122">
         <v>1.74</v>
@@ -24399,7 +24453,7 @@
         <v>163</v>
       </c>
       <c r="P123" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="Q123">
         <v>1</v>
@@ -24486,10 +24540,10 @@
         <v>0.14</v>
       </c>
       <c r="AS123">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT123">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU123">
         <v>1.05</v>
@@ -24677,10 +24731,10 @@
         <v>0.86</v>
       </c>
       <c r="AS124">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT124">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU124">
         <v>2.01</v>
@@ -24868,10 +24922,10 @@
         <v>0.29</v>
       </c>
       <c r="AS125">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT125">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU125">
         <v>1.41</v>
@@ -24972,7 +25026,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="Q126">
         <v>8</v>
@@ -25059,10 +25113,10 @@
         <v>1.86</v>
       </c>
       <c r="AS126">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT126">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU126">
         <v>1.58</v>
@@ -25250,10 +25304,10 @@
         <v>1.17</v>
       </c>
       <c r="AS127">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT127">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU127">
         <v>1.86</v>
@@ -25354,7 +25408,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25496,6 +25550,2871 @@
       </c>
       <c r="BK128">
         <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:63">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>2433461</v>
+      </c>
+      <c r="C129" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" s="2">
+        <v>44870.32291666666</v>
+      </c>
+      <c r="F129">
+        <v>17</v>
+      </c>
+      <c r="G129" t="s">
+        <v>65</v>
+      </c>
+      <c r="H129" t="s">
+        <v>73</v>
+      </c>
+      <c r="I129">
+        <v>2</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>2</v>
+      </c>
+      <c r="L129">
+        <v>6</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>6</v>
+      </c>
+      <c r="O129" t="s">
+        <v>167</v>
+      </c>
+      <c r="P129" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q129">
+        <v>3</v>
+      </c>
+      <c r="R129">
+        <v>3</v>
+      </c>
+      <c r="S129">
+        <v>6</v>
+      </c>
+      <c r="T129">
+        <v>1.85</v>
+      </c>
+      <c r="U129">
+        <v>2.38</v>
+      </c>
+      <c r="V129">
+        <v>6</v>
+      </c>
+      <c r="W129">
+        <v>1.36</v>
+      </c>
+      <c r="X129">
+        <v>3</v>
+      </c>
+      <c r="Y129">
+        <v>2.5</v>
+      </c>
+      <c r="Z129">
+        <v>1.5</v>
+      </c>
+      <c r="AA129">
+        <v>6</v>
+      </c>
+      <c r="AB129">
+        <v>1.11</v>
+      </c>
+      <c r="AC129">
+        <v>1.42</v>
+      </c>
+      <c r="AD129">
+        <v>4.1</v>
+      </c>
+      <c r="AE129">
+        <v>6.2</v>
+      </c>
+      <c r="AF129">
+        <v>1.05</v>
+      </c>
+      <c r="AG129">
+        <v>9</v>
+      </c>
+      <c r="AH129">
+        <v>1.29</v>
+      </c>
+      <c r="AI129">
+        <v>3.5</v>
+      </c>
+      <c r="AJ129">
+        <v>1.93</v>
+      </c>
+      <c r="AK129">
+        <v>1.93</v>
+      </c>
+      <c r="AL129">
+        <v>2</v>
+      </c>
+      <c r="AM129">
+        <v>1.73</v>
+      </c>
+      <c r="AN129">
+        <v>1.07</v>
+      </c>
+      <c r="AO129">
+        <v>1.22</v>
+      </c>
+      <c r="AP129">
+        <v>2.7</v>
+      </c>
+      <c r="AQ129">
+        <v>1.5</v>
+      </c>
+      <c r="AR129">
+        <v>0.5</v>
+      </c>
+      <c r="AS129">
+        <v>1.67</v>
+      </c>
+      <c r="AT129">
+        <v>0.44</v>
+      </c>
+      <c r="AU129">
+        <v>1.76</v>
+      </c>
+      <c r="AV129">
+        <v>1.25</v>
+      </c>
+      <c r="AW129">
+        <v>3.01</v>
+      </c>
+      <c r="AX129">
+        <v>1.28</v>
+      </c>
+      <c r="AY129">
+        <v>9</v>
+      </c>
+      <c r="AZ129">
+        <v>4.55</v>
+      </c>
+      <c r="BA129">
+        <v>1.29</v>
+      </c>
+      <c r="BB129">
+        <v>1.53</v>
+      </c>
+      <c r="BC129">
+        <v>1.88</v>
+      </c>
+      <c r="BD129">
+        <v>2.33</v>
+      </c>
+      <c r="BE129">
+        <v>3.1</v>
+      </c>
+      <c r="BF129">
+        <v>14</v>
+      </c>
+      <c r="BG129">
+        <v>5</v>
+      </c>
+      <c r="BH129">
+        <v>9</v>
+      </c>
+      <c r="BI129">
+        <v>8</v>
+      </c>
+      <c r="BJ129">
+        <v>23</v>
+      </c>
+      <c r="BK129">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:63">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>2433458</v>
+      </c>
+      <c r="C130" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130" t="s">
+        <v>64</v>
+      </c>
+      <c r="E130" s="2">
+        <v>44870.41666666666</v>
+      </c>
+      <c r="F130">
+        <v>17</v>
+      </c>
+      <c r="G130" t="s">
+        <v>68</v>
+      </c>
+      <c r="H130" t="s">
+        <v>77</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130">
+        <v>2</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>3</v>
+      </c>
+      <c r="O130" t="s">
+        <v>168</v>
+      </c>
+      <c r="P130" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q130">
+        <v>6</v>
+      </c>
+      <c r="R130">
+        <v>2</v>
+      </c>
+      <c r="S130">
+        <v>8</v>
+      </c>
+      <c r="T130">
+        <v>1.67</v>
+      </c>
+      <c r="U130">
+        <v>2.45</v>
+      </c>
+      <c r="V130">
+        <v>8.5</v>
+      </c>
+      <c r="W130">
+        <v>1.33</v>
+      </c>
+      <c r="X130">
+        <v>3.25</v>
+      </c>
+      <c r="Y130">
+        <v>2.55</v>
+      </c>
+      <c r="Z130">
+        <v>1.46</v>
+      </c>
+      <c r="AA130">
+        <v>5.5</v>
+      </c>
+      <c r="AB130">
+        <v>1.12</v>
+      </c>
+      <c r="AC130">
+        <v>1.27</v>
+      </c>
+      <c r="AD130">
+        <v>4.8</v>
+      </c>
+      <c r="AE130">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AF130">
+        <v>1.05</v>
+      </c>
+      <c r="AG130">
+        <v>9</v>
+      </c>
+      <c r="AH130">
+        <v>1.25</v>
+      </c>
+      <c r="AI130">
+        <v>3.75</v>
+      </c>
+      <c r="AJ130">
+        <v>1.83</v>
+      </c>
+      <c r="AK130">
+        <v>2.03</v>
+      </c>
+      <c r="AL130">
+        <v>2.3</v>
+      </c>
+      <c r="AM130">
+        <v>1.57</v>
+      </c>
+      <c r="AN130">
+        <v>1.01</v>
+      </c>
+      <c r="AO130">
+        <v>1.12</v>
+      </c>
+      <c r="AP130">
+        <v>3.28</v>
+      </c>
+      <c r="AQ130">
+        <v>2.5</v>
+      </c>
+      <c r="AR130">
+        <v>0.38</v>
+      </c>
+      <c r="AS130">
+        <v>2.56</v>
+      </c>
+      <c r="AT130">
+        <v>0.33</v>
+      </c>
+      <c r="AU130">
+        <v>1.7</v>
+      </c>
+      <c r="AV130">
+        <v>1.18</v>
+      </c>
+      <c r="AW130">
+        <v>2.88</v>
+      </c>
+      <c r="AX130">
+        <v>1.24</v>
+      </c>
+      <c r="AY130">
+        <v>9.5</v>
+      </c>
+      <c r="AZ130">
+        <v>5</v>
+      </c>
+      <c r="BA130">
+        <v>1.29</v>
+      </c>
+      <c r="BB130">
+        <v>1.53</v>
+      </c>
+      <c r="BC130">
+        <v>1.88</v>
+      </c>
+      <c r="BD130">
+        <v>2.33</v>
+      </c>
+      <c r="BE130">
+        <v>3.1</v>
+      </c>
+      <c r="BF130">
+        <v>4</v>
+      </c>
+      <c r="BG130">
+        <v>5</v>
+      </c>
+      <c r="BH130">
+        <v>7</v>
+      </c>
+      <c r="BI130">
+        <v>2</v>
+      </c>
+      <c r="BJ130">
+        <v>11</v>
+      </c>
+      <c r="BK130">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:63">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>2433462</v>
+      </c>
+      <c r="C131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131" t="s">
+        <v>64</v>
+      </c>
+      <c r="E131" s="2">
+        <v>44870.52083333334</v>
+      </c>
+      <c r="F131">
+        <v>17</v>
+      </c>
+      <c r="G131" t="s">
+        <v>72</v>
+      </c>
+      <c r="H131" t="s">
+        <v>79</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>2</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>2</v>
+      </c>
+      <c r="O131" t="s">
+        <v>169</v>
+      </c>
+      <c r="P131" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q131">
+        <v>2</v>
+      </c>
+      <c r="R131">
+        <v>1</v>
+      </c>
+      <c r="S131">
+        <v>3</v>
+      </c>
+      <c r="T131">
+        <v>3.24</v>
+      </c>
+      <c r="U131">
+        <v>2.05</v>
+      </c>
+      <c r="V131">
+        <v>3.5</v>
+      </c>
+      <c r="W131">
+        <v>1.5</v>
+      </c>
+      <c r="X131">
+        <v>2.5</v>
+      </c>
+      <c r="Y131">
+        <v>3.4</v>
+      </c>
+      <c r="Z131">
+        <v>1.3</v>
+      </c>
+      <c r="AA131">
+        <v>10</v>
+      </c>
+      <c r="AB131">
+        <v>1.06</v>
+      </c>
+      <c r="AC131">
+        <v>2.45</v>
+      </c>
+      <c r="AD131">
+        <v>3.15</v>
+      </c>
+      <c r="AE131">
+        <v>2.6</v>
+      </c>
+      <c r="AF131">
+        <v>1.04</v>
+      </c>
+      <c r="AG131">
+        <v>9</v>
+      </c>
+      <c r="AH131">
+        <v>1.32</v>
+      </c>
+      <c r="AI131">
+        <v>2.9</v>
+      </c>
+      <c r="AJ131">
+        <v>2.1</v>
+      </c>
+      <c r="AK131">
+        <v>1.65</v>
+      </c>
+      <c r="AL131">
+        <v>1.91</v>
+      </c>
+      <c r="AM131">
+        <v>1.85</v>
+      </c>
+      <c r="AN131">
+        <v>1.45</v>
+      </c>
+      <c r="AO131">
+        <v>1.33</v>
+      </c>
+      <c r="AP131">
+        <v>1.5</v>
+      </c>
+      <c r="AQ131">
+        <v>1.38</v>
+      </c>
+      <c r="AR131">
+        <v>1.13</v>
+      </c>
+      <c r="AS131">
+        <v>1.56</v>
+      </c>
+      <c r="AT131">
+        <v>1</v>
+      </c>
+      <c r="AU131">
+        <v>1.34</v>
+      </c>
+      <c r="AV131">
+        <v>1.05</v>
+      </c>
+      <c r="AW131">
+        <v>2.39</v>
+      </c>
+      <c r="AX131">
+        <v>0</v>
+      </c>
+      <c r="AY131">
+        <v>0</v>
+      </c>
+      <c r="AZ131">
+        <v>0</v>
+      </c>
+      <c r="BA131">
+        <v>0</v>
+      </c>
+      <c r="BB131">
+        <v>0</v>
+      </c>
+      <c r="BC131">
+        <v>0</v>
+      </c>
+      <c r="BD131">
+        <v>0</v>
+      </c>
+      <c r="BE131">
+        <v>0</v>
+      </c>
+      <c r="BF131">
+        <v>4</v>
+      </c>
+      <c r="BG131">
+        <v>4</v>
+      </c>
+      <c r="BH131">
+        <v>4</v>
+      </c>
+      <c r="BI131">
+        <v>3</v>
+      </c>
+      <c r="BJ131">
+        <v>8</v>
+      </c>
+      <c r="BK131">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:63">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>2433456</v>
+      </c>
+      <c r="C132" t="s">
+        <v>63</v>
+      </c>
+      <c r="D132" t="s">
+        <v>64</v>
+      </c>
+      <c r="E132" s="2">
+        <v>44871.3125</v>
+      </c>
+      <c r="F132">
+        <v>17</v>
+      </c>
+      <c r="G132" t="s">
+        <v>80</v>
+      </c>
+      <c r="H132" t="s">
+        <v>76</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>1</v>
+      </c>
+      <c r="O132" t="s">
+        <v>170</v>
+      </c>
+      <c r="P132" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q132">
+        <v>2</v>
+      </c>
+      <c r="R132">
+        <v>4</v>
+      </c>
+      <c r="S132">
+        <v>6</v>
+      </c>
+      <c r="T132">
+        <v>3.08</v>
+      </c>
+      <c r="U132">
+        <v>1.94</v>
+      </c>
+      <c r="V132">
+        <v>3.7</v>
+      </c>
+      <c r="W132">
+        <v>1.48</v>
+      </c>
+      <c r="X132">
+        <v>2.43</v>
+      </c>
+      <c r="Y132">
+        <v>3.26</v>
+      </c>
+      <c r="Z132">
+        <v>1.28</v>
+      </c>
+      <c r="AA132">
+        <v>9</v>
+      </c>
+      <c r="AB132">
+        <v>1.04</v>
+      </c>
+      <c r="AC132">
+        <v>2.37</v>
+      </c>
+      <c r="AD132">
+        <v>3.03</v>
+      </c>
+      <c r="AE132">
+        <v>2.72</v>
+      </c>
+      <c r="AF132">
+        <v>1.05</v>
+      </c>
+      <c r="AG132">
+        <v>7.1</v>
+      </c>
+      <c r="AH132">
+        <v>1.5</v>
+      </c>
+      <c r="AI132">
+        <v>2.5</v>
+      </c>
+      <c r="AJ132">
+        <v>2.3</v>
+      </c>
+      <c r="AK132">
+        <v>1.55</v>
+      </c>
+      <c r="AL132">
+        <v>1.95</v>
+      </c>
+      <c r="AM132">
+        <v>1.74</v>
+      </c>
+      <c r="AN132">
+        <v>1.34</v>
+      </c>
+      <c r="AO132">
+        <v>1.31</v>
+      </c>
+      <c r="AP132">
+        <v>1.49</v>
+      </c>
+      <c r="AQ132">
+        <v>2.43</v>
+      </c>
+      <c r="AR132">
+        <v>1.5</v>
+      </c>
+      <c r="AS132">
+        <v>2.5</v>
+      </c>
+      <c r="AT132">
+        <v>1.33</v>
+      </c>
+      <c r="AU132">
+        <v>1.79</v>
+      </c>
+      <c r="AV132">
+        <v>1.48</v>
+      </c>
+      <c r="AW132">
+        <v>3.27</v>
+      </c>
+      <c r="AX132">
+        <v>0</v>
+      </c>
+      <c r="AY132">
+        <v>0</v>
+      </c>
+      <c r="AZ132">
+        <v>0</v>
+      </c>
+      <c r="BA132">
+        <v>0</v>
+      </c>
+      <c r="BB132">
+        <v>0</v>
+      </c>
+      <c r="BC132">
+        <v>0</v>
+      </c>
+      <c r="BD132">
+        <v>0</v>
+      </c>
+      <c r="BE132">
+        <v>0</v>
+      </c>
+      <c r="BF132">
+        <v>2</v>
+      </c>
+      <c r="BG132">
+        <v>0</v>
+      </c>
+      <c r="BH132">
+        <v>6</v>
+      </c>
+      <c r="BI132">
+        <v>7</v>
+      </c>
+      <c r="BJ132">
+        <v>8</v>
+      </c>
+      <c r="BK132">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:63">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>2433457</v>
+      </c>
+      <c r="C133" t="s">
+        <v>63</v>
+      </c>
+      <c r="D133" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133" s="2">
+        <v>44871.40625</v>
+      </c>
+      <c r="F133">
+        <v>17</v>
+      </c>
+      <c r="G133" t="s">
+        <v>71</v>
+      </c>
+      <c r="H133" t="s">
+        <v>75</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>2</v>
+      </c>
+      <c r="M133">
+        <v>2</v>
+      </c>
+      <c r="N133">
+        <v>4</v>
+      </c>
+      <c r="O133" t="s">
+        <v>171</v>
+      </c>
+      <c r="P133" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q133">
+        <v>6</v>
+      </c>
+      <c r="R133">
+        <v>5</v>
+      </c>
+      <c r="S133">
+        <v>11</v>
+      </c>
+      <c r="T133">
+        <v>10</v>
+      </c>
+      <c r="U133">
+        <v>2.5</v>
+      </c>
+      <c r="V133">
+        <v>1.67</v>
+      </c>
+      <c r="W133">
+        <v>1.36</v>
+      </c>
+      <c r="X133">
+        <v>2.9</v>
+      </c>
+      <c r="Y133">
+        <v>2.62</v>
+      </c>
+      <c r="Z133">
+        <v>1.42</v>
+      </c>
+      <c r="AA133">
+        <v>5.75</v>
+      </c>
+      <c r="AB133">
+        <v>1.1</v>
+      </c>
+      <c r="AC133">
+        <v>10.45</v>
+      </c>
+      <c r="AD133">
+        <v>6.18</v>
+      </c>
+      <c r="AE133">
+        <v>1.16</v>
+      </c>
+      <c r="AF133">
+        <v>1.01</v>
+      </c>
+      <c r="AG133">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH133">
+        <v>1.22</v>
+      </c>
+      <c r="AI133">
+        <v>3.8</v>
+      </c>
+      <c r="AJ133">
+        <v>1.62</v>
+      </c>
+      <c r="AK133">
+        <v>2.15</v>
+      </c>
+      <c r="AL133">
+        <v>2.4</v>
+      </c>
+      <c r="AM133">
+        <v>1.5</v>
+      </c>
+      <c r="AN133">
+        <v>3.8</v>
+      </c>
+      <c r="AO133">
+        <v>1.14</v>
+      </c>
+      <c r="AP133">
+        <v>1.04</v>
+      </c>
+      <c r="AQ133">
+        <v>0.63</v>
+      </c>
+      <c r="AR133">
+        <v>1.14</v>
+      </c>
+      <c r="AS133">
+        <v>0.67</v>
+      </c>
+      <c r="AT133">
+        <v>1.13</v>
+      </c>
+      <c r="AU133">
+        <v>1.32</v>
+      </c>
+      <c r="AV133">
+        <v>2.04</v>
+      </c>
+      <c r="AW133">
+        <v>3.36</v>
+      </c>
+      <c r="AX133">
+        <v>0</v>
+      </c>
+      <c r="AY133">
+        <v>0</v>
+      </c>
+      <c r="AZ133">
+        <v>0</v>
+      </c>
+      <c r="BA133">
+        <v>0</v>
+      </c>
+      <c r="BB133">
+        <v>0</v>
+      </c>
+      <c r="BC133">
+        <v>0</v>
+      </c>
+      <c r="BD133">
+        <v>0</v>
+      </c>
+      <c r="BE133">
+        <v>0</v>
+      </c>
+      <c r="BF133">
+        <v>5</v>
+      </c>
+      <c r="BG133">
+        <v>5</v>
+      </c>
+      <c r="BH133">
+        <v>4</v>
+      </c>
+      <c r="BI133">
+        <v>5</v>
+      </c>
+      <c r="BJ133">
+        <v>9</v>
+      </c>
+      <c r="BK133">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:63">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>2433463</v>
+      </c>
+      <c r="C134" t="s">
+        <v>63</v>
+      </c>
+      <c r="D134" t="s">
+        <v>64</v>
+      </c>
+      <c r="E134" s="2">
+        <v>44871.51041666666</v>
+      </c>
+      <c r="F134">
+        <v>17</v>
+      </c>
+      <c r="G134" t="s">
+        <v>70</v>
+      </c>
+      <c r="H134" t="s">
+        <v>69</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134" t="s">
+        <v>81</v>
+      </c>
+      <c r="P134" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q134">
+        <v>10</v>
+      </c>
+      <c r="R134">
+        <v>1</v>
+      </c>
+      <c r="S134">
+        <v>11</v>
+      </c>
+      <c r="T134">
+        <v>1.89</v>
+      </c>
+      <c r="U134">
+        <v>2.32</v>
+      </c>
+      <c r="V134">
+        <v>7.1</v>
+      </c>
+      <c r="W134">
+        <v>1.34</v>
+      </c>
+      <c r="X134">
+        <v>2.93</v>
+      </c>
+      <c r="Y134">
+        <v>2.64</v>
+      </c>
+      <c r="Z134">
+        <v>1.41</v>
+      </c>
+      <c r="AA134">
+        <v>6.6</v>
+      </c>
+      <c r="AB134">
+        <v>1.09</v>
+      </c>
+      <c r="AC134">
+        <v>1.31</v>
+      </c>
+      <c r="AD134">
+        <v>4.35</v>
+      </c>
+      <c r="AE134">
+        <v>7.73</v>
+      </c>
+      <c r="AF134">
+        <v>1.05</v>
+      </c>
+      <c r="AG134">
+        <v>13</v>
+      </c>
+      <c r="AH134">
+        <v>1.25</v>
+      </c>
+      <c r="AI134">
+        <v>3.3</v>
+      </c>
+      <c r="AJ134">
+        <v>1.75</v>
+      </c>
+      <c r="AK134">
+        <v>1.95</v>
+      </c>
+      <c r="AL134">
+        <v>2.06</v>
+      </c>
+      <c r="AM134">
+        <v>1.73</v>
+      </c>
+      <c r="AN134">
+        <v>1.04</v>
+      </c>
+      <c r="AO134">
+        <v>1.15</v>
+      </c>
+      <c r="AP134">
+        <v>2.8</v>
+      </c>
+      <c r="AQ134">
+        <v>3</v>
+      </c>
+      <c r="AR134">
+        <v>1</v>
+      </c>
+      <c r="AS134">
+        <v>2.78</v>
+      </c>
+      <c r="AT134">
+        <v>1</v>
+      </c>
+      <c r="AU134">
+        <v>1.67</v>
+      </c>
+      <c r="AV134">
+        <v>1.41</v>
+      </c>
+      <c r="AW134">
+        <v>3.08</v>
+      </c>
+      <c r="AX134">
+        <v>0</v>
+      </c>
+      <c r="AY134">
+        <v>0</v>
+      </c>
+      <c r="AZ134">
+        <v>0</v>
+      </c>
+      <c r="BA134">
+        <v>0</v>
+      </c>
+      <c r="BB134">
+        <v>0</v>
+      </c>
+      <c r="BC134">
+        <v>0</v>
+      </c>
+      <c r="BD134">
+        <v>0</v>
+      </c>
+      <c r="BE134">
+        <v>0</v>
+      </c>
+      <c r="BF134">
+        <v>7</v>
+      </c>
+      <c r="BG134">
+        <v>0</v>
+      </c>
+      <c r="BH134">
+        <v>12</v>
+      </c>
+      <c r="BI134">
+        <v>7</v>
+      </c>
+      <c r="BJ134">
+        <v>19</v>
+      </c>
+      <c r="BK134">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:63">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>2433459</v>
+      </c>
+      <c r="C135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D135" t="s">
+        <v>64</v>
+      </c>
+      <c r="E135" s="2">
+        <v>44873.52083333334</v>
+      </c>
+      <c r="F135">
+        <v>17</v>
+      </c>
+      <c r="G135" t="s">
+        <v>67</v>
+      </c>
+      <c r="H135" t="s">
+        <v>74</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>3</v>
+      </c>
+      <c r="K135">
+        <v>4</v>
+      </c>
+      <c r="L135">
+        <v>2</v>
+      </c>
+      <c r="M135">
+        <v>3</v>
+      </c>
+      <c r="N135">
+        <v>5</v>
+      </c>
+      <c r="O135" t="s">
+        <v>172</v>
+      </c>
+      <c r="P135" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q135">
+        <v>4</v>
+      </c>
+      <c r="R135">
+        <v>2</v>
+      </c>
+      <c r="S135">
+        <v>6</v>
+      </c>
+      <c r="T135">
+        <v>5.2</v>
+      </c>
+      <c r="U135">
+        <v>2.09</v>
+      </c>
+      <c r="V135">
+        <v>2.32</v>
+      </c>
+      <c r="W135">
+        <v>1.44</v>
+      </c>
+      <c r="X135">
+        <v>2.62</v>
+      </c>
+      <c r="Y135">
+        <v>3</v>
+      </c>
+      <c r="Z135">
+        <v>1.36</v>
+      </c>
+      <c r="AA135">
+        <v>7.5</v>
+      </c>
+      <c r="AB135">
+        <v>1.07</v>
+      </c>
+      <c r="AC135">
+        <v>4.17</v>
+      </c>
+      <c r="AD135">
+        <v>3.57</v>
+      </c>
+      <c r="AE135">
+        <v>1.8</v>
+      </c>
+      <c r="AF135">
+        <v>1.07</v>
+      </c>
+      <c r="AG135">
+        <v>7.5</v>
+      </c>
+      <c r="AH135">
+        <v>1.36</v>
+      </c>
+      <c r="AI135">
+        <v>3</v>
+      </c>
+      <c r="AJ135">
+        <v>1.89</v>
+      </c>
+      <c r="AK135">
+        <v>1.86</v>
+      </c>
+      <c r="AL135">
+        <v>1.92</v>
+      </c>
+      <c r="AM135">
+        <v>1.84</v>
+      </c>
+      <c r="AN135">
+        <v>1.96</v>
+      </c>
+      <c r="AO135">
+        <v>1.24</v>
+      </c>
+      <c r="AP135">
+        <v>1.15</v>
+      </c>
+      <c r="AQ135">
+        <v>2.25</v>
+      </c>
+      <c r="AR135">
+        <v>2.29</v>
+      </c>
+      <c r="AS135">
+        <v>2</v>
+      </c>
+      <c r="AT135">
+        <v>2.38</v>
+      </c>
+      <c r="AU135">
+        <v>1.68</v>
+      </c>
+      <c r="AV135">
+        <v>2.25</v>
+      </c>
+      <c r="AW135">
+        <v>3.93</v>
+      </c>
+      <c r="AX135">
+        <v>4.32</v>
+      </c>
+      <c r="AY135">
+        <v>7.5</v>
+      </c>
+      <c r="AZ135">
+        <v>1.41</v>
+      </c>
+      <c r="BA135">
+        <v>0</v>
+      </c>
+      <c r="BB135">
+        <v>1.57</v>
+      </c>
+      <c r="BC135">
+        <v>1.95</v>
+      </c>
+      <c r="BD135">
+        <v>2.55</v>
+      </c>
+      <c r="BE135">
+        <v>0</v>
+      </c>
+      <c r="BF135">
+        <v>4</v>
+      </c>
+      <c r="BG135">
+        <v>7</v>
+      </c>
+      <c r="BH135">
+        <v>4</v>
+      </c>
+      <c r="BI135">
+        <v>4</v>
+      </c>
+      <c r="BJ135">
+        <v>8</v>
+      </c>
+      <c r="BK135">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:63">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>2433470</v>
+      </c>
+      <c r="C136" t="s">
+        <v>63</v>
+      </c>
+      <c r="D136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E136" s="2">
+        <v>44876.52083333334</v>
+      </c>
+      <c r="F136">
+        <v>18</v>
+      </c>
+      <c r="G136" t="s">
+        <v>77</v>
+      </c>
+      <c r="H136" t="s">
+        <v>71</v>
+      </c>
+      <c r="I136">
+        <v>2</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>3</v>
+      </c>
+      <c r="L136">
+        <v>3</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>4</v>
+      </c>
+      <c r="O136" t="s">
+        <v>173</v>
+      </c>
+      <c r="P136" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q136">
+        <v>2</v>
+      </c>
+      <c r="R136">
+        <v>4</v>
+      </c>
+      <c r="S136">
+        <v>6</v>
+      </c>
+      <c r="T136">
+        <v>2.25</v>
+      </c>
+      <c r="U136">
+        <v>2.2</v>
+      </c>
+      <c r="V136">
+        <v>5.5</v>
+      </c>
+      <c r="W136">
+        <v>1.4</v>
+      </c>
+      <c r="X136">
+        <v>2.75</v>
+      </c>
+      <c r="Y136">
+        <v>3</v>
+      </c>
+      <c r="Z136">
+        <v>1.36</v>
+      </c>
+      <c r="AA136">
+        <v>8</v>
+      </c>
+      <c r="AB136">
+        <v>1.08</v>
+      </c>
+      <c r="AC136">
+        <v>1.6</v>
+      </c>
+      <c r="AD136">
+        <v>3.7</v>
+      </c>
+      <c r="AE136">
+        <v>4.88</v>
+      </c>
+      <c r="AF136">
+        <v>1.06</v>
+      </c>
+      <c r="AG136">
+        <v>8</v>
+      </c>
+      <c r="AH136">
+        <v>1.28</v>
+      </c>
+      <c r="AI136">
+        <v>3.4</v>
+      </c>
+      <c r="AJ136">
+        <v>2</v>
+      </c>
+      <c r="AK136">
+        <v>1.72</v>
+      </c>
+      <c r="AL136">
+        <v>1.91</v>
+      </c>
+      <c r="AM136">
+        <v>1.8</v>
+      </c>
+      <c r="AN136">
+        <v>1.11</v>
+      </c>
+      <c r="AO136">
+        <v>1.2</v>
+      </c>
+      <c r="AP136">
+        <v>2.2</v>
+      </c>
+      <c r="AQ136">
+        <v>0.75</v>
+      </c>
+      <c r="AR136">
+        <v>0.25</v>
+      </c>
+      <c r="AS136">
+        <v>1</v>
+      </c>
+      <c r="AT136">
+        <v>0.22</v>
+      </c>
+      <c r="AU136">
+        <v>1.31</v>
+      </c>
+      <c r="AV136">
+        <v>0.98</v>
+      </c>
+      <c r="AW136">
+        <v>2.29</v>
+      </c>
+      <c r="AX136">
+        <v>1.55</v>
+      </c>
+      <c r="AY136">
+        <v>8.5</v>
+      </c>
+      <c r="AZ136">
+        <v>3.22</v>
+      </c>
+      <c r="BA136">
+        <v>1.29</v>
+      </c>
+      <c r="BB136">
+        <v>1.56</v>
+      </c>
+      <c r="BC136">
+        <v>2</v>
+      </c>
+      <c r="BD136">
+        <v>2.65</v>
+      </c>
+      <c r="BE136">
+        <v>0</v>
+      </c>
+      <c r="BF136">
+        <v>7</v>
+      </c>
+      <c r="BG136">
+        <v>5</v>
+      </c>
+      <c r="BH136">
+        <v>3</v>
+      </c>
+      <c r="BI136">
+        <v>4</v>
+      </c>
+      <c r="BJ136">
+        <v>10</v>
+      </c>
+      <c r="BK136">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:63">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>2433466</v>
+      </c>
+      <c r="C137" t="s">
+        <v>63</v>
+      </c>
+      <c r="D137" t="s">
+        <v>64</v>
+      </c>
+      <c r="E137" s="2">
+        <v>44877.3125</v>
+      </c>
+      <c r="F137">
+        <v>18</v>
+      </c>
+      <c r="G137" t="s">
+        <v>79</v>
+      </c>
+      <c r="H137" t="s">
+        <v>65</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>2</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+      <c r="N137">
+        <v>3</v>
+      </c>
+      <c r="O137" t="s">
+        <v>174</v>
+      </c>
+      <c r="P137" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q137">
+        <v>5</v>
+      </c>
+      <c r="R137">
+        <v>7</v>
+      </c>
+      <c r="S137">
+        <v>12</v>
+      </c>
+      <c r="T137">
+        <v>3.4</v>
+      </c>
+      <c r="U137">
+        <v>2.05</v>
+      </c>
+      <c r="V137">
+        <v>3.4</v>
+      </c>
+      <c r="W137">
+        <v>1.44</v>
+      </c>
+      <c r="X137">
+        <v>2.63</v>
+      </c>
+      <c r="Y137">
+        <v>3.4</v>
+      </c>
+      <c r="Z137">
+        <v>1.3</v>
+      </c>
+      <c r="AA137">
+        <v>10</v>
+      </c>
+      <c r="AB137">
+        <v>1.06</v>
+      </c>
+      <c r="AC137">
+        <v>2.49</v>
+      </c>
+      <c r="AD137">
+        <v>3.15</v>
+      </c>
+      <c r="AE137">
+        <v>2.67</v>
+      </c>
+      <c r="AF137">
+        <v>1.08</v>
+      </c>
+      <c r="AG137">
+        <v>7</v>
+      </c>
+      <c r="AH137">
+        <v>1.38</v>
+      </c>
+      <c r="AI137">
+        <v>2.9</v>
+      </c>
+      <c r="AJ137">
+        <v>2.18</v>
+      </c>
+      <c r="AK137">
+        <v>1.67</v>
+      </c>
+      <c r="AL137">
+        <v>1.83</v>
+      </c>
+      <c r="AM137">
+        <v>1.83</v>
+      </c>
+      <c r="AN137">
+        <v>1.42</v>
+      </c>
+      <c r="AO137">
+        <v>1.3</v>
+      </c>
+      <c r="AP137">
+        <v>1.36</v>
+      </c>
+      <c r="AQ137">
+        <v>1.75</v>
+      </c>
+      <c r="AR137">
+        <v>0.5</v>
+      </c>
+      <c r="AS137">
+        <v>1.89</v>
+      </c>
+      <c r="AT137">
+        <v>0.44</v>
+      </c>
+      <c r="AU137">
+        <v>1.7</v>
+      </c>
+      <c r="AV137">
+        <v>1.56</v>
+      </c>
+      <c r="AW137">
+        <v>3.26</v>
+      </c>
+      <c r="AX137">
+        <v>0</v>
+      </c>
+      <c r="AY137">
+        <v>0</v>
+      </c>
+      <c r="AZ137">
+        <v>0</v>
+      </c>
+      <c r="BA137">
+        <v>0</v>
+      </c>
+      <c r="BB137">
+        <v>0</v>
+      </c>
+      <c r="BC137">
+        <v>0</v>
+      </c>
+      <c r="BD137">
+        <v>0</v>
+      </c>
+      <c r="BE137">
+        <v>0</v>
+      </c>
+      <c r="BF137">
+        <v>7</v>
+      </c>
+      <c r="BG137">
+        <v>3</v>
+      </c>
+      <c r="BH137">
+        <v>8</v>
+      </c>
+      <c r="BI137">
+        <v>4</v>
+      </c>
+      <c r="BJ137">
+        <v>15</v>
+      </c>
+      <c r="BK137">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:63">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>2433464</v>
+      </c>
+      <c r="C138" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138" t="s">
+        <v>64</v>
+      </c>
+      <c r="E138" s="2">
+        <v>44877.41666666666</v>
+      </c>
+      <c r="F138">
+        <v>18</v>
+      </c>
+      <c r="G138" t="s">
+        <v>76</v>
+      </c>
+      <c r="H138" t="s">
+        <v>70</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>2</v>
+      </c>
+      <c r="N138">
+        <v>2</v>
+      </c>
+      <c r="O138" t="s">
+        <v>81</v>
+      </c>
+      <c r="P138" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q138">
+        <v>1</v>
+      </c>
+      <c r="R138">
+        <v>1</v>
+      </c>
+      <c r="S138">
+        <v>2</v>
+      </c>
+      <c r="T138">
+        <v>4</v>
+      </c>
+      <c r="U138">
+        <v>2.05</v>
+      </c>
+      <c r="V138">
+        <v>3</v>
+      </c>
+      <c r="W138">
+        <v>1.44</v>
+      </c>
+      <c r="X138">
+        <v>2.63</v>
+      </c>
+      <c r="Y138">
+        <v>3.25</v>
+      </c>
+      <c r="Z138">
+        <v>1.33</v>
+      </c>
+      <c r="AA138">
+        <v>10</v>
+      </c>
+      <c r="AB138">
+        <v>1.06</v>
+      </c>
+      <c r="AC138">
+        <v>3.2</v>
+      </c>
+      <c r="AD138">
+        <v>3.22</v>
+      </c>
+      <c r="AE138">
+        <v>2.16</v>
+      </c>
+      <c r="AF138">
+        <v>1.08</v>
+      </c>
+      <c r="AG138">
+        <v>7</v>
+      </c>
+      <c r="AH138">
+        <v>1.4</v>
+      </c>
+      <c r="AI138">
+        <v>2.8</v>
+      </c>
+      <c r="AJ138">
+        <v>2.13</v>
+      </c>
+      <c r="AK138">
+        <v>1.7</v>
+      </c>
+      <c r="AL138">
+        <v>1.91</v>
+      </c>
+      <c r="AM138">
+        <v>1.8</v>
+      </c>
+      <c r="AN138">
+        <v>1.53</v>
+      </c>
+      <c r="AO138">
+        <v>1.28</v>
+      </c>
+      <c r="AP138">
+        <v>1.28</v>
+      </c>
+      <c r="AQ138">
+        <v>2.13</v>
+      </c>
+      <c r="AR138">
+        <v>2</v>
+      </c>
+      <c r="AS138">
+        <v>1.89</v>
+      </c>
+      <c r="AT138">
+        <v>2.11</v>
+      </c>
+      <c r="AU138">
+        <v>1.69</v>
+      </c>
+      <c r="AV138">
+        <v>1.35</v>
+      </c>
+      <c r="AW138">
+        <v>3.04</v>
+      </c>
+      <c r="AX138">
+        <v>0</v>
+      </c>
+      <c r="AY138">
+        <v>0</v>
+      </c>
+      <c r="AZ138">
+        <v>0</v>
+      </c>
+      <c r="BA138">
+        <v>0</v>
+      </c>
+      <c r="BB138">
+        <v>0</v>
+      </c>
+      <c r="BC138">
+        <v>0</v>
+      </c>
+      <c r="BD138">
+        <v>0</v>
+      </c>
+      <c r="BE138">
+        <v>0</v>
+      </c>
+      <c r="BF138">
+        <v>2</v>
+      </c>
+      <c r="BG138">
+        <v>6</v>
+      </c>
+      <c r="BH138">
+        <v>4</v>
+      </c>
+      <c r="BI138">
+        <v>2</v>
+      </c>
+      <c r="BJ138">
+        <v>6</v>
+      </c>
+      <c r="BK138">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:63">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>2433471</v>
+      </c>
+      <c r="C139" t="s">
+        <v>63</v>
+      </c>
+      <c r="D139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E139" s="2">
+        <v>44877.52083333334</v>
+      </c>
+      <c r="F139">
+        <v>18</v>
+      </c>
+      <c r="G139" t="s">
+        <v>75</v>
+      </c>
+      <c r="H139" t="s">
+        <v>80</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>2</v>
+      </c>
+      <c r="N139">
+        <v>3</v>
+      </c>
+      <c r="O139" t="s">
+        <v>175</v>
+      </c>
+      <c r="P139" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q139">
+        <v>8</v>
+      </c>
+      <c r="R139">
+        <v>3</v>
+      </c>
+      <c r="S139">
+        <v>11</v>
+      </c>
+      <c r="T139">
+        <v>2.3</v>
+      </c>
+      <c r="U139">
+        <v>2.1</v>
+      </c>
+      <c r="V139">
+        <v>6</v>
+      </c>
+      <c r="W139">
+        <v>1.44</v>
+      </c>
+      <c r="X139">
+        <v>2.63</v>
+      </c>
+      <c r="Y139">
+        <v>3.25</v>
+      </c>
+      <c r="Z139">
+        <v>1.33</v>
+      </c>
+      <c r="AA139">
+        <v>9</v>
+      </c>
+      <c r="AB139">
+        <v>1.07</v>
+      </c>
+      <c r="AC139">
+        <v>1.62</v>
+      </c>
+      <c r="AD139">
+        <v>3.62</v>
+      </c>
+      <c r="AE139">
+        <v>5.2</v>
+      </c>
+      <c r="AF139">
+        <v>1.08</v>
+      </c>
+      <c r="AG139">
+        <v>7</v>
+      </c>
+      <c r="AH139">
+        <v>1.36</v>
+      </c>
+      <c r="AI139">
+        <v>2.95</v>
+      </c>
+      <c r="AJ139">
+        <v>2.13</v>
+      </c>
+      <c r="AK139">
+        <v>1.7</v>
+      </c>
+      <c r="AL139">
+        <v>2.1</v>
+      </c>
+      <c r="AM139">
+        <v>1.67</v>
+      </c>
+      <c r="AN139">
+        <v>1.09</v>
+      </c>
+      <c r="AO139">
+        <v>1.2</v>
+      </c>
+      <c r="AP139">
+        <v>2.2</v>
+      </c>
+      <c r="AQ139">
+        <v>2.5</v>
+      </c>
+      <c r="AR139">
+        <v>1.13</v>
+      </c>
+      <c r="AS139">
+        <v>2.22</v>
+      </c>
+      <c r="AT139">
+        <v>1.33</v>
+      </c>
+      <c r="AU139">
+        <v>2.31</v>
+      </c>
+      <c r="AV139">
+        <v>1.59</v>
+      </c>
+      <c r="AW139">
+        <v>3.9</v>
+      </c>
+      <c r="AX139">
+        <v>0</v>
+      </c>
+      <c r="AY139">
+        <v>0</v>
+      </c>
+      <c r="AZ139">
+        <v>0</v>
+      </c>
+      <c r="BA139">
+        <v>0</v>
+      </c>
+      <c r="BB139">
+        <v>0</v>
+      </c>
+      <c r="BC139">
+        <v>0</v>
+      </c>
+      <c r="BD139">
+        <v>0</v>
+      </c>
+      <c r="BE139">
+        <v>0</v>
+      </c>
+      <c r="BF139">
+        <v>4</v>
+      </c>
+      <c r="BG139">
+        <v>4</v>
+      </c>
+      <c r="BH139">
+        <v>11</v>
+      </c>
+      <c r="BI139">
+        <v>3</v>
+      </c>
+      <c r="BJ139">
+        <v>15</v>
+      </c>
+      <c r="BK139">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:63">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>2433468</v>
+      </c>
+      <c r="C140" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E140" s="2">
+        <v>44878.32291666666</v>
+      </c>
+      <c r="F140">
+        <v>18</v>
+      </c>
+      <c r="G140" t="s">
+        <v>78</v>
+      </c>
+      <c r="H140" t="s">
+        <v>67</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>2</v>
+      </c>
+      <c r="N140">
+        <v>3</v>
+      </c>
+      <c r="O140" t="s">
+        <v>160</v>
+      </c>
+      <c r="P140" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q140">
+        <v>7</v>
+      </c>
+      <c r="R140">
+        <v>4</v>
+      </c>
+      <c r="S140">
+        <v>11</v>
+      </c>
+      <c r="T140">
+        <v>6</v>
+      </c>
+      <c r="U140">
+        <v>2.2</v>
+      </c>
+      <c r="V140">
+        <v>2.2</v>
+      </c>
+      <c r="W140">
+        <v>1.4</v>
+      </c>
+      <c r="X140">
+        <v>2.75</v>
+      </c>
+      <c r="Y140">
+        <v>3</v>
+      </c>
+      <c r="Z140">
+        <v>1.36</v>
+      </c>
+      <c r="AA140">
+        <v>8</v>
+      </c>
+      <c r="AB140">
+        <v>1.08</v>
+      </c>
+      <c r="AC140">
+        <v>5.75</v>
+      </c>
+      <c r="AD140">
+        <v>3.8</v>
+      </c>
+      <c r="AE140">
+        <v>1.57</v>
+      </c>
+      <c r="AF140">
+        <v>1.07</v>
+      </c>
+      <c r="AG140">
+        <v>7.5</v>
+      </c>
+      <c r="AH140">
+        <v>1.36</v>
+      </c>
+      <c r="AI140">
+        <v>3</v>
+      </c>
+      <c r="AJ140">
+        <v>2.05</v>
+      </c>
+      <c r="AK140">
+        <v>1.8</v>
+      </c>
+      <c r="AL140">
+        <v>2</v>
+      </c>
+      <c r="AM140">
+        <v>1.73</v>
+      </c>
+      <c r="AN140">
+        <v>2.28</v>
+      </c>
+      <c r="AO140">
+        <v>1.23</v>
+      </c>
+      <c r="AP140">
+        <v>1.1</v>
+      </c>
+      <c r="AQ140">
+        <v>0.63</v>
+      </c>
+      <c r="AR140">
+        <v>1.5</v>
+      </c>
+      <c r="AS140">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AT140">
+        <v>1.67</v>
+      </c>
+      <c r="AU140">
+        <v>1.03</v>
+      </c>
+      <c r="AV140">
+        <v>1.54</v>
+      </c>
+      <c r="AW140">
+        <v>2.57</v>
+      </c>
+      <c r="AX140">
+        <v>0</v>
+      </c>
+      <c r="AY140">
+        <v>0</v>
+      </c>
+      <c r="AZ140">
+        <v>0</v>
+      </c>
+      <c r="BA140">
+        <v>0</v>
+      </c>
+      <c r="BB140">
+        <v>0</v>
+      </c>
+      <c r="BC140">
+        <v>0</v>
+      </c>
+      <c r="BD140">
+        <v>0</v>
+      </c>
+      <c r="BE140">
+        <v>0</v>
+      </c>
+      <c r="BF140">
+        <v>8</v>
+      </c>
+      <c r="BG140">
+        <v>8</v>
+      </c>
+      <c r="BH140">
+        <v>7</v>
+      </c>
+      <c r="BI140">
+        <v>5</v>
+      </c>
+      <c r="BJ140">
+        <v>15</v>
+      </c>
+      <c r="BK140">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:63">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>2433465</v>
+      </c>
+      <c r="C141" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" t="s">
+        <v>64</v>
+      </c>
+      <c r="E141" s="2">
+        <v>44878.42708333334</v>
+      </c>
+      <c r="F141">
+        <v>18</v>
+      </c>
+      <c r="G141" t="s">
+        <v>69</v>
+      </c>
+      <c r="H141" t="s">
+        <v>72</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>2</v>
+      </c>
+      <c r="N141">
+        <v>3</v>
+      </c>
+      <c r="O141" t="s">
+        <v>176</v>
+      </c>
+      <c r="P141" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q141">
+        <v>2</v>
+      </c>
+      <c r="R141">
+        <v>2</v>
+      </c>
+      <c r="S141">
+        <v>4</v>
+      </c>
+      <c r="T141">
+        <v>2.88</v>
+      </c>
+      <c r="U141">
+        <v>2.05</v>
+      </c>
+      <c r="V141">
+        <v>4</v>
+      </c>
+      <c r="W141">
+        <v>1.44</v>
+      </c>
+      <c r="X141">
+        <v>2.63</v>
+      </c>
+      <c r="Y141">
+        <v>3.25</v>
+      </c>
+      <c r="Z141">
+        <v>1.33</v>
+      </c>
+      <c r="AA141">
+        <v>10</v>
+      </c>
+      <c r="AB141">
+        <v>1.06</v>
+      </c>
+      <c r="AC141">
+        <v>2.15</v>
+      </c>
+      <c r="AD141">
+        <v>3.3</v>
+      </c>
+      <c r="AE141">
+        <v>3.4</v>
+      </c>
+      <c r="AF141">
+        <v>1.08</v>
+      </c>
+      <c r="AG141">
+        <v>7</v>
+      </c>
+      <c r="AH141">
+        <v>1.4</v>
+      </c>
+      <c r="AI141">
+        <v>2.75</v>
+      </c>
+      <c r="AJ141">
+        <v>2.06</v>
+      </c>
+      <c r="AK141">
+        <v>1.6</v>
+      </c>
+      <c r="AL141">
+        <v>1.91</v>
+      </c>
+      <c r="AM141">
+        <v>1.8</v>
+      </c>
+      <c r="AN141">
+        <v>1.35</v>
+      </c>
+      <c r="AO141">
+        <v>1.33</v>
+      </c>
+      <c r="AP141">
+        <v>1.65</v>
+      </c>
+      <c r="AQ141">
+        <v>2.13</v>
+      </c>
+      <c r="AR141">
+        <v>0.25</v>
+      </c>
+      <c r="AS141">
+        <v>1.89</v>
+      </c>
+      <c r="AT141">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU141">
+        <v>1.58</v>
+      </c>
+      <c r="AV141">
+        <v>1.15</v>
+      </c>
+      <c r="AW141">
+        <v>2.73</v>
+      </c>
+      <c r="AX141">
+        <v>0</v>
+      </c>
+      <c r="AY141">
+        <v>0</v>
+      </c>
+      <c r="AZ141">
+        <v>0</v>
+      </c>
+      <c r="BA141">
+        <v>0</v>
+      </c>
+      <c r="BB141">
+        <v>0</v>
+      </c>
+      <c r="BC141">
+        <v>0</v>
+      </c>
+      <c r="BD141">
+        <v>0</v>
+      </c>
+      <c r="BE141">
+        <v>0</v>
+      </c>
+      <c r="BF141">
+        <v>6</v>
+      </c>
+      <c r="BG141">
+        <v>7</v>
+      </c>
+      <c r="BH141">
+        <v>5</v>
+      </c>
+      <c r="BI141">
+        <v>4</v>
+      </c>
+      <c r="BJ141">
+        <v>11</v>
+      </c>
+      <c r="BK141">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:63">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>2433469</v>
+      </c>
+      <c r="C142" t="s">
+        <v>63</v>
+      </c>
+      <c r="D142" t="s">
+        <v>64</v>
+      </c>
+      <c r="E142" s="2">
+        <v>44878.52083333334</v>
+      </c>
+      <c r="F142">
+        <v>18</v>
+      </c>
+      <c r="G142" t="s">
+        <v>74</v>
+      </c>
+      <c r="H142" t="s">
+        <v>68</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
+      </c>
+      <c r="O142" t="s">
+        <v>151</v>
+      </c>
+      <c r="P142" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q142">
+        <v>12</v>
+      </c>
+      <c r="R142">
+        <v>3</v>
+      </c>
+      <c r="S142">
+        <v>15</v>
+      </c>
+      <c r="T142">
+        <v>2.2</v>
+      </c>
+      <c r="U142">
+        <v>2.25</v>
+      </c>
+      <c r="V142">
+        <v>5.5</v>
+      </c>
+      <c r="W142">
+        <v>1.4</v>
+      </c>
+      <c r="X142">
+        <v>2.75</v>
+      </c>
+      <c r="Y142">
+        <v>2.75</v>
+      </c>
+      <c r="Z142">
+        <v>1.4</v>
+      </c>
+      <c r="AA142">
+        <v>8</v>
+      </c>
+      <c r="AB142">
+        <v>1.08</v>
+      </c>
+      <c r="AC142">
+        <v>1.59</v>
+      </c>
+      <c r="AD142">
+        <v>3.8</v>
+      </c>
+      <c r="AE142">
+        <v>5.15</v>
+      </c>
+      <c r="AF142">
+        <v>1.06</v>
+      </c>
+      <c r="AG142">
+        <v>8</v>
+      </c>
+      <c r="AH142">
+        <v>1.3</v>
+      </c>
+      <c r="AI142">
+        <v>3.4</v>
+      </c>
+      <c r="AJ142">
+        <v>1.93</v>
+      </c>
+      <c r="AK142">
+        <v>1.81</v>
+      </c>
+      <c r="AL142">
+        <v>1.91</v>
+      </c>
+      <c r="AM142">
+        <v>1.8</v>
+      </c>
+      <c r="AN142">
+        <v>1.13</v>
+      </c>
+      <c r="AO142">
+        <v>1.23</v>
+      </c>
+      <c r="AP142">
+        <v>2.2</v>
+      </c>
+      <c r="AQ142">
+        <v>2.71</v>
+      </c>
+      <c r="AR142">
+        <v>1.5</v>
+      </c>
+      <c r="AS142">
+        <v>2.5</v>
+      </c>
+      <c r="AT142">
+        <v>1.44</v>
+      </c>
+      <c r="AU142">
+        <v>2.08</v>
+      </c>
+      <c r="AV142">
+        <v>1.75</v>
+      </c>
+      <c r="AW142">
+        <v>3.83</v>
+      </c>
+      <c r="AX142">
+        <v>0</v>
+      </c>
+      <c r="AY142">
+        <v>0</v>
+      </c>
+      <c r="AZ142">
+        <v>0</v>
+      </c>
+      <c r="BA142">
+        <v>0</v>
+      </c>
+      <c r="BB142">
+        <v>0</v>
+      </c>
+      <c r="BC142">
+        <v>0</v>
+      </c>
+      <c r="BD142">
+        <v>0</v>
+      </c>
+      <c r="BE142">
+        <v>0</v>
+      </c>
+      <c r="BF142">
+        <v>10</v>
+      </c>
+      <c r="BG142">
+        <v>5</v>
+      </c>
+      <c r="BH142">
+        <v>13</v>
+      </c>
+      <c r="BI142">
+        <v>5</v>
+      </c>
+      <c r="BJ142">
+        <v>23</v>
+      </c>
+      <c r="BK142">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:63">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>2433467</v>
+      </c>
+      <c r="C143" t="s">
+        <v>63</v>
+      </c>
+      <c r="D143" t="s">
+        <v>64</v>
+      </c>
+      <c r="E143" s="2">
+        <v>44879.5</v>
+      </c>
+      <c r="F143">
+        <v>18</v>
+      </c>
+      <c r="G143" t="s">
+        <v>73</v>
+      </c>
+      <c r="H143" t="s">
+        <v>66</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="O143" t="s">
+        <v>81</v>
+      </c>
+      <c r="P143" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q143">
+        <v>5</v>
+      </c>
+      <c r="R143">
+        <v>3</v>
+      </c>
+      <c r="S143">
+        <v>8</v>
+      </c>
+      <c r="T143">
+        <v>2.88</v>
+      </c>
+      <c r="U143">
+        <v>2.05</v>
+      </c>
+      <c r="V143">
+        <v>4</v>
+      </c>
+      <c r="W143">
+        <v>1.44</v>
+      </c>
+      <c r="X143">
+        <v>2.63</v>
+      </c>
+      <c r="Y143">
+        <v>3.25</v>
+      </c>
+      <c r="Z143">
+        <v>1.33</v>
+      </c>
+      <c r="AA143">
+        <v>9</v>
+      </c>
+      <c r="AB143">
+        <v>1.07</v>
+      </c>
+      <c r="AC143">
+        <v>2.3</v>
+      </c>
+      <c r="AD143">
+        <v>3.2</v>
+      </c>
+      <c r="AE143">
+        <v>2.95</v>
+      </c>
+      <c r="AF143">
+        <v>1.08</v>
+      </c>
+      <c r="AG143">
+        <v>7</v>
+      </c>
+      <c r="AH143">
+        <v>1.36</v>
+      </c>
+      <c r="AI143">
+        <v>3</v>
+      </c>
+      <c r="AJ143">
+        <v>2.18</v>
+      </c>
+      <c r="AK143">
+        <v>1.63</v>
+      </c>
+      <c r="AL143">
+        <v>1.83</v>
+      </c>
+      <c r="AM143">
+        <v>1.83</v>
+      </c>
+      <c r="AN143">
+        <v>1.28</v>
+      </c>
+      <c r="AO143">
+        <v>1.28</v>
+      </c>
+      <c r="AP143">
+        <v>1.63</v>
+      </c>
+      <c r="AQ143">
+        <v>1.25</v>
+      </c>
+      <c r="AR143">
+        <v>0.75</v>
+      </c>
+      <c r="AS143">
+        <v>1.22</v>
+      </c>
+      <c r="AT143">
+        <v>0.78</v>
+      </c>
+      <c r="AU143">
+        <v>1.45</v>
+      </c>
+      <c r="AV143">
+        <v>1.24</v>
+      </c>
+      <c r="AW143">
+        <v>2.69</v>
+      </c>
+      <c r="AX143">
+        <v>1.88</v>
+      </c>
+      <c r="AY143">
+        <v>7.3</v>
+      </c>
+      <c r="AZ143">
+        <v>2.26</v>
+      </c>
+      <c r="BA143">
+        <v>1.31</v>
+      </c>
+      <c r="BB143">
+        <v>1.5</v>
+      </c>
+      <c r="BC143">
+        <v>1.88</v>
+      </c>
+      <c r="BD143">
+        <v>2.45</v>
+      </c>
+      <c r="BE143">
+        <v>3.3</v>
+      </c>
+      <c r="BF143">
+        <v>5</v>
+      </c>
+      <c r="BG143">
+        <v>0</v>
+      </c>
+      <c r="BH143">
+        <v>9</v>
+      </c>
+      <c r="BI143">
+        <v>11</v>
+      </c>
+      <c r="BJ143">
+        <v>14</v>
+      </c>
+      <c r="BK143">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK144"/>
+  <dimension ref="A1:BK145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>2.56</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT11" t="n">
         <v>1.67</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT26" t="n">
         <v>0.22</v>
@@ -12068,7 +12068,7 @@
         <v>1.22</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU57" t="n">
         <v>1.9</v>
@@ -13689,7 +13689,7 @@
         <v>1.5</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT65" t="n">
         <v>0.78</v>
@@ -14707,7 +14707,7 @@
         <v>1.89</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU70" t="n">
         <v>1.63</v>
@@ -17343,7 +17343,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT83" t="n">
         <v>1</v>
@@ -18970,7 +18970,7 @@
         <v>1.56</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU91" t="n">
         <v>1.49</v>
@@ -20591,7 +20591,7 @@
         <v>1.33</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT99" t="n">
         <v>2.11</v>
@@ -20797,7 +20797,7 @@
         <v>2.22</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU100" t="n">
         <v>2.04</v>
@@ -22015,7 +22015,7 @@
         <v>0.89</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU106" t="n">
         <v>1.54</v>
@@ -23839,7 +23839,7 @@
         <v>0.17</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT115" t="n">
         <v>0.44</v>
@@ -25666,7 +25666,7 @@
         <v>0.86</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT124" t="n">
         <v>0.78</v>
@@ -26278,7 +26278,7 @@
         <v>1.89</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU127" t="n">
         <v>1.86</v>
@@ -27496,7 +27496,7 @@
         <v>0.67</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU133" t="n">
         <v>1.32</v>
@@ -29320,7 +29320,7 @@
         <v>1.5</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT142" t="n">
         <v>1.44</v>
@@ -29781,6 +29781,209 @@
       </c>
       <c r="BK144" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>2433369</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>44896.41666666666</v>
+      </c>
+      <c r="F145" t="n">
+        <v>6</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Ludogorets</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Levski Sofia</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>5</v>
+      </c>
+      <c r="R145" t="n">
+        <v>5</v>
+      </c>
+      <c r="S145" t="n">
+        <v>10</v>
+      </c>
+      <c r="T145" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="U145" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="V145" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X145" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="242">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1101,7 +1101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK145"/>
+  <dimension ref="A1:BK146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT2">
         <v>0.78</v>
@@ -5061,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT21">
         <v>1</v>
@@ -9645,7 +9645,7 @@
         <v>2</v>
       </c>
       <c r="AS45">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT45">
         <v>1.33</v>
@@ -10982,7 +10982,7 @@
         <v>1</v>
       </c>
       <c r="AS52">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT52">
         <v>0.78</v>
@@ -14229,7 +14229,7 @@
         <v>1.75</v>
       </c>
       <c r="AS69">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT69">
         <v>1.44</v>
@@ -17667,7 +17667,7 @@
         <v>1.5</v>
       </c>
       <c r="AS87">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT87">
         <v>1.33</v>
@@ -20723,7 +20723,7 @@
         <v>0.43</v>
       </c>
       <c r="AS103">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT103">
         <v>0.33</v>
@@ -21869,7 +21869,7 @@
         <v>1</v>
       </c>
       <c r="AS109">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT109">
         <v>2.11</v>
@@ -25689,7 +25689,7 @@
         <v>0.5</v>
       </c>
       <c r="AS129">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT129">
         <v>0.44</v>
@@ -28799,6 +28799,197 @@
         <v>11</v>
       </c>
       <c r="BK145">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:63">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>2433478</v>
+      </c>
+      <c r="C146" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146" t="s">
+        <v>64</v>
+      </c>
+      <c r="E146" s="2">
+        <v>44967.52083333334</v>
+      </c>
+      <c r="F146">
+        <v>19</v>
+      </c>
+      <c r="G146" t="s">
+        <v>65</v>
+      </c>
+      <c r="H146" t="s">
+        <v>69</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+      <c r="O146" t="s">
+        <v>81</v>
+      </c>
+      <c r="P146" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q146">
+        <v>6</v>
+      </c>
+      <c r="R146">
+        <v>3</v>
+      </c>
+      <c r="S146">
+        <v>9</v>
+      </c>
+      <c r="T146">
+        <v>2.25</v>
+      </c>
+      <c r="U146">
+        <v>2.2</v>
+      </c>
+      <c r="V146">
+        <v>6</v>
+      </c>
+      <c r="W146">
+        <v>1.42</v>
+      </c>
+      <c r="X146">
+        <v>2.75</v>
+      </c>
+      <c r="Y146">
+        <v>2.95</v>
+      </c>
+      <c r="Z146">
+        <v>1.37</v>
+      </c>
+      <c r="AA146">
+        <v>7.6</v>
+      </c>
+      <c r="AB146">
+        <v>1.07</v>
+      </c>
+      <c r="AC146">
+        <v>1.61</v>
+      </c>
+      <c r="AD146">
+        <v>3.6</v>
+      </c>
+      <c r="AE146">
+        <v>4.5</v>
+      </c>
+      <c r="AF146">
+        <v>1.02</v>
+      </c>
+      <c r="AG146">
+        <v>8.6</v>
+      </c>
+      <c r="AH146">
+        <v>1.31</v>
+      </c>
+      <c r="AI146">
+        <v>3.08</v>
+      </c>
+      <c r="AJ146">
+        <v>2.1</v>
+      </c>
+      <c r="AK146">
+        <v>1.6</v>
+      </c>
+      <c r="AL146">
+        <v>2.1</v>
+      </c>
+      <c r="AM146">
+        <v>1.67</v>
+      </c>
+      <c r="AN146">
+        <v>1.15</v>
+      </c>
+      <c r="AO146">
+        <v>1.21</v>
+      </c>
+      <c r="AP146">
+        <v>1.91</v>
+      </c>
+      <c r="AQ146">
+        <v>1.67</v>
+      </c>
+      <c r="AR146">
+        <v>1</v>
+      </c>
+      <c r="AS146">
+        <v>1.6</v>
+      </c>
+      <c r="AT146">
+        <v>1</v>
+      </c>
+      <c r="AU146">
+        <v>1.89</v>
+      </c>
+      <c r="AV146">
+        <v>1.33</v>
+      </c>
+      <c r="AW146">
+        <v>3.22</v>
+      </c>
+      <c r="AX146">
+        <v>0</v>
+      </c>
+      <c r="AY146">
+        <v>0</v>
+      </c>
+      <c r="AZ146">
+        <v>0</v>
+      </c>
+      <c r="BA146">
+        <v>0</v>
+      </c>
+      <c r="BB146">
+        <v>0</v>
+      </c>
+      <c r="BC146">
+        <v>0</v>
+      </c>
+      <c r="BD146">
+        <v>0</v>
+      </c>
+      <c r="BE146">
+        <v>0</v>
+      </c>
+      <c r="BF146">
+        <v>6</v>
+      </c>
+      <c r="BG146">
+        <v>7</v>
+      </c>
+      <c r="BH146">
+        <v>3</v>
+      </c>
+      <c r="BI146">
+        <v>8</v>
+      </c>
+      <c r="BJ146">
+        <v>9</v>
+      </c>
+      <c r="BK146">
         <v>15</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="247">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -547,6 +547,12 @@
     <t>['80']</t>
   </si>
   <si>
+    <t>['41', '90+5']</t>
+  </si>
+  <si>
+    <t>['54']</t>
+  </si>
+  <si>
     <t>['78']</t>
   </si>
   <si>
@@ -740,6 +746,15 @@
   </si>
   <si>
     <t>['10', '83']</t>
+  </si>
+  <si>
+    <t>['8', '20']</t>
+  </si>
+  <si>
+    <t>['44']</t>
+  </si>
+  <si>
+    <t>['70', '77', '85', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK146"/>
+  <dimension ref="A1:BK152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1345,7 +1360,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1435,7 +1450,7 @@
         <v>1.6</v>
       </c>
       <c r="AT2">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1536,7 +1551,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1623,10 +1638,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT3">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1727,7 +1742,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1814,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT4">
         <v>0.33</v>
@@ -2005,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT5">
         <v>1.11</v>
@@ -2109,7 +2124,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2199,7 +2214,7 @@
         <v>1.89</v>
       </c>
       <c r="AT6">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2390,7 +2405,7 @@
         <v>2.78</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2578,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT8">
         <v>1.33</v>
@@ -2682,7 +2697,7 @@
         <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2769,10 +2784,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT9">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2873,7 +2888,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3255,7 +3270,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3345,7 +3360,7 @@
         <v>1.89</v>
       </c>
       <c r="AT12">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU12">
         <v>1.23</v>
@@ -3533,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT13">
         <v>0.22</v>
@@ -3828,7 +3843,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4019,7 +4034,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4401,7 +4416,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4488,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT18">
         <v>0.33</v>
@@ -4592,7 +4607,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -4679,10 +4694,10 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT19">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU19">
         <v>0.96</v>
@@ -4870,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT20">
         <v>1</v>
@@ -4974,7 +4989,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5064,7 +5079,7 @@
         <v>1.6</v>
       </c>
       <c r="AT21">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU21">
         <v>2.4</v>
@@ -5165,7 +5180,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5252,10 +5267,10 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT22">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU22">
         <v>1.42</v>
@@ -5443,10 +5458,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT23">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU23">
         <v>0.78</v>
@@ -5637,7 +5652,7 @@
         <v>2.78</v>
       </c>
       <c r="AT24">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU24">
         <v>1.75</v>
@@ -5738,7 +5753,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -6311,7 +6326,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6693,7 +6708,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6884,7 +6899,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -7162,10 +7177,10 @@
         <v>1.5</v>
       </c>
       <c r="AS32">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT32">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU32">
         <v>1.22</v>
@@ -7266,7 +7281,7 @@
         <v>81</v>
       </c>
       <c r="P33" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7353,10 +7368,10 @@
         <v>1.5</v>
       </c>
       <c r="AS33">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT33">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU33">
         <v>1.33</v>
@@ -7457,7 +7472,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7544,10 +7559,10 @@
         <v>0.5</v>
       </c>
       <c r="AS34">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT34">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU34">
         <v>1.22</v>
@@ -7735,7 +7750,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT35">
         <v>0.33</v>
@@ -7839,7 +7854,7 @@
         <v>81</v>
       </c>
       <c r="P36" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -7926,7 +7941,7 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT36">
         <v>1</v>
@@ -8117,10 +8132,10 @@
         <v>1.5</v>
       </c>
       <c r="AS37">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT37">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU37">
         <v>1.6</v>
@@ -8412,7 +8427,7 @@
         <v>81</v>
       </c>
       <c r="P39" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8794,7 +8809,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q41">
         <v>13</v>
@@ -8881,7 +8896,7 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT41">
         <v>0.44</v>
@@ -9558,7 +9573,7 @@
         <v>111</v>
       </c>
       <c r="P45" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9648,7 +9663,7 @@
         <v>1.6</v>
       </c>
       <c r="AT45">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU45">
         <v>2.02</v>
@@ -9749,7 +9764,7 @@
         <v>112</v>
       </c>
       <c r="P46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9836,10 +9851,10 @@
         <v>1</v>
       </c>
       <c r="AS46">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT46">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU46">
         <v>1.55</v>
@@ -10027,10 +10042,10 @@
         <v>2</v>
       </c>
       <c r="AS47">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT47">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU47">
         <v>3.04</v>
@@ -10218,7 +10233,7 @@
         <v>2</v>
       </c>
       <c r="AS48">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT48">
         <v>1</v>
@@ -10322,7 +10337,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10409,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT49">
         <v>0.5600000000000001</v>
@@ -10513,7 +10528,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10603,7 +10618,7 @@
         <v>2.22</v>
       </c>
       <c r="AT50">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU50">
         <v>0</v>
@@ -10704,7 +10719,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10794,7 +10809,7 @@
         <v>1</v>
       </c>
       <c r="AT51">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU51">
         <v>1</v>
@@ -10895,7 +10910,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11173,7 +11188,7 @@
         <v>1.33</v>
       </c>
       <c r="AS53">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT53">
         <v>1.67</v>
@@ -11468,7 +11483,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -11850,7 +11865,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12041,7 +12056,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12131,7 +12146,7 @@
         <v>1.89</v>
       </c>
       <c r="AT58">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU58">
         <v>1.54</v>
@@ -12232,7 +12247,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12423,7 +12438,7 @@
         <v>123</v>
       </c>
       <c r="P60" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12513,7 +12528,7 @@
         <v>1</v>
       </c>
       <c r="AT60">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU60">
         <v>0.97</v>
@@ -12614,7 +12629,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -12892,10 +12907,10 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT62">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU62">
         <v>1.5</v>
@@ -13083,7 +13098,7 @@
         <v>0.33</v>
       </c>
       <c r="AS63">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT63">
         <v>0.44</v>
@@ -13274,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="AS64">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT64">
         <v>0.5600000000000001</v>
@@ -13468,7 +13483,7 @@
         <v>2.33</v>
       </c>
       <c r="AT65">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU65">
         <v>2.05</v>
@@ -13656,10 +13671,10 @@
         <v>2.25</v>
       </c>
       <c r="AS66">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT66">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU66">
         <v>1.66</v>
@@ -13847,10 +13862,10 @@
         <v>1.5</v>
       </c>
       <c r="AS67">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT67">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU67">
         <v>3.06</v>
@@ -13951,7 +13966,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -14038,7 +14053,7 @@
         <v>0</v>
       </c>
       <c r="AS68">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT68">
         <v>0.22</v>
@@ -14333,7 +14348,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14614,7 +14629,7 @@
         <v>1.89</v>
       </c>
       <c r="AT71">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU71">
         <v>1.7</v>
@@ -14906,7 +14921,7 @@
         <v>81</v>
       </c>
       <c r="P73" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -14996,7 +15011,7 @@
         <v>1.22</v>
       </c>
       <c r="AT73">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU73">
         <v>1.65</v>
@@ -15288,7 +15303,7 @@
         <v>81</v>
       </c>
       <c r="P75" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q75">
         <v>1</v>
@@ -15375,7 +15390,7 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT75">
         <v>1.67</v>
@@ -15479,7 +15494,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15566,7 +15581,7 @@
         <v>0.25</v>
       </c>
       <c r="AS76">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT76">
         <v>0.44</v>
@@ -15670,7 +15685,7 @@
         <v>81</v>
       </c>
       <c r="P77" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q77">
         <v>1</v>
@@ -15760,7 +15775,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT77">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU77">
         <v>0.9399999999999999</v>
@@ -15948,7 +15963,7 @@
         <v>0.75</v>
       </c>
       <c r="AS78">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT78">
         <v>0.78</v>
@@ -16052,7 +16067,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16330,10 +16345,10 @@
         <v>2</v>
       </c>
       <c r="AS80">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT80">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU80">
         <v>1.41</v>
@@ -16712,10 +16727,10 @@
         <v>2</v>
       </c>
       <c r="AS82">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT82">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU82">
         <v>2.83</v>
@@ -16816,7 +16831,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q83">
         <v>11</v>
@@ -16906,7 +16921,7 @@
         <v>2.33</v>
       </c>
       <c r="AT83">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU83">
         <v>2.07</v>
@@ -17097,7 +17112,7 @@
         <v>1.89</v>
       </c>
       <c r="AT84">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU84">
         <v>1.5</v>
@@ -17198,7 +17213,7 @@
         <v>140</v>
       </c>
       <c r="P85" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -17285,7 +17300,7 @@
         <v>0</v>
       </c>
       <c r="AS85">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT85">
         <v>0.22</v>
@@ -17389,7 +17404,7 @@
         <v>141</v>
       </c>
       <c r="P86" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17479,7 +17494,7 @@
         <v>1.89</v>
       </c>
       <c r="AT86">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU86">
         <v>1.74</v>
@@ -17861,7 +17876,7 @@
         <v>1.89</v>
       </c>
       <c r="AT88">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU88">
         <v>1.56</v>
@@ -17962,7 +17977,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18049,7 +18064,7 @@
         <v>1.4</v>
       </c>
       <c r="AS89">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT89">
         <v>1.44</v>
@@ -18153,7 +18168,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18431,7 +18446,7 @@
         <v>1</v>
       </c>
       <c r="AS91">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT91">
         <v>1.11</v>
@@ -18535,7 +18550,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q92">
         <v>2</v>
@@ -19195,7 +19210,7 @@
         <v>0.2</v>
       </c>
       <c r="AS95">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT95">
         <v>0.44</v>
@@ -19389,7 +19404,7 @@
         <v>1.22</v>
       </c>
       <c r="AT96">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU96">
         <v>1.48</v>
@@ -19577,10 +19592,10 @@
         <v>1.67</v>
       </c>
       <c r="AS97">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT97">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU97">
         <v>1.62</v>
@@ -19681,7 +19696,7 @@
         <v>81</v>
       </c>
       <c r="P98" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19768,7 +19783,7 @@
         <v>1.4</v>
       </c>
       <c r="AS98">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT98">
         <v>1.67</v>
@@ -19962,7 +19977,7 @@
         <v>2.33</v>
       </c>
       <c r="AT99">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU99">
         <v>2.23</v>
@@ -20344,7 +20359,7 @@
         <v>1.89</v>
       </c>
       <c r="AT101">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU101">
         <v>1.55</v>
@@ -20445,7 +20460,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q102">
         <v>7</v>
@@ -20535,7 +20550,7 @@
         <v>1.89</v>
       </c>
       <c r="AT102">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU102">
         <v>1.76</v>
@@ -20917,7 +20932,7 @@
         <v>2.78</v>
       </c>
       <c r="AT104">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU104">
         <v>1.62</v>
@@ -21105,7 +21120,7 @@
         <v>0.17</v>
       </c>
       <c r="AS105">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT105">
         <v>0.22</v>
@@ -21296,7 +21311,7 @@
         <v>1.2</v>
       </c>
       <c r="AS106">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT106">
         <v>1.11</v>
@@ -21487,7 +21502,7 @@
         <v>1.29</v>
       </c>
       <c r="AS107">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT107">
         <v>1.33</v>
@@ -21591,7 +21606,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -21678,10 +21693,10 @@
         <v>2.17</v>
       </c>
       <c r="AS108">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT108">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU108">
         <v>1.38</v>
@@ -21782,7 +21797,7 @@
         <v>81</v>
       </c>
       <c r="P109" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q109">
         <v>3</v>
@@ -21872,7 +21887,7 @@
         <v>1.6</v>
       </c>
       <c r="AT109">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU109">
         <v>1.86</v>
@@ -21973,7 +21988,7 @@
         <v>157</v>
       </c>
       <c r="P110" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22251,10 +22266,10 @@
         <v>1.57</v>
       </c>
       <c r="AS111">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT111">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU111">
         <v>1.39</v>
@@ -22355,7 +22370,7 @@
         <v>83</v>
       </c>
       <c r="P112" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22633,7 +22648,7 @@
         <v>1.67</v>
       </c>
       <c r="AS113">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT113">
         <v>1.67</v>
@@ -22737,7 +22752,7 @@
         <v>81</v>
       </c>
       <c r="P114" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q114">
         <v>4</v>
@@ -22827,7 +22842,7 @@
         <v>1.22</v>
       </c>
       <c r="AT114">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU114">
         <v>1.44</v>
@@ -23119,7 +23134,7 @@
         <v>92</v>
       </c>
       <c r="P116" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23310,7 +23325,7 @@
         <v>112</v>
       </c>
       <c r="P117" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -23692,7 +23707,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23782,7 +23797,7 @@
         <v>1.89</v>
       </c>
       <c r="AT119">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU119">
         <v>1.72</v>
@@ -24161,7 +24176,7 @@
         <v>1.57</v>
       </c>
       <c r="AS121">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT121">
         <v>1.44</v>
@@ -24265,7 +24280,7 @@
         <v>162</v>
       </c>
       <c r="P122" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24456,7 +24471,7 @@
         <v>163</v>
       </c>
       <c r="P123" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q123">
         <v>1</v>
@@ -25029,7 +25044,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q126">
         <v>8</v>
@@ -25116,10 +25131,10 @@
         <v>1.86</v>
       </c>
       <c r="AS126">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT126">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU126">
         <v>1.58</v>
@@ -25411,7 +25426,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25498,10 +25513,10 @@
         <v>0.75</v>
       </c>
       <c r="AS128">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT128">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU128">
         <v>1.43</v>
@@ -25692,7 +25707,7 @@
         <v>1.6</v>
       </c>
       <c r="AT129">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU129">
         <v>1.76</v>
@@ -25793,7 +25808,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -25880,7 +25895,7 @@
         <v>0.38</v>
       </c>
       <c r="AS130">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT130">
         <v>0.33</v>
@@ -26071,10 +26086,10 @@
         <v>1.13</v>
       </c>
       <c r="AS131">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT131">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU131">
         <v>1.34</v>
@@ -26265,7 +26280,7 @@
         <v>2.22</v>
       </c>
       <c r="AT132">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU132">
         <v>1.79</v>
@@ -26366,7 +26381,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -26453,7 +26468,7 @@
         <v>1.14</v>
       </c>
       <c r="AS133">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT133">
         <v>1.11</v>
@@ -26748,7 +26763,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -26835,10 +26850,10 @@
         <v>2.29</v>
       </c>
       <c r="AS135">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT135">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU135">
         <v>1.68</v>
@@ -26939,7 +26954,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q136">
         <v>2</v>
@@ -27321,7 +27336,7 @@
         <v>81</v>
       </c>
       <c r="P138" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q138">
         <v>1</v>
@@ -27411,7 +27426,7 @@
         <v>1.89</v>
       </c>
       <c r="AT138">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU138">
         <v>1.69</v>
@@ -27512,7 +27527,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27599,7 +27614,7 @@
         <v>1.13</v>
       </c>
       <c r="AS139">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT139">
         <v>1.33</v>
@@ -27703,7 +27718,7 @@
         <v>160</v>
       </c>
       <c r="P140" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -27894,7 +27909,7 @@
         <v>176</v>
       </c>
       <c r="P141" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q141">
         <v>2</v>
@@ -28085,7 +28100,7 @@
         <v>151</v>
       </c>
       <c r="P142" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q142">
         <v>12</v>
@@ -28467,7 +28482,7 @@
         <v>125</v>
       </c>
       <c r="P144" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -28557,7 +28572,7 @@
         <v>2.22</v>
       </c>
       <c r="AT144">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU144">
         <v>1.69</v>
@@ -28991,6 +29006,1152 @@
       </c>
       <c r="BK146">
         <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:63">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>2433475</v>
+      </c>
+      <c r="C147" t="s">
+        <v>63</v>
+      </c>
+      <c r="D147" t="s">
+        <v>64</v>
+      </c>
+      <c r="E147" s="2">
+        <v>44968.3125</v>
+      </c>
+      <c r="F147">
+        <v>19</v>
+      </c>
+      <c r="G147" t="s">
+        <v>68</v>
+      </c>
+      <c r="H147" t="s">
+        <v>78</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>2</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>2</v>
+      </c>
+      <c r="O147" t="s">
+        <v>177</v>
+      </c>
+      <c r="P147" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q147">
+        <v>8</v>
+      </c>
+      <c r="R147">
+        <v>1</v>
+      </c>
+      <c r="S147">
+        <v>9</v>
+      </c>
+      <c r="T147">
+        <v>1.62</v>
+      </c>
+      <c r="U147">
+        <v>2.75</v>
+      </c>
+      <c r="V147">
+        <v>11</v>
+      </c>
+      <c r="W147">
+        <v>1.28</v>
+      </c>
+      <c r="X147">
+        <v>3.48</v>
+      </c>
+      <c r="Y147">
+        <v>2.34</v>
+      </c>
+      <c r="Z147">
+        <v>1.56</v>
+      </c>
+      <c r="AA147">
+        <v>5.35</v>
+      </c>
+      <c r="AB147">
+        <v>1.14</v>
+      </c>
+      <c r="AC147">
+        <v>1.17</v>
+      </c>
+      <c r="AD147">
+        <v>6.25</v>
+      </c>
+      <c r="AE147">
+        <v>13</v>
+      </c>
+      <c r="AF147">
+        <v>1.03</v>
+      </c>
+      <c r="AG147">
+        <v>11</v>
+      </c>
+      <c r="AH147">
+        <v>1.18</v>
+      </c>
+      <c r="AI147">
+        <v>4.15</v>
+      </c>
+      <c r="AJ147">
+        <v>1.57</v>
+      </c>
+      <c r="AK147">
+        <v>2.25</v>
+      </c>
+      <c r="AL147">
+        <v>2.38</v>
+      </c>
+      <c r="AM147">
+        <v>1.53</v>
+      </c>
+      <c r="AN147">
+        <v>1.03</v>
+      </c>
+      <c r="AO147">
+        <v>1.08</v>
+      </c>
+      <c r="AP147">
+        <v>3.1</v>
+      </c>
+      <c r="AQ147">
+        <v>2.56</v>
+      </c>
+      <c r="AR147">
+        <v>0.78</v>
+      </c>
+      <c r="AS147">
+        <v>2.6</v>
+      </c>
+      <c r="AT147">
+        <v>0.7</v>
+      </c>
+      <c r="AU147">
+        <v>1.7</v>
+      </c>
+      <c r="AV147">
+        <v>0.91</v>
+      </c>
+      <c r="AW147">
+        <v>2.61</v>
+      </c>
+      <c r="AX147">
+        <v>0</v>
+      </c>
+      <c r="AY147">
+        <v>0</v>
+      </c>
+      <c r="AZ147">
+        <v>0</v>
+      </c>
+      <c r="BA147">
+        <v>0</v>
+      </c>
+      <c r="BB147">
+        <v>0</v>
+      </c>
+      <c r="BC147">
+        <v>0</v>
+      </c>
+      <c r="BD147">
+        <v>0</v>
+      </c>
+      <c r="BE147">
+        <v>0</v>
+      </c>
+      <c r="BF147">
+        <v>10</v>
+      </c>
+      <c r="BG147">
+        <v>0</v>
+      </c>
+      <c r="BH147">
+        <v>7</v>
+      </c>
+      <c r="BI147">
+        <v>3</v>
+      </c>
+      <c r="BJ147">
+        <v>17</v>
+      </c>
+      <c r="BK147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:63">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>2433472</v>
+      </c>
+      <c r="C148" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" t="s">
+        <v>64</v>
+      </c>
+      <c r="E148" s="2">
+        <v>44968.3125</v>
+      </c>
+      <c r="F148">
+        <v>19</v>
+      </c>
+      <c r="G148" t="s">
+        <v>75</v>
+      </c>
+      <c r="H148" t="s">
+        <v>76</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148">
+        <v>1</v>
+      </c>
+      <c r="O148" t="s">
+        <v>81</v>
+      </c>
+      <c r="P148" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q148">
+        <v>1</v>
+      </c>
+      <c r="R148">
+        <v>3</v>
+      </c>
+      <c r="S148">
+        <v>4</v>
+      </c>
+      <c r="T148">
+        <v>2.3</v>
+      </c>
+      <c r="U148">
+        <v>1.95</v>
+      </c>
+      <c r="V148">
+        <v>7</v>
+      </c>
+      <c r="W148">
+        <v>1.58</v>
+      </c>
+      <c r="X148">
+        <v>2.3</v>
+      </c>
+      <c r="Y148">
+        <v>3.72</v>
+      </c>
+      <c r="Z148">
+        <v>1.25</v>
+      </c>
+      <c r="AA148">
+        <v>10.5</v>
+      </c>
+      <c r="AB148">
+        <v>1.03</v>
+      </c>
+      <c r="AC148">
+        <v>1.63</v>
+      </c>
+      <c r="AD148">
+        <v>3.4</v>
+      </c>
+      <c r="AE148">
+        <v>5.25</v>
+      </c>
+      <c r="AF148">
+        <v>1.08</v>
+      </c>
+      <c r="AG148">
+        <v>6.1</v>
+      </c>
+      <c r="AH148">
+        <v>1.55</v>
+      </c>
+      <c r="AI148">
+        <v>2.36</v>
+      </c>
+      <c r="AJ148">
+        <v>2.77</v>
+      </c>
+      <c r="AK148">
+        <v>1.39</v>
+      </c>
+      <c r="AL148">
+        <v>2.57</v>
+      </c>
+      <c r="AM148">
+        <v>1.48</v>
+      </c>
+      <c r="AN148">
+        <v>1.11</v>
+      </c>
+      <c r="AO148">
+        <v>1.3</v>
+      </c>
+      <c r="AP148">
+        <v>2.26</v>
+      </c>
+      <c r="AQ148">
+        <v>2.22</v>
+      </c>
+      <c r="AR148">
+        <v>1.33</v>
+      </c>
+      <c r="AS148">
+        <v>2</v>
+      </c>
+      <c r="AT148">
+        <v>1.5</v>
+      </c>
+      <c r="AU148">
+        <v>2.27</v>
+      </c>
+      <c r="AV148">
+        <v>1.42</v>
+      </c>
+      <c r="AW148">
+        <v>3.69</v>
+      </c>
+      <c r="AX148">
+        <v>0</v>
+      </c>
+      <c r="AY148">
+        <v>0</v>
+      </c>
+      <c r="AZ148">
+        <v>0</v>
+      </c>
+      <c r="BA148">
+        <v>0</v>
+      </c>
+      <c r="BB148">
+        <v>0</v>
+      </c>
+      <c r="BC148">
+        <v>0</v>
+      </c>
+      <c r="BD148">
+        <v>0</v>
+      </c>
+      <c r="BE148">
+        <v>0</v>
+      </c>
+      <c r="BF148">
+        <v>7</v>
+      </c>
+      <c r="BG148">
+        <v>5</v>
+      </c>
+      <c r="BH148">
+        <v>4</v>
+      </c>
+      <c r="BI148">
+        <v>5</v>
+      </c>
+      <c r="BJ148">
+        <v>11</v>
+      </c>
+      <c r="BK148">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:63">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>2433474</v>
+      </c>
+      <c r="C149" t="s">
+        <v>63</v>
+      </c>
+      <c r="D149" t="s">
+        <v>64</v>
+      </c>
+      <c r="E149" s="2">
+        <v>44968.41666666666</v>
+      </c>
+      <c r="F149">
+        <v>19</v>
+      </c>
+      <c r="G149" t="s">
+        <v>71</v>
+      </c>
+      <c r="H149" t="s">
+        <v>74</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>2</v>
+      </c>
+      <c r="K149">
+        <v>2</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149">
+        <v>2</v>
+      </c>
+      <c r="N149">
+        <v>3</v>
+      </c>
+      <c r="O149" t="s">
+        <v>163</v>
+      </c>
+      <c r="P149" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q149">
+        <v>2</v>
+      </c>
+      <c r="R149">
+        <v>5</v>
+      </c>
+      <c r="S149">
+        <v>7</v>
+      </c>
+      <c r="T149">
+        <v>10</v>
+      </c>
+      <c r="U149">
+        <v>2.75</v>
+      </c>
+      <c r="V149">
+        <v>1.62</v>
+      </c>
+      <c r="W149">
+        <v>1.24</v>
+      </c>
+      <c r="X149">
+        <v>3.82</v>
+      </c>
+      <c r="Y149">
+        <v>2.15</v>
+      </c>
+      <c r="Z149">
+        <v>1.66</v>
+      </c>
+      <c r="AA149">
+        <v>4.64</v>
+      </c>
+      <c r="AB149">
+        <v>1.17</v>
+      </c>
+      <c r="AC149">
+        <v>13</v>
+      </c>
+      <c r="AD149">
+        <v>6.5</v>
+      </c>
+      <c r="AE149">
+        <v>1.13</v>
+      </c>
+      <c r="AF149">
+        <v>1.02</v>
+      </c>
+      <c r="AG149">
+        <v>13</v>
+      </c>
+      <c r="AH149">
+        <v>1.11</v>
+      </c>
+      <c r="AI149">
+        <v>5.2</v>
+      </c>
+      <c r="AJ149">
+        <v>1.43</v>
+      </c>
+      <c r="AK149">
+        <v>2.43</v>
+      </c>
+      <c r="AL149">
+        <v>2.05</v>
+      </c>
+      <c r="AM149">
+        <v>1.73</v>
+      </c>
+      <c r="AN149">
+        <v>3.05</v>
+      </c>
+      <c r="AO149">
+        <v>1.08</v>
+      </c>
+      <c r="AP149">
+        <v>1.04</v>
+      </c>
+      <c r="AQ149">
+        <v>0.67</v>
+      </c>
+      <c r="AR149">
+        <v>2.44</v>
+      </c>
+      <c r="AS149">
+        <v>0.6</v>
+      </c>
+      <c r="AT149">
+        <v>2.5</v>
+      </c>
+      <c r="AU149">
+        <v>1.32</v>
+      </c>
+      <c r="AV149">
+        <v>2.19</v>
+      </c>
+      <c r="AW149">
+        <v>3.51</v>
+      </c>
+      <c r="AX149">
+        <v>0</v>
+      </c>
+      <c r="AY149">
+        <v>0</v>
+      </c>
+      <c r="AZ149">
+        <v>0</v>
+      </c>
+      <c r="BA149">
+        <v>0</v>
+      </c>
+      <c r="BB149">
+        <v>0</v>
+      </c>
+      <c r="BC149">
+        <v>0</v>
+      </c>
+      <c r="BD149">
+        <v>0</v>
+      </c>
+      <c r="BE149">
+        <v>0</v>
+      </c>
+      <c r="BF149">
+        <v>3</v>
+      </c>
+      <c r="BG149">
+        <v>9</v>
+      </c>
+      <c r="BH149">
+        <v>7</v>
+      </c>
+      <c r="BI149">
+        <v>7</v>
+      </c>
+      <c r="BJ149">
+        <v>10</v>
+      </c>
+      <c r="BK149">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:63">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>2433477</v>
+      </c>
+      <c r="C150" t="s">
+        <v>63</v>
+      </c>
+      <c r="D150" t="s">
+        <v>64</v>
+      </c>
+      <c r="E150" s="2">
+        <v>44969.29166666666</v>
+      </c>
+      <c r="F150">
+        <v>19</v>
+      </c>
+      <c r="G150" t="s">
+        <v>66</v>
+      </c>
+      <c r="H150" t="s">
+        <v>79</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150">
+        <v>1</v>
+      </c>
+      <c r="O150" t="s">
+        <v>81</v>
+      </c>
+      <c r="P150" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q150">
+        <v>6</v>
+      </c>
+      <c r="R150">
+        <v>11</v>
+      </c>
+      <c r="S150">
+        <v>17</v>
+      </c>
+      <c r="T150">
+        <v>3.6</v>
+      </c>
+      <c r="U150">
+        <v>2</v>
+      </c>
+      <c r="V150">
+        <v>3.25</v>
+      </c>
+      <c r="W150">
+        <v>1.5</v>
+      </c>
+      <c r="X150">
+        <v>2.49</v>
+      </c>
+      <c r="Y150">
+        <v>3.34</v>
+      </c>
+      <c r="Z150">
+        <v>1.3</v>
+      </c>
+      <c r="AA150">
+        <v>9</v>
+      </c>
+      <c r="AB150">
+        <v>1.05</v>
+      </c>
+      <c r="AC150">
+        <v>2.66</v>
+      </c>
+      <c r="AD150">
+        <v>3.25</v>
+      </c>
+      <c r="AE150">
+        <v>2.4</v>
+      </c>
+      <c r="AF150">
+        <v>1.05</v>
+      </c>
+      <c r="AG150">
+        <v>7.1</v>
+      </c>
+      <c r="AH150">
+        <v>1.41</v>
+      </c>
+      <c r="AI150">
+        <v>2.64</v>
+      </c>
+      <c r="AJ150">
+        <v>2.29</v>
+      </c>
+      <c r="AK150">
+        <v>1.55</v>
+      </c>
+      <c r="AL150">
+        <v>1.96</v>
+      </c>
+      <c r="AM150">
+        <v>1.8</v>
+      </c>
+      <c r="AN150">
+        <v>1.43</v>
+      </c>
+      <c r="AO150">
+        <v>1.28</v>
+      </c>
+      <c r="AP150">
+        <v>1.35</v>
+      </c>
+      <c r="AQ150">
+        <v>0.89</v>
+      </c>
+      <c r="AR150">
+        <v>1</v>
+      </c>
+      <c r="AS150">
+        <v>0.8</v>
+      </c>
+      <c r="AT150">
+        <v>1.2</v>
+      </c>
+      <c r="AU150">
+        <v>1.48</v>
+      </c>
+      <c r="AV150">
+        <v>1.07</v>
+      </c>
+      <c r="AW150">
+        <v>2.55</v>
+      </c>
+      <c r="AX150">
+        <v>0</v>
+      </c>
+      <c r="AY150">
+        <v>0</v>
+      </c>
+      <c r="AZ150">
+        <v>0</v>
+      </c>
+      <c r="BA150">
+        <v>0</v>
+      </c>
+      <c r="BB150">
+        <v>0</v>
+      </c>
+      <c r="BC150">
+        <v>0</v>
+      </c>
+      <c r="BD150">
+        <v>0</v>
+      </c>
+      <c r="BE150">
+        <v>0</v>
+      </c>
+      <c r="BF150">
+        <v>2</v>
+      </c>
+      <c r="BG150">
+        <v>4</v>
+      </c>
+      <c r="BH150">
+        <v>5</v>
+      </c>
+      <c r="BI150">
+        <v>4</v>
+      </c>
+      <c r="BJ150">
+        <v>7</v>
+      </c>
+      <c r="BK150">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:63">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>2433479</v>
+      </c>
+      <c r="C151" t="s">
+        <v>63</v>
+      </c>
+      <c r="D151" t="s">
+        <v>64</v>
+      </c>
+      <c r="E151" s="2">
+        <v>44969.38541666666</v>
+      </c>
+      <c r="F151">
+        <v>19</v>
+      </c>
+      <c r="G151" t="s">
+        <v>72</v>
+      </c>
+      <c r="H151" t="s">
+        <v>70</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>4</v>
+      </c>
+      <c r="N151">
+        <v>5</v>
+      </c>
+      <c r="O151" t="s">
+        <v>178</v>
+      </c>
+      <c r="P151" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q151">
+        <v>4</v>
+      </c>
+      <c r="R151">
+        <v>7</v>
+      </c>
+      <c r="S151">
+        <v>11</v>
+      </c>
+      <c r="T151">
+        <v>6</v>
+      </c>
+      <c r="U151">
+        <v>2.1</v>
+      </c>
+      <c r="V151">
+        <v>2.38</v>
+      </c>
+      <c r="W151">
+        <v>1.48</v>
+      </c>
+      <c r="X151">
+        <v>2.55</v>
+      </c>
+      <c r="Y151">
+        <v>3.28</v>
+      </c>
+      <c r="Z151">
+        <v>1.31</v>
+      </c>
+      <c r="AA151">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AB151">
+        <v>1.05</v>
+      </c>
+      <c r="AC151">
+        <v>5.28</v>
+      </c>
+      <c r="AD151">
+        <v>3.7</v>
+      </c>
+      <c r="AE151">
+        <v>1.55</v>
+      </c>
+      <c r="AF151">
+        <v>1.05</v>
+      </c>
+      <c r="AG151">
+        <v>7.3</v>
+      </c>
+      <c r="AH151">
+        <v>1.4</v>
+      </c>
+      <c r="AI151">
+        <v>2.68</v>
+      </c>
+      <c r="AJ151">
+        <v>2.19</v>
+      </c>
+      <c r="AK151">
+        <v>1.6</v>
+      </c>
+      <c r="AL151">
+        <v>2.19</v>
+      </c>
+      <c r="AM151">
+        <v>1.64</v>
+      </c>
+      <c r="AN151">
+        <v>2.22</v>
+      </c>
+      <c r="AO151">
+        <v>1.28</v>
+      </c>
+      <c r="AP151">
+        <v>1.14</v>
+      </c>
+      <c r="AQ151">
+        <v>1.56</v>
+      </c>
+      <c r="AR151">
+        <v>2.11</v>
+      </c>
+      <c r="AS151">
+        <v>1.4</v>
+      </c>
+      <c r="AT151">
+        <v>2.2</v>
+      </c>
+      <c r="AU151">
+        <v>1.32</v>
+      </c>
+      <c r="AV151">
+        <v>1.35</v>
+      </c>
+      <c r="AW151">
+        <v>2.67</v>
+      </c>
+      <c r="AX151">
+        <v>0</v>
+      </c>
+      <c r="AY151">
+        <v>0</v>
+      </c>
+      <c r="AZ151">
+        <v>0</v>
+      </c>
+      <c r="BA151">
+        <v>0</v>
+      </c>
+      <c r="BB151">
+        <v>0</v>
+      </c>
+      <c r="BC151">
+        <v>0</v>
+      </c>
+      <c r="BD151">
+        <v>0</v>
+      </c>
+      <c r="BE151">
+        <v>0</v>
+      </c>
+      <c r="BF151">
+        <v>4</v>
+      </c>
+      <c r="BG151">
+        <v>8</v>
+      </c>
+      <c r="BH151">
+        <v>3</v>
+      </c>
+      <c r="BI151">
+        <v>5</v>
+      </c>
+      <c r="BJ151">
+        <v>7</v>
+      </c>
+      <c r="BK151">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:63">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>2433476</v>
+      </c>
+      <c r="C152" t="s">
+        <v>63</v>
+      </c>
+      <c r="D152" t="s">
+        <v>64</v>
+      </c>
+      <c r="E152" s="2">
+        <v>44969.48958333334</v>
+      </c>
+      <c r="F152">
+        <v>19</v>
+      </c>
+      <c r="G152" t="s">
+        <v>67</v>
+      </c>
+      <c r="H152" t="s">
+        <v>73</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+      <c r="O152" t="s">
+        <v>81</v>
+      </c>
+      <c r="P152" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q152">
+        <v>7</v>
+      </c>
+      <c r="R152">
+        <v>5</v>
+      </c>
+      <c r="S152">
+        <v>12</v>
+      </c>
+      <c r="T152">
+        <v>2</v>
+      </c>
+      <c r="U152">
+        <v>2.25</v>
+      </c>
+      <c r="V152">
+        <v>7.5</v>
+      </c>
+      <c r="W152">
+        <v>1.41</v>
+      </c>
+      <c r="X152">
+        <v>2.79</v>
+      </c>
+      <c r="Y152">
+        <v>2.91</v>
+      </c>
+      <c r="Z152">
+        <v>1.38</v>
+      </c>
+      <c r="AA152">
+        <v>7.4</v>
+      </c>
+      <c r="AB152">
+        <v>1.07</v>
+      </c>
+      <c r="AC152">
+        <v>1.42</v>
+      </c>
+      <c r="AD152">
+        <v>4</v>
+      </c>
+      <c r="AE152">
+        <v>6.63</v>
+      </c>
+      <c r="AF152">
+        <v>1.02</v>
+      </c>
+      <c r="AG152">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH152">
+        <v>1.3</v>
+      </c>
+      <c r="AI152">
+        <v>3.14</v>
+      </c>
+      <c r="AJ152">
+        <v>1.96</v>
+      </c>
+      <c r="AK152">
+        <v>1.75</v>
+      </c>
+      <c r="AL152">
+        <v>2.19</v>
+      </c>
+      <c r="AM152">
+        <v>1.64</v>
+      </c>
+      <c r="AN152">
+        <v>1.09</v>
+      </c>
+      <c r="AO152">
+        <v>1.17</v>
+      </c>
+      <c r="AP152">
+        <v>2.22</v>
+      </c>
+      <c r="AQ152">
+        <v>2</v>
+      </c>
+      <c r="AR152">
+        <v>0.44</v>
+      </c>
+      <c r="AS152">
+        <v>1.9</v>
+      </c>
+      <c r="AT152">
+        <v>0.5</v>
+      </c>
+      <c r="AU152">
+        <v>1.61</v>
+      </c>
+      <c r="AV152">
+        <v>1.28</v>
+      </c>
+      <c r="AW152">
+        <v>2.89</v>
+      </c>
+      <c r="AX152">
+        <v>1.41</v>
+      </c>
+      <c r="AY152">
+        <v>7.5</v>
+      </c>
+      <c r="AZ152">
+        <v>4.3</v>
+      </c>
+      <c r="BA152">
+        <v>1.36</v>
+      </c>
+      <c r="BB152">
+        <v>1.62</v>
+      </c>
+      <c r="BC152">
+        <v>2.05</v>
+      </c>
+      <c r="BD152">
+        <v>2.7</v>
+      </c>
+      <c r="BE152">
+        <v>0</v>
+      </c>
+      <c r="BF152">
+        <v>6</v>
+      </c>
+      <c r="BG152">
+        <v>5</v>
+      </c>
+      <c r="BH152">
+        <v>10</v>
+      </c>
+      <c r="BI152">
+        <v>4</v>
+      </c>
+      <c r="BJ152">
+        <v>16</v>
+      </c>
+      <c r="BK152">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="248">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -551,6 +551,9 @@
   </si>
   <si>
     <t>['54']</t>
+  </si>
+  <si>
+    <t>['19', '26']</t>
   </si>
   <si>
     <t>['78']</t>
@@ -1116,7 +1119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK152"/>
+  <dimension ref="A1:BK153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1360,7 +1363,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1551,7 +1554,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1742,7 +1745,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1832,7 +1835,7 @@
         <v>1.9</v>
       </c>
       <c r="AT4">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2124,7 +2127,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2697,7 +2700,7 @@
         <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2888,7 +2891,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3270,7 +3273,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3843,7 +3846,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4034,7 +4037,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4416,7 +4419,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4506,7 +4509,7 @@
         <v>0.6</v>
       </c>
       <c r="AT18">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU18">
         <v>0.97</v>
@@ -4607,7 +4610,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -4989,7 +4992,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5180,7 +5183,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5753,7 +5756,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -6326,7 +6329,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6708,7 +6711,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6899,7 +6902,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -7281,7 +7284,7 @@
         <v>81</v>
       </c>
       <c r="P33" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7472,7 +7475,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7753,7 +7756,7 @@
         <v>2</v>
       </c>
       <c r="AT35">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU35">
         <v>3.77</v>
@@ -7854,7 +7857,7 @@
         <v>81</v>
       </c>
       <c r="P36" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8326,7 +8329,7 @@
         <v>1.89</v>
       </c>
       <c r="AT38">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU38">
         <v>1.46</v>
@@ -8427,7 +8430,7 @@
         <v>81</v>
       </c>
       <c r="P39" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8809,7 +8812,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q41">
         <v>13</v>
@@ -9573,7 +9576,7 @@
         <v>111</v>
       </c>
       <c r="P45" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9764,7 +9767,7 @@
         <v>112</v>
       </c>
       <c r="P46" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10337,7 +10340,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10528,7 +10531,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10615,7 +10618,7 @@
         <v>0.33</v>
       </c>
       <c r="AS50">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT50">
         <v>0.5</v>
@@ -10719,7 +10722,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10910,7 +10913,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11483,7 +11486,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -11764,7 +11767,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT56">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU56">
         <v>0.96</v>
@@ -11865,7 +11868,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12056,7 +12059,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12247,7 +12250,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12438,7 +12441,7 @@
         <v>123</v>
       </c>
       <c r="P60" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12629,7 +12632,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -12716,7 +12719,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT61">
         <v>1</v>
@@ -13966,7 +13969,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -14348,7 +14351,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14921,7 +14924,7 @@
         <v>81</v>
       </c>
       <c r="P73" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -15202,7 +15205,7 @@
         <v>1.89</v>
       </c>
       <c r="AT74">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU74">
         <v>1.52</v>
@@ -15303,7 +15306,7 @@
         <v>81</v>
       </c>
       <c r="P75" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q75">
         <v>1</v>
@@ -15494,7 +15497,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15685,7 +15688,7 @@
         <v>81</v>
       </c>
       <c r="P77" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q77">
         <v>1</v>
@@ -16067,7 +16070,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16536,7 +16539,7 @@
         <v>0</v>
       </c>
       <c r="AS81">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT81">
         <v>0.5600000000000001</v>
@@ -16831,7 +16834,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q83">
         <v>11</v>
@@ -17213,7 +17216,7 @@
         <v>140</v>
       </c>
       <c r="P85" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -17404,7 +17407,7 @@
         <v>141</v>
       </c>
       <c r="P86" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17977,7 +17980,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18168,7 +18171,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18258,7 +18261,7 @@
         <v>2.78</v>
       </c>
       <c r="AT90">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU90">
         <v>1.67</v>
@@ -18550,7 +18553,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q92">
         <v>2</v>
@@ -19019,7 +19022,7 @@
         <v>0.6</v>
       </c>
       <c r="AS94">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT94">
         <v>0.78</v>
@@ -19696,7 +19699,7 @@
         <v>81</v>
       </c>
       <c r="P98" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -20165,7 +20168,7 @@
         <v>1.5</v>
       </c>
       <c r="AS100">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT100">
         <v>1.11</v>
@@ -20460,7 +20463,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q102">
         <v>7</v>
@@ -20741,7 +20744,7 @@
         <v>1.6</v>
       </c>
       <c r="AT103">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU103">
         <v>1.81</v>
@@ -21606,7 +21609,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -21797,7 +21800,7 @@
         <v>81</v>
       </c>
       <c r="P109" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q109">
         <v>3</v>
@@ -21988,7 +21991,7 @@
         <v>157</v>
       </c>
       <c r="P110" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22370,7 +22373,7 @@
         <v>83</v>
       </c>
       <c r="P112" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22457,7 +22460,7 @@
         <v>1.67</v>
       </c>
       <c r="AS112">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT112">
         <v>1.44</v>
@@ -22752,7 +22755,7 @@
         <v>81</v>
       </c>
       <c r="P114" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q114">
         <v>4</v>
@@ -23134,7 +23137,7 @@
         <v>92</v>
       </c>
       <c r="P116" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23325,7 +23328,7 @@
         <v>112</v>
       </c>
       <c r="P117" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -23707,7 +23710,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -24280,7 +24283,7 @@
         <v>162</v>
       </c>
       <c r="P122" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24367,7 +24370,7 @@
         <v>0.14</v>
       </c>
       <c r="AS122">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT122">
         <v>0.22</v>
@@ -24471,7 +24474,7 @@
         <v>163</v>
       </c>
       <c r="P123" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q123">
         <v>1</v>
@@ -25044,7 +25047,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q126">
         <v>8</v>
@@ -25426,7 +25429,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25808,7 +25811,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -25898,7 +25901,7 @@
         <v>2.6</v>
       </c>
       <c r="AT130">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU130">
         <v>1.7</v>
@@ -26277,7 +26280,7 @@
         <v>1.5</v>
       </c>
       <c r="AS132">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT132">
         <v>1.5</v>
@@ -26381,7 +26384,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -26763,7 +26766,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -26954,7 +26957,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q136">
         <v>2</v>
@@ -27336,7 +27339,7 @@
         <v>81</v>
       </c>
       <c r="P138" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q138">
         <v>1</v>
@@ -27527,7 +27530,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27718,7 +27721,7 @@
         <v>160</v>
       </c>
       <c r="P140" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -27909,7 +27912,7 @@
         <v>176</v>
       </c>
       <c r="P141" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q141">
         <v>2</v>
@@ -28100,7 +28103,7 @@
         <v>151</v>
       </c>
       <c r="P142" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q142">
         <v>12</v>
@@ -28482,7 +28485,7 @@
         <v>125</v>
       </c>
       <c r="P144" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -28569,7 +28572,7 @@
         <v>2.38</v>
       </c>
       <c r="AS144">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT144">
         <v>2.5</v>
@@ -29246,7 +29249,7 @@
         <v>81</v>
       </c>
       <c r="P148" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q148">
         <v>1</v>
@@ -29437,7 +29440,7 @@
         <v>163</v>
       </c>
       <c r="P149" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q149">
         <v>2</v>
@@ -29628,7 +29631,7 @@
         <v>81</v>
       </c>
       <c r="P150" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -29819,7 +29822,7 @@
         <v>178</v>
       </c>
       <c r="P151" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30152,6 +30155,197 @@
       </c>
       <c r="BK152">
         <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:63">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>2433473</v>
+      </c>
+      <c r="C153" t="s">
+        <v>63</v>
+      </c>
+      <c r="D153" t="s">
+        <v>64</v>
+      </c>
+      <c r="E153" s="2">
+        <v>44970.5</v>
+      </c>
+      <c r="F153">
+        <v>19</v>
+      </c>
+      <c r="G153" t="s">
+        <v>80</v>
+      </c>
+      <c r="H153" t="s">
+        <v>77</v>
+      </c>
+      <c r="I153">
+        <v>2</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>2</v>
+      </c>
+      <c r="L153">
+        <v>2</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>2</v>
+      </c>
+      <c r="O153" t="s">
+        <v>179</v>
+      </c>
+      <c r="P153" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q153">
+        <v>2</v>
+      </c>
+      <c r="R153">
+        <v>5</v>
+      </c>
+      <c r="S153">
+        <v>7</v>
+      </c>
+      <c r="T153">
+        <v>2.2</v>
+      </c>
+      <c r="U153">
+        <v>2.1</v>
+      </c>
+      <c r="V153">
+        <v>6.5</v>
+      </c>
+      <c r="W153">
+        <v>1.46</v>
+      </c>
+      <c r="X153">
+        <v>2.61</v>
+      </c>
+      <c r="Y153">
+        <v>3.16</v>
+      </c>
+      <c r="Z153">
+        <v>1.33</v>
+      </c>
+      <c r="AA153">
+        <v>8.4</v>
+      </c>
+      <c r="AB153">
+        <v>1.06</v>
+      </c>
+      <c r="AC153">
+        <v>1.47</v>
+      </c>
+      <c r="AD153">
+        <v>3.8</v>
+      </c>
+      <c r="AE153">
+        <v>6</v>
+      </c>
+      <c r="AF153">
+        <v>1.08</v>
+      </c>
+      <c r="AG153">
+        <v>7</v>
+      </c>
+      <c r="AH153">
+        <v>1.36</v>
+      </c>
+      <c r="AI153">
+        <v>3</v>
+      </c>
+      <c r="AJ153">
+        <v>2.15</v>
+      </c>
+      <c r="AK153">
+        <v>1.57</v>
+      </c>
+      <c r="AL153">
+        <v>2.25</v>
+      </c>
+      <c r="AM153">
+        <v>1.57</v>
+      </c>
+      <c r="AN153">
+        <v>1.11</v>
+      </c>
+      <c r="AO153">
+        <v>1.19</v>
+      </c>
+      <c r="AP153">
+        <v>2.09</v>
+      </c>
+      <c r="AQ153">
+        <v>2.22</v>
+      </c>
+      <c r="AR153">
+        <v>0.33</v>
+      </c>
+      <c r="AS153">
+        <v>2.3</v>
+      </c>
+      <c r="AT153">
+        <v>0.3</v>
+      </c>
+      <c r="AU153">
+        <v>1.66</v>
+      </c>
+      <c r="AV153">
+        <v>1.18</v>
+      </c>
+      <c r="AW153">
+        <v>2.84</v>
+      </c>
+      <c r="AX153">
+        <v>1.47</v>
+      </c>
+      <c r="AY153">
+        <v>7.8</v>
+      </c>
+      <c r="AZ153">
+        <v>3.54</v>
+      </c>
+      <c r="BA153">
+        <v>1.27</v>
+      </c>
+      <c r="BB153">
+        <v>1.57</v>
+      </c>
+      <c r="BC153">
+        <v>1.93</v>
+      </c>
+      <c r="BD153">
+        <v>2.42</v>
+      </c>
+      <c r="BE153">
+        <v>3.4</v>
+      </c>
+      <c r="BF153">
+        <v>4</v>
+      </c>
+      <c r="BG153">
+        <v>4</v>
+      </c>
+      <c r="BH153">
+        <v>4</v>
+      </c>
+      <c r="BI153">
+        <v>8</v>
+      </c>
+      <c r="BJ153">
+        <v>8</v>
+      </c>
+      <c r="BK153">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="249">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t>['19', '26']</t>
+  </si>
+  <si>
+    <t>['26', '51', '59', '78', '90+3']</t>
   </si>
   <si>
     <t>['78']</t>
@@ -1119,7 +1122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK153"/>
+  <dimension ref="A1:BK154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1363,7 +1366,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1554,7 +1557,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1745,7 +1748,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2127,7 +2130,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2700,7 +2703,7 @@
         <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2891,7 +2894,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3172,7 +3175,7 @@
         <v>2.33</v>
       </c>
       <c r="AT11">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3273,7 +3276,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3846,7 +3849,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4037,7 +4040,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4315,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT17">
         <v>0.5600000000000001</v>
@@ -4419,7 +4422,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4610,7 +4613,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -4992,7 +4995,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5183,7 +5186,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5756,7 +5759,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -6228,7 +6231,7 @@
         <v>1.22</v>
       </c>
       <c r="AT27">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU27">
         <v>1.65</v>
@@ -6329,7 +6332,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6711,7 +6714,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6902,7 +6905,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -6989,7 +6992,7 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT31">
         <v>0.78</v>
@@ -7284,7 +7287,7 @@
         <v>81</v>
       </c>
       <c r="P33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7475,7 +7478,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7857,7 +7860,7 @@
         <v>81</v>
       </c>
       <c r="P36" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8430,7 +8433,7 @@
         <v>81</v>
       </c>
       <c r="P39" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8708,7 +8711,7 @@
         <v>2</v>
       </c>
       <c r="AS40">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT40">
         <v>1.44</v>
@@ -8812,7 +8815,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q41">
         <v>13</v>
@@ -9284,7 +9287,7 @@
         <v>1.89</v>
       </c>
       <c r="AT43">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU43">
         <v>1.44</v>
@@ -9576,7 +9579,7 @@
         <v>111</v>
       </c>
       <c r="P45" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9767,7 +9770,7 @@
         <v>112</v>
       </c>
       <c r="P46" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10340,7 +10343,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10531,7 +10534,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10722,7 +10725,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10913,7 +10916,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11194,7 +11197,7 @@
         <v>1.4</v>
       </c>
       <c r="AT53">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU53">
         <v>1.26</v>
@@ -11382,7 +11385,7 @@
         <v>2.25</v>
       </c>
       <c r="AS54">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT54">
         <v>1.33</v>
@@ -11486,7 +11489,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -11868,7 +11871,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12059,7 +12062,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12250,7 +12253,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12441,7 +12444,7 @@
         <v>123</v>
       </c>
       <c r="P60" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12632,7 +12635,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13969,7 +13972,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -14351,7 +14354,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14924,7 +14927,7 @@
         <v>81</v>
       </c>
       <c r="P73" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -15202,7 +15205,7 @@
         <v>0.4</v>
       </c>
       <c r="AS74">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT74">
         <v>0.3</v>
@@ -15306,7 +15309,7 @@
         <v>81</v>
       </c>
       <c r="P75" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q75">
         <v>1</v>
@@ -15396,7 +15399,7 @@
         <v>0.8</v>
       </c>
       <c r="AT75">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU75">
         <v>1.67</v>
@@ -15497,7 +15500,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15688,7 +15691,7 @@
         <v>81</v>
       </c>
       <c r="P77" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q77">
         <v>1</v>
@@ -16070,7 +16073,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16834,7 +16837,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q83">
         <v>11</v>
@@ -17112,7 +17115,7 @@
         <v>1</v>
       </c>
       <c r="AS84">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT84">
         <v>0.7</v>
@@ -17216,7 +17219,7 @@
         <v>140</v>
       </c>
       <c r="P85" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -17407,7 +17410,7 @@
         <v>141</v>
       </c>
       <c r="P86" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17980,7 +17983,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18171,7 +18174,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18553,7 +18556,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q92">
         <v>2</v>
@@ -19699,7 +19702,7 @@
         <v>81</v>
       </c>
       <c r="P98" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19789,7 +19792,7 @@
         <v>0.6</v>
       </c>
       <c r="AT98">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU98">
         <v>1.38</v>
@@ -20463,7 +20466,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q102">
         <v>7</v>
@@ -21609,7 +21612,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -21800,7 +21803,7 @@
         <v>81</v>
       </c>
       <c r="P109" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q109">
         <v>3</v>
@@ -21991,7 +21994,7 @@
         <v>157</v>
       </c>
       <c r="P110" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22078,7 +22081,7 @@
         <v>1.17</v>
       </c>
       <c r="AS110">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT110">
         <v>1</v>
@@ -22373,7 +22376,7 @@
         <v>83</v>
       </c>
       <c r="P112" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22654,7 +22657,7 @@
         <v>2</v>
       </c>
       <c r="AT113">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU113">
         <v>2.51</v>
@@ -22755,7 +22758,7 @@
         <v>81</v>
       </c>
       <c r="P114" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q114">
         <v>4</v>
@@ -23137,7 +23140,7 @@
         <v>92</v>
       </c>
       <c r="P116" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23328,7 +23331,7 @@
         <v>112</v>
       </c>
       <c r="P117" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -23609,7 +23612,7 @@
         <v>1</v>
       </c>
       <c r="AT118">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU118">
         <v>1.33</v>
@@ -23710,7 +23713,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23797,7 +23800,7 @@
         <v>1.67</v>
       </c>
       <c r="AS119">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT119">
         <v>2.2</v>
@@ -24283,7 +24286,7 @@
         <v>162</v>
       </c>
       <c r="P122" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24474,7 +24477,7 @@
         <v>163</v>
       </c>
       <c r="P123" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q123">
         <v>1</v>
@@ -25047,7 +25050,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q126">
         <v>8</v>
@@ -25429,7 +25432,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25811,7 +25814,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -26384,7 +26387,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -26766,7 +26769,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -26957,7 +26960,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q136">
         <v>2</v>
@@ -27235,7 +27238,7 @@
         <v>0.5</v>
       </c>
       <c r="AS137">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT137">
         <v>0.44</v>
@@ -27339,7 +27342,7 @@
         <v>81</v>
       </c>
       <c r="P138" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q138">
         <v>1</v>
@@ -27530,7 +27533,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27721,7 +27724,7 @@
         <v>160</v>
       </c>
       <c r="P140" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -27811,7 +27814,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT140">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU140">
         <v>1.03</v>
@@ -27912,7 +27915,7 @@
         <v>176</v>
       </c>
       <c r="P141" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q141">
         <v>2</v>
@@ -28103,7 +28106,7 @@
         <v>151</v>
       </c>
       <c r="P142" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q142">
         <v>12</v>
@@ -28485,7 +28488,7 @@
         <v>125</v>
       </c>
       <c r="P144" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -29249,7 +29252,7 @@
         <v>81</v>
       </c>
       <c r="P148" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q148">
         <v>1</v>
@@ -29440,7 +29443,7 @@
         <v>163</v>
       </c>
       <c r="P149" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q149">
         <v>2</v>
@@ -29631,7 +29634,7 @@
         <v>81</v>
       </c>
       <c r="P150" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -29822,7 +29825,7 @@
         <v>178</v>
       </c>
       <c r="P151" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30346,6 +30349,197 @@
       </c>
       <c r="BK153">
         <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:63">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>2717599</v>
+      </c>
+      <c r="C154" t="s">
+        <v>63</v>
+      </c>
+      <c r="D154" t="s">
+        <v>64</v>
+      </c>
+      <c r="E154" s="2">
+        <v>44974.52083333334</v>
+      </c>
+      <c r="F154">
+        <v>20</v>
+      </c>
+      <c r="G154" t="s">
+        <v>79</v>
+      </c>
+      <c r="H154" t="s">
+        <v>67</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>5</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>5</v>
+      </c>
+      <c r="O154" t="s">
+        <v>180</v>
+      </c>
+      <c r="P154" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q154">
+        <v>7</v>
+      </c>
+      <c r="R154">
+        <v>3</v>
+      </c>
+      <c r="S154">
+        <v>10</v>
+      </c>
+      <c r="T154">
+        <v>3</v>
+      </c>
+      <c r="U154">
+        <v>2</v>
+      </c>
+      <c r="V154">
+        <v>3.5</v>
+      </c>
+      <c r="W154">
+        <v>1.44</v>
+      </c>
+      <c r="X154">
+        <v>2.62</v>
+      </c>
+      <c r="Y154">
+        <v>3</v>
+      </c>
+      <c r="Z154">
+        <v>1.36</v>
+      </c>
+      <c r="AA154">
+        <v>7.5</v>
+      </c>
+      <c r="AB154">
+        <v>1.07</v>
+      </c>
+      <c r="AC154">
+        <v>2.2</v>
+      </c>
+      <c r="AD154">
+        <v>3.18</v>
+      </c>
+      <c r="AE154">
+        <v>2.84</v>
+      </c>
+      <c r="AF154">
+        <v>1.08</v>
+      </c>
+      <c r="AG154">
+        <v>7</v>
+      </c>
+      <c r="AH154">
+        <v>1.36</v>
+      </c>
+      <c r="AI154">
+        <v>3</v>
+      </c>
+      <c r="AJ154">
+        <v>2.17</v>
+      </c>
+      <c r="AK154">
+        <v>1.69</v>
+      </c>
+      <c r="AL154">
+        <v>1.85</v>
+      </c>
+      <c r="AM154">
+        <v>1.85</v>
+      </c>
+      <c r="AN154">
+        <v>1.36</v>
+      </c>
+      <c r="AO154">
+        <v>1.33</v>
+      </c>
+      <c r="AP154">
+        <v>1.55</v>
+      </c>
+      <c r="AQ154">
+        <v>1.89</v>
+      </c>
+      <c r="AR154">
+        <v>1.67</v>
+      </c>
+      <c r="AS154">
+        <v>2</v>
+      </c>
+      <c r="AT154">
+        <v>1.5</v>
+      </c>
+      <c r="AU154">
+        <v>1.73</v>
+      </c>
+      <c r="AV154">
+        <v>1.57</v>
+      </c>
+      <c r="AW154">
+        <v>3.3</v>
+      </c>
+      <c r="AX154">
+        <v>0</v>
+      </c>
+      <c r="AY154">
+        <v>0</v>
+      </c>
+      <c r="AZ154">
+        <v>0</v>
+      </c>
+      <c r="BA154">
+        <v>1.48</v>
+      </c>
+      <c r="BB154">
+        <v>1.75</v>
+      </c>
+      <c r="BC154">
+        <v>2.25</v>
+      </c>
+      <c r="BD154">
+        <v>0</v>
+      </c>
+      <c r="BE154">
+        <v>0</v>
+      </c>
+      <c r="BF154">
+        <v>11</v>
+      </c>
+      <c r="BG154">
+        <v>3</v>
+      </c>
+      <c r="BH154">
+        <v>4</v>
+      </c>
+      <c r="BI154">
+        <v>6</v>
+      </c>
+      <c r="BJ154">
+        <v>15</v>
+      </c>
+      <c r="BK154">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="254">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -559,6 +559,18 @@
     <t>['26', '51', '59', '78', '90+3']</t>
   </si>
   <si>
+    <t>['33']</t>
+  </si>
+  <si>
+    <t>['10', '25', '47']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['18', '90+3']</t>
+  </si>
+  <si>
     <t>['78']</t>
   </si>
   <si>
@@ -650,9 +662,6 @@
   </si>
   <si>
     <t>['51']</t>
-  </si>
-  <si>
-    <t>['45']</t>
   </si>
   <si>
     <t>['8']</t>
@@ -761,6 +770,12 @@
   </si>
   <si>
     <t>['70', '77', '85', '90+2']</t>
+  </si>
+  <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
+    <t>['14']</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK154"/>
+  <dimension ref="A1:BK161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1366,7 +1381,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1557,7 +1572,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1748,7 +1763,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2029,7 +2044,7 @@
         <v>2.6</v>
       </c>
       <c r="AT5">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2130,7 +2145,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2217,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT6">
         <v>1.5</v>
@@ -2408,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT7">
         <v>1.2</v>
@@ -2602,7 +2617,7 @@
         <v>0.6</v>
       </c>
       <c r="AT8">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2703,7 +2718,7 @@
         <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2894,7 +2909,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2981,10 +2996,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT10">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3172,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT11">
         <v>1.5</v>
@@ -3276,7 +3291,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3363,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT12">
         <v>2.2</v>
@@ -3557,7 +3572,7 @@
         <v>2</v>
       </c>
       <c r="AT13">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3745,10 +3760,10 @@
         <v>3</v>
       </c>
       <c r="AS14">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT14">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3849,7 +3864,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3939,7 +3954,7 @@
         <v>1</v>
       </c>
       <c r="AT15">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4040,7 +4055,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4127,10 +4142,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT16">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4321,7 +4336,7 @@
         <v>2</v>
       </c>
       <c r="AT17">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4422,7 +4437,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4613,7 +4628,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -4995,7 +5010,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5186,7 +5201,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5655,7 +5670,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT24">
         <v>1.5</v>
@@ -5759,7 +5774,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -5846,10 +5861,10 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT25">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU25">
         <v>1.07</v>
@@ -6037,10 +6052,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT26">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="AU26">
         <v>1.81</v>
@@ -6228,7 +6243,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT27">
         <v>1.5</v>
@@ -6332,7 +6347,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6422,7 +6437,7 @@
         <v>1</v>
       </c>
       <c r="AT28">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU28">
         <v>0.9399999999999999</v>
@@ -6610,10 +6625,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT29">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU29">
         <v>1.29</v>
@@ -6714,7 +6729,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6801,10 +6816,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT30">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU30">
         <v>1.64</v>
@@ -6905,7 +6920,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -6995,7 +7010,7 @@
         <v>2</v>
       </c>
       <c r="AT31">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU31">
         <v>1.34</v>
@@ -7287,7 +7302,7 @@
         <v>81</v>
       </c>
       <c r="P33" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7478,7 +7493,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7860,7 +7875,7 @@
         <v>81</v>
       </c>
       <c r="P36" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8329,7 +8344,7 @@
         <v>0.33</v>
       </c>
       <c r="AS38">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT38">
         <v>0.3</v>
@@ -8433,7 +8448,7 @@
         <v>81</v>
       </c>
       <c r="P39" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8520,10 +8535,10 @@
         <v>2</v>
       </c>
       <c r="AS39">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT39">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU39">
         <v>1.05</v>
@@ -8714,7 +8729,7 @@
         <v>2</v>
       </c>
       <c r="AT40">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU40">
         <v>1.51</v>
@@ -8815,7 +8830,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q41">
         <v>13</v>
@@ -8905,7 +8920,7 @@
         <v>1.4</v>
       </c>
       <c r="AT41">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU41">
         <v>1.22</v>
@@ -9093,10 +9108,10 @@
         <v>1.5</v>
       </c>
       <c r="AS42">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT42">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU42">
         <v>1.68</v>
@@ -9284,7 +9299,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT43">
         <v>1.5</v>
@@ -9475,10 +9490,10 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT44">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="AU44">
         <v>1.57</v>
@@ -9579,7 +9594,7 @@
         <v>111</v>
       </c>
       <c r="P45" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9770,7 +9785,7 @@
         <v>112</v>
       </c>
       <c r="P46" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10343,7 +10358,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10433,7 +10448,7 @@
         <v>0.8</v>
       </c>
       <c r="AT49">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU49">
         <v>1.43</v>
@@ -10534,7 +10549,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10725,7 +10740,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10916,7 +10931,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11006,7 +11021,7 @@
         <v>1.6</v>
       </c>
       <c r="AT52">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU52">
         <v>1.85</v>
@@ -11388,7 +11403,7 @@
         <v>2</v>
       </c>
       <c r="AT54">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU54">
         <v>1.59</v>
@@ -11489,7 +11504,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -11576,10 +11591,10 @@
         <v>0</v>
       </c>
       <c r="AS55">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT55">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="AU55">
         <v>1.49</v>
@@ -11767,7 +11782,7 @@
         <v>0.25</v>
       </c>
       <c r="AS56">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT56">
         <v>0.3</v>
@@ -11871,7 +11886,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -11958,10 +11973,10 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT57">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU57">
         <v>1.9</v>
@@ -12062,7 +12077,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12149,7 +12164,7 @@
         <v>2.33</v>
       </c>
       <c r="AS58">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT58">
         <v>2.5</v>
@@ -12253,7 +12268,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12340,10 +12355,10 @@
         <v>2.33</v>
       </c>
       <c r="AS59">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT59">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU59">
         <v>1.69</v>
@@ -12444,7 +12459,7 @@
         <v>123</v>
       </c>
       <c r="P60" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12635,7 +12650,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13107,7 +13122,7 @@
         <v>1.9</v>
       </c>
       <c r="AT63">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU63">
         <v>1.37</v>
@@ -13298,7 +13313,7 @@
         <v>2.6</v>
       </c>
       <c r="AT64">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU64">
         <v>1.44</v>
@@ -13486,7 +13501,7 @@
         <v>1.5</v>
       </c>
       <c r="AS65">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT65">
         <v>0.7</v>
@@ -13972,7 +13987,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -14062,7 +14077,7 @@
         <v>1.4</v>
       </c>
       <c r="AT68">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="AU68">
         <v>1.24</v>
@@ -14253,7 +14268,7 @@
         <v>1.6</v>
       </c>
       <c r="AT69">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU69">
         <v>1.9</v>
@@ -14354,7 +14369,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14441,10 +14456,10 @@
         <v>1.5</v>
       </c>
       <c r="AS70">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT70">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU70">
         <v>1.63</v>
@@ -14632,7 +14647,7 @@
         <v>1.2</v>
       </c>
       <c r="AS71">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT71">
         <v>0.7</v>
@@ -14823,10 +14838,10 @@
         <v>1.8</v>
       </c>
       <c r="AS72">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT72">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU72">
         <v>1.73</v>
@@ -14927,7 +14942,7 @@
         <v>81</v>
       </c>
       <c r="P73" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -15014,7 +15029,7 @@
         <v>2.5</v>
       </c>
       <c r="AS73">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT73">
         <v>2.5</v>
@@ -15309,7 +15324,7 @@
         <v>81</v>
       </c>
       <c r="P75" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q75">
         <v>1</v>
@@ -15500,7 +15515,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15590,7 +15605,7 @@
         <v>0.6</v>
       </c>
       <c r="AT76">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU76">
         <v>1.45</v>
@@ -15691,7 +15706,7 @@
         <v>81</v>
       </c>
       <c r="P77" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q77">
         <v>1</v>
@@ -15778,7 +15793,7 @@
         <v>0.2</v>
       </c>
       <c r="AS77">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT77">
         <v>0.5</v>
@@ -15972,7 +15987,7 @@
         <v>2.6</v>
       </c>
       <c r="AT78">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU78">
         <v>1.49</v>
@@ -16073,7 +16088,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16545,7 +16560,7 @@
         <v>2.3</v>
       </c>
       <c r="AT81">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU81">
         <v>2.08</v>
@@ -16837,7 +16852,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q83">
         <v>11</v>
@@ -16924,7 +16939,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT83">
         <v>1.2</v>
@@ -17219,7 +17234,7 @@
         <v>140</v>
       </c>
       <c r="P85" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -17309,7 +17324,7 @@
         <v>0.8</v>
       </c>
       <c r="AT85">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="AU85">
         <v>1.61</v>
@@ -17410,7 +17425,7 @@
         <v>141</v>
       </c>
       <c r="P86" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17497,7 +17512,7 @@
         <v>0.67</v>
       </c>
       <c r="AS86">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT86">
         <v>0.5</v>
@@ -17691,7 +17706,7 @@
         <v>1.6</v>
       </c>
       <c r="AT87">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU87">
         <v>1.88</v>
@@ -17879,7 +17894,7 @@
         <v>2.6</v>
       </c>
       <c r="AS88">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT88">
         <v>2.5</v>
@@ -17983,7 +17998,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18073,7 +18088,7 @@
         <v>1.9</v>
       </c>
       <c r="AT89">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU89">
         <v>1.48</v>
@@ -18174,7 +18189,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18261,7 +18276,7 @@
         <v>0.5</v>
       </c>
       <c r="AS90">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT90">
         <v>0.3</v>
@@ -18455,7 +18470,7 @@
         <v>1.4</v>
       </c>
       <c r="AT91">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU91">
         <v>1.49</v>
@@ -18556,7 +18571,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q92">
         <v>2</v>
@@ -18643,7 +18658,7 @@
         <v>1.4</v>
       </c>
       <c r="AS92">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT92">
         <v>1</v>
@@ -18837,7 +18852,7 @@
         <v>1</v>
       </c>
       <c r="AT93">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU93">
         <v>1.3</v>
@@ -19028,7 +19043,7 @@
         <v>2.3</v>
       </c>
       <c r="AT94">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU94">
         <v>2.01</v>
@@ -19219,7 +19234,7 @@
         <v>2</v>
       </c>
       <c r="AT95">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU95">
         <v>2.61</v>
@@ -19407,7 +19422,7 @@
         <v>1.17</v>
       </c>
       <c r="AS96">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT96">
         <v>1.2</v>
@@ -19702,7 +19717,7 @@
         <v>81</v>
       </c>
       <c r="P98" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19980,7 +19995,7 @@
         <v>1.33</v>
       </c>
       <c r="AS99">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT99">
         <v>2.2</v>
@@ -20174,7 +20189,7 @@
         <v>2.3</v>
       </c>
       <c r="AT100">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU100">
         <v>2.04</v>
@@ -20362,7 +20377,7 @@
         <v>0.57</v>
       </c>
       <c r="AS101">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT101">
         <v>0.5</v>
@@ -20466,7 +20481,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q102">
         <v>7</v>
@@ -20553,7 +20568,7 @@
         <v>1.14</v>
       </c>
       <c r="AS102">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT102">
         <v>1.2</v>
@@ -20935,7 +20950,7 @@
         <v>0.86</v>
       </c>
       <c r="AS104">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT104">
         <v>0.7</v>
@@ -21129,7 +21144,7 @@
         <v>2.6</v>
       </c>
       <c r="AT105">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="AU105">
         <v>1.55</v>
@@ -21320,7 +21335,7 @@
         <v>0.8</v>
       </c>
       <c r="AT106">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU106">
         <v>1.54</v>
@@ -21511,7 +21526,7 @@
         <v>1.9</v>
       </c>
       <c r="AT107">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU107">
         <v>1.53</v>
@@ -21612,7 +21627,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -21803,7 +21818,7 @@
         <v>81</v>
       </c>
       <c r="P109" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q109">
         <v>3</v>
@@ -21994,7 +22009,7 @@
         <v>157</v>
       </c>
       <c r="P110" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22376,7 +22391,7 @@
         <v>83</v>
       </c>
       <c r="P112" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22466,7 +22481,7 @@
         <v>2.3</v>
       </c>
       <c r="AT112">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU112">
         <v>1.86</v>
@@ -22758,7 +22773,7 @@
         <v>81</v>
       </c>
       <c r="P114" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q114">
         <v>4</v>
@@ -22845,7 +22860,7 @@
         <v>1.4</v>
       </c>
       <c r="AS114">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT114">
         <v>2.2</v>
@@ -23036,10 +23051,10 @@
         <v>0.17</v>
       </c>
       <c r="AS115">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT115">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU115">
         <v>2.05</v>
@@ -23140,7 +23155,7 @@
         <v>92</v>
       </c>
       <c r="P116" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23230,7 +23245,7 @@
         <v>1</v>
       </c>
       <c r="AT116">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU116">
         <v>1.3</v>
@@ -23331,7 +23346,7 @@
         <v>112</v>
       </c>
       <c r="P117" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -23418,10 +23433,10 @@
         <v>0.17</v>
       </c>
       <c r="AS117">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT117">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU117">
         <v>1.04</v>
@@ -23713,7 +23728,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23991,7 +24006,7 @@
         <v>1.14</v>
       </c>
       <c r="AS120">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT120">
         <v>1</v>
@@ -24185,7 +24200,7 @@
         <v>2</v>
       </c>
       <c r="AT121">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU121">
         <v>2.37</v>
@@ -24286,7 +24301,7 @@
         <v>162</v>
       </c>
       <c r="P122" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24376,7 +24391,7 @@
         <v>2.3</v>
       </c>
       <c r="AT122">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="AU122">
         <v>1.74</v>
@@ -24477,7 +24492,7 @@
         <v>163</v>
       </c>
       <c r="P123" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q123">
         <v>1</v>
@@ -24564,10 +24579,10 @@
         <v>0.14</v>
       </c>
       <c r="AS123">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT123">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU123">
         <v>1.05</v>
@@ -24755,10 +24770,10 @@
         <v>0.86</v>
       </c>
       <c r="AS124">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT124">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU124">
         <v>2.01</v>
@@ -24946,10 +24961,10 @@
         <v>0.29</v>
       </c>
       <c r="AS125">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT125">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU125">
         <v>1.41</v>
@@ -25050,7 +25065,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q126">
         <v>8</v>
@@ -25328,10 +25343,10 @@
         <v>1.17</v>
       </c>
       <c r="AS127">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT127">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU127">
         <v>1.86</v>
@@ -25432,7 +25447,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25814,7 +25829,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -26387,7 +26402,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -26477,7 +26492,7 @@
         <v>0.6</v>
       </c>
       <c r="AT133">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU133">
         <v>1.32</v>
@@ -26665,7 +26680,7 @@
         <v>1</v>
       </c>
       <c r="AS134">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT134">
         <v>1</v>
@@ -26769,7 +26784,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -26960,7 +26975,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q136">
         <v>2</v>
@@ -27050,7 +27065,7 @@
         <v>1</v>
       </c>
       <c r="AT136">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="AU136">
         <v>1.31</v>
@@ -27241,7 +27256,7 @@
         <v>2</v>
       </c>
       <c r="AT137">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU137">
         <v>1.7</v>
@@ -27342,7 +27357,7 @@
         <v>81</v>
       </c>
       <c r="P138" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q138">
         <v>1</v>
@@ -27429,7 +27444,7 @@
         <v>2</v>
       </c>
       <c r="AS138">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT138">
         <v>2.2</v>
@@ -27533,7 +27548,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27623,7 +27638,7 @@
         <v>2</v>
       </c>
       <c r="AT139">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU139">
         <v>2.31</v>
@@ -27724,7 +27739,7 @@
         <v>160</v>
       </c>
       <c r="P140" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -27811,7 +27826,7 @@
         <v>1.5</v>
       </c>
       <c r="AS140">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT140">
         <v>1.5</v>
@@ -27915,7 +27930,7 @@
         <v>176</v>
       </c>
       <c r="P141" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q141">
         <v>2</v>
@@ -28002,10 +28017,10 @@
         <v>0.25</v>
       </c>
       <c r="AS141">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT141">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU141">
         <v>1.58</v>
@@ -28106,7 +28121,7 @@
         <v>151</v>
       </c>
       <c r="P142" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q142">
         <v>12</v>
@@ -28193,10 +28208,10 @@
         <v>1.5</v>
       </c>
       <c r="AS142">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT142">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU142">
         <v>2.08</v>
@@ -28384,10 +28399,10 @@
         <v>0.75</v>
       </c>
       <c r="AS143">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT143">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU143">
         <v>1.45</v>
@@ -28488,7 +28503,7 @@
         <v>125</v>
       </c>
       <c r="P144" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -28766,10 +28781,10 @@
         <v>1.13</v>
       </c>
       <c r="AS145">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT145">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU145">
         <v>2.18</v>
@@ -29252,7 +29267,7 @@
         <v>81</v>
       </c>
       <c r="P148" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q148">
         <v>1</v>
@@ -29443,7 +29458,7 @@
         <v>163</v>
       </c>
       <c r="P149" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q149">
         <v>2</v>
@@ -29634,7 +29649,7 @@
         <v>81</v>
       </c>
       <c r="P150" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -29825,7 +29840,7 @@
         <v>178</v>
       </c>
       <c r="P151" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30540,6 +30555,1343 @@
       </c>
       <c r="BK154">
         <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:63">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>2717598</v>
+      </c>
+      <c r="C155" t="s">
+        <v>63</v>
+      </c>
+      <c r="D155" t="s">
+        <v>64</v>
+      </c>
+      <c r="E155" s="2">
+        <v>44975.3125</v>
+      </c>
+      <c r="F155">
+        <v>20</v>
+      </c>
+      <c r="G155" t="s">
+        <v>69</v>
+      </c>
+      <c r="H155" t="s">
+        <v>66</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="K155">
+        <v>2</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155">
+        <v>2</v>
+      </c>
+      <c r="O155" t="s">
+        <v>181</v>
+      </c>
+      <c r="P155" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q155">
+        <v>5</v>
+      </c>
+      <c r="R155">
+        <v>8</v>
+      </c>
+      <c r="S155">
+        <v>13</v>
+      </c>
+      <c r="T155">
+        <v>2.46</v>
+      </c>
+      <c r="U155">
+        <v>2.1</v>
+      </c>
+      <c r="V155">
+        <v>4.94</v>
+      </c>
+      <c r="W155">
+        <v>1.4</v>
+      </c>
+      <c r="X155">
+        <v>2.75</v>
+      </c>
+      <c r="Y155">
+        <v>3</v>
+      </c>
+      <c r="Z155">
+        <v>1.36</v>
+      </c>
+      <c r="AA155">
+        <v>7.5</v>
+      </c>
+      <c r="AB155">
+        <v>1.07</v>
+      </c>
+      <c r="AC155">
+        <v>1.72</v>
+      </c>
+      <c r="AD155">
+        <v>3.7</v>
+      </c>
+      <c r="AE155">
+        <v>4.5</v>
+      </c>
+      <c r="AF155">
+        <v>1.08</v>
+      </c>
+      <c r="AG155">
+        <v>7</v>
+      </c>
+      <c r="AH155">
+        <v>1.4</v>
+      </c>
+      <c r="AI155">
+        <v>2.75</v>
+      </c>
+      <c r="AJ155">
+        <v>1.96</v>
+      </c>
+      <c r="AK155">
+        <v>1.77</v>
+      </c>
+      <c r="AL155">
+        <v>2</v>
+      </c>
+      <c r="AM155">
+        <v>1.73</v>
+      </c>
+      <c r="AN155">
+        <v>1.18</v>
+      </c>
+      <c r="AO155">
+        <v>1.29</v>
+      </c>
+      <c r="AP155">
+        <v>2</v>
+      </c>
+      <c r="AQ155">
+        <v>1.89</v>
+      </c>
+      <c r="AR155">
+        <v>0.78</v>
+      </c>
+      <c r="AS155">
+        <v>1.8</v>
+      </c>
+      <c r="AT155">
+        <v>0.8</v>
+      </c>
+      <c r="AU155">
+        <v>1.58</v>
+      </c>
+      <c r="AV155">
+        <v>1.22</v>
+      </c>
+      <c r="AW155">
+        <v>2.8</v>
+      </c>
+      <c r="AX155">
+        <v>0</v>
+      </c>
+      <c r="AY155">
+        <v>0</v>
+      </c>
+      <c r="AZ155">
+        <v>0</v>
+      </c>
+      <c r="BA155">
+        <v>0</v>
+      </c>
+      <c r="BB155">
+        <v>0</v>
+      </c>
+      <c r="BC155">
+        <v>0</v>
+      </c>
+      <c r="BD155">
+        <v>0</v>
+      </c>
+      <c r="BE155">
+        <v>0</v>
+      </c>
+      <c r="BF155">
+        <v>5</v>
+      </c>
+      <c r="BG155">
+        <v>7</v>
+      </c>
+      <c r="BH155">
+        <v>1</v>
+      </c>
+      <c r="BI155">
+        <v>10</v>
+      </c>
+      <c r="BJ155">
+        <v>6</v>
+      </c>
+      <c r="BK155">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:63">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>2717596</v>
+      </c>
+      <c r="C156" t="s">
+        <v>63</v>
+      </c>
+      <c r="D156" t="s">
+        <v>64</v>
+      </c>
+      <c r="E156" s="2">
+        <v>44975.41666666666</v>
+      </c>
+      <c r="F156">
+        <v>20</v>
+      </c>
+      <c r="G156" t="s">
+        <v>76</v>
+      </c>
+      <c r="H156" t="s">
+        <v>72</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+      <c r="N156">
+        <v>2</v>
+      </c>
+      <c r="O156" t="s">
+        <v>147</v>
+      </c>
+      <c r="P156" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q156">
+        <v>3</v>
+      </c>
+      <c r="R156">
+        <v>4</v>
+      </c>
+      <c r="S156">
+        <v>7</v>
+      </c>
+      <c r="T156">
+        <v>2.36</v>
+      </c>
+      <c r="U156">
+        <v>2.01</v>
+      </c>
+      <c r="V156">
+        <v>6.1</v>
+      </c>
+      <c r="W156">
+        <v>1.52</v>
+      </c>
+      <c r="X156">
+        <v>2.44</v>
+      </c>
+      <c r="Y156">
+        <v>3.48</v>
+      </c>
+      <c r="Z156">
+        <v>1.28</v>
+      </c>
+      <c r="AA156">
+        <v>9.4</v>
+      </c>
+      <c r="AB156">
+        <v>1.04</v>
+      </c>
+      <c r="AC156">
+        <v>1.68</v>
+      </c>
+      <c r="AD156">
+        <v>3.3</v>
+      </c>
+      <c r="AE156">
+        <v>5.75</v>
+      </c>
+      <c r="AF156">
+        <v>1.08</v>
+      </c>
+      <c r="AG156">
+        <v>6.5</v>
+      </c>
+      <c r="AH156">
+        <v>1.42</v>
+      </c>
+      <c r="AI156">
+        <v>2.62</v>
+      </c>
+      <c r="AJ156">
+        <v>2.48</v>
+      </c>
+      <c r="AK156">
+        <v>1.5</v>
+      </c>
+      <c r="AL156">
+        <v>2.27</v>
+      </c>
+      <c r="AM156">
+        <v>1.6</v>
+      </c>
+      <c r="AN156">
+        <v>1.15</v>
+      </c>
+      <c r="AO156">
+        <v>1.3</v>
+      </c>
+      <c r="AP156">
+        <v>2.12</v>
+      </c>
+      <c r="AQ156">
+        <v>1.89</v>
+      </c>
+      <c r="AR156">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS156">
+        <v>1.8</v>
+      </c>
+      <c r="AT156">
+        <v>0.6</v>
+      </c>
+      <c r="AU156">
+        <v>1.6</v>
+      </c>
+      <c r="AV156">
+        <v>1.21</v>
+      </c>
+      <c r="AW156">
+        <v>2.81</v>
+      </c>
+      <c r="AX156">
+        <v>0</v>
+      </c>
+      <c r="AY156">
+        <v>0</v>
+      </c>
+      <c r="AZ156">
+        <v>0</v>
+      </c>
+      <c r="BA156">
+        <v>0</v>
+      </c>
+      <c r="BB156">
+        <v>0</v>
+      </c>
+      <c r="BC156">
+        <v>0</v>
+      </c>
+      <c r="BD156">
+        <v>0</v>
+      </c>
+      <c r="BE156">
+        <v>0</v>
+      </c>
+      <c r="BF156">
+        <v>4</v>
+      </c>
+      <c r="BG156">
+        <v>2</v>
+      </c>
+      <c r="BH156">
+        <v>8</v>
+      </c>
+      <c r="BI156">
+        <v>1</v>
+      </c>
+      <c r="BJ156">
+        <v>12</v>
+      </c>
+      <c r="BK156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:63">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>2717597</v>
+      </c>
+      <c r="C157" t="s">
+        <v>63</v>
+      </c>
+      <c r="D157" t="s">
+        <v>64</v>
+      </c>
+      <c r="E157" s="2">
+        <v>44975.52083333334</v>
+      </c>
+      <c r="F157">
+        <v>20</v>
+      </c>
+      <c r="G157" t="s">
+        <v>70</v>
+      </c>
+      <c r="H157" t="s">
+        <v>65</v>
+      </c>
+      <c r="I157">
+        <v>2</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+      <c r="K157">
+        <v>3</v>
+      </c>
+      <c r="L157">
+        <v>3</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>4</v>
+      </c>
+      <c r="O157" t="s">
+        <v>182</v>
+      </c>
+      <c r="P157" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q157">
+        <v>6</v>
+      </c>
+      <c r="R157">
+        <v>2</v>
+      </c>
+      <c r="S157">
+        <v>8</v>
+      </c>
+      <c r="T157">
+        <v>2.05</v>
+      </c>
+      <c r="U157">
+        <v>2.1</v>
+      </c>
+      <c r="V157">
+        <v>6.5</v>
+      </c>
+      <c r="W157">
+        <v>1.4</v>
+      </c>
+      <c r="X157">
+        <v>2.75</v>
+      </c>
+      <c r="Y157">
+        <v>3</v>
+      </c>
+      <c r="Z157">
+        <v>1.36</v>
+      </c>
+      <c r="AA157">
+        <v>7.5</v>
+      </c>
+      <c r="AB157">
+        <v>1.07</v>
+      </c>
+      <c r="AC157">
+        <v>1.38</v>
+      </c>
+      <c r="AD157">
+        <v>3.8</v>
+      </c>
+      <c r="AE157">
+        <v>6.95</v>
+      </c>
+      <c r="AF157">
+        <v>1.07</v>
+      </c>
+      <c r="AG157">
+        <v>7.5</v>
+      </c>
+      <c r="AH157">
+        <v>1.36</v>
+      </c>
+      <c r="AI157">
+        <v>3</v>
+      </c>
+      <c r="AJ157">
+        <v>2.01</v>
+      </c>
+      <c r="AK157">
+        <v>1.58</v>
+      </c>
+      <c r="AL157">
+        <v>2.38</v>
+      </c>
+      <c r="AM157">
+        <v>1.53</v>
+      </c>
+      <c r="AN157">
+        <v>1.07</v>
+      </c>
+      <c r="AO157">
+        <v>1.22</v>
+      </c>
+      <c r="AP157">
+        <v>2.6</v>
+      </c>
+      <c r="AQ157">
+        <v>2.78</v>
+      </c>
+      <c r="AR157">
+        <v>0.44</v>
+      </c>
+      <c r="AS157">
+        <v>2.8</v>
+      </c>
+      <c r="AT157">
+        <v>0.4</v>
+      </c>
+      <c r="AU157">
+        <v>1.75</v>
+      </c>
+      <c r="AV157">
+        <v>1.5</v>
+      </c>
+      <c r="AW157">
+        <v>3.25</v>
+      </c>
+      <c r="AX157">
+        <v>1.38</v>
+      </c>
+      <c r="AY157">
+        <v>9</v>
+      </c>
+      <c r="AZ157">
+        <v>3.86</v>
+      </c>
+      <c r="BA157">
+        <v>1.58</v>
+      </c>
+      <c r="BB157">
+        <v>2.01</v>
+      </c>
+      <c r="BC157">
+        <v>2.52</v>
+      </c>
+      <c r="BD157">
+        <v>3.5</v>
+      </c>
+      <c r="BE157">
+        <v>5.1</v>
+      </c>
+      <c r="BF157">
+        <v>4</v>
+      </c>
+      <c r="BG157">
+        <v>3</v>
+      </c>
+      <c r="BH157">
+        <v>3</v>
+      </c>
+      <c r="BI157">
+        <v>2</v>
+      </c>
+      <c r="BJ157">
+        <v>7</v>
+      </c>
+      <c r="BK157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:63">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>2717600</v>
+      </c>
+      <c r="C158" t="s">
+        <v>63</v>
+      </c>
+      <c r="D158" t="s">
+        <v>64</v>
+      </c>
+      <c r="E158" s="2">
+        <v>44976.32291666666</v>
+      </c>
+      <c r="F158">
+        <v>20</v>
+      </c>
+      <c r="G158" t="s">
+        <v>73</v>
+      </c>
+      <c r="H158" t="s">
+        <v>68</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>1</v>
+      </c>
+      <c r="O158" t="s">
+        <v>88</v>
+      </c>
+      <c r="P158" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q158">
+        <v>4</v>
+      </c>
+      <c r="R158">
+        <v>7</v>
+      </c>
+      <c r="S158">
+        <v>11</v>
+      </c>
+      <c r="T158">
+        <v>5.5</v>
+      </c>
+      <c r="U158">
+        <v>2.2</v>
+      </c>
+      <c r="V158">
+        <v>2.05</v>
+      </c>
+      <c r="W158">
+        <v>1.5</v>
+      </c>
+      <c r="X158">
+        <v>2.5</v>
+      </c>
+      <c r="Y158">
+        <v>2.62</v>
+      </c>
+      <c r="Z158">
+        <v>1.44</v>
+      </c>
+      <c r="AA158">
+        <v>6.5</v>
+      </c>
+      <c r="AB158">
+        <v>1.1</v>
+      </c>
+      <c r="AC158">
+        <v>4.8</v>
+      </c>
+      <c r="AD158">
+        <v>4.1</v>
+      </c>
+      <c r="AE158">
+        <v>1.66</v>
+      </c>
+      <c r="AF158">
+        <v>1.06</v>
+      </c>
+      <c r="AG158">
+        <v>8</v>
+      </c>
+      <c r="AH158">
+        <v>1.33</v>
+      </c>
+      <c r="AI158">
+        <v>3.25</v>
+      </c>
+      <c r="AJ158">
+        <v>1.75</v>
+      </c>
+      <c r="AK158">
+        <v>1.91</v>
+      </c>
+      <c r="AL158">
+        <v>2</v>
+      </c>
+      <c r="AM158">
+        <v>1.73</v>
+      </c>
+      <c r="AN158">
+        <v>2.38</v>
+      </c>
+      <c r="AO158">
+        <v>1.25</v>
+      </c>
+      <c r="AP158">
+        <v>1.11</v>
+      </c>
+      <c r="AQ158">
+        <v>1.22</v>
+      </c>
+      <c r="AR158">
+        <v>1.44</v>
+      </c>
+      <c r="AS158">
+        <v>1.4</v>
+      </c>
+      <c r="AT158">
+        <v>1.3</v>
+      </c>
+      <c r="AU158">
+        <v>1.49</v>
+      </c>
+      <c r="AV158">
+        <v>1.69</v>
+      </c>
+      <c r="AW158">
+        <v>3.18</v>
+      </c>
+      <c r="AX158">
+        <v>3.6</v>
+      </c>
+      <c r="AY158">
+        <v>9</v>
+      </c>
+      <c r="AZ158">
+        <v>1.46</v>
+      </c>
+      <c r="BA158">
+        <v>1.31</v>
+      </c>
+      <c r="BB158">
+        <v>1.6</v>
+      </c>
+      <c r="BC158">
+        <v>1.97</v>
+      </c>
+      <c r="BD158">
+        <v>2.49</v>
+      </c>
+      <c r="BE158">
+        <v>3.3</v>
+      </c>
+      <c r="BF158">
+        <v>4</v>
+      </c>
+      <c r="BG158">
+        <v>12</v>
+      </c>
+      <c r="BH158">
+        <v>3</v>
+      </c>
+      <c r="BI158">
+        <v>7</v>
+      </c>
+      <c r="BJ158">
+        <v>7</v>
+      </c>
+      <c r="BK158">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159" spans="1:63">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>2717603</v>
+      </c>
+      <c r="C159" t="s">
+        <v>63</v>
+      </c>
+      <c r="D159" t="s">
+        <v>64</v>
+      </c>
+      <c r="E159" s="2">
+        <v>44976.42708333334</v>
+      </c>
+      <c r="F159">
+        <v>20</v>
+      </c>
+      <c r="G159" t="s">
+        <v>77</v>
+      </c>
+      <c r="H159" t="s">
+        <v>75</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>1</v>
+      </c>
+      <c r="K159">
+        <v>2</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+      <c r="M159">
+        <v>1</v>
+      </c>
+      <c r="N159">
+        <v>2</v>
+      </c>
+      <c r="O159" t="s">
+        <v>183</v>
+      </c>
+      <c r="P159" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q159">
+        <v>4</v>
+      </c>
+      <c r="R159">
+        <v>8</v>
+      </c>
+      <c r="S159">
+        <v>12</v>
+      </c>
+      <c r="T159">
+        <v>7</v>
+      </c>
+      <c r="U159">
+        <v>2.15</v>
+      </c>
+      <c r="V159">
+        <v>1.95</v>
+      </c>
+      <c r="W159">
+        <v>1.44</v>
+      </c>
+      <c r="X159">
+        <v>2.62</v>
+      </c>
+      <c r="Y159">
+        <v>3</v>
+      </c>
+      <c r="Z159">
+        <v>1.36</v>
+      </c>
+      <c r="AA159">
+        <v>7.5</v>
+      </c>
+      <c r="AB159">
+        <v>1.07</v>
+      </c>
+      <c r="AC159">
+        <v>4.94</v>
+      </c>
+      <c r="AD159">
+        <v>3.74</v>
+      </c>
+      <c r="AE159">
+        <v>1.71</v>
+      </c>
+      <c r="AF159">
+        <v>1.08</v>
+      </c>
+      <c r="AG159">
+        <v>7</v>
+      </c>
+      <c r="AH159">
+        <v>1.36</v>
+      </c>
+      <c r="AI159">
+        <v>3</v>
+      </c>
+      <c r="AJ159">
+        <v>2</v>
+      </c>
+      <c r="AK159">
+        <v>1.67</v>
+      </c>
+      <c r="AL159">
+        <v>2.38</v>
+      </c>
+      <c r="AM159">
+        <v>1.53</v>
+      </c>
+      <c r="AN159">
+        <v>2.7</v>
+      </c>
+      <c r="AO159">
+        <v>1.22</v>
+      </c>
+      <c r="AP159">
+        <v>1.06</v>
+      </c>
+      <c r="AQ159">
+        <v>1</v>
+      </c>
+      <c r="AR159">
+        <v>1.11</v>
+      </c>
+      <c r="AS159">
+        <v>1</v>
+      </c>
+      <c r="AT159">
+        <v>1.1</v>
+      </c>
+      <c r="AU159">
+        <v>1.33</v>
+      </c>
+      <c r="AV159">
+        <v>1.96</v>
+      </c>
+      <c r="AW159">
+        <v>3.29</v>
+      </c>
+      <c r="AX159">
+        <v>0</v>
+      </c>
+      <c r="AY159">
+        <v>0</v>
+      </c>
+      <c r="AZ159">
+        <v>0</v>
+      </c>
+      <c r="BA159">
+        <v>0</v>
+      </c>
+      <c r="BB159">
+        <v>0</v>
+      </c>
+      <c r="BC159">
+        <v>0</v>
+      </c>
+      <c r="BD159">
+        <v>0</v>
+      </c>
+      <c r="BE159">
+        <v>0</v>
+      </c>
+      <c r="BF159">
+        <v>4</v>
+      </c>
+      <c r="BG159">
+        <v>5</v>
+      </c>
+      <c r="BH159">
+        <v>2</v>
+      </c>
+      <c r="BI159">
+        <v>5</v>
+      </c>
+      <c r="BJ159">
+        <v>6</v>
+      </c>
+      <c r="BK159">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:63">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>2717602</v>
+      </c>
+      <c r="C160" t="s">
+        <v>63</v>
+      </c>
+      <c r="D160" t="s">
+        <v>64</v>
+      </c>
+      <c r="E160" s="2">
+        <v>44976.53125</v>
+      </c>
+      <c r="F160">
+        <v>20</v>
+      </c>
+      <c r="G160" t="s">
+        <v>74</v>
+      </c>
+      <c r="H160" t="s">
+        <v>80</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
+      <c r="L160">
+        <v>2</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+      <c r="N160">
+        <v>3</v>
+      </c>
+      <c r="O160" t="s">
+        <v>184</v>
+      </c>
+      <c r="P160" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q160">
+        <v>6</v>
+      </c>
+      <c r="R160">
+        <v>7</v>
+      </c>
+      <c r="S160">
+        <v>13</v>
+      </c>
+      <c r="T160">
+        <v>1.62</v>
+      </c>
+      <c r="U160">
+        <v>2.6</v>
+      </c>
+      <c r="V160">
+        <v>8.5</v>
+      </c>
+      <c r="W160">
+        <v>1.3</v>
+      </c>
+      <c r="X160">
+        <v>3.4</v>
+      </c>
+      <c r="Y160">
+        <v>2.2</v>
+      </c>
+      <c r="Z160">
+        <v>1.62</v>
+      </c>
+      <c r="AA160">
+        <v>5</v>
+      </c>
+      <c r="AB160">
+        <v>1.14</v>
+      </c>
+      <c r="AC160">
+        <v>1.32</v>
+      </c>
+      <c r="AD160">
+        <v>5.35</v>
+      </c>
+      <c r="AE160">
+        <v>9.1</v>
+      </c>
+      <c r="AF160">
+        <v>1.03</v>
+      </c>
+      <c r="AG160">
+        <v>11</v>
+      </c>
+      <c r="AH160">
+        <v>1.22</v>
+      </c>
+      <c r="AI160">
+        <v>4</v>
+      </c>
+      <c r="AJ160">
+        <v>1.62</v>
+      </c>
+      <c r="AK160">
+        <v>2.2</v>
+      </c>
+      <c r="AL160">
+        <v>2.3</v>
+      </c>
+      <c r="AM160">
+        <v>1.57</v>
+      </c>
+      <c r="AN160">
+        <v>1.02</v>
+      </c>
+      <c r="AO160">
+        <v>1.12</v>
+      </c>
+      <c r="AP160">
+        <v>4</v>
+      </c>
+      <c r="AQ160">
+        <v>2.33</v>
+      </c>
+      <c r="AR160">
+        <v>1.33</v>
+      </c>
+      <c r="AS160">
+        <v>2.4</v>
+      </c>
+      <c r="AT160">
+        <v>1.2</v>
+      </c>
+      <c r="AU160">
+        <v>2.1</v>
+      </c>
+      <c r="AV160">
+        <v>1.52</v>
+      </c>
+      <c r="AW160">
+        <v>3.62</v>
+      </c>
+      <c r="AX160">
+        <v>0</v>
+      </c>
+      <c r="AY160">
+        <v>0</v>
+      </c>
+      <c r="AZ160">
+        <v>0</v>
+      </c>
+      <c r="BA160">
+        <v>0</v>
+      </c>
+      <c r="BB160">
+        <v>0</v>
+      </c>
+      <c r="BC160">
+        <v>0</v>
+      </c>
+      <c r="BD160">
+        <v>0</v>
+      </c>
+      <c r="BE160">
+        <v>0</v>
+      </c>
+      <c r="BF160">
+        <v>6</v>
+      </c>
+      <c r="BG160">
+        <v>3</v>
+      </c>
+      <c r="BH160">
+        <v>4</v>
+      </c>
+      <c r="BI160">
+        <v>1</v>
+      </c>
+      <c r="BJ160">
+        <v>10</v>
+      </c>
+      <c r="BK160">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:63">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>2717601</v>
+      </c>
+      <c r="C161" t="s">
+        <v>63</v>
+      </c>
+      <c r="D161" t="s">
+        <v>64</v>
+      </c>
+      <c r="E161" s="2">
+        <v>44977.39583333334</v>
+      </c>
+      <c r="F161">
+        <v>20</v>
+      </c>
+      <c r="G161" t="s">
+        <v>78</v>
+      </c>
+      <c r="H161" t="s">
+        <v>71</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+      <c r="O161" t="s">
+        <v>81</v>
+      </c>
+      <c r="P161" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q161">
+        <v>1</v>
+      </c>
+      <c r="R161">
+        <v>13</v>
+      </c>
+      <c r="S161">
+        <v>14</v>
+      </c>
+      <c r="T161">
+        <v>3.6</v>
+      </c>
+      <c r="U161">
+        <v>2.1</v>
+      </c>
+      <c r="V161">
+        <v>3.1</v>
+      </c>
+      <c r="W161">
+        <v>1.44</v>
+      </c>
+      <c r="X161">
+        <v>2.63</v>
+      </c>
+      <c r="Y161">
+        <v>3</v>
+      </c>
+      <c r="Z161">
+        <v>1.36</v>
+      </c>
+      <c r="AA161">
+        <v>9</v>
+      </c>
+      <c r="AB161">
+        <v>1.07</v>
+      </c>
+      <c r="AC161">
+        <v>2.04</v>
+      </c>
+      <c r="AD161">
+        <v>3.29</v>
+      </c>
+      <c r="AE161">
+        <v>2.73</v>
+      </c>
+      <c r="AF161">
+        <v>1.07</v>
+      </c>
+      <c r="AG161">
+        <v>7</v>
+      </c>
+      <c r="AH161">
+        <v>1.38</v>
+      </c>
+      <c r="AI161">
+        <v>2.8</v>
+      </c>
+      <c r="AJ161">
+        <v>2.15</v>
+      </c>
+      <c r="AK161">
+        <v>1.57</v>
+      </c>
+      <c r="AL161">
+        <v>1.8</v>
+      </c>
+      <c r="AM161">
+        <v>1.91</v>
+      </c>
+      <c r="AN161">
+        <v>1.44</v>
+      </c>
+      <c r="AO161">
+        <v>1.33</v>
+      </c>
+      <c r="AP161">
+        <v>1.3</v>
+      </c>
+      <c r="AQ161">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR161">
+        <v>0.22</v>
+      </c>
+      <c r="AS161">
+        <v>0.6</v>
+      </c>
+      <c r="AT161">
+        <v>0.3</v>
+      </c>
+      <c r="AU161">
+        <v>1.14</v>
+      </c>
+      <c r="AV161">
+        <v>1.02</v>
+      </c>
+      <c r="AW161">
+        <v>2.16</v>
+      </c>
+      <c r="AX161">
+        <v>0</v>
+      </c>
+      <c r="AY161">
+        <v>0</v>
+      </c>
+      <c r="AZ161">
+        <v>0</v>
+      </c>
+      <c r="BA161">
+        <v>0</v>
+      </c>
+      <c r="BB161">
+        <v>0</v>
+      </c>
+      <c r="BC161">
+        <v>0</v>
+      </c>
+      <c r="BD161">
+        <v>0</v>
+      </c>
+      <c r="BE161">
+        <v>0</v>
+      </c>
+      <c r="BF161">
+        <v>2</v>
+      </c>
+      <c r="BG161">
+        <v>4</v>
+      </c>
+      <c r="BH161">
+        <v>2</v>
+      </c>
+      <c r="BI161">
+        <v>4</v>
+      </c>
+      <c r="BJ161">
+        <v>4</v>
+      </c>
+      <c r="BK161">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="254">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1137,7 +1137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK161"/>
+  <dimension ref="A1:BK162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT5">
         <v>1.1</v>
@@ -2426,7 +2426,7 @@
         <v>2.8</v>
       </c>
       <c r="AT7">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -4715,7 +4715,7 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT19">
         <v>2.5</v>
@@ -5100,7 +5100,7 @@
         <v>1.6</v>
       </c>
       <c r="AT21">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU21">
         <v>2.4</v>
@@ -7580,7 +7580,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT34">
         <v>0.5</v>
@@ -8156,7 +8156,7 @@
         <v>1.9</v>
       </c>
       <c r="AT37">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU37">
         <v>1.6</v>
@@ -9875,7 +9875,7 @@
         <v>0.6</v>
       </c>
       <c r="AT46">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU46">
         <v>1.55</v>
@@ -10254,7 +10254,7 @@
         <v>2</v>
       </c>
       <c r="AS48">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT48">
         <v>1</v>
@@ -13310,7 +13310,7 @@
         <v>0</v>
       </c>
       <c r="AS64">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT64">
         <v>0.6</v>
@@ -13886,7 +13886,7 @@
         <v>2</v>
       </c>
       <c r="AT67">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU67">
         <v>3.06</v>
@@ -15984,7 +15984,7 @@
         <v>0.75</v>
       </c>
       <c r="AS78">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT78">
         <v>0.8</v>
@@ -16942,7 +16942,7 @@
         <v>2.4</v>
       </c>
       <c r="AT83">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU83">
         <v>2.07</v>
@@ -19425,7 +19425,7 @@
         <v>1.4</v>
       </c>
       <c r="AT96">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU96">
         <v>1.48</v>
@@ -19613,7 +19613,7 @@
         <v>1.67</v>
       </c>
       <c r="AS97">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT97">
         <v>1.5</v>
@@ -20571,7 +20571,7 @@
         <v>1.8</v>
       </c>
       <c r="AT102">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU102">
         <v>1.76</v>
@@ -21141,7 +21141,7 @@
         <v>0.17</v>
       </c>
       <c r="AS105">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT105">
         <v>0.3</v>
@@ -25916,7 +25916,7 @@
         <v>0.38</v>
       </c>
       <c r="AS130">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT130">
         <v>0.3</v>
@@ -26110,7 +26110,7 @@
         <v>1.4</v>
       </c>
       <c r="AT131">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU131">
         <v>1.34</v>
@@ -29163,7 +29163,7 @@
         <v>0.78</v>
       </c>
       <c r="AS147">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT147">
         <v>0.7</v>
@@ -29739,7 +29739,7 @@
         <v>0.8</v>
       </c>
       <c r="AT150">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU150">
         <v>1.48</v>
@@ -31892,6 +31892,197 @@
       </c>
       <c r="BK161">
         <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:63">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>2717608</v>
+      </c>
+      <c r="C162" t="s">
+        <v>63</v>
+      </c>
+      <c r="D162" t="s">
+        <v>64</v>
+      </c>
+      <c r="E162" s="2">
+        <v>44982.3125</v>
+      </c>
+      <c r="F162">
+        <v>21</v>
+      </c>
+      <c r="G162" t="s">
+        <v>68</v>
+      </c>
+      <c r="H162" t="s">
+        <v>79</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>1</v>
+      </c>
+      <c r="O162" t="s">
+        <v>105</v>
+      </c>
+      <c r="P162" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q162">
+        <v>6</v>
+      </c>
+      <c r="R162">
+        <v>7</v>
+      </c>
+      <c r="S162">
+        <v>13</v>
+      </c>
+      <c r="T162">
+        <v>2.05</v>
+      </c>
+      <c r="U162">
+        <v>2.15</v>
+      </c>
+      <c r="V162">
+        <v>5.8</v>
+      </c>
+      <c r="W162">
+        <v>1.4</v>
+      </c>
+      <c r="X162">
+        <v>2.75</v>
+      </c>
+      <c r="Y162">
+        <v>2.75</v>
+      </c>
+      <c r="Z162">
+        <v>1.4</v>
+      </c>
+      <c r="AA162">
+        <v>7</v>
+      </c>
+      <c r="AB162">
+        <v>1.08</v>
+      </c>
+      <c r="AC162">
+        <v>1.46</v>
+      </c>
+      <c r="AD162">
+        <v>3.64</v>
+      </c>
+      <c r="AE162">
+        <v>5.42</v>
+      </c>
+      <c r="AF162">
+        <v>1.07</v>
+      </c>
+      <c r="AG162">
+        <v>7.5</v>
+      </c>
+      <c r="AH162">
+        <v>1.36</v>
+      </c>
+      <c r="AI162">
+        <v>3</v>
+      </c>
+      <c r="AJ162">
+        <v>2.05</v>
+      </c>
+      <c r="AK162">
+        <v>1.75</v>
+      </c>
+      <c r="AL162">
+        <v>2.1</v>
+      </c>
+      <c r="AM162">
+        <v>1.67</v>
+      </c>
+      <c r="AN162">
+        <v>1.1</v>
+      </c>
+      <c r="AO162">
+        <v>1.25</v>
+      </c>
+      <c r="AP162">
+        <v>2.38</v>
+      </c>
+      <c r="AQ162">
+        <v>2.6</v>
+      </c>
+      <c r="AR162">
+        <v>1.2</v>
+      </c>
+      <c r="AS162">
+        <v>2.64</v>
+      </c>
+      <c r="AT162">
+        <v>1.09</v>
+      </c>
+      <c r="AU162">
+        <v>1.78</v>
+      </c>
+      <c r="AV162">
+        <v>1.1</v>
+      </c>
+      <c r="AW162">
+        <v>2.88</v>
+      </c>
+      <c r="AX162">
+        <v>0</v>
+      </c>
+      <c r="AY162">
+        <v>0</v>
+      </c>
+      <c r="AZ162">
+        <v>0</v>
+      </c>
+      <c r="BA162">
+        <v>0</v>
+      </c>
+      <c r="BB162">
+        <v>0</v>
+      </c>
+      <c r="BC162">
+        <v>0</v>
+      </c>
+      <c r="BD162">
+        <v>0</v>
+      </c>
+      <c r="BE162">
+        <v>0</v>
+      </c>
+      <c r="BF162">
+        <v>2</v>
+      </c>
+      <c r="BG162">
+        <v>5</v>
+      </c>
+      <c r="BH162">
+        <v>8</v>
+      </c>
+      <c r="BI162">
+        <v>7</v>
+      </c>
+      <c r="BJ162">
+        <v>10</v>
+      </c>
+      <c r="BK162">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="256">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -569,6 +569,12 @@
   </si>
   <si>
     <t>['18', '90+3']</t>
+  </si>
+  <si>
+    <t>['23', '60']</t>
+  </si>
+  <si>
+    <t>['58']</t>
   </si>
   <si>
     <t>['78']</t>
@@ -1137,7 +1143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK162"/>
+  <dimension ref="A1:BK165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1381,7 +1387,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1471,7 +1477,7 @@
         <v>1.6</v>
       </c>
       <c r="AT2">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1572,7 +1578,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1763,7 +1769,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1850,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT4">
         <v>0.3</v>
@@ -2145,7 +2151,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2614,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AT8">
         <v>1.2</v>
@@ -2718,7 +2724,7 @@
         <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2808,7 +2814,7 @@
         <v>1.4</v>
       </c>
       <c r="AT9">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2909,7 +2915,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3291,7 +3297,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3864,7 +3870,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4055,7 +4061,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4437,7 +4443,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4524,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AT18">
         <v>0.3</v>
@@ -4628,7 +4634,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -4909,7 +4915,7 @@
         <v>1.4</v>
       </c>
       <c r="AT20">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU20">
         <v>1.45</v>
@@ -5010,7 +5016,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5201,7 +5207,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5288,10 +5294,10 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT22">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU22">
         <v>1.42</v>
@@ -5482,7 +5488,7 @@
         <v>0.8</v>
       </c>
       <c r="AT23">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU23">
         <v>0.78</v>
@@ -5774,7 +5780,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -6347,7 +6353,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6729,7 +6735,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6920,7 +6926,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -7198,10 +7204,10 @@
         <v>1.5</v>
       </c>
       <c r="AS32">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AT32">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU32">
         <v>1.22</v>
@@ -7302,7 +7308,7 @@
         <v>81</v>
       </c>
       <c r="P33" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7493,7 +7499,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7583,7 +7589,7 @@
         <v>2.64</v>
       </c>
       <c r="AT34">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU34">
         <v>1.22</v>
@@ -7875,7 +7881,7 @@
         <v>81</v>
       </c>
       <c r="P36" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -7965,7 +7971,7 @@
         <v>0.8</v>
       </c>
       <c r="AT36">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU36">
         <v>1.28</v>
@@ -8153,7 +8159,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT37">
         <v>1.09</v>
@@ -8448,7 +8454,7 @@
         <v>81</v>
       </c>
       <c r="P39" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8830,7 +8836,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q41">
         <v>13</v>
@@ -9594,7 +9600,7 @@
         <v>111</v>
       </c>
       <c r="P45" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9785,7 +9791,7 @@
         <v>112</v>
       </c>
       <c r="P46" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9872,7 +9878,7 @@
         <v>1</v>
       </c>
       <c r="AS46">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AT46">
         <v>1.09</v>
@@ -10066,7 +10072,7 @@
         <v>2</v>
       </c>
       <c r="AT47">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU47">
         <v>3.04</v>
@@ -10257,7 +10263,7 @@
         <v>2.64</v>
       </c>
       <c r="AT48">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU48">
         <v>1.37</v>
@@ -10358,7 +10364,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10549,7 +10555,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10636,10 +10642,10 @@
         <v>0.33</v>
       </c>
       <c r="AS50">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT50">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU50">
         <v>0</v>
@@ -10740,7 +10746,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10931,7 +10937,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11504,7 +11510,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -11886,7 +11892,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12077,7 +12083,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12268,7 +12274,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12549,7 +12555,7 @@
         <v>1</v>
       </c>
       <c r="AT60">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU60">
         <v>0.97</v>
@@ -12650,7 +12656,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -12737,10 +12743,10 @@
         <v>1.33</v>
       </c>
       <c r="AS61">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT61">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU61">
         <v>2.4</v>
@@ -12928,7 +12934,7 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AT62">
         <v>2.2</v>
@@ -13119,7 +13125,7 @@
         <v>0.33</v>
       </c>
       <c r="AS63">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT63">
         <v>0.4</v>
@@ -13504,7 +13510,7 @@
         <v>2.4</v>
       </c>
       <c r="AT65">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU65">
         <v>2.05</v>
@@ -13987,7 +13993,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -14369,7 +14375,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14650,7 +14656,7 @@
         <v>1.8</v>
       </c>
       <c r="AT71">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU71">
         <v>1.7</v>
@@ -14942,7 +14948,7 @@
         <v>81</v>
       </c>
       <c r="P73" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -15324,7 +15330,7 @@
         <v>81</v>
       </c>
       <c r="P75" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q75">
         <v>1</v>
@@ -15515,7 +15521,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15602,7 +15608,7 @@
         <v>0.25</v>
       </c>
       <c r="AS76">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AT76">
         <v>0.4</v>
@@ -15706,7 +15712,7 @@
         <v>81</v>
       </c>
       <c r="P77" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q77">
         <v>1</v>
@@ -15796,7 +15802,7 @@
         <v>0.6</v>
       </c>
       <c r="AT77">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU77">
         <v>0.9399999999999999</v>
@@ -16088,7 +16094,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16178,7 +16184,7 @@
         <v>1</v>
       </c>
       <c r="AT79">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU79">
         <v>1.26</v>
@@ -16366,7 +16372,7 @@
         <v>2</v>
       </c>
       <c r="AS80">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT80">
         <v>1.5</v>
@@ -16557,7 +16563,7 @@
         <v>0</v>
       </c>
       <c r="AS81">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT81">
         <v>0.6</v>
@@ -16852,7 +16858,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q83">
         <v>11</v>
@@ -17133,7 +17139,7 @@
         <v>2</v>
       </c>
       <c r="AT84">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU84">
         <v>1.5</v>
@@ -17234,7 +17240,7 @@
         <v>140</v>
       </c>
       <c r="P85" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -17425,7 +17431,7 @@
         <v>141</v>
       </c>
       <c r="P86" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17515,7 +17521,7 @@
         <v>1.8</v>
       </c>
       <c r="AT86">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU86">
         <v>1.74</v>
@@ -17998,7 +18004,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18085,7 +18091,7 @@
         <v>1.4</v>
       </c>
       <c r="AS89">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT89">
         <v>1.3</v>
@@ -18189,7 +18195,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18571,7 +18577,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q92">
         <v>2</v>
@@ -18661,7 +18667,7 @@
         <v>0.6</v>
       </c>
       <c r="AT92">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU92">
         <v>0.99</v>
@@ -19040,7 +19046,7 @@
         <v>0.6</v>
       </c>
       <c r="AS94">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT94">
         <v>0.8</v>
@@ -19717,7 +19723,7 @@
         <v>81</v>
       </c>
       <c r="P98" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19804,7 +19810,7 @@
         <v>1.4</v>
       </c>
       <c r="AS98">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AT98">
         <v>1.5</v>
@@ -20186,7 +20192,7 @@
         <v>1.5</v>
       </c>
       <c r="AS100">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT100">
         <v>1.1</v>
@@ -20380,7 +20386,7 @@
         <v>1.8</v>
       </c>
       <c r="AT101">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU101">
         <v>1.55</v>
@@ -20481,7 +20487,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q102">
         <v>7</v>
@@ -20953,7 +20959,7 @@
         <v>2.8</v>
       </c>
       <c r="AT104">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU104">
         <v>1.62</v>
@@ -21523,7 +21529,7 @@
         <v>1.29</v>
       </c>
       <c r="AS107">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT107">
         <v>1.2</v>
@@ -21627,7 +21633,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -21818,7 +21824,7 @@
         <v>81</v>
       </c>
       <c r="P109" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q109">
         <v>3</v>
@@ -22009,7 +22015,7 @@
         <v>157</v>
       </c>
       <c r="P110" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22099,7 +22105,7 @@
         <v>2</v>
       </c>
       <c r="AT110">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU110">
         <v>1.65</v>
@@ -22287,7 +22293,7 @@
         <v>1.57</v>
       </c>
       <c r="AS111">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AT111">
         <v>1.5</v>
@@ -22391,7 +22397,7 @@
         <v>83</v>
       </c>
       <c r="P112" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22478,7 +22484,7 @@
         <v>1.67</v>
       </c>
       <c r="AS112">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT112">
         <v>1.3</v>
@@ -22773,7 +22779,7 @@
         <v>81</v>
       </c>
       <c r="P114" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q114">
         <v>4</v>
@@ -23155,7 +23161,7 @@
         <v>92</v>
       </c>
       <c r="P116" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23346,7 +23352,7 @@
         <v>112</v>
       </c>
       <c r="P117" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -23728,7 +23734,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -24009,7 +24015,7 @@
         <v>1.8</v>
       </c>
       <c r="AT120">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU120">
         <v>1.85</v>
@@ -24301,7 +24307,7 @@
         <v>162</v>
       </c>
       <c r="P122" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24388,7 +24394,7 @@
         <v>0.14</v>
       </c>
       <c r="AS122">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT122">
         <v>0.3</v>
@@ -24492,7 +24498,7 @@
         <v>163</v>
       </c>
       <c r="P123" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q123">
         <v>1</v>
@@ -25065,7 +25071,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q126">
         <v>8</v>
@@ -25152,7 +25158,7 @@
         <v>1.86</v>
       </c>
       <c r="AS126">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT126">
         <v>2.2</v>
@@ -25447,7 +25453,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25537,7 +25543,7 @@
         <v>0.8</v>
       </c>
       <c r="AT128">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU128">
         <v>1.43</v>
@@ -25728,7 +25734,7 @@
         <v>1.6</v>
       </c>
       <c r="AT129">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU129">
         <v>1.76</v>
@@ -25829,7 +25835,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -26298,7 +26304,7 @@
         <v>1.5</v>
       </c>
       <c r="AS132">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT132">
         <v>1.5</v>
@@ -26402,7 +26408,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -26489,7 +26495,7 @@
         <v>1.14</v>
       </c>
       <c r="AS133">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AT133">
         <v>1.1</v>
@@ -26683,7 +26689,7 @@
         <v>2.8</v>
       </c>
       <c r="AT134">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU134">
         <v>1.67</v>
@@ -26784,7 +26790,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -26871,7 +26877,7 @@
         <v>2.29</v>
       </c>
       <c r="AS135">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT135">
         <v>2.5</v>
@@ -26975,7 +26981,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q136">
         <v>2</v>
@@ -27357,7 +27363,7 @@
         <v>81</v>
       </c>
       <c r="P138" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q138">
         <v>1</v>
@@ -27548,7 +27554,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27739,7 +27745,7 @@
         <v>160</v>
       </c>
       <c r="P140" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -27930,7 +27936,7 @@
         <v>176</v>
       </c>
       <c r="P141" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q141">
         <v>2</v>
@@ -28121,7 +28127,7 @@
         <v>151</v>
       </c>
       <c r="P142" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q142">
         <v>12</v>
@@ -28503,7 +28509,7 @@
         <v>125</v>
       </c>
       <c r="P144" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -28590,7 +28596,7 @@
         <v>2.38</v>
       </c>
       <c r="AS144">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT144">
         <v>2.5</v>
@@ -28975,7 +28981,7 @@
         <v>1.6</v>
       </c>
       <c r="AT146">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU146">
         <v>1.89</v>
@@ -29166,7 +29172,7 @@
         <v>2.64</v>
       </c>
       <c r="AT147">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU147">
         <v>1.7</v>
@@ -29267,7 +29273,7 @@
         <v>81</v>
       </c>
       <c r="P148" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q148">
         <v>1</v>
@@ -29458,7 +29464,7 @@
         <v>163</v>
       </c>
       <c r="P149" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q149">
         <v>2</v>
@@ -29545,7 +29551,7 @@
         <v>2.44</v>
       </c>
       <c r="AS149">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AT149">
         <v>2.5</v>
@@ -29649,7 +29655,7 @@
         <v>81</v>
       </c>
       <c r="P150" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -29840,7 +29846,7 @@
         <v>178</v>
       </c>
       <c r="P151" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30118,10 +30124,10 @@
         <v>0.44</v>
       </c>
       <c r="AS152">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT152">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU152">
         <v>1.61</v>
@@ -30309,7 +30315,7 @@
         <v>0.33</v>
       </c>
       <c r="AS153">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT153">
         <v>0.3</v>
@@ -30604,7 +30610,7 @@
         <v>181</v>
       </c>
       <c r="P155" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q155">
         <v>5</v>
@@ -30795,7 +30801,7 @@
         <v>147</v>
       </c>
       <c r="P156" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q156">
         <v>3</v>
@@ -30986,7 +30992,7 @@
         <v>182</v>
       </c>
       <c r="P157" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q157">
         <v>6</v>
@@ -31368,7 +31374,7 @@
         <v>183</v>
       </c>
       <c r="P159" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -32083,6 +32089,579 @@
       </c>
       <c r="BK162">
         <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:63">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>2717607</v>
+      </c>
+      <c r="C163" t="s">
+        <v>63</v>
+      </c>
+      <c r="D163" t="s">
+        <v>64</v>
+      </c>
+      <c r="E163" s="2">
+        <v>44982.41666666666</v>
+      </c>
+      <c r="F163">
+        <v>21</v>
+      </c>
+      <c r="G163" t="s">
+        <v>71</v>
+      </c>
+      <c r="H163" t="s">
+        <v>73</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163">
+        <v>2</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+      <c r="N163">
+        <v>3</v>
+      </c>
+      <c r="O163" t="s">
+        <v>185</v>
+      </c>
+      <c r="P163" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q163">
+        <v>5</v>
+      </c>
+      <c r="R163">
+        <v>9</v>
+      </c>
+      <c r="S163">
+        <v>14</v>
+      </c>
+      <c r="T163">
+        <v>2.6</v>
+      </c>
+      <c r="U163">
+        <v>2</v>
+      </c>
+      <c r="V163">
+        <v>4.2</v>
+      </c>
+      <c r="W163">
+        <v>1.44</v>
+      </c>
+      <c r="X163">
+        <v>2.62</v>
+      </c>
+      <c r="Y163">
+        <v>3</v>
+      </c>
+      <c r="Z163">
+        <v>1.36</v>
+      </c>
+      <c r="AA163">
+        <v>7.5</v>
+      </c>
+      <c r="AB163">
+        <v>1.07</v>
+      </c>
+      <c r="AC163">
+        <v>2.2</v>
+      </c>
+      <c r="AD163">
+        <v>3.1</v>
+      </c>
+      <c r="AE163">
+        <v>2.91</v>
+      </c>
+      <c r="AF163">
+        <v>1.08</v>
+      </c>
+      <c r="AG163">
+        <v>7</v>
+      </c>
+      <c r="AH163">
+        <v>1.36</v>
+      </c>
+      <c r="AI163">
+        <v>3</v>
+      </c>
+      <c r="AJ163">
+        <v>1.92</v>
+      </c>
+      <c r="AK163">
+        <v>1.88</v>
+      </c>
+      <c r="AL163">
+        <v>1.85</v>
+      </c>
+      <c r="AM163">
+        <v>1.85</v>
+      </c>
+      <c r="AN163">
+        <v>1.22</v>
+      </c>
+      <c r="AO163">
+        <v>1.33</v>
+      </c>
+      <c r="AP163">
+        <v>1.75</v>
+      </c>
+      <c r="AQ163">
+        <v>0.6</v>
+      </c>
+      <c r="AR163">
+        <v>0.5</v>
+      </c>
+      <c r="AS163">
+        <v>0.82</v>
+      </c>
+      <c r="AT163">
+        <v>0.45</v>
+      </c>
+      <c r="AU163">
+        <v>1.31</v>
+      </c>
+      <c r="AV163">
+        <v>1.28</v>
+      </c>
+      <c r="AW163">
+        <v>2.59</v>
+      </c>
+      <c r="AX163">
+        <v>0</v>
+      </c>
+      <c r="AY163">
+        <v>0</v>
+      </c>
+      <c r="AZ163">
+        <v>0</v>
+      </c>
+      <c r="BA163">
+        <v>0</v>
+      </c>
+      <c r="BB163">
+        <v>0</v>
+      </c>
+      <c r="BC163">
+        <v>0</v>
+      </c>
+      <c r="BD163">
+        <v>0</v>
+      </c>
+      <c r="BE163">
+        <v>0</v>
+      </c>
+      <c r="BF163">
+        <v>5</v>
+      </c>
+      <c r="BG163">
+        <v>4</v>
+      </c>
+      <c r="BH163">
+        <v>14</v>
+      </c>
+      <c r="BI163">
+        <v>5</v>
+      </c>
+      <c r="BJ163">
+        <v>19</v>
+      </c>
+      <c r="BK163">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:63">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>2717609</v>
+      </c>
+      <c r="C164" t="s">
+        <v>63</v>
+      </c>
+      <c r="D164" t="s">
+        <v>64</v>
+      </c>
+      <c r="E164" s="2">
+        <v>44982.52083333334</v>
+      </c>
+      <c r="F164">
+        <v>21</v>
+      </c>
+      <c r="G164" t="s">
+        <v>67</v>
+      </c>
+      <c r="H164" t="s">
+        <v>69</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>1</v>
+      </c>
+      <c r="O164" t="s">
+        <v>186</v>
+      </c>
+      <c r="P164" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q164">
+        <v>8</v>
+      </c>
+      <c r="R164">
+        <v>1</v>
+      </c>
+      <c r="S164">
+        <v>9</v>
+      </c>
+      <c r="T164">
+        <v>2.2</v>
+      </c>
+      <c r="U164">
+        <v>2.15</v>
+      </c>
+      <c r="V164">
+        <v>4.8</v>
+      </c>
+      <c r="W164">
+        <v>1.45</v>
+      </c>
+      <c r="X164">
+        <v>2.64</v>
+      </c>
+      <c r="Y164">
+        <v>3.1</v>
+      </c>
+      <c r="Z164">
+        <v>1.34</v>
+      </c>
+      <c r="AA164">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB164">
+        <v>1.06</v>
+      </c>
+      <c r="AC164">
+        <v>1.54</v>
+      </c>
+      <c r="AD164">
+        <v>3.55</v>
+      </c>
+      <c r="AE164">
+        <v>5.2</v>
+      </c>
+      <c r="AF164">
+        <v>1.07</v>
+      </c>
+      <c r="AG164">
+        <v>7.5</v>
+      </c>
+      <c r="AH164">
+        <v>1.36</v>
+      </c>
+      <c r="AI164">
+        <v>3</v>
+      </c>
+      <c r="AJ164">
+        <v>2.05</v>
+      </c>
+      <c r="AK164">
+        <v>1.75</v>
+      </c>
+      <c r="AL164">
+        <v>1.91</v>
+      </c>
+      <c r="AM164">
+        <v>1.8</v>
+      </c>
+      <c r="AN164">
+        <v>1.17</v>
+      </c>
+      <c r="AO164">
+        <v>1.29</v>
+      </c>
+      <c r="AP164">
+        <v>2.05</v>
+      </c>
+      <c r="AQ164">
+        <v>1.9</v>
+      </c>
+      <c r="AR164">
+        <v>1</v>
+      </c>
+      <c r="AS164">
+        <v>2</v>
+      </c>
+      <c r="AT164">
+        <v>0.91</v>
+      </c>
+      <c r="AU164">
+        <v>1.66</v>
+      </c>
+      <c r="AV164">
+        <v>1.39</v>
+      </c>
+      <c r="AW164">
+        <v>3.05</v>
+      </c>
+      <c r="AX164">
+        <v>0</v>
+      </c>
+      <c r="AY164">
+        <v>0</v>
+      </c>
+      <c r="AZ164">
+        <v>0</v>
+      </c>
+      <c r="BA164">
+        <v>0</v>
+      </c>
+      <c r="BB164">
+        <v>0</v>
+      </c>
+      <c r="BC164">
+        <v>0</v>
+      </c>
+      <c r="BD164">
+        <v>0</v>
+      </c>
+      <c r="BE164">
+        <v>0</v>
+      </c>
+      <c r="BF164">
+        <v>6</v>
+      </c>
+      <c r="BG164">
+        <v>0</v>
+      </c>
+      <c r="BH164">
+        <v>13</v>
+      </c>
+      <c r="BI164">
+        <v>4</v>
+      </c>
+      <c r="BJ164">
+        <v>19</v>
+      </c>
+      <c r="BK164">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:63">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>2717606</v>
+      </c>
+      <c r="C165" t="s">
+        <v>63</v>
+      </c>
+      <c r="D165" t="s">
+        <v>64</v>
+      </c>
+      <c r="E165" s="2">
+        <v>44983.3125</v>
+      </c>
+      <c r="F165">
+        <v>21</v>
+      </c>
+      <c r="G165" t="s">
+        <v>80</v>
+      </c>
+      <c r="H165" t="s">
+        <v>78</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+      <c r="N165">
+        <v>1</v>
+      </c>
+      <c r="O165" t="s">
+        <v>81</v>
+      </c>
+      <c r="P165" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q165">
+        <v>8</v>
+      </c>
+      <c r="R165">
+        <v>5</v>
+      </c>
+      <c r="S165">
+        <v>13</v>
+      </c>
+      <c r="T165">
+        <v>2</v>
+      </c>
+      <c r="U165">
+        <v>2.25</v>
+      </c>
+      <c r="V165">
+        <v>7</v>
+      </c>
+      <c r="W165">
+        <v>1.4</v>
+      </c>
+      <c r="X165">
+        <v>2.75</v>
+      </c>
+      <c r="Y165">
+        <v>3</v>
+      </c>
+      <c r="Z165">
+        <v>1.36</v>
+      </c>
+      <c r="AA165">
+        <v>8</v>
+      </c>
+      <c r="AB165">
+        <v>1.08</v>
+      </c>
+      <c r="AC165">
+        <v>1.43</v>
+      </c>
+      <c r="AD165">
+        <v>4.4</v>
+      </c>
+      <c r="AE165">
+        <v>7.8</v>
+      </c>
+      <c r="AF165">
+        <v>1.04</v>
+      </c>
+      <c r="AG165">
+        <v>9.5</v>
+      </c>
+      <c r="AH165">
+        <v>1.29</v>
+      </c>
+      <c r="AI165">
+        <v>3.35</v>
+      </c>
+      <c r="AJ165">
+        <v>2.04</v>
+      </c>
+      <c r="AK165">
+        <v>1.78</v>
+      </c>
+      <c r="AL165">
+        <v>2.2</v>
+      </c>
+      <c r="AM165">
+        <v>1.62</v>
+      </c>
+      <c r="AN165">
+        <v>1.07</v>
+      </c>
+      <c r="AO165">
+        <v>1.22</v>
+      </c>
+      <c r="AP165">
+        <v>2.84</v>
+      </c>
+      <c r="AQ165">
+        <v>2.3</v>
+      </c>
+      <c r="AR165">
+        <v>0.7</v>
+      </c>
+      <c r="AS165">
+        <v>2.09</v>
+      </c>
+      <c r="AT165">
+        <v>0.91</v>
+      </c>
+      <c r="AU165">
+        <v>1.61</v>
+      </c>
+      <c r="AV165">
+        <v>0.88</v>
+      </c>
+      <c r="AW165">
+        <v>2.49</v>
+      </c>
+      <c r="AX165">
+        <v>0</v>
+      </c>
+      <c r="AY165">
+        <v>0</v>
+      </c>
+      <c r="AZ165">
+        <v>0</v>
+      </c>
+      <c r="BA165">
+        <v>0</v>
+      </c>
+      <c r="BB165">
+        <v>0</v>
+      </c>
+      <c r="BC165">
+        <v>0</v>
+      </c>
+      <c r="BD165">
+        <v>0</v>
+      </c>
+      <c r="BE165">
+        <v>0</v>
+      </c>
+      <c r="BF165">
+        <v>5</v>
+      </c>
+      <c r="BG165">
+        <v>3</v>
+      </c>
+      <c r="BH165">
+        <v>4</v>
+      </c>
+      <c r="BI165">
+        <v>1</v>
+      </c>
+      <c r="BJ165">
+        <v>9</v>
+      </c>
+      <c r="BK165">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="258">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -577,6 +577,9 @@
     <t>['58']</t>
   </si>
   <si>
+    <t>['30']</t>
+  </si>
+  <si>
     <t>['78']</t>
   </si>
   <si>
@@ -782,6 +785,9 @@
   </si>
   <si>
     <t>['14']</t>
+  </si>
+  <si>
+    <t>['42']</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1149,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK165"/>
+  <dimension ref="A1:BK167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1387,7 +1393,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1474,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT2">
         <v>0.91</v>
@@ -1578,7 +1584,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1665,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT3">
         <v>2.5</v>
@@ -1769,7 +1775,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2151,7 +2157,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2724,7 +2730,7 @@
         <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2915,7 +2921,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3297,7 +3303,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3387,7 +3393,7 @@
         <v>1.8</v>
       </c>
       <c r="AT12">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AU12">
         <v>1.23</v>
@@ -3870,7 +3876,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4061,7 +4067,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4342,7 +4348,7 @@
         <v>2</v>
       </c>
       <c r="AT17">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4443,7 +4449,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4634,7 +4640,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -5016,7 +5022,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5103,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT21">
         <v>1.09</v>
@@ -5207,7 +5213,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5485,7 +5491,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT23">
         <v>0.45</v>
@@ -5780,7 +5786,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -6353,7 +6359,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6735,7 +6741,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6825,7 +6831,7 @@
         <v>2.8</v>
       </c>
       <c r="AT30">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU30">
         <v>1.64</v>
@@ -6926,7 +6932,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -7308,7 +7314,7 @@
         <v>81</v>
       </c>
       <c r="P33" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7499,7 +7505,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7881,7 +7887,7 @@
         <v>81</v>
       </c>
       <c r="P36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -7968,7 +7974,7 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT36">
         <v>0.91</v>
@@ -8454,7 +8460,7 @@
         <v>81</v>
       </c>
       <c r="P39" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8836,7 +8842,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q41">
         <v>13</v>
@@ -9600,7 +9606,7 @@
         <v>111</v>
       </c>
       <c r="P45" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9687,7 +9693,7 @@
         <v>2</v>
       </c>
       <c r="AS45">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT45">
         <v>1.5</v>
@@ -9791,7 +9797,7 @@
         <v>112</v>
       </c>
       <c r="P46" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10364,7 +10370,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10451,10 +10457,10 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT49">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU49">
         <v>1.43</v>
@@ -10555,7 +10561,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10746,7 +10752,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10937,7 +10943,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11024,7 +11030,7 @@
         <v>1</v>
       </c>
       <c r="AS52">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT52">
         <v>0.8</v>
@@ -11510,7 +11516,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -11892,7 +11898,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12083,7 +12089,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12274,7 +12280,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12656,7 +12662,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -12937,7 +12943,7 @@
         <v>0.82</v>
       </c>
       <c r="AT62">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AU62">
         <v>1.5</v>
@@ -13319,7 +13325,7 @@
         <v>2.64</v>
       </c>
       <c r="AT64">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU64">
         <v>1.44</v>
@@ -13698,7 +13704,7 @@
         <v>2.25</v>
       </c>
       <c r="AS66">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT66">
         <v>1.5</v>
@@ -13993,7 +13999,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -14271,7 +14277,7 @@
         <v>1.75</v>
       </c>
       <c r="AS69">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT69">
         <v>1.3</v>
@@ -14375,7 +14381,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14948,7 +14954,7 @@
         <v>81</v>
       </c>
       <c r="P73" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -15330,7 +15336,7 @@
         <v>81</v>
       </c>
       <c r="P75" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q75">
         <v>1</v>
@@ -15417,7 +15423,7 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT75">
         <v>1.5</v>
@@ -15521,7 +15527,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15712,7 +15718,7 @@
         <v>81</v>
       </c>
       <c r="P77" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q77">
         <v>1</v>
@@ -16094,7 +16100,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16566,7 +16572,7 @@
         <v>2.09</v>
       </c>
       <c r="AT81">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU81">
         <v>2.08</v>
@@ -16757,7 +16763,7 @@
         <v>2</v>
       </c>
       <c r="AT82">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AU82">
         <v>2.83</v>
@@ -16858,7 +16864,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q83">
         <v>11</v>
@@ -17240,7 +17246,7 @@
         <v>140</v>
       </c>
       <c r="P85" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -17327,7 +17333,7 @@
         <v>0</v>
       </c>
       <c r="AS85">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT85">
         <v>0.3</v>
@@ -17431,7 +17437,7 @@
         <v>141</v>
       </c>
       <c r="P86" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17709,7 +17715,7 @@
         <v>1.5</v>
       </c>
       <c r="AS87">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT87">
         <v>1.2</v>
@@ -18004,7 +18010,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18195,7 +18201,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18577,7 +18583,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q92">
         <v>2</v>
@@ -18858,7 +18864,7 @@
         <v>1</v>
       </c>
       <c r="AT93">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU93">
         <v>1.3</v>
@@ -19723,7 +19729,7 @@
         <v>81</v>
       </c>
       <c r="P98" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -20004,7 +20010,7 @@
         <v>2.4</v>
       </c>
       <c r="AT99">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AU99">
         <v>2.23</v>
@@ -20487,7 +20493,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q102">
         <v>7</v>
@@ -20765,7 +20771,7 @@
         <v>0.43</v>
       </c>
       <c r="AS103">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT103">
         <v>0.3</v>
@@ -21338,7 +21344,7 @@
         <v>1.2</v>
       </c>
       <c r="AS106">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT106">
         <v>1.1</v>
@@ -21633,7 +21639,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -21824,7 +21830,7 @@
         <v>81</v>
       </c>
       <c r="P109" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q109">
         <v>3</v>
@@ -21911,10 +21917,10 @@
         <v>1</v>
       </c>
       <c r="AS109">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT109">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AU109">
         <v>1.86</v>
@@ -22015,7 +22021,7 @@
         <v>157</v>
       </c>
       <c r="P110" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22397,7 +22403,7 @@
         <v>83</v>
       </c>
       <c r="P112" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22779,7 +22785,7 @@
         <v>81</v>
       </c>
       <c r="P114" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q114">
         <v>4</v>
@@ -22869,7 +22875,7 @@
         <v>1.4</v>
       </c>
       <c r="AT114">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AU114">
         <v>1.44</v>
@@ -23161,7 +23167,7 @@
         <v>92</v>
       </c>
       <c r="P116" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23352,7 +23358,7 @@
         <v>112</v>
       </c>
       <c r="P117" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -23442,7 +23448,7 @@
         <v>0.6</v>
       </c>
       <c r="AT117">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU117">
         <v>1.04</v>
@@ -23734,7 +23740,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23824,7 +23830,7 @@
         <v>2</v>
       </c>
       <c r="AT119">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AU119">
         <v>1.72</v>
@@ -24307,7 +24313,7 @@
         <v>162</v>
       </c>
       <c r="P122" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24498,7 +24504,7 @@
         <v>163</v>
       </c>
       <c r="P123" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q123">
         <v>1</v>
@@ -24970,7 +24976,7 @@
         <v>1.4</v>
       </c>
       <c r="AT125">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU125">
         <v>1.41</v>
@@ -25071,7 +25077,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q126">
         <v>8</v>
@@ -25161,7 +25167,7 @@
         <v>2</v>
       </c>
       <c r="AT126">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AU126">
         <v>1.58</v>
@@ -25453,7 +25459,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25540,7 +25546,7 @@
         <v>0.75</v>
       </c>
       <c r="AS128">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT128">
         <v>0.91</v>
@@ -25731,7 +25737,7 @@
         <v>0.5</v>
       </c>
       <c r="AS129">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT129">
         <v>0.45</v>
@@ -25835,7 +25841,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -26408,7 +26414,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -26790,7 +26796,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -26981,7 +26987,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q136">
         <v>2</v>
@@ -27363,7 +27369,7 @@
         <v>81</v>
       </c>
       <c r="P138" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q138">
         <v>1</v>
@@ -27453,7 +27459,7 @@
         <v>1.8</v>
       </c>
       <c r="AT138">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AU138">
         <v>1.69</v>
@@ -27554,7 +27560,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27745,7 +27751,7 @@
         <v>160</v>
       </c>
       <c r="P140" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -27936,7 +27942,7 @@
         <v>176</v>
       </c>
       <c r="P141" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q141">
         <v>2</v>
@@ -28026,7 +28032,7 @@
         <v>1.8</v>
       </c>
       <c r="AT141">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU141">
         <v>1.58</v>
@@ -28127,7 +28133,7 @@
         <v>151</v>
       </c>
       <c r="P142" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q142">
         <v>12</v>
@@ -28509,7 +28515,7 @@
         <v>125</v>
       </c>
       <c r="P144" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -28978,7 +28984,7 @@
         <v>1</v>
       </c>
       <c r="AS146">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT146">
         <v>0.91</v>
@@ -29273,7 +29279,7 @@
         <v>81</v>
       </c>
       <c r="P148" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q148">
         <v>1</v>
@@ -29464,7 +29470,7 @@
         <v>163</v>
       </c>
       <c r="P149" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q149">
         <v>2</v>
@@ -29655,7 +29661,7 @@
         <v>81</v>
       </c>
       <c r="P150" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -29742,7 +29748,7 @@
         <v>1</v>
       </c>
       <c r="AS150">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT150">
         <v>1.09</v>
@@ -29846,7 +29852,7 @@
         <v>178</v>
       </c>
       <c r="P151" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -29936,7 +29942,7 @@
         <v>1.4</v>
       </c>
       <c r="AT151">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AU151">
         <v>1.32</v>
@@ -30610,7 +30616,7 @@
         <v>181</v>
       </c>
       <c r="P155" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q155">
         <v>5</v>
@@ -30801,7 +30807,7 @@
         <v>147</v>
       </c>
       <c r="P156" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q156">
         <v>3</v>
@@ -30891,7 +30897,7 @@
         <v>1.8</v>
       </c>
       <c r="AT156">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU156">
         <v>1.6</v>
@@ -30992,7 +30998,7 @@
         <v>182</v>
       </c>
       <c r="P157" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q157">
         <v>6</v>
@@ -31374,7 +31380,7 @@
         <v>183</v>
       </c>
       <c r="P159" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -32138,7 +32144,7 @@
         <v>185</v>
       </c>
       <c r="P163" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q163">
         <v>5</v>
@@ -32520,7 +32526,7 @@
         <v>81</v>
       </c>
       <c r="P165" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q165">
         <v>8</v>
@@ -32662,6 +32668,388 @@
       </c>
       <c r="BK165">
         <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:63">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>2717611</v>
+      </c>
+      <c r="C166" t="s">
+        <v>63</v>
+      </c>
+      <c r="D166" t="s">
+        <v>64</v>
+      </c>
+      <c r="E166" s="2">
+        <v>44983.40625</v>
+      </c>
+      <c r="F166">
+        <v>21</v>
+      </c>
+      <c r="G166" t="s">
+        <v>65</v>
+      </c>
+      <c r="H166" t="s">
+        <v>72</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>1</v>
+      </c>
+      <c r="O166" t="s">
+        <v>187</v>
+      </c>
+      <c r="P166" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q166">
+        <v>2</v>
+      </c>
+      <c r="R166">
+        <v>3</v>
+      </c>
+      <c r="S166">
+        <v>5</v>
+      </c>
+      <c r="T166">
+        <v>2.2</v>
+      </c>
+      <c r="U166">
+        <v>2.1</v>
+      </c>
+      <c r="V166">
+        <v>6</v>
+      </c>
+      <c r="W166">
+        <v>1.44</v>
+      </c>
+      <c r="X166">
+        <v>2.63</v>
+      </c>
+      <c r="Y166">
+        <v>3.25</v>
+      </c>
+      <c r="Z166">
+        <v>1.33</v>
+      </c>
+      <c r="AA166">
+        <v>9</v>
+      </c>
+      <c r="AB166">
+        <v>1.07</v>
+      </c>
+      <c r="AC166">
+        <v>1.57</v>
+      </c>
+      <c r="AD166">
+        <v>3.6</v>
+      </c>
+      <c r="AE166">
+        <v>5</v>
+      </c>
+      <c r="AF166">
+        <v>1.05</v>
+      </c>
+      <c r="AG166">
+        <v>8</v>
+      </c>
+      <c r="AH166">
+        <v>1.33</v>
+      </c>
+      <c r="AI166">
+        <v>3</v>
+      </c>
+      <c r="AJ166">
+        <v>2.1</v>
+      </c>
+      <c r="AK166">
+        <v>1.7</v>
+      </c>
+      <c r="AL166">
+        <v>2.1</v>
+      </c>
+      <c r="AM166">
+        <v>1.67</v>
+      </c>
+      <c r="AN166">
+        <v>1.12</v>
+      </c>
+      <c r="AO166">
+        <v>1.29</v>
+      </c>
+      <c r="AP166">
+        <v>2.2</v>
+      </c>
+      <c r="AQ166">
+        <v>1.6</v>
+      </c>
+      <c r="AR166">
+        <v>0.6</v>
+      </c>
+      <c r="AS166">
+        <v>1.73</v>
+      </c>
+      <c r="AT166">
+        <v>0.55</v>
+      </c>
+      <c r="AU166">
+        <v>1.86</v>
+      </c>
+      <c r="AV166">
+        <v>1.15</v>
+      </c>
+      <c r="AW166">
+        <v>3.01</v>
+      </c>
+      <c r="AX166">
+        <v>0</v>
+      </c>
+      <c r="AY166">
+        <v>0</v>
+      </c>
+      <c r="AZ166">
+        <v>0</v>
+      </c>
+      <c r="BA166">
+        <v>0</v>
+      </c>
+      <c r="BB166">
+        <v>0</v>
+      </c>
+      <c r="BC166">
+        <v>0</v>
+      </c>
+      <c r="BD166">
+        <v>0</v>
+      </c>
+      <c r="BE166">
+        <v>0</v>
+      </c>
+      <c r="BF166">
+        <v>5</v>
+      </c>
+      <c r="BG166">
+        <v>5</v>
+      </c>
+      <c r="BH166">
+        <v>11</v>
+      </c>
+      <c r="BI166">
+        <v>9</v>
+      </c>
+      <c r="BJ166">
+        <v>16</v>
+      </c>
+      <c r="BK166">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="1:63">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>2717610</v>
+      </c>
+      <c r="C167" t="s">
+        <v>63</v>
+      </c>
+      <c r="D167" t="s">
+        <v>64</v>
+      </c>
+      <c r="E167" s="2">
+        <v>44983.51041666666</v>
+      </c>
+      <c r="F167">
+        <v>21</v>
+      </c>
+      <c r="G167" t="s">
+        <v>66</v>
+      </c>
+      <c r="H167" t="s">
+        <v>70</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+      <c r="K167">
+        <v>1</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+      <c r="N167">
+        <v>1</v>
+      </c>
+      <c r="O167" t="s">
+        <v>81</v>
+      </c>
+      <c r="P167" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q167">
+        <v>2</v>
+      </c>
+      <c r="R167">
+        <v>5</v>
+      </c>
+      <c r="S167">
+        <v>7</v>
+      </c>
+      <c r="T167">
+        <v>7</v>
+      </c>
+      <c r="U167">
+        <v>2.3</v>
+      </c>
+      <c r="V167">
+        <v>2</v>
+      </c>
+      <c r="W167">
+        <v>1.36</v>
+      </c>
+      <c r="X167">
+        <v>3</v>
+      </c>
+      <c r="Y167">
+        <v>2.75</v>
+      </c>
+      <c r="Z167">
+        <v>1.4</v>
+      </c>
+      <c r="AA167">
+        <v>7</v>
+      </c>
+      <c r="AB167">
+        <v>1.1</v>
+      </c>
+      <c r="AC167">
+        <v>6</v>
+      </c>
+      <c r="AD167">
+        <v>4.4</v>
+      </c>
+      <c r="AE167">
+        <v>1.38</v>
+      </c>
+      <c r="AF167">
+        <v>1.03</v>
+      </c>
+      <c r="AG167">
+        <v>10.5</v>
+      </c>
+      <c r="AH167">
+        <v>1.29</v>
+      </c>
+      <c r="AI167">
+        <v>3.3</v>
+      </c>
+      <c r="AJ167">
+        <v>1.85</v>
+      </c>
+      <c r="AK167">
+        <v>1.95</v>
+      </c>
+      <c r="AL167">
+        <v>2.1</v>
+      </c>
+      <c r="AM167">
+        <v>1.67</v>
+      </c>
+      <c r="AN167">
+        <v>2.84</v>
+      </c>
+      <c r="AO167">
+        <v>1.2</v>
+      </c>
+      <c r="AP167">
+        <v>1.08</v>
+      </c>
+      <c r="AQ167">
+        <v>0.8</v>
+      </c>
+      <c r="AR167">
+        <v>2.2</v>
+      </c>
+      <c r="AS167">
+        <v>0.73</v>
+      </c>
+      <c r="AT167">
+        <v>2.27</v>
+      </c>
+      <c r="AU167">
+        <v>1.44</v>
+      </c>
+      <c r="AV167">
+        <v>1.41</v>
+      </c>
+      <c r="AW167">
+        <v>2.85</v>
+      </c>
+      <c r="AX167">
+        <v>0</v>
+      </c>
+      <c r="AY167">
+        <v>0</v>
+      </c>
+      <c r="AZ167">
+        <v>0</v>
+      </c>
+      <c r="BA167">
+        <v>0</v>
+      </c>
+      <c r="BB167">
+        <v>0</v>
+      </c>
+      <c r="BC167">
+        <v>0</v>
+      </c>
+      <c r="BD167">
+        <v>0</v>
+      </c>
+      <c r="BE167">
+        <v>0</v>
+      </c>
+      <c r="BF167">
+        <v>3</v>
+      </c>
+      <c r="BG167">
+        <v>4</v>
+      </c>
+      <c r="BH167">
+        <v>1</v>
+      </c>
+      <c r="BI167">
+        <v>7</v>
+      </c>
+      <c r="BJ167">
+        <v>4</v>
+      </c>
+      <c r="BK167">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="259">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -789,6 +789,9 @@
   <si>
     <t>['42']</t>
   </si>
+  <si>
+    <t>['11']</t>
+  </si>
 </sst>
 </file>
 
@@ -1149,7 +1152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK167"/>
+  <dimension ref="A1:BK169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1674,7 +1677,7 @@
         <v>0.73</v>
       </c>
       <c r="AT3">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2247,7 +2250,7 @@
         <v>1.8</v>
       </c>
       <c r="AT6">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -3581,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT13">
         <v>0.3</v>
@@ -3963,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT15">
         <v>1.3</v>
@@ -4730,7 +4733,7 @@
         <v>2.64</v>
       </c>
       <c r="AT19">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AU19">
         <v>0.96</v>
@@ -5685,7 +5688,7 @@
         <v>2.8</v>
       </c>
       <c r="AT24">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU24">
         <v>1.75</v>
@@ -6446,7 +6449,7 @@
         <v>1.5</v>
       </c>
       <c r="AS28">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT28">
         <v>1.2</v>
@@ -7404,7 +7407,7 @@
         <v>1.4</v>
       </c>
       <c r="AT33">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU33">
         <v>1.33</v>
@@ -7783,7 +7786,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT35">
         <v>0.3</v>
@@ -9696,7 +9699,7 @@
         <v>1.73</v>
       </c>
       <c r="AT45">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU45">
         <v>2.02</v>
@@ -10075,7 +10078,7 @@
         <v>2</v>
       </c>
       <c r="AS47">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT47">
         <v>0.91</v>
@@ -10839,10 +10842,10 @@
         <v>2</v>
       </c>
       <c r="AS51">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT51">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AU51">
         <v>1</v>
@@ -12179,7 +12182,7 @@
         <v>1.8</v>
       </c>
       <c r="AT58">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AU58">
         <v>1.54</v>
@@ -12558,7 +12561,7 @@
         <v>0.25</v>
       </c>
       <c r="AS60">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT60">
         <v>0.45</v>
@@ -13707,7 +13710,7 @@
         <v>0.73</v>
       </c>
       <c r="AT66">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU66">
         <v>1.66</v>
@@ -13895,7 +13898,7 @@
         <v>1.5</v>
       </c>
       <c r="AS67">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT67">
         <v>1.09</v>
@@ -15044,7 +15047,7 @@
         <v>1.4</v>
       </c>
       <c r="AT73">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AU73">
         <v>1.65</v>
@@ -16187,7 +16190,7 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT79">
         <v>0.91</v>
@@ -16381,7 +16384,7 @@
         <v>2</v>
       </c>
       <c r="AT80">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU80">
         <v>1.41</v>
@@ -16760,7 +16763,7 @@
         <v>2</v>
       </c>
       <c r="AS82">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT82">
         <v>2.27</v>
@@ -17909,7 +17912,7 @@
         <v>1.8</v>
       </c>
       <c r="AT88">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AU88">
         <v>1.56</v>
@@ -18861,7 +18864,7 @@
         <v>0</v>
       </c>
       <c r="AS93">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT93">
         <v>0.55</v>
@@ -19243,7 +19246,7 @@
         <v>0.2</v>
       </c>
       <c r="AS95">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT95">
         <v>0.4</v>
@@ -19628,7 +19631,7 @@
         <v>2.64</v>
       </c>
       <c r="AT97">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU97">
         <v>1.62</v>
@@ -21729,7 +21732,7 @@
         <v>1.4</v>
       </c>
       <c r="AT108">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AU108">
         <v>1.38</v>
@@ -22302,7 +22305,7 @@
         <v>0.82</v>
       </c>
       <c r="AT111">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU111">
         <v>1.39</v>
@@ -22681,7 +22684,7 @@
         <v>1.67</v>
       </c>
       <c r="AS113">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT113">
         <v>1.5</v>
@@ -23254,7 +23257,7 @@
         <v>0.5</v>
       </c>
       <c r="AS116">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT116">
         <v>0.8</v>
@@ -23636,7 +23639,7 @@
         <v>1.57</v>
       </c>
       <c r="AS118">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT118">
         <v>1.5</v>
@@ -24209,7 +24212,7 @@
         <v>1.57</v>
       </c>
       <c r="AS121">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT121">
         <v>1.3</v>
@@ -26313,7 +26316,7 @@
         <v>2.09</v>
       </c>
       <c r="AT132">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU132">
         <v>1.79</v>
@@ -26886,7 +26889,7 @@
         <v>2</v>
       </c>
       <c r="AT135">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AU135">
         <v>1.68</v>
@@ -27074,7 +27077,7 @@
         <v>0.25</v>
       </c>
       <c r="AS136">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT136">
         <v>0.3</v>
@@ -27647,7 +27650,7 @@
         <v>1.13</v>
       </c>
       <c r="AS139">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT139">
         <v>1.2</v>
@@ -28605,7 +28608,7 @@
         <v>2.09</v>
       </c>
       <c r="AT144">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AU144">
         <v>1.69</v>
@@ -29046,7 +29049,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>2433475</v>
+        <v>2433472</v>
       </c>
       <c r="C147" t="s">
         <v>63</v>
@@ -29061,175 +29064,175 @@
         <v>19</v>
       </c>
       <c r="G147" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H147" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K147">
         <v>1</v>
       </c>
       <c r="L147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O147" t="s">
-        <v>177</v>
+        <v>81</v>
       </c>
       <c r="P147" t="s">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="Q147">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S147">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="T147">
-        <v>1.62</v>
+        <v>2.3</v>
       </c>
       <c r="U147">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="V147">
+        <v>7</v>
+      </c>
+      <c r="W147">
+        <v>1.58</v>
+      </c>
+      <c r="X147">
+        <v>2.3</v>
+      </c>
+      <c r="Y147">
+        <v>3.72</v>
+      </c>
+      <c r="Z147">
+        <v>1.25</v>
+      </c>
+      <c r="AA147">
+        <v>10.5</v>
+      </c>
+      <c r="AB147">
+        <v>1.03</v>
+      </c>
+      <c r="AC147">
+        <v>1.63</v>
+      </c>
+      <c r="AD147">
+        <v>3.4</v>
+      </c>
+      <c r="AE147">
+        <v>5.25</v>
+      </c>
+      <c r="AF147">
+        <v>1.08</v>
+      </c>
+      <c r="AG147">
+        <v>6.1</v>
+      </c>
+      <c r="AH147">
+        <v>1.55</v>
+      </c>
+      <c r="AI147">
+        <v>2.36</v>
+      </c>
+      <c r="AJ147">
+        <v>2.77</v>
+      </c>
+      <c r="AK147">
+        <v>1.39</v>
+      </c>
+      <c r="AL147">
+        <v>2.57</v>
+      </c>
+      <c r="AM147">
+        <v>1.48</v>
+      </c>
+      <c r="AN147">
+        <v>1.11</v>
+      </c>
+      <c r="AO147">
+        <v>1.3</v>
+      </c>
+      <c r="AP147">
+        <v>2.26</v>
+      </c>
+      <c r="AQ147">
+        <v>2.22</v>
+      </c>
+      <c r="AR147">
+        <v>1.33</v>
+      </c>
+      <c r="AS147">
+        <v>1.91</v>
+      </c>
+      <c r="AT147">
+        <v>1.64</v>
+      </c>
+      <c r="AU147">
+        <v>2.27</v>
+      </c>
+      <c r="AV147">
+        <v>1.42</v>
+      </c>
+      <c r="AW147">
+        <v>3.69</v>
+      </c>
+      <c r="AX147">
+        <v>0</v>
+      </c>
+      <c r="AY147">
+        <v>0</v>
+      </c>
+      <c r="AZ147">
+        <v>0</v>
+      </c>
+      <c r="BA147">
+        <v>0</v>
+      </c>
+      <c r="BB147">
+        <v>0</v>
+      </c>
+      <c r="BC147">
+        <v>0</v>
+      </c>
+      <c r="BD147">
+        <v>0</v>
+      </c>
+      <c r="BE147">
+        <v>0</v>
+      </c>
+      <c r="BF147">
+        <v>7</v>
+      </c>
+      <c r="BG147">
+        <v>5</v>
+      </c>
+      <c r="BH147">
+        <v>4</v>
+      </c>
+      <c r="BI147">
+        <v>5</v>
+      </c>
+      <c r="BJ147">
         <v>11</v>
       </c>
-      <c r="W147">
-        <v>1.28</v>
-      </c>
-      <c r="X147">
-        <v>3.48</v>
-      </c>
-      <c r="Y147">
-        <v>2.34</v>
-      </c>
-      <c r="Z147">
-        <v>1.56</v>
-      </c>
-      <c r="AA147">
-        <v>5.35</v>
-      </c>
-      <c r="AB147">
-        <v>1.14</v>
-      </c>
-      <c r="AC147">
-        <v>1.17</v>
-      </c>
-      <c r="AD147">
-        <v>6.25</v>
-      </c>
-      <c r="AE147">
-        <v>13</v>
-      </c>
-      <c r="AF147">
-        <v>1.03</v>
-      </c>
-      <c r="AG147">
-        <v>11</v>
-      </c>
-      <c r="AH147">
-        <v>1.18</v>
-      </c>
-      <c r="AI147">
-        <v>4.15</v>
-      </c>
-      <c r="AJ147">
-        <v>1.57</v>
-      </c>
-      <c r="AK147">
-        <v>2.25</v>
-      </c>
-      <c r="AL147">
-        <v>2.38</v>
-      </c>
-      <c r="AM147">
-        <v>1.53</v>
-      </c>
-      <c r="AN147">
-        <v>1.03</v>
-      </c>
-      <c r="AO147">
-        <v>1.08</v>
-      </c>
-      <c r="AP147">
-        <v>3.1</v>
-      </c>
-      <c r="AQ147">
-        <v>2.56</v>
-      </c>
-      <c r="AR147">
-        <v>0.78</v>
-      </c>
-      <c r="AS147">
-        <v>2.64</v>
-      </c>
-      <c r="AT147">
-        <v>0.91</v>
-      </c>
-      <c r="AU147">
-        <v>1.7</v>
-      </c>
-      <c r="AV147">
-        <v>0.91</v>
-      </c>
-      <c r="AW147">
-        <v>2.61</v>
-      </c>
-      <c r="AX147">
-        <v>0</v>
-      </c>
-      <c r="AY147">
-        <v>0</v>
-      </c>
-      <c r="AZ147">
-        <v>0</v>
-      </c>
-      <c r="BA147">
-        <v>0</v>
-      </c>
-      <c r="BB147">
-        <v>0</v>
-      </c>
-      <c r="BC147">
-        <v>0</v>
-      </c>
-      <c r="BD147">
-        <v>0</v>
-      </c>
-      <c r="BE147">
-        <v>0</v>
-      </c>
-      <c r="BF147">
+      <c r="BK147">
         <v>10</v>
-      </c>
-      <c r="BG147">
-        <v>0</v>
-      </c>
-      <c r="BH147">
-        <v>7</v>
-      </c>
-      <c r="BI147">
-        <v>3</v>
-      </c>
-      <c r="BJ147">
-        <v>17</v>
-      </c>
-      <c r="BK147">
-        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:63">
@@ -29237,7 +29240,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>2433472</v>
+        <v>2433475</v>
       </c>
       <c r="C148" t="s">
         <v>63</v>
@@ -29252,175 +29255,175 @@
         <v>19</v>
       </c>
       <c r="G148" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H148" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K148">
         <v>1</v>
       </c>
       <c r="L148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O148" t="s">
+        <v>177</v>
+      </c>
+      <c r="P148" t="s">
         <v>81</v>
       </c>
-      <c r="P148" t="s">
-        <v>200</v>
-      </c>
       <c r="Q148">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R148">
+        <v>1</v>
+      </c>
+      <c r="S148">
+        <v>9</v>
+      </c>
+      <c r="T148">
+        <v>1.62</v>
+      </c>
+      <c r="U148">
+        <v>2.75</v>
+      </c>
+      <c r="V148">
+        <v>11</v>
+      </c>
+      <c r="W148">
+        <v>1.28</v>
+      </c>
+      <c r="X148">
+        <v>3.48</v>
+      </c>
+      <c r="Y148">
+        <v>2.34</v>
+      </c>
+      <c r="Z148">
+        <v>1.56</v>
+      </c>
+      <c r="AA148">
+        <v>5.35</v>
+      </c>
+      <c r="AB148">
+        <v>1.14</v>
+      </c>
+      <c r="AC148">
+        <v>1.17</v>
+      </c>
+      <c r="AD148">
+        <v>6.25</v>
+      </c>
+      <c r="AE148">
+        <v>13</v>
+      </c>
+      <c r="AF148">
+        <v>1.03</v>
+      </c>
+      <c r="AG148">
+        <v>11</v>
+      </c>
+      <c r="AH148">
+        <v>1.18</v>
+      </c>
+      <c r="AI148">
+        <v>4.15</v>
+      </c>
+      <c r="AJ148">
+        <v>1.57</v>
+      </c>
+      <c r="AK148">
+        <v>2.25</v>
+      </c>
+      <c r="AL148">
+        <v>2.38</v>
+      </c>
+      <c r="AM148">
+        <v>1.53</v>
+      </c>
+      <c r="AN148">
+        <v>1.03</v>
+      </c>
+      <c r="AO148">
+        <v>1.08</v>
+      </c>
+      <c r="AP148">
+        <v>3.1</v>
+      </c>
+      <c r="AQ148">
+        <v>2.56</v>
+      </c>
+      <c r="AR148">
+        <v>0.78</v>
+      </c>
+      <c r="AS148">
+        <v>2.64</v>
+      </c>
+      <c r="AT148">
+        <v>0.91</v>
+      </c>
+      <c r="AU148">
+        <v>1.7</v>
+      </c>
+      <c r="AV148">
+        <v>0.91</v>
+      </c>
+      <c r="AW148">
+        <v>2.61</v>
+      </c>
+      <c r="AX148">
+        <v>0</v>
+      </c>
+      <c r="AY148">
+        <v>0</v>
+      </c>
+      <c r="AZ148">
+        <v>0</v>
+      </c>
+      <c r="BA148">
+        <v>0</v>
+      </c>
+      <c r="BB148">
+        <v>0</v>
+      </c>
+      <c r="BC148">
+        <v>0</v>
+      </c>
+      <c r="BD148">
+        <v>0</v>
+      </c>
+      <c r="BE148">
+        <v>0</v>
+      </c>
+      <c r="BF148">
+        <v>10</v>
+      </c>
+      <c r="BG148">
+        <v>0</v>
+      </c>
+      <c r="BH148">
+        <v>7</v>
+      </c>
+      <c r="BI148">
         <v>3</v>
       </c>
-      <c r="S148">
-        <v>4</v>
-      </c>
-      <c r="T148">
-        <v>2.3</v>
-      </c>
-      <c r="U148">
-        <v>1.95</v>
-      </c>
-      <c r="V148">
-        <v>7</v>
-      </c>
-      <c r="W148">
-        <v>1.58</v>
-      </c>
-      <c r="X148">
-        <v>2.3</v>
-      </c>
-      <c r="Y148">
-        <v>3.72</v>
-      </c>
-      <c r="Z148">
-        <v>1.25</v>
-      </c>
-      <c r="AA148">
-        <v>10.5</v>
-      </c>
-      <c r="AB148">
-        <v>1.03</v>
-      </c>
-      <c r="AC148">
-        <v>1.63</v>
-      </c>
-      <c r="AD148">
-        <v>3.4</v>
-      </c>
-      <c r="AE148">
-        <v>5.25</v>
-      </c>
-      <c r="AF148">
-        <v>1.08</v>
-      </c>
-      <c r="AG148">
-        <v>6.1</v>
-      </c>
-      <c r="AH148">
-        <v>1.55</v>
-      </c>
-      <c r="AI148">
-        <v>2.36</v>
-      </c>
-      <c r="AJ148">
-        <v>2.77</v>
-      </c>
-      <c r="AK148">
-        <v>1.39</v>
-      </c>
-      <c r="AL148">
-        <v>2.57</v>
-      </c>
-      <c r="AM148">
-        <v>1.48</v>
-      </c>
-      <c r="AN148">
-        <v>1.11</v>
-      </c>
-      <c r="AO148">
-        <v>1.3</v>
-      </c>
-      <c r="AP148">
-        <v>2.26</v>
-      </c>
-      <c r="AQ148">
-        <v>2.22</v>
-      </c>
-      <c r="AR148">
-        <v>1.33</v>
-      </c>
-      <c r="AS148">
-        <v>2</v>
-      </c>
-      <c r="AT148">
-        <v>1.5</v>
-      </c>
-      <c r="AU148">
-        <v>2.27</v>
-      </c>
-      <c r="AV148">
-        <v>1.42</v>
-      </c>
-      <c r="AW148">
-        <v>3.69</v>
-      </c>
-      <c r="AX148">
-        <v>0</v>
-      </c>
-      <c r="AY148">
-        <v>0</v>
-      </c>
-      <c r="AZ148">
-        <v>0</v>
-      </c>
-      <c r="BA148">
-        <v>0</v>
-      </c>
-      <c r="BB148">
-        <v>0</v>
-      </c>
-      <c r="BC148">
-        <v>0</v>
-      </c>
-      <c r="BD148">
-        <v>0</v>
-      </c>
-      <c r="BE148">
-        <v>0</v>
-      </c>
-      <c r="BF148">
-        <v>7</v>
-      </c>
-      <c r="BG148">
-        <v>5</v>
-      </c>
-      <c r="BH148">
-        <v>4</v>
-      </c>
-      <c r="BI148">
-        <v>5</v>
-      </c>
       <c r="BJ148">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BK148">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:63">
@@ -29560,7 +29563,7 @@
         <v>0.82</v>
       </c>
       <c r="AT149">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AU149">
         <v>1.32</v>
@@ -31467,7 +31470,7 @@
         <v>1.11</v>
       </c>
       <c r="AS159">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT159">
         <v>1.1</v>
@@ -33050,6 +33053,388 @@
       </c>
       <c r="BK167">
         <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:63">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>2717604</v>
+      </c>
+      <c r="C168" t="s">
+        <v>63</v>
+      </c>
+      <c r="D168" t="s">
+        <v>64</v>
+      </c>
+      <c r="E168" s="2">
+        <v>44984.52083333334</v>
+      </c>
+      <c r="F168">
+        <v>21</v>
+      </c>
+      <c r="G168" t="s">
+        <v>77</v>
+      </c>
+      <c r="H168" t="s">
+        <v>76</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="K168">
+        <v>1</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>1</v>
+      </c>
+      <c r="N168">
+        <v>1</v>
+      </c>
+      <c r="O168" t="s">
+        <v>81</v>
+      </c>
+      <c r="P168" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q168">
+        <v>3</v>
+      </c>
+      <c r="R168">
+        <v>4</v>
+      </c>
+      <c r="S168">
+        <v>7</v>
+      </c>
+      <c r="T168">
+        <v>5.5</v>
+      </c>
+      <c r="U168">
+        <v>2</v>
+      </c>
+      <c r="V168">
+        <v>2.6</v>
+      </c>
+      <c r="W168">
+        <v>1.53</v>
+      </c>
+      <c r="X168">
+        <v>2.38</v>
+      </c>
+      <c r="Y168">
+        <v>3.5</v>
+      </c>
+      <c r="Z168">
+        <v>1.29</v>
+      </c>
+      <c r="AA168">
+        <v>11</v>
+      </c>
+      <c r="AB168">
+        <v>1.05</v>
+      </c>
+      <c r="AC168">
+        <v>3.75</v>
+      </c>
+      <c r="AD168">
+        <v>3.3</v>
+      </c>
+      <c r="AE168">
+        <v>1.95</v>
+      </c>
+      <c r="AF168">
+        <v>1.1</v>
+      </c>
+      <c r="AG168">
+        <v>6.5</v>
+      </c>
+      <c r="AH168">
+        <v>1.48</v>
+      </c>
+      <c r="AI168">
+        <v>2.55</v>
+      </c>
+      <c r="AJ168">
+        <v>2.39</v>
+      </c>
+      <c r="AK168">
+        <v>1.53</v>
+      </c>
+      <c r="AL168">
+        <v>2.2</v>
+      </c>
+      <c r="AM168">
+        <v>1.62</v>
+      </c>
+      <c r="AN168">
+        <v>1.85</v>
+      </c>
+      <c r="AO168">
+        <v>1.3</v>
+      </c>
+      <c r="AP168">
+        <v>1.2</v>
+      </c>
+      <c r="AQ168">
+        <v>1</v>
+      </c>
+      <c r="AR168">
+        <v>1.5</v>
+      </c>
+      <c r="AS168">
+        <v>0.91</v>
+      </c>
+      <c r="AT168">
+        <v>1.64</v>
+      </c>
+      <c r="AU168">
+        <v>1.3</v>
+      </c>
+      <c r="AV168">
+        <v>1.43</v>
+      </c>
+      <c r="AW168">
+        <v>2.73</v>
+      </c>
+      <c r="AX168">
+        <v>2.5</v>
+      </c>
+      <c r="AY168">
+        <v>6.5</v>
+      </c>
+      <c r="AZ168">
+        <v>1.92</v>
+      </c>
+      <c r="BA168">
+        <v>1.27</v>
+      </c>
+      <c r="BB168">
+        <v>1.48</v>
+      </c>
+      <c r="BC168">
+        <v>1.82</v>
+      </c>
+      <c r="BD168">
+        <v>2.35</v>
+      </c>
+      <c r="BE168">
+        <v>3.1</v>
+      </c>
+      <c r="BF168">
+        <v>5</v>
+      </c>
+      <c r="BG168">
+        <v>7</v>
+      </c>
+      <c r="BH168">
+        <v>4</v>
+      </c>
+      <c r="BI168">
+        <v>7</v>
+      </c>
+      <c r="BJ168">
+        <v>9</v>
+      </c>
+      <c r="BK168">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169" spans="1:63">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>2717605</v>
+      </c>
+      <c r="C169" t="s">
+        <v>63</v>
+      </c>
+      <c r="D169" t="s">
+        <v>64</v>
+      </c>
+      <c r="E169" s="2">
+        <v>44985.53125</v>
+      </c>
+      <c r="F169">
+        <v>21</v>
+      </c>
+      <c r="G169" t="s">
+        <v>75</v>
+      </c>
+      <c r="H169" t="s">
+        <v>74</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+      <c r="O169" t="s">
+        <v>81</v>
+      </c>
+      <c r="P169" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q169">
+        <v>11</v>
+      </c>
+      <c r="R169">
+        <v>5</v>
+      </c>
+      <c r="S169">
+        <v>16</v>
+      </c>
+      <c r="T169">
+        <v>3.75</v>
+      </c>
+      <c r="U169">
+        <v>2</v>
+      </c>
+      <c r="V169">
+        <v>3.25</v>
+      </c>
+      <c r="W169">
+        <v>1.5</v>
+      </c>
+      <c r="X169">
+        <v>2.5</v>
+      </c>
+      <c r="Y169">
+        <v>3.5</v>
+      </c>
+      <c r="Z169">
+        <v>1.29</v>
+      </c>
+      <c r="AA169">
+        <v>10</v>
+      </c>
+      <c r="AB169">
+        <v>1.06</v>
+      </c>
+      <c r="AC169">
+        <v>2.75</v>
+      </c>
+      <c r="AD169">
+        <v>2.87</v>
+      </c>
+      <c r="AE169">
+        <v>2.45</v>
+      </c>
+      <c r="AF169">
+        <v>1.08</v>
+      </c>
+      <c r="AG169">
+        <v>7</v>
+      </c>
+      <c r="AH169">
+        <v>1.42</v>
+      </c>
+      <c r="AI169">
+        <v>2.7</v>
+      </c>
+      <c r="AJ169">
+        <v>2.3</v>
+      </c>
+      <c r="AK169">
+        <v>1.53</v>
+      </c>
+      <c r="AL169">
+        <v>1.91</v>
+      </c>
+      <c r="AM169">
+        <v>1.8</v>
+      </c>
+      <c r="AN169">
+        <v>1.44</v>
+      </c>
+      <c r="AO169">
+        <v>1.28</v>
+      </c>
+      <c r="AP169">
+        <v>1.36</v>
+      </c>
+      <c r="AQ169">
+        <v>2</v>
+      </c>
+      <c r="AR169">
+        <v>2.5</v>
+      </c>
+      <c r="AS169">
+        <v>1.91</v>
+      </c>
+      <c r="AT169">
+        <v>2.36</v>
+      </c>
+      <c r="AU169">
+        <v>2.21</v>
+      </c>
+      <c r="AV169">
+        <v>2.19</v>
+      </c>
+      <c r="AW169">
+        <v>4.4</v>
+      </c>
+      <c r="AX169">
+        <v>0</v>
+      </c>
+      <c r="AY169">
+        <v>0</v>
+      </c>
+      <c r="AZ169">
+        <v>0</v>
+      </c>
+      <c r="BA169">
+        <v>0</v>
+      </c>
+      <c r="BB169">
+        <v>0</v>
+      </c>
+      <c r="BC169">
+        <v>0</v>
+      </c>
+      <c r="BD169">
+        <v>0</v>
+      </c>
+      <c r="BE169">
+        <v>0</v>
+      </c>
+      <c r="BF169">
+        <v>4</v>
+      </c>
+      <c r="BG169">
+        <v>3</v>
+      </c>
+      <c r="BH169">
+        <v>12</v>
+      </c>
+      <c r="BI169">
+        <v>6</v>
+      </c>
+      <c r="BJ169">
+        <v>16</v>
+      </c>
+      <c r="BK169">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="260">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -792,6 +792,9 @@
   <si>
     <t>['11']</t>
   </si>
+  <si>
+    <t>['2', '42', '50', '71', '75', '88']</t>
+  </si>
 </sst>
 </file>
 
@@ -1152,7 +1155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK169"/>
+  <dimension ref="A1:BK170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2247,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT6">
         <v>1.64</v>
@@ -3393,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT12">
         <v>2.27</v>
@@ -3969,7 +3972,7 @@
         <v>0.91</v>
       </c>
       <c r="AT15">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -5879,7 +5882,7 @@
         <v>0.6</v>
       </c>
       <c r="AT25">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU25">
         <v>1.07</v>
@@ -6640,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT29">
         <v>0.4</v>
@@ -8744,7 +8747,7 @@
         <v>2</v>
       </c>
       <c r="AT40">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU40">
         <v>1.51</v>
@@ -9314,7 +9317,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT43">
         <v>1.5</v>
@@ -11606,7 +11609,7 @@
         <v>0</v>
       </c>
       <c r="AS55">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT55">
         <v>0.3</v>
@@ -12373,7 +12376,7 @@
         <v>2.8</v>
       </c>
       <c r="AT59">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU59">
         <v>1.69</v>
@@ -14283,7 +14286,7 @@
         <v>1.73</v>
       </c>
       <c r="AT69">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU69">
         <v>1.9</v>
@@ -14471,7 +14474,7 @@
         <v>1.5</v>
       </c>
       <c r="AS70">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT70">
         <v>1.1</v>
@@ -17909,7 +17912,7 @@
         <v>2.6</v>
       </c>
       <c r="AS88">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT88">
         <v>2.36</v>
@@ -18103,7 +18106,7 @@
         <v>2</v>
       </c>
       <c r="AT89">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU89">
         <v>1.48</v>
@@ -20392,7 +20395,7 @@
         <v>0.57</v>
       </c>
       <c r="AS101">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT101">
         <v>0.45</v>
@@ -22496,7 +22499,7 @@
         <v>2.09</v>
       </c>
       <c r="AT112">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU112">
         <v>1.86</v>
@@ -24215,7 +24218,7 @@
         <v>1.91</v>
       </c>
       <c r="AT121">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU121">
         <v>2.37</v>
@@ -28032,7 +28035,7 @@
         <v>0.25</v>
       </c>
       <c r="AS141">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT141">
         <v>0.55</v>
@@ -28226,7 +28229,7 @@
         <v>2.4</v>
       </c>
       <c r="AT142">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU142">
         <v>2.08</v>
@@ -30706,7 +30709,7 @@
         <v>0.78</v>
       </c>
       <c r="AS155">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT155">
         <v>0.8</v>
@@ -31282,7 +31285,7 @@
         <v>1.4</v>
       </c>
       <c r="AT158">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU158">
         <v>1.49</v>
@@ -33435,6 +33438,197 @@
       </c>
       <c r="BK169">
         <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:63">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>2717615</v>
+      </c>
+      <c r="C170" t="s">
+        <v>63</v>
+      </c>
+      <c r="D170" t="s">
+        <v>64</v>
+      </c>
+      <c r="E170" s="2">
+        <v>44988.52083333334</v>
+      </c>
+      <c r="F170">
+        <v>22</v>
+      </c>
+      <c r="G170" t="s">
+        <v>69</v>
+      </c>
+      <c r="H170" t="s">
+        <v>68</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>2</v>
+      </c>
+      <c r="K170">
+        <v>2</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>6</v>
+      </c>
+      <c r="N170">
+        <v>6</v>
+      </c>
+      <c r="O170" t="s">
+        <v>81</v>
+      </c>
+      <c r="P170" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q170">
+        <v>9</v>
+      </c>
+      <c r="R170">
+        <v>2</v>
+      </c>
+      <c r="S170">
+        <v>11</v>
+      </c>
+      <c r="T170">
+        <v>4</v>
+      </c>
+      <c r="U170">
+        <v>2.15</v>
+      </c>
+      <c r="V170">
+        <v>2.45</v>
+      </c>
+      <c r="W170">
+        <v>1.36</v>
+      </c>
+      <c r="X170">
+        <v>3</v>
+      </c>
+      <c r="Y170">
+        <v>2.62</v>
+      </c>
+      <c r="Z170">
+        <v>1.44</v>
+      </c>
+      <c r="AA170">
+        <v>6</v>
+      </c>
+      <c r="AB170">
+        <v>1.11</v>
+      </c>
+      <c r="AC170">
+        <v>3.75</v>
+      </c>
+      <c r="AD170">
+        <v>3.3</v>
+      </c>
+      <c r="AE170">
+        <v>1.91</v>
+      </c>
+      <c r="AF170">
+        <v>1.06</v>
+      </c>
+      <c r="AG170">
+        <v>8</v>
+      </c>
+      <c r="AH170">
+        <v>1.3</v>
+      </c>
+      <c r="AI170">
+        <v>3.4</v>
+      </c>
+      <c r="AJ170">
+        <v>1.9</v>
+      </c>
+      <c r="AK170">
+        <v>1.95</v>
+      </c>
+      <c r="AL170">
+        <v>1.73</v>
+      </c>
+      <c r="AM170">
+        <v>2</v>
+      </c>
+      <c r="AN170">
+        <v>1.83</v>
+      </c>
+      <c r="AO170">
+        <v>1.29</v>
+      </c>
+      <c r="AP170">
+        <v>1.22</v>
+      </c>
+      <c r="AQ170">
+        <v>1.8</v>
+      </c>
+      <c r="AR170">
+        <v>1.3</v>
+      </c>
+      <c r="AS170">
+        <v>1.64</v>
+      </c>
+      <c r="AT170">
+        <v>1.45</v>
+      </c>
+      <c r="AU170">
+        <v>1.53</v>
+      </c>
+      <c r="AV170">
+        <v>1.8</v>
+      </c>
+      <c r="AW170">
+        <v>3.33</v>
+      </c>
+      <c r="AX170">
+        <v>0</v>
+      </c>
+      <c r="AY170">
+        <v>0</v>
+      </c>
+      <c r="AZ170">
+        <v>0</v>
+      </c>
+      <c r="BA170">
+        <v>0</v>
+      </c>
+      <c r="BB170">
+        <v>0</v>
+      </c>
+      <c r="BC170">
+        <v>0</v>
+      </c>
+      <c r="BD170">
+        <v>0</v>
+      </c>
+      <c r="BE170">
+        <v>0</v>
+      </c>
+      <c r="BF170">
+        <v>6</v>
+      </c>
+      <c r="BG170">
+        <v>10</v>
+      </c>
+      <c r="BH170">
+        <v>7</v>
+      </c>
+      <c r="BI170">
+        <v>5</v>
+      </c>
+      <c r="BJ170">
+        <v>13</v>
+      </c>
+      <c r="BK170">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="263">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -580,6 +580,15 @@
     <t>['30']</t>
   </si>
   <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
     <t>['78']</t>
   </si>
   <si>
@@ -592,13 +601,7 @@
     <t>['74']</t>
   </si>
   <si>
-    <t>['9']</t>
-  </si>
-  <si>
     <t>['50', '54']</t>
-  </si>
-  <si>
-    <t>['90']</t>
   </si>
   <si>
     <t>['90+6']</t>
@@ -674,9 +677,6 @@
   </si>
   <si>
     <t>['8']</t>
-  </si>
-  <si>
-    <t>['19']</t>
   </si>
   <si>
     <t>['19', '74']</t>
@@ -794,6 +794,15 @@
   </si>
   <si>
     <t>['2', '42', '50', '71', '75', '88']</t>
+  </si>
+  <si>
+    <t>['54', '85']</t>
+  </si>
+  <si>
+    <t>['7', '51']</t>
+  </si>
+  <si>
+    <t>['18', '73']</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK170"/>
+  <dimension ref="A1:BK176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1399,7 +1408,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1590,7 +1599,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1781,7 +1790,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1871,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="AT4">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2062,7 +2071,7 @@
         <v>2.64</v>
       </c>
       <c r="AT5">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2163,7 +2172,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2441,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AT7">
         <v>1.09</v>
@@ -2635,7 +2644,7 @@
         <v>0.82</v>
       </c>
       <c r="AT8">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2736,7 +2745,7 @@
         <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2823,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT9">
         <v>0.45</v>
@@ -2927,7 +2936,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3014,10 +3023,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT10">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3205,10 +3214,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT11">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3309,7 +3318,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3778,10 +3787,10 @@
         <v>3</v>
       </c>
       <c r="AS14">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT14">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3882,7 +3891,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4073,7 +4082,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4160,10 +4169,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT16">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4455,7 +4464,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4545,7 +4554,7 @@
         <v>0.82</v>
       </c>
       <c r="AT18">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AU18">
         <v>0.97</v>
@@ -4646,7 +4655,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -4924,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT20">
         <v>0.91</v>
@@ -5028,7 +5037,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5219,7 +5228,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5688,7 +5697,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AT24">
         <v>1.64</v>
@@ -5792,7 +5801,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -5879,7 +5888,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT25">
         <v>1.45</v>
@@ -6070,7 +6079,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT26">
         <v>0.3</v>
@@ -6261,10 +6270,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT27">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU27">
         <v>1.65</v>
@@ -6365,7 +6374,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6455,7 +6464,7 @@
         <v>0.91</v>
       </c>
       <c r="AT28">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU28">
         <v>0.9399999999999999</v>
@@ -6646,7 +6655,7 @@
         <v>1.64</v>
       </c>
       <c r="AT29">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU29">
         <v>1.29</v>
@@ -6747,7 +6756,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6834,7 +6843,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AT30">
         <v>0.55</v>
@@ -6938,7 +6947,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -7028,7 +7037,7 @@
         <v>2</v>
       </c>
       <c r="AT31">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU31">
         <v>1.34</v>
@@ -7320,7 +7329,7 @@
         <v>81</v>
       </c>
       <c r="P33" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7407,7 +7416,7 @@
         <v>1.5</v>
       </c>
       <c r="AS33">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT33">
         <v>1.64</v>
@@ -7511,7 +7520,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7792,7 +7801,7 @@
         <v>1.91</v>
       </c>
       <c r="AT35">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AU35">
         <v>3.77</v>
@@ -7893,7 +7902,7 @@
         <v>81</v>
       </c>
       <c r="P36" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8362,10 +8371,10 @@
         <v>0.33</v>
       </c>
       <c r="AS38">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT38">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AU38">
         <v>1.46</v>
@@ -8466,7 +8475,7 @@
         <v>81</v>
       </c>
       <c r="P39" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8553,10 +8562,10 @@
         <v>2</v>
       </c>
       <c r="AS39">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT39">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU39">
         <v>1.05</v>
@@ -8848,7 +8857,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q41">
         <v>13</v>
@@ -8935,10 +8944,10 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT41">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU41">
         <v>1.22</v>
@@ -9126,10 +9135,10 @@
         <v>1.5</v>
       </c>
       <c r="AS42">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AT42">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU42">
         <v>1.68</v>
@@ -9320,7 +9329,7 @@
         <v>1.64</v>
       </c>
       <c r="AT43">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU43">
         <v>1.44</v>
@@ -9508,7 +9517,7 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT44">
         <v>0.3</v>
@@ -9612,7 +9621,7 @@
         <v>111</v>
       </c>
       <c r="P45" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9803,7 +9812,7 @@
         <v>112</v>
       </c>
       <c r="P46" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10376,7 +10385,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10567,7 +10576,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10758,7 +10767,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10949,7 +10958,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11039,7 +11048,7 @@
         <v>1.73</v>
       </c>
       <c r="AT52">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU52">
         <v>1.85</v>
@@ -11227,10 +11236,10 @@
         <v>1.33</v>
       </c>
       <c r="AS53">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT53">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU53">
         <v>1.26</v>
@@ -11421,7 +11430,7 @@
         <v>2</v>
       </c>
       <c r="AT54">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU54">
         <v>1.59</v>
@@ -11522,7 +11531,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -11800,10 +11809,10 @@
         <v>0.25</v>
       </c>
       <c r="AS56">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT56">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AU56">
         <v>0.96</v>
@@ -11904,7 +11913,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -11991,10 +12000,10 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT57">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU57">
         <v>1.9</v>
@@ -12095,7 +12104,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12182,7 +12191,7 @@
         <v>2.33</v>
       </c>
       <c r="AS58">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT58">
         <v>2.36</v>
@@ -12286,7 +12295,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12373,7 +12382,7 @@
         <v>2.33</v>
       </c>
       <c r="AS59">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AT59">
         <v>1.45</v>
@@ -12668,7 +12677,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13140,7 +13149,7 @@
         <v>2</v>
       </c>
       <c r="AT63">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU63">
         <v>1.37</v>
@@ -13519,7 +13528,7 @@
         <v>1.5</v>
       </c>
       <c r="AS65">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT65">
         <v>0.91</v>
@@ -14005,7 +14014,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -14092,7 +14101,7 @@
         <v>0</v>
       </c>
       <c r="AS68">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT68">
         <v>0.3</v>
@@ -14477,7 +14486,7 @@
         <v>1.64</v>
       </c>
       <c r="AT70">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU70">
         <v>1.63</v>
@@ -14665,7 +14674,7 @@
         <v>1.2</v>
       </c>
       <c r="AS71">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT71">
         <v>0.91</v>
@@ -14856,10 +14865,10 @@
         <v>1.8</v>
       </c>
       <c r="AS72">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AT72">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU72">
         <v>1.73</v>
@@ -15047,7 +15056,7 @@
         <v>2.5</v>
       </c>
       <c r="AS73">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT73">
         <v>2.36</v>
@@ -15241,7 +15250,7 @@
         <v>2</v>
       </c>
       <c r="AT74">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AU74">
         <v>1.52</v>
@@ -15432,7 +15441,7 @@
         <v>0.73</v>
       </c>
       <c r="AT75">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU75">
         <v>1.67</v>
@@ -15623,7 +15632,7 @@
         <v>0.82</v>
       </c>
       <c r="AT76">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU76">
         <v>1.45</v>
@@ -15811,7 +15820,7 @@
         <v>0.2</v>
       </c>
       <c r="AS77">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT77">
         <v>0.45</v>
@@ -16005,7 +16014,7 @@
         <v>2.64</v>
       </c>
       <c r="AT78">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU78">
         <v>1.49</v>
@@ -16957,7 +16966,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT83">
         <v>1.09</v>
@@ -17443,7 +17452,7 @@
         <v>141</v>
       </c>
       <c r="P86" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17530,7 +17539,7 @@
         <v>0.67</v>
       </c>
       <c r="AS86">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT86">
         <v>0.45</v>
@@ -17724,7 +17733,7 @@
         <v>1.73</v>
       </c>
       <c r="AT87">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU87">
         <v>1.88</v>
@@ -18207,7 +18216,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18294,10 +18303,10 @@
         <v>0.5</v>
       </c>
       <c r="AS90">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AT90">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AU90">
         <v>1.67</v>
@@ -18485,10 +18494,10 @@
         <v>1</v>
       </c>
       <c r="AS91">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT91">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU91">
         <v>1.49</v>
@@ -18676,7 +18685,7 @@
         <v>1.4</v>
       </c>
       <c r="AS92">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT92">
         <v>0.91</v>
@@ -19061,7 +19070,7 @@
         <v>2.09</v>
       </c>
       <c r="AT94">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU94">
         <v>2.01</v>
@@ -19252,7 +19261,7 @@
         <v>1.91</v>
       </c>
       <c r="AT95">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU95">
         <v>2.61</v>
@@ -19440,7 +19449,7 @@
         <v>1.17</v>
       </c>
       <c r="AS96">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT96">
         <v>1.09</v>
@@ -19825,7 +19834,7 @@
         <v>0.82</v>
       </c>
       <c r="AT98">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU98">
         <v>1.38</v>
@@ -20013,7 +20022,7 @@
         <v>1.33</v>
       </c>
       <c r="AS99">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT99">
         <v>2.27</v>
@@ -20207,7 +20216,7 @@
         <v>2.09</v>
       </c>
       <c r="AT100">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU100">
         <v>2.04</v>
@@ -20586,7 +20595,7 @@
         <v>1.14</v>
       </c>
       <c r="AS102">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT102">
         <v>1.09</v>
@@ -20780,7 +20789,7 @@
         <v>1.73</v>
       </c>
       <c r="AT103">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AU103">
         <v>1.81</v>
@@ -20968,7 +20977,7 @@
         <v>0.86</v>
       </c>
       <c r="AS104">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AT104">
         <v>0.91</v>
@@ -21353,7 +21362,7 @@
         <v>0.73</v>
       </c>
       <c r="AT106">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU106">
         <v>1.54</v>
@@ -21544,7 +21553,7 @@
         <v>2</v>
       </c>
       <c r="AT107">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU107">
         <v>1.53</v>
@@ -21732,7 +21741,7 @@
         <v>2.17</v>
       </c>
       <c r="AS108">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT108">
         <v>2.36</v>
@@ -22690,7 +22699,7 @@
         <v>1.91</v>
       </c>
       <c r="AT113">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU113">
         <v>2.51</v>
@@ -22878,7 +22887,7 @@
         <v>1.4</v>
       </c>
       <c r="AS114">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT114">
         <v>2.27</v>
@@ -23069,10 +23078,10 @@
         <v>0.17</v>
       </c>
       <c r="AS115">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT115">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU115">
         <v>2.05</v>
@@ -23263,7 +23272,7 @@
         <v>0.91</v>
       </c>
       <c r="AT116">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU116">
         <v>1.3</v>
@@ -23451,7 +23460,7 @@
         <v>0.17</v>
       </c>
       <c r="AS117">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT117">
         <v>0.55</v>
@@ -23645,7 +23654,7 @@
         <v>0.91</v>
       </c>
       <c r="AT118">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU118">
         <v>1.33</v>
@@ -24024,7 +24033,7 @@
         <v>1.14</v>
       </c>
       <c r="AS120">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT120">
         <v>0.91</v>
@@ -24597,10 +24606,10 @@
         <v>0.14</v>
       </c>
       <c r="AS123">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT123">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU123">
         <v>1.05</v>
@@ -24788,10 +24797,10 @@
         <v>0.86</v>
       </c>
       <c r="AS124">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT124">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU124">
         <v>2.01</v>
@@ -24979,7 +24988,7 @@
         <v>0.29</v>
       </c>
       <c r="AS125">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT125">
         <v>0.55</v>
@@ -25361,10 +25370,10 @@
         <v>1.17</v>
       </c>
       <c r="AS127">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT127">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU127">
         <v>1.86</v>
@@ -25937,7 +25946,7 @@
         <v>2.64</v>
       </c>
       <c r="AT130">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AU130">
         <v>1.7</v>
@@ -26125,7 +26134,7 @@
         <v>1.13</v>
       </c>
       <c r="AS131">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT131">
         <v>1.09</v>
@@ -26510,7 +26519,7 @@
         <v>0.82</v>
       </c>
       <c r="AT133">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU133">
         <v>1.32</v>
@@ -26698,7 +26707,7 @@
         <v>1</v>
       </c>
       <c r="AS134">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AT134">
         <v>0.91</v>
@@ -27274,7 +27283,7 @@
         <v>2</v>
       </c>
       <c r="AT137">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU137">
         <v>1.7</v>
@@ -27462,7 +27471,7 @@
         <v>2</v>
       </c>
       <c r="AS138">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT138">
         <v>2.27</v>
@@ -27656,7 +27665,7 @@
         <v>1.91</v>
       </c>
       <c r="AT139">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU139">
         <v>2.31</v>
@@ -27844,10 +27853,10 @@
         <v>1.5</v>
       </c>
       <c r="AS140">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT140">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU140">
         <v>1.03</v>
@@ -28226,7 +28235,7 @@
         <v>1.5</v>
       </c>
       <c r="AS142">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT142">
         <v>1.45</v>
@@ -28417,10 +28426,10 @@
         <v>0.75</v>
       </c>
       <c r="AS143">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT143">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU143">
         <v>1.45</v>
@@ -28799,10 +28808,10 @@
         <v>1.13</v>
       </c>
       <c r="AS145">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT145">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU145">
         <v>2.18</v>
@@ -29094,7 +29103,7 @@
         <v>81</v>
       </c>
       <c r="P147" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q147">
         <v>1</v>
@@ -29945,7 +29954,7 @@
         <v>2.11</v>
       </c>
       <c r="AS151">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT151">
         <v>2.27</v>
@@ -30330,7 +30339,7 @@
         <v>2.09</v>
       </c>
       <c r="AT153">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AU153">
         <v>1.66</v>
@@ -30521,7 +30530,7 @@
         <v>2</v>
       </c>
       <c r="AT154">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU154">
         <v>1.73</v>
@@ -30712,7 +30721,7 @@
         <v>1.64</v>
       </c>
       <c r="AT155">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU155">
         <v>1.58</v>
@@ -30900,7 +30909,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS156">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT156">
         <v>0.55</v>
@@ -31004,7 +31013,7 @@
         <v>182</v>
       </c>
       <c r="P157" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q157">
         <v>6</v>
@@ -31091,10 +31100,10 @@
         <v>0.44</v>
       </c>
       <c r="AS157">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AT157">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU157">
         <v>1.75</v>
@@ -31282,7 +31291,7 @@
         <v>1.44</v>
       </c>
       <c r="AS158">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT158">
         <v>1.45</v>
@@ -31476,7 +31485,7 @@
         <v>0.91</v>
       </c>
       <c r="AT159">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU159">
         <v>1.33</v>
@@ -31664,10 +31673,10 @@
         <v>1.33</v>
       </c>
       <c r="AS160">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT160">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU160">
         <v>2.1</v>
@@ -31855,7 +31864,7 @@
         <v>0.22</v>
       </c>
       <c r="AS161">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT161">
         <v>0.3</v>
@@ -33629,6 +33638,1152 @@
       </c>
       <c r="BK170">
         <v>15</v>
+      </c>
+    </row>
+    <row r="171" spans="1:63">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>2717613</v>
+      </c>
+      <c r="C171" t="s">
+        <v>63</v>
+      </c>
+      <c r="D171" t="s">
+        <v>64</v>
+      </c>
+      <c r="E171" s="2">
+        <v>44989.3125</v>
+      </c>
+      <c r="F171">
+        <v>22</v>
+      </c>
+      <c r="G171" t="s">
+        <v>72</v>
+      </c>
+      <c r="H171" t="s">
+        <v>66</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>1</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>2</v>
+      </c>
+      <c r="N171">
+        <v>3</v>
+      </c>
+      <c r="O171" t="s">
+        <v>112</v>
+      </c>
+      <c r="P171" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q171">
+        <v>5</v>
+      </c>
+      <c r="R171">
+        <v>6</v>
+      </c>
+      <c r="S171">
+        <v>11</v>
+      </c>
+      <c r="T171">
+        <v>2.5</v>
+      </c>
+      <c r="U171">
+        <v>2.1</v>
+      </c>
+      <c r="V171">
+        <v>5</v>
+      </c>
+      <c r="W171">
+        <v>1.44</v>
+      </c>
+      <c r="X171">
+        <v>2.4</v>
+      </c>
+      <c r="Y171">
+        <v>3.15</v>
+      </c>
+      <c r="Z171">
+        <v>1.27</v>
+      </c>
+      <c r="AA171">
+        <v>9</v>
+      </c>
+      <c r="AB171">
+        <v>1.01</v>
+      </c>
+      <c r="AC171">
+        <v>1.85</v>
+      </c>
+      <c r="AD171">
+        <v>3.1</v>
+      </c>
+      <c r="AE171">
+        <v>4</v>
+      </c>
+      <c r="AF171">
+        <v>1.02</v>
+      </c>
+      <c r="AG171">
+        <v>8</v>
+      </c>
+      <c r="AH171">
+        <v>1.34</v>
+      </c>
+      <c r="AI171">
+        <v>2.75</v>
+      </c>
+      <c r="AJ171">
+        <v>2.15</v>
+      </c>
+      <c r="AK171">
+        <v>1.6</v>
+      </c>
+      <c r="AL171">
+        <v>1.95</v>
+      </c>
+      <c r="AM171">
+        <v>1.78</v>
+      </c>
+      <c r="AN171">
+        <v>1.2</v>
+      </c>
+      <c r="AO171">
+        <v>1.25</v>
+      </c>
+      <c r="AP171">
+        <v>1.78</v>
+      </c>
+      <c r="AQ171">
+        <v>1.4</v>
+      </c>
+      <c r="AR171">
+        <v>0.8</v>
+      </c>
+      <c r="AS171">
+        <v>1.27</v>
+      </c>
+      <c r="AT171">
+        <v>1</v>
+      </c>
+      <c r="AU171">
+        <v>1.29</v>
+      </c>
+      <c r="AV171">
+        <v>1.34</v>
+      </c>
+      <c r="AW171">
+        <v>2.63</v>
+      </c>
+      <c r="AX171">
+        <v>0</v>
+      </c>
+      <c r="AY171">
+        <v>0</v>
+      </c>
+      <c r="AZ171">
+        <v>0</v>
+      </c>
+      <c r="BA171">
+        <v>0</v>
+      </c>
+      <c r="BB171">
+        <v>0</v>
+      </c>
+      <c r="BC171">
+        <v>0</v>
+      </c>
+      <c r="BD171">
+        <v>0</v>
+      </c>
+      <c r="BE171">
+        <v>0</v>
+      </c>
+      <c r="BF171">
+        <v>6</v>
+      </c>
+      <c r="BG171">
+        <v>4</v>
+      </c>
+      <c r="BH171">
+        <v>3</v>
+      </c>
+      <c r="BI171">
+        <v>5</v>
+      </c>
+      <c r="BJ171">
+        <v>9</v>
+      </c>
+      <c r="BK171">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:63">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>2717612</v>
+      </c>
+      <c r="C172" t="s">
+        <v>63</v>
+      </c>
+      <c r="D172" t="s">
+        <v>64</v>
+      </c>
+      <c r="E172" s="2">
+        <v>44989.41666666666</v>
+      </c>
+      <c r="F172">
+        <v>22</v>
+      </c>
+      <c r="G172" t="s">
+        <v>76</v>
+      </c>
+      <c r="H172" t="s">
+        <v>65</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>1</v>
+      </c>
+      <c r="K172">
+        <v>2</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="M172">
+        <v>2</v>
+      </c>
+      <c r="N172">
+        <v>3</v>
+      </c>
+      <c r="O172" t="s">
+        <v>188</v>
+      </c>
+      <c r="P172" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q172">
+        <v>8</v>
+      </c>
+      <c r="R172">
+        <v>3</v>
+      </c>
+      <c r="S172">
+        <v>11</v>
+      </c>
+      <c r="T172">
+        <v>2.6</v>
+      </c>
+      <c r="U172">
+        <v>2.1</v>
+      </c>
+      <c r="V172">
+        <v>4.5</v>
+      </c>
+      <c r="W172">
+        <v>1.42</v>
+      </c>
+      <c r="X172">
+        <v>2.62</v>
+      </c>
+      <c r="Y172">
+        <v>2.9</v>
+      </c>
+      <c r="Z172">
+        <v>1.36</v>
+      </c>
+      <c r="AA172">
+        <v>6.5</v>
+      </c>
+      <c r="AB172">
+        <v>1.08</v>
+      </c>
+      <c r="AC172">
+        <v>1.95</v>
+      </c>
+      <c r="AD172">
+        <v>3.2</v>
+      </c>
+      <c r="AE172">
+        <v>3.8</v>
+      </c>
+      <c r="AF172">
+        <v>1.05</v>
+      </c>
+      <c r="AG172">
+        <v>8</v>
+      </c>
+      <c r="AH172">
+        <v>1.5</v>
+      </c>
+      <c r="AI172">
+        <v>2.5</v>
+      </c>
+      <c r="AJ172">
+        <v>2.17</v>
+      </c>
+      <c r="AK172">
+        <v>1.54</v>
+      </c>
+      <c r="AL172">
+        <v>1.85</v>
+      </c>
+      <c r="AM172">
+        <v>1.85</v>
+      </c>
+      <c r="AN172">
+        <v>1.2</v>
+      </c>
+      <c r="AO172">
+        <v>1.33</v>
+      </c>
+      <c r="AP172">
+        <v>1.85</v>
+      </c>
+      <c r="AQ172">
+        <v>1.8</v>
+      </c>
+      <c r="AR172">
+        <v>0.4</v>
+      </c>
+      <c r="AS172">
+        <v>1.64</v>
+      </c>
+      <c r="AT172">
+        <v>0.64</v>
+      </c>
+      <c r="AU172">
+        <v>1.6</v>
+      </c>
+      <c r="AV172">
+        <v>1.45</v>
+      </c>
+      <c r="AW172">
+        <v>3.05</v>
+      </c>
+      <c r="AX172">
+        <v>0</v>
+      </c>
+      <c r="AY172">
+        <v>0</v>
+      </c>
+      <c r="AZ172">
+        <v>0</v>
+      </c>
+      <c r="BA172">
+        <v>0</v>
+      </c>
+      <c r="BB172">
+        <v>0</v>
+      </c>
+      <c r="BC172">
+        <v>0</v>
+      </c>
+      <c r="BD172">
+        <v>0</v>
+      </c>
+      <c r="BE172">
+        <v>0</v>
+      </c>
+      <c r="BF172">
+        <v>9</v>
+      </c>
+      <c r="BG172">
+        <v>5</v>
+      </c>
+      <c r="BH172">
+        <v>4</v>
+      </c>
+      <c r="BI172">
+        <v>3</v>
+      </c>
+      <c r="BJ172">
+        <v>13</v>
+      </c>
+      <c r="BK172">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:63">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>2717614</v>
+      </c>
+      <c r="C173" t="s">
+        <v>63</v>
+      </c>
+      <c r="D173" t="s">
+        <v>64</v>
+      </c>
+      <c r="E173" s="2">
+        <v>44989.52083333334</v>
+      </c>
+      <c r="F173">
+        <v>22</v>
+      </c>
+      <c r="G173" t="s">
+        <v>70</v>
+      </c>
+      <c r="H173" t="s">
+        <v>67</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+      <c r="K173">
+        <v>2</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+      <c r="N173">
+        <v>2</v>
+      </c>
+      <c r="O173" t="s">
+        <v>189</v>
+      </c>
+      <c r="P173" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q173">
+        <v>4</v>
+      </c>
+      <c r="R173">
+        <v>3</v>
+      </c>
+      <c r="S173">
+        <v>7</v>
+      </c>
+      <c r="T173">
+        <v>2.05</v>
+      </c>
+      <c r="U173">
+        <v>2.25</v>
+      </c>
+      <c r="V173">
+        <v>7</v>
+      </c>
+      <c r="W173">
+        <v>1.4</v>
+      </c>
+      <c r="X173">
+        <v>2.75</v>
+      </c>
+      <c r="Y173">
+        <v>3.22</v>
+      </c>
+      <c r="Z173">
+        <v>1.34</v>
+      </c>
+      <c r="AA173">
+        <v>8</v>
+      </c>
+      <c r="AB173">
+        <v>1.06</v>
+      </c>
+      <c r="AC173">
+        <v>1.47</v>
+      </c>
+      <c r="AD173">
+        <v>3.8</v>
+      </c>
+      <c r="AE173">
+        <v>6.25</v>
+      </c>
+      <c r="AF173">
+        <v>1.07</v>
+      </c>
+      <c r="AG173">
+        <v>7.5</v>
+      </c>
+      <c r="AH173">
+        <v>1.33</v>
+      </c>
+      <c r="AI173">
+        <v>3</v>
+      </c>
+      <c r="AJ173">
+        <v>2.07</v>
+      </c>
+      <c r="AK173">
+        <v>1.59</v>
+      </c>
+      <c r="AL173">
+        <v>2.22</v>
+      </c>
+      <c r="AM173">
+        <v>1.64</v>
+      </c>
+      <c r="AN173">
+        <v>1.07</v>
+      </c>
+      <c r="AO173">
+        <v>1.22</v>
+      </c>
+      <c r="AP173">
+        <v>2.7</v>
+      </c>
+      <c r="AQ173">
+        <v>2.8</v>
+      </c>
+      <c r="AR173">
+        <v>1.5</v>
+      </c>
+      <c r="AS173">
+        <v>2.64</v>
+      </c>
+      <c r="AT173">
+        <v>1.45</v>
+      </c>
+      <c r="AU173">
+        <v>1.7</v>
+      </c>
+      <c r="AV173">
+        <v>1.53</v>
+      </c>
+      <c r="AW173">
+        <v>3.23</v>
+      </c>
+      <c r="AX173">
+        <v>1.35</v>
+      </c>
+      <c r="AY173">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ173">
+        <v>4.3</v>
+      </c>
+      <c r="BA173">
+        <v>1.65</v>
+      </c>
+      <c r="BB173">
+        <v>2.1</v>
+      </c>
+      <c r="BC173">
+        <v>2.35</v>
+      </c>
+      <c r="BD173">
+        <v>4</v>
+      </c>
+      <c r="BE173">
+        <v>5.6</v>
+      </c>
+      <c r="BF173">
+        <v>5</v>
+      </c>
+      <c r="BG173">
+        <v>3</v>
+      </c>
+      <c r="BH173">
+        <v>6</v>
+      </c>
+      <c r="BI173">
+        <v>1</v>
+      </c>
+      <c r="BJ173">
+        <v>11</v>
+      </c>
+      <c r="BK173">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:63">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>2717617</v>
+      </c>
+      <c r="C174" t="s">
+        <v>63</v>
+      </c>
+      <c r="D174" t="s">
+        <v>64</v>
+      </c>
+      <c r="E174" s="2">
+        <v>44990.29166666666</v>
+      </c>
+      <c r="F174">
+        <v>22</v>
+      </c>
+      <c r="G174" t="s">
+        <v>73</v>
+      </c>
+      <c r="H174" t="s">
+        <v>80</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>1</v>
+      </c>
+      <c r="O174" t="s">
+        <v>190</v>
+      </c>
+      <c r="P174" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q174">
+        <v>2</v>
+      </c>
+      <c r="R174">
+        <v>3</v>
+      </c>
+      <c r="S174">
+        <v>5</v>
+      </c>
+      <c r="T174">
+        <v>4.9</v>
+      </c>
+      <c r="U174">
+        <v>2.02</v>
+      </c>
+      <c r="V174">
+        <v>2.59</v>
+      </c>
+      <c r="W174">
+        <v>1.4</v>
+      </c>
+      <c r="X174">
+        <v>2.75</v>
+      </c>
+      <c r="Y174">
+        <v>2.75</v>
+      </c>
+      <c r="Z174">
+        <v>1.4</v>
+      </c>
+      <c r="AA174">
+        <v>6.5</v>
+      </c>
+      <c r="AB174">
+        <v>1.1</v>
+      </c>
+      <c r="AC174">
+        <v>4.1</v>
+      </c>
+      <c r="AD174">
+        <v>3.4</v>
+      </c>
+      <c r="AE174">
+        <v>1.97</v>
+      </c>
+      <c r="AF174">
+        <v>1.07</v>
+      </c>
+      <c r="AG174">
+        <v>7.5</v>
+      </c>
+      <c r="AH174">
+        <v>1.36</v>
+      </c>
+      <c r="AI174">
+        <v>3</v>
+      </c>
+      <c r="AJ174">
+        <v>1.79</v>
+      </c>
+      <c r="AK174">
+        <v>1.75</v>
+      </c>
+      <c r="AL174">
+        <v>2.02</v>
+      </c>
+      <c r="AM174">
+        <v>1.76</v>
+      </c>
+      <c r="AN174">
+        <v>1.85</v>
+      </c>
+      <c r="AO174">
+        <v>1.32</v>
+      </c>
+      <c r="AP174">
+        <v>1.23</v>
+      </c>
+      <c r="AQ174">
+        <v>1.4</v>
+      </c>
+      <c r="AR174">
+        <v>1.2</v>
+      </c>
+      <c r="AS174">
+        <v>1.55</v>
+      </c>
+      <c r="AT174">
+        <v>1.09</v>
+      </c>
+      <c r="AU174">
+        <v>1.44</v>
+      </c>
+      <c r="AV174">
+        <v>1.45</v>
+      </c>
+      <c r="AW174">
+        <v>2.89</v>
+      </c>
+      <c r="AX174">
+        <v>2.52</v>
+      </c>
+      <c r="AY174">
+        <v>7.6</v>
+      </c>
+      <c r="AZ174">
+        <v>1.77</v>
+      </c>
+      <c r="BA174">
+        <v>1.26</v>
+      </c>
+      <c r="BB174">
+        <v>1.56</v>
+      </c>
+      <c r="BC174">
+        <v>1.93</v>
+      </c>
+      <c r="BD174">
+        <v>2.41</v>
+      </c>
+      <c r="BE174">
+        <v>3.34</v>
+      </c>
+      <c r="BF174">
+        <v>4</v>
+      </c>
+      <c r="BG174">
+        <v>4</v>
+      </c>
+      <c r="BH174">
+        <v>4</v>
+      </c>
+      <c r="BI174">
+        <v>5</v>
+      </c>
+      <c r="BJ174">
+        <v>8</v>
+      </c>
+      <c r="BK174">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:63">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>2717618</v>
+      </c>
+      <c r="C175" t="s">
+        <v>63</v>
+      </c>
+      <c r="D175" t="s">
+        <v>64</v>
+      </c>
+      <c r="E175" s="2">
+        <v>44990.38541666666</v>
+      </c>
+      <c r="F175">
+        <v>22</v>
+      </c>
+      <c r="G175" t="s">
+        <v>78</v>
+      </c>
+      <c r="H175" t="s">
+        <v>75</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>1</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>2</v>
+      </c>
+      <c r="N175">
+        <v>2</v>
+      </c>
+      <c r="O175" t="s">
+        <v>81</v>
+      </c>
+      <c r="P175" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q175">
+        <v>0</v>
+      </c>
+      <c r="R175">
+        <v>12</v>
+      </c>
+      <c r="S175">
+        <v>12</v>
+      </c>
+      <c r="T175">
+        <v>7</v>
+      </c>
+      <c r="U175">
+        <v>2.45</v>
+      </c>
+      <c r="V175">
+        <v>1.87</v>
+      </c>
+      <c r="W175">
+        <v>1.3</v>
+      </c>
+      <c r="X175">
+        <v>3.4</v>
+      </c>
+      <c r="Y175">
+        <v>2.3</v>
+      </c>
+      <c r="Z175">
+        <v>1.57</v>
+      </c>
+      <c r="AA175">
+        <v>5</v>
+      </c>
+      <c r="AB175">
+        <v>1.14</v>
+      </c>
+      <c r="AC175">
+        <v>6.88</v>
+      </c>
+      <c r="AD175">
+        <v>4.42</v>
+      </c>
+      <c r="AE175">
+        <v>1.34</v>
+      </c>
+      <c r="AF175">
+        <v>1.04</v>
+      </c>
+      <c r="AG175">
+        <v>10</v>
+      </c>
+      <c r="AH175">
+        <v>1.22</v>
+      </c>
+      <c r="AI175">
+        <v>4</v>
+      </c>
+      <c r="AJ175">
+        <v>1.76</v>
+      </c>
+      <c r="AK175">
+        <v>1.81</v>
+      </c>
+      <c r="AL175">
+        <v>1.97</v>
+      </c>
+      <c r="AM175">
+        <v>1.8</v>
+      </c>
+      <c r="AN175">
+        <v>3.02</v>
+      </c>
+      <c r="AO175">
+        <v>1.18</v>
+      </c>
+      <c r="AP175">
+        <v>1.08</v>
+      </c>
+      <c r="AQ175">
+        <v>0.6</v>
+      </c>
+      <c r="AR175">
+        <v>1.1</v>
+      </c>
+      <c r="AS175">
+        <v>0.55</v>
+      </c>
+      <c r="AT175">
+        <v>1.27</v>
+      </c>
+      <c r="AU175">
+        <v>1.1</v>
+      </c>
+      <c r="AV175">
+        <v>1.94</v>
+      </c>
+      <c r="AW175">
+        <v>3.04</v>
+      </c>
+      <c r="AX175">
+        <v>0</v>
+      </c>
+      <c r="AY175">
+        <v>0</v>
+      </c>
+      <c r="AZ175">
+        <v>0</v>
+      </c>
+      <c r="BA175">
+        <v>0</v>
+      </c>
+      <c r="BB175">
+        <v>0</v>
+      </c>
+      <c r="BC175">
+        <v>0</v>
+      </c>
+      <c r="BD175">
+        <v>0</v>
+      </c>
+      <c r="BE175">
+        <v>0</v>
+      </c>
+      <c r="BF175">
+        <v>0</v>
+      </c>
+      <c r="BG175">
+        <v>10</v>
+      </c>
+      <c r="BH175">
+        <v>2</v>
+      </c>
+      <c r="BI175">
+        <v>9</v>
+      </c>
+      <c r="BJ175">
+        <v>2</v>
+      </c>
+      <c r="BK175">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="176" spans="1:63">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>2717619</v>
+      </c>
+      <c r="C176" t="s">
+        <v>63</v>
+      </c>
+      <c r="D176" t="s">
+        <v>64</v>
+      </c>
+      <c r="E176" s="2">
+        <v>44990.48958333334</v>
+      </c>
+      <c r="F176">
+        <v>22</v>
+      </c>
+      <c r="G176" t="s">
+        <v>74</v>
+      </c>
+      <c r="H176" t="s">
+        <v>77</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+      <c r="N176">
+        <v>1</v>
+      </c>
+      <c r="O176" t="s">
+        <v>81</v>
+      </c>
+      <c r="P176" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q176">
+        <v>9</v>
+      </c>
+      <c r="R176">
+        <v>1</v>
+      </c>
+      <c r="S176">
+        <v>10</v>
+      </c>
+      <c r="T176">
+        <v>1.41</v>
+      </c>
+      <c r="U176">
+        <v>3.4</v>
+      </c>
+      <c r="V176">
+        <v>12</v>
+      </c>
+      <c r="W176">
+        <v>1.18</v>
+      </c>
+      <c r="X176">
+        <v>4.6</v>
+      </c>
+      <c r="Y176">
+        <v>1.9</v>
+      </c>
+      <c r="Z176">
+        <v>1.85</v>
+      </c>
+      <c r="AA176">
+        <v>3.72</v>
+      </c>
+      <c r="AB176">
+        <v>1.25</v>
+      </c>
+      <c r="AC176">
+        <v>1.07</v>
+      </c>
+      <c r="AD176">
+        <v>7.81</v>
+      </c>
+      <c r="AE176">
+        <v>16.59</v>
+      </c>
+      <c r="AF176">
+        <v>1</v>
+      </c>
+      <c r="AG176">
+        <v>17</v>
+      </c>
+      <c r="AH176">
+        <v>1.08</v>
+      </c>
+      <c r="AI176">
+        <v>7</v>
+      </c>
+      <c r="AJ176">
+        <v>1.28</v>
+      </c>
+      <c r="AK176">
+        <v>2.85</v>
+      </c>
+      <c r="AL176">
+        <v>2.16</v>
+      </c>
+      <c r="AM176">
+        <v>1.66</v>
+      </c>
+      <c r="AN176">
+        <v>1.01</v>
+      </c>
+      <c r="AO176">
+        <v>1.05</v>
+      </c>
+      <c r="AP176">
+        <v>6.55</v>
+      </c>
+      <c r="AQ176">
+        <v>2.4</v>
+      </c>
+      <c r="AR176">
+        <v>0.3</v>
+      </c>
+      <c r="AS176">
+        <v>2.18</v>
+      </c>
+      <c r="AT176">
+        <v>0.55</v>
+      </c>
+      <c r="AU176">
+        <v>2.05</v>
+      </c>
+      <c r="AV176">
+        <v>1.22</v>
+      </c>
+      <c r="AW176">
+        <v>3.27</v>
+      </c>
+      <c r="AX176">
+        <v>0</v>
+      </c>
+      <c r="AY176">
+        <v>0</v>
+      </c>
+      <c r="AZ176">
+        <v>0</v>
+      </c>
+      <c r="BA176">
+        <v>0</v>
+      </c>
+      <c r="BB176">
+        <v>0</v>
+      </c>
+      <c r="BC176">
+        <v>0</v>
+      </c>
+      <c r="BD176">
+        <v>0</v>
+      </c>
+      <c r="BE176">
+        <v>0</v>
+      </c>
+      <c r="BF176">
+        <v>8</v>
+      </c>
+      <c r="BG176">
+        <v>5</v>
+      </c>
+      <c r="BH176">
+        <v>12</v>
+      </c>
+      <c r="BI176">
+        <v>2</v>
+      </c>
+      <c r="BJ176">
+        <v>20</v>
+      </c>
+      <c r="BK176">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="264">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -587,6 +587,9 @@
   </si>
   <si>
     <t>['90']</t>
+  </si>
+  <si>
+    <t>['53', '86']</t>
   </si>
   <si>
     <t>['78']</t>
@@ -1164,7 +1167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK176"/>
+  <dimension ref="A1:BK177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1408,7 +1411,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1599,7 +1602,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1790,7 +1793,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2172,7 +2175,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2936,7 +2939,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3599,7 +3602,7 @@
         <v>1.91</v>
       </c>
       <c r="AT13">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3891,7 +3894,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4082,7 +4085,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4360,7 +4363,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT17">
         <v>0.55</v>
@@ -4464,7 +4467,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4655,7 +4658,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -5037,7 +5040,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5228,7 +5231,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5801,7 +5804,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -6082,7 +6085,7 @@
         <v>2.18</v>
       </c>
       <c r="AT26">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU26">
         <v>1.81</v>
@@ -6374,7 +6377,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6756,7 +6759,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6947,7 +6950,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -7034,7 +7037,7 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT31">
         <v>1</v>
@@ -7329,7 +7332,7 @@
         <v>81</v>
       </c>
       <c r="P33" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7520,7 +7523,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7902,7 +7905,7 @@
         <v>81</v>
       </c>
       <c r="P36" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8475,7 +8478,7 @@
         <v>81</v>
       </c>
       <c r="P39" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8753,7 +8756,7 @@
         <v>2</v>
       </c>
       <c r="AS40">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT40">
         <v>1.45</v>
@@ -8857,7 +8860,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q41">
         <v>13</v>
@@ -9520,7 +9523,7 @@
         <v>1.55</v>
       </c>
       <c r="AT44">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU44">
         <v>1.57</v>
@@ -9621,7 +9624,7 @@
         <v>111</v>
       </c>
       <c r="P45" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9812,7 +9815,7 @@
         <v>112</v>
       </c>
       <c r="P46" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10385,7 +10388,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10576,7 +10579,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10767,7 +10770,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10958,7 +10961,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11427,7 +11430,7 @@
         <v>2.25</v>
       </c>
       <c r="AS54">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT54">
         <v>1.09</v>
@@ -11531,7 +11534,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -11621,7 +11624,7 @@
         <v>1.64</v>
       </c>
       <c r="AT55">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU55">
         <v>1.49</v>
@@ -11913,7 +11916,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12104,7 +12107,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12295,7 +12298,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12677,7 +12680,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -14104,7 +14107,7 @@
         <v>1.27</v>
       </c>
       <c r="AT68">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU68">
         <v>1.24</v>
@@ -14396,7 +14399,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14969,7 +14972,7 @@
         <v>81</v>
       </c>
       <c r="P73" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -15247,7 +15250,7 @@
         <v>0.4</v>
       </c>
       <c r="AS74">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT74">
         <v>0.55</v>
@@ -15351,7 +15354,7 @@
         <v>81</v>
       </c>
       <c r="P75" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q75">
         <v>1</v>
@@ -15542,7 +15545,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15733,7 +15736,7 @@
         <v>81</v>
       </c>
       <c r="P77" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q77">
         <v>1</v>
@@ -16115,7 +16118,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16879,7 +16882,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q83">
         <v>11</v>
@@ -17157,7 +17160,7 @@
         <v>1</v>
       </c>
       <c r="AS84">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT84">
         <v>0.91</v>
@@ -17261,7 +17264,7 @@
         <v>140</v>
       </c>
       <c r="P85" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -17351,7 +17354,7 @@
         <v>0.73</v>
       </c>
       <c r="AT85">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU85">
         <v>1.61</v>
@@ -18025,7 +18028,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18216,7 +18219,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18598,7 +18601,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q92">
         <v>2</v>
@@ -19744,7 +19747,7 @@
         <v>81</v>
       </c>
       <c r="P98" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -20508,7 +20511,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q102">
         <v>7</v>
@@ -21171,7 +21174,7 @@
         <v>2.64</v>
       </c>
       <c r="AT105">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU105">
         <v>1.55</v>
@@ -21654,7 +21657,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -21845,7 +21848,7 @@
         <v>81</v>
       </c>
       <c r="P109" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q109">
         <v>3</v>
@@ -22036,7 +22039,7 @@
         <v>157</v>
       </c>
       <c r="P110" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22123,7 +22126,7 @@
         <v>1.17</v>
       </c>
       <c r="AS110">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT110">
         <v>0.91</v>
@@ -22418,7 +22421,7 @@
         <v>83</v>
       </c>
       <c r="P112" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22800,7 +22803,7 @@
         <v>81</v>
       </c>
       <c r="P114" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q114">
         <v>4</v>
@@ -23182,7 +23185,7 @@
         <v>92</v>
       </c>
       <c r="P116" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23373,7 +23376,7 @@
         <v>112</v>
       </c>
       <c r="P117" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -23755,7 +23758,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23842,7 +23845,7 @@
         <v>1.67</v>
       </c>
       <c r="AS119">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT119">
         <v>2.27</v>
@@ -24328,7 +24331,7 @@
         <v>162</v>
       </c>
       <c r="P122" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24418,7 +24421,7 @@
         <v>2.09</v>
       </c>
       <c r="AT122">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU122">
         <v>1.74</v>
@@ -24519,7 +24522,7 @@
         <v>163</v>
       </c>
       <c r="P123" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q123">
         <v>1</v>
@@ -25092,7 +25095,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q126">
         <v>8</v>
@@ -25474,7 +25477,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25856,7 +25859,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -26429,7 +26432,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -26811,7 +26814,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -27002,7 +27005,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q136">
         <v>2</v>
@@ -27092,7 +27095,7 @@
         <v>0.91</v>
       </c>
       <c r="AT136">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU136">
         <v>1.31</v>
@@ -27280,7 +27283,7 @@
         <v>0.5</v>
       </c>
       <c r="AS137">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT137">
         <v>0.64</v>
@@ -27384,7 +27387,7 @@
         <v>81</v>
       </c>
       <c r="P138" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q138">
         <v>1</v>
@@ -27575,7 +27578,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27766,7 +27769,7 @@
         <v>160</v>
       </c>
       <c r="P140" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -27957,7 +27960,7 @@
         <v>176</v>
       </c>
       <c r="P141" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q141">
         <v>2</v>
@@ -28148,7 +28151,7 @@
         <v>151</v>
       </c>
       <c r="P142" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q142">
         <v>12</v>
@@ -28530,7 +28533,7 @@
         <v>125</v>
       </c>
       <c r="P144" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -29103,7 +29106,7 @@
         <v>81</v>
       </c>
       <c r="P147" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q147">
         <v>1</v>
@@ -29485,7 +29488,7 @@
         <v>163</v>
       </c>
       <c r="P149" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q149">
         <v>2</v>
@@ -29676,7 +29679,7 @@
         <v>81</v>
       </c>
       <c r="P150" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -29867,7 +29870,7 @@
         <v>178</v>
       </c>
       <c r="P151" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30527,7 +30530,7 @@
         <v>1.67</v>
       </c>
       <c r="AS154">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT154">
         <v>1.45</v>
@@ -30631,7 +30634,7 @@
         <v>181</v>
       </c>
       <c r="P155" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q155">
         <v>5</v>
@@ -30822,7 +30825,7 @@
         <v>147</v>
       </c>
       <c r="P156" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q156">
         <v>3</v>
@@ -31013,7 +31016,7 @@
         <v>182</v>
       </c>
       <c r="P157" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q157">
         <v>6</v>
@@ -31395,7 +31398,7 @@
         <v>183</v>
       </c>
       <c r="P159" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -31867,7 +31870,7 @@
         <v>0.55</v>
       </c>
       <c r="AT161">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU161">
         <v>1.14</v>
@@ -32159,7 +32162,7 @@
         <v>185</v>
       </c>
       <c r="P163" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q163">
         <v>5</v>
@@ -32541,7 +32544,7 @@
         <v>81</v>
       </c>
       <c r="P165" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q165">
         <v>8</v>
@@ -32923,7 +32926,7 @@
         <v>81</v>
       </c>
       <c r="P167" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q167">
         <v>2</v>
@@ -33114,7 +33117,7 @@
         <v>81</v>
       </c>
       <c r="P168" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33496,7 +33499,7 @@
         <v>81</v>
       </c>
       <c r="P170" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q170">
         <v>9</v>
@@ -33687,7 +33690,7 @@
         <v>112</v>
       </c>
       <c r="P171" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q171">
         <v>5</v>
@@ -33878,7 +33881,7 @@
         <v>188</v>
       </c>
       <c r="P172" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q172">
         <v>8</v>
@@ -34451,7 +34454,7 @@
         <v>81</v>
       </c>
       <c r="P175" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q175">
         <v>0</v>
@@ -34642,7 +34645,7 @@
         <v>81</v>
       </c>
       <c r="P176" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q176">
         <v>9</v>
@@ -34784,6 +34787,197 @@
       </c>
       <c r="BK176">
         <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:63">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>2717616</v>
+      </c>
+      <c r="C177" t="s">
+        <v>63</v>
+      </c>
+      <c r="D177" t="s">
+        <v>64</v>
+      </c>
+      <c r="E177" s="2">
+        <v>44991.52083333334</v>
+      </c>
+      <c r="F177">
+        <v>22</v>
+      </c>
+      <c r="G177" t="s">
+        <v>79</v>
+      </c>
+      <c r="H177" t="s">
+        <v>71</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>2</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>2</v>
+      </c>
+      <c r="O177" t="s">
+        <v>191</v>
+      </c>
+      <c r="P177" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q177">
+        <v>3</v>
+      </c>
+      <c r="R177">
+        <v>2</v>
+      </c>
+      <c r="S177">
+        <v>5</v>
+      </c>
+      <c r="T177">
+        <v>2.24</v>
+      </c>
+      <c r="U177">
+        <v>2.13</v>
+      </c>
+      <c r="V177">
+        <v>5.9</v>
+      </c>
+      <c r="W177">
+        <v>1.4</v>
+      </c>
+      <c r="X177">
+        <v>2.75</v>
+      </c>
+      <c r="Y177">
+        <v>2.75</v>
+      </c>
+      <c r="Z177">
+        <v>1.4</v>
+      </c>
+      <c r="AA177">
+        <v>7</v>
+      </c>
+      <c r="AB177">
+        <v>1.08</v>
+      </c>
+      <c r="AC177">
+        <v>1.46</v>
+      </c>
+      <c r="AD177">
+        <v>3.9</v>
+      </c>
+      <c r="AE177">
+        <v>5.5</v>
+      </c>
+      <c r="AF177">
+        <v>1.07</v>
+      </c>
+      <c r="AG177">
+        <v>7.5</v>
+      </c>
+      <c r="AH177">
+        <v>1.33</v>
+      </c>
+      <c r="AI177">
+        <v>3.25</v>
+      </c>
+      <c r="AJ177">
+        <v>2</v>
+      </c>
+      <c r="AK177">
+        <v>1.8</v>
+      </c>
+      <c r="AL177">
+        <v>2.05</v>
+      </c>
+      <c r="AM177">
+        <v>1.73</v>
+      </c>
+      <c r="AN177">
+        <v>1.15</v>
+      </c>
+      <c r="AO177">
+        <v>1.27</v>
+      </c>
+      <c r="AP177">
+        <v>2.22</v>
+      </c>
+      <c r="AQ177">
+        <v>2</v>
+      </c>
+      <c r="AR177">
+        <v>0.3</v>
+      </c>
+      <c r="AS177">
+        <v>2.09</v>
+      </c>
+      <c r="AT177">
+        <v>0.27</v>
+      </c>
+      <c r="AU177">
+        <v>1.78</v>
+      </c>
+      <c r="AV177">
+        <v>1.07</v>
+      </c>
+      <c r="AW177">
+        <v>2.85</v>
+      </c>
+      <c r="AX177">
+        <v>0</v>
+      </c>
+      <c r="AY177">
+        <v>0</v>
+      </c>
+      <c r="AZ177">
+        <v>0</v>
+      </c>
+      <c r="BA177">
+        <v>0</v>
+      </c>
+      <c r="BB177">
+        <v>0</v>
+      </c>
+      <c r="BC177">
+        <v>0</v>
+      </c>
+      <c r="BD177">
+        <v>0</v>
+      </c>
+      <c r="BE177">
+        <v>0</v>
+      </c>
+      <c r="BF177">
+        <v>4</v>
+      </c>
+      <c r="BG177">
+        <v>0</v>
+      </c>
+      <c r="BH177">
+        <v>6</v>
+      </c>
+      <c r="BI177">
+        <v>3</v>
+      </c>
+      <c r="BJ177">
+        <v>10</v>
+      </c>
+      <c r="BK177">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="266">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -592,6 +592,9 @@
     <t>['53', '86']</t>
   </si>
   <si>
+    <t>['20', '68']</t>
+  </si>
+  <si>
     <t>['78']</t>
   </si>
   <si>
@@ -806,6 +809,9 @@
   </si>
   <si>
     <t>['18', '73']</t>
+  </si>
+  <si>
+    <t>['34']</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK177"/>
+  <dimension ref="A1:BK178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1411,7 +1417,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1602,7 +1608,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1689,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT3">
         <v>2.36</v>
@@ -1793,7 +1799,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2175,7 +2181,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2939,7 +2945,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3029,7 +3035,7 @@
         <v>1.55</v>
       </c>
       <c r="AT10">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3894,7 +3900,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4085,7 +4091,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4467,7 +4473,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4658,7 +4664,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -5040,7 +5046,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5231,7 +5237,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5509,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT23">
         <v>0.45</v>
@@ -5804,7 +5810,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -6377,7 +6383,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6658,7 +6664,7 @@
         <v>1.64</v>
       </c>
       <c r="AT29">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU29">
         <v>1.29</v>
@@ -6759,7 +6765,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6950,7 +6956,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -7332,7 +7338,7 @@
         <v>81</v>
       </c>
       <c r="P33" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7523,7 +7529,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7905,7 +7911,7 @@
         <v>81</v>
       </c>
       <c r="P36" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -7992,7 +7998,7 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT36">
         <v>0.91</v>
@@ -8478,7 +8484,7 @@
         <v>81</v>
       </c>
       <c r="P39" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8860,7 +8866,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q41">
         <v>13</v>
@@ -8950,7 +8956,7 @@
         <v>1.27</v>
       </c>
       <c r="AT41">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU41">
         <v>1.22</v>
@@ -9624,7 +9630,7 @@
         <v>111</v>
       </c>
       <c r="P45" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9815,7 +9821,7 @@
         <v>112</v>
       </c>
       <c r="P46" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10388,7 +10394,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10475,7 +10481,7 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT49">
         <v>0.55</v>
@@ -10579,7 +10585,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10770,7 +10776,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10961,7 +10967,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11534,7 +11540,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -11916,7 +11922,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12107,7 +12113,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12298,7 +12304,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12680,7 +12686,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13152,7 +13158,7 @@
         <v>2</v>
       </c>
       <c r="AT63">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU63">
         <v>1.37</v>
@@ -13722,7 +13728,7 @@
         <v>2.25</v>
       </c>
       <c r="AS66">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT66">
         <v>1.64</v>
@@ -14399,7 +14405,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14972,7 +14978,7 @@
         <v>81</v>
       </c>
       <c r="P73" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -15354,7 +15360,7 @@
         <v>81</v>
       </c>
       <c r="P75" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q75">
         <v>1</v>
@@ -15441,7 +15447,7 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT75">
         <v>1.45</v>
@@ -15545,7 +15551,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15635,7 +15641,7 @@
         <v>0.82</v>
       </c>
       <c r="AT76">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU76">
         <v>1.45</v>
@@ -15736,7 +15742,7 @@
         <v>81</v>
       </c>
       <c r="P77" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q77">
         <v>1</v>
@@ -16118,7 +16124,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16882,7 +16888,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q83">
         <v>11</v>
@@ -17264,7 +17270,7 @@
         <v>140</v>
       </c>
       <c r="P85" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -17351,7 +17357,7 @@
         <v>0</v>
       </c>
       <c r="AS85">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT85">
         <v>0.27</v>
@@ -18028,7 +18034,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18219,7 +18225,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18601,7 +18607,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q92">
         <v>2</v>
@@ -19264,7 +19270,7 @@
         <v>1.91</v>
       </c>
       <c r="AT95">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU95">
         <v>2.61</v>
@@ -19747,7 +19753,7 @@
         <v>81</v>
       </c>
       <c r="P98" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -20511,7 +20517,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q102">
         <v>7</v>
@@ -21362,7 +21368,7 @@
         <v>1.2</v>
       </c>
       <c r="AS106">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT106">
         <v>1.27</v>
@@ -21657,7 +21663,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -21848,7 +21854,7 @@
         <v>81</v>
       </c>
       <c r="P109" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q109">
         <v>3</v>
@@ -22039,7 +22045,7 @@
         <v>157</v>
       </c>
       <c r="P110" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22421,7 +22427,7 @@
         <v>83</v>
       </c>
       <c r="P112" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22803,7 +22809,7 @@
         <v>81</v>
       </c>
       <c r="P114" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q114">
         <v>4</v>
@@ -23084,7 +23090,7 @@
         <v>2.18</v>
       </c>
       <c r="AT115">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU115">
         <v>2.05</v>
@@ -23185,7 +23191,7 @@
         <v>92</v>
       </c>
       <c r="P116" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23376,7 +23382,7 @@
         <v>112</v>
       </c>
       <c r="P117" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -23758,7 +23764,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -24331,7 +24337,7 @@
         <v>162</v>
       </c>
       <c r="P122" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24522,7 +24528,7 @@
         <v>163</v>
       </c>
       <c r="P123" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q123">
         <v>1</v>
@@ -24612,7 +24618,7 @@
         <v>0.55</v>
       </c>
       <c r="AT123">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU123">
         <v>1.05</v>
@@ -25095,7 +25101,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q126">
         <v>8</v>
@@ -25477,7 +25483,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25564,7 +25570,7 @@
         <v>0.75</v>
       </c>
       <c r="AS128">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT128">
         <v>0.91</v>
@@ -25859,7 +25865,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -26432,7 +26438,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -26814,7 +26820,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -27005,7 +27011,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q136">
         <v>2</v>
@@ -27286,7 +27292,7 @@
         <v>2.09</v>
       </c>
       <c r="AT137">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU137">
         <v>1.7</v>
@@ -27387,7 +27393,7 @@
         <v>81</v>
       </c>
       <c r="P138" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q138">
         <v>1</v>
@@ -27578,7 +27584,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27769,7 +27775,7 @@
         <v>160</v>
       </c>
       <c r="P140" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -27960,7 +27966,7 @@
         <v>176</v>
       </c>
       <c r="P141" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q141">
         <v>2</v>
@@ -28151,7 +28157,7 @@
         <v>151</v>
       </c>
       <c r="P142" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q142">
         <v>12</v>
@@ -28533,7 +28539,7 @@
         <v>125</v>
       </c>
       <c r="P144" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -29106,7 +29112,7 @@
         <v>81</v>
       </c>
       <c r="P147" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q147">
         <v>1</v>
@@ -29488,7 +29494,7 @@
         <v>163</v>
       </c>
       <c r="P149" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q149">
         <v>2</v>
@@ -29679,7 +29685,7 @@
         <v>81</v>
       </c>
       <c r="P150" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -29766,7 +29772,7 @@
         <v>1</v>
       </c>
       <c r="AS150">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT150">
         <v>1.09</v>
@@ -29870,7 +29876,7 @@
         <v>178</v>
       </c>
       <c r="P151" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30634,7 +30640,7 @@
         <v>181</v>
       </c>
       <c r="P155" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q155">
         <v>5</v>
@@ -30825,7 +30831,7 @@
         <v>147</v>
       </c>
       <c r="P156" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q156">
         <v>3</v>
@@ -31016,7 +31022,7 @@
         <v>182</v>
       </c>
       <c r="P157" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q157">
         <v>6</v>
@@ -31106,7 +31112,7 @@
         <v>2.64</v>
       </c>
       <c r="AT157">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU157">
         <v>1.75</v>
@@ -31398,7 +31404,7 @@
         <v>183</v>
       </c>
       <c r="P159" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -32162,7 +32168,7 @@
         <v>185</v>
       </c>
       <c r="P163" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q163">
         <v>5</v>
@@ -32544,7 +32550,7 @@
         <v>81</v>
       </c>
       <c r="P165" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q165">
         <v>8</v>
@@ -32926,7 +32932,7 @@
         <v>81</v>
       </c>
       <c r="P167" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q167">
         <v>2</v>
@@ -33013,7 +33019,7 @@
         <v>2.2</v>
       </c>
       <c r="AS167">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT167">
         <v>2.27</v>
@@ -33117,7 +33123,7 @@
         <v>81</v>
       </c>
       <c r="P168" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33499,7 +33505,7 @@
         <v>81</v>
       </c>
       <c r="P170" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q170">
         <v>9</v>
@@ -33690,7 +33696,7 @@
         <v>112</v>
       </c>
       <c r="P171" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q171">
         <v>5</v>
@@ -33881,7 +33887,7 @@
         <v>188</v>
       </c>
       <c r="P172" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q172">
         <v>8</v>
@@ -33971,7 +33977,7 @@
         <v>1.64</v>
       </c>
       <c r="AT172">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU172">
         <v>1.6</v>
@@ -34454,7 +34460,7 @@
         <v>81</v>
       </c>
       <c r="P175" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q175">
         <v>0</v>
@@ -34645,7 +34651,7 @@
         <v>81</v>
       </c>
       <c r="P176" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q176">
         <v>9</v>
@@ -34978,6 +34984,197 @@
       </c>
       <c r="BK177">
         <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:63">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>2717627</v>
+      </c>
+      <c r="C178" t="s">
+        <v>63</v>
+      </c>
+      <c r="D178" t="s">
+        <v>64</v>
+      </c>
+      <c r="E178" s="2">
+        <v>44995.52083333334</v>
+      </c>
+      <c r="F178">
+        <v>23</v>
+      </c>
+      <c r="G178" t="s">
+        <v>66</v>
+      </c>
+      <c r="H178" t="s">
+        <v>65</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178">
+        <v>1</v>
+      </c>
+      <c r="K178">
+        <v>2</v>
+      </c>
+      <c r="L178">
+        <v>2</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178">
+        <v>3</v>
+      </c>
+      <c r="O178" t="s">
+        <v>192</v>
+      </c>
+      <c r="P178" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q178">
+        <v>3</v>
+      </c>
+      <c r="R178">
+        <v>5</v>
+      </c>
+      <c r="S178">
+        <v>8</v>
+      </c>
+      <c r="T178">
+        <v>4</v>
+      </c>
+      <c r="U178">
+        <v>2.05</v>
+      </c>
+      <c r="V178">
+        <v>2.88</v>
+      </c>
+      <c r="W178">
+        <v>1.45</v>
+      </c>
+      <c r="X178">
+        <v>2.63</v>
+      </c>
+      <c r="Y178">
+        <v>3.15</v>
+      </c>
+      <c r="Z178">
+        <v>1.33</v>
+      </c>
+      <c r="AA178">
+        <v>8</v>
+      </c>
+      <c r="AB178">
+        <v>1.07</v>
+      </c>
+      <c r="AC178">
+        <v>2.96</v>
+      </c>
+      <c r="AD178">
+        <v>3.3</v>
+      </c>
+      <c r="AE178">
+        <v>2.19</v>
+      </c>
+      <c r="AF178">
+        <v>1.07</v>
+      </c>
+      <c r="AG178">
+        <v>8.5</v>
+      </c>
+      <c r="AH178">
+        <v>1.37</v>
+      </c>
+      <c r="AI178">
+        <v>2.95</v>
+      </c>
+      <c r="AJ178">
+        <v>2.1</v>
+      </c>
+      <c r="AK178">
+        <v>1.68</v>
+      </c>
+      <c r="AL178">
+        <v>1.83</v>
+      </c>
+      <c r="AM178">
+        <v>1.83</v>
+      </c>
+      <c r="AN178">
+        <v>1.7</v>
+      </c>
+      <c r="AO178">
+        <v>1.33</v>
+      </c>
+      <c r="AP178">
+        <v>1.33</v>
+      </c>
+      <c r="AQ178">
+        <v>0.73</v>
+      </c>
+      <c r="AR178">
+        <v>0.64</v>
+      </c>
+      <c r="AS178">
+        <v>0.92</v>
+      </c>
+      <c r="AT178">
+        <v>0.58</v>
+      </c>
+      <c r="AU178">
+        <v>1.39</v>
+      </c>
+      <c r="AV178">
+        <v>1.42</v>
+      </c>
+      <c r="AW178">
+        <v>2.81</v>
+      </c>
+      <c r="AX178">
+        <v>2.26</v>
+      </c>
+      <c r="AY178">
+        <v>7.5</v>
+      </c>
+      <c r="AZ178">
+        <v>1.93</v>
+      </c>
+      <c r="BA178">
+        <v>1.25</v>
+      </c>
+      <c r="BB178">
+        <v>1.48</v>
+      </c>
+      <c r="BC178">
+        <v>1.87</v>
+      </c>
+      <c r="BD178">
+        <v>2.39</v>
+      </c>
+      <c r="BE178">
+        <v>3.28</v>
+      </c>
+      <c r="BF178">
+        <v>4</v>
+      </c>
+      <c r="BG178">
+        <v>3</v>
+      </c>
+      <c r="BH178">
+        <v>0</v>
+      </c>
+      <c r="BI178">
+        <v>4</v>
+      </c>
+      <c r="BJ178">
+        <v>4</v>
+      </c>
+      <c r="BK178">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="268">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -595,6 +595,12 @@
     <t>['20', '68']</t>
   </si>
   <si>
+    <t>['67', '69']</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
     <t>['78']</t>
   </si>
   <si>
@@ -680,9 +686,6 @@
   </si>
   <si>
     <t>['51']</t>
-  </si>
-  <si>
-    <t>['8']</t>
   </si>
   <si>
     <t>['19', '74']</t>
@@ -812,6 +815,9 @@
   </si>
   <si>
     <t>['34']</t>
+  </si>
+  <si>
+    <t>['4', '49']</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK178"/>
+  <dimension ref="A1:BK180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1417,7 +1423,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1507,7 +1513,7 @@
         <v>1.73</v>
       </c>
       <c r="AT2">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1608,7 +1614,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1799,7 +1805,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2181,7 +2187,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2650,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT8">
         <v>1.09</v>
@@ -2945,7 +2951,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3900,7 +3906,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3987,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT15">
         <v>1.45</v>
@@ -4091,7 +4097,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4473,7 +4479,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4560,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT18">
         <v>0.55</v>
@@ -4664,7 +4670,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -4945,7 +4951,7 @@
         <v>1.27</v>
       </c>
       <c r="AT20">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU20">
         <v>1.45</v>
@@ -5046,7 +5052,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5237,7 +5243,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5327,7 +5333,7 @@
         <v>2</v>
       </c>
       <c r="AT22">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU22">
         <v>1.42</v>
@@ -5810,7 +5816,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -6383,7 +6389,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6470,7 +6476,7 @@
         <v>1.5</v>
       </c>
       <c r="AS28">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT28">
         <v>1.09</v>
@@ -6765,7 +6771,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6956,7 +6962,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -7234,10 +7240,10 @@
         <v>1.5</v>
       </c>
       <c r="AS32">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT32">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU32">
         <v>1.22</v>
@@ -7338,7 +7344,7 @@
         <v>81</v>
       </c>
       <c r="P33" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7529,7 +7535,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7911,7 +7917,7 @@
         <v>81</v>
       </c>
       <c r="P36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8001,7 +8007,7 @@
         <v>0.92</v>
       </c>
       <c r="AT36">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU36">
         <v>1.28</v>
@@ -8484,7 +8490,7 @@
         <v>81</v>
       </c>
       <c r="P39" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8866,7 +8872,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q41">
         <v>13</v>
@@ -9630,7 +9636,7 @@
         <v>111</v>
       </c>
       <c r="P45" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9821,7 +9827,7 @@
         <v>112</v>
       </c>
       <c r="P46" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9908,7 +9914,7 @@
         <v>1</v>
       </c>
       <c r="AS46">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT46">
         <v>1.09</v>
@@ -10102,7 +10108,7 @@
         <v>1.91</v>
       </c>
       <c r="AT47">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU47">
         <v>3.04</v>
@@ -10293,7 +10299,7 @@
         <v>2.64</v>
       </c>
       <c r="AT48">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU48">
         <v>1.37</v>
@@ -10394,7 +10400,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10585,7 +10591,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10776,7 +10782,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10863,7 +10869,7 @@
         <v>2</v>
       </c>
       <c r="AS51">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT51">
         <v>2.36</v>
@@ -10967,7 +10973,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11540,7 +11546,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -11922,7 +11928,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12113,7 +12119,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12304,7 +12310,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12582,7 +12588,7 @@
         <v>0.25</v>
       </c>
       <c r="AS60">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT60">
         <v>0.45</v>
@@ -12686,7 +12692,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -12776,7 +12782,7 @@
         <v>2.09</v>
       </c>
       <c r="AT61">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU61">
         <v>2.4</v>
@@ -12964,7 +12970,7 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT62">
         <v>2.27</v>
@@ -13540,7 +13546,7 @@
         <v>2.18</v>
       </c>
       <c r="AT65">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU65">
         <v>2.05</v>
@@ -14405,7 +14411,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14686,7 +14692,7 @@
         <v>1.64</v>
       </c>
       <c r="AT71">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU71">
         <v>1.7</v>
@@ -14978,7 +14984,7 @@
         <v>81</v>
       </c>
       <c r="P73" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -15360,7 +15366,7 @@
         <v>81</v>
       </c>
       <c r="P75" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q75">
         <v>1</v>
@@ -15551,7 +15557,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15638,7 +15644,7 @@
         <v>0.25</v>
       </c>
       <c r="AS76">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT76">
         <v>0.58</v>
@@ -15742,7 +15748,7 @@
         <v>81</v>
       </c>
       <c r="P77" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q77">
         <v>1</v>
@@ -16124,7 +16130,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16211,10 +16217,10 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT79">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU79">
         <v>1.26</v>
@@ -16888,7 +16894,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q83">
         <v>11</v>
@@ -17169,7 +17175,7 @@
         <v>2.09</v>
       </c>
       <c r="AT84">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU84">
         <v>1.5</v>
@@ -17270,7 +17276,7 @@
         <v>140</v>
       </c>
       <c r="P85" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -18034,7 +18040,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18225,7 +18231,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18607,7 +18613,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q92">
         <v>2</v>
@@ -18697,7 +18703,7 @@
         <v>0.55</v>
       </c>
       <c r="AT92">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU92">
         <v>0.99</v>
@@ -18885,7 +18891,7 @@
         <v>0</v>
       </c>
       <c r="AS93">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT93">
         <v>0.55</v>
@@ -19753,7 +19759,7 @@
         <v>81</v>
       </c>
       <c r="P98" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19840,7 +19846,7 @@
         <v>1.4</v>
       </c>
       <c r="AS98">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT98">
         <v>1.45</v>
@@ -20517,7 +20523,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q102">
         <v>7</v>
@@ -20989,7 +20995,7 @@
         <v>2.64</v>
       </c>
       <c r="AT104">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU104">
         <v>1.62</v>
@@ -21663,7 +21669,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -21854,7 +21860,7 @@
         <v>81</v>
       </c>
       <c r="P109" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q109">
         <v>3</v>
@@ -22045,7 +22051,7 @@
         <v>157</v>
       </c>
       <c r="P110" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22135,7 +22141,7 @@
         <v>2.09</v>
       </c>
       <c r="AT110">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU110">
         <v>1.65</v>
@@ -22323,7 +22329,7 @@
         <v>1.57</v>
       </c>
       <c r="AS111">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT111">
         <v>1.64</v>
@@ -22427,7 +22433,7 @@
         <v>83</v>
       </c>
       <c r="P112" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22809,7 +22815,7 @@
         <v>81</v>
       </c>
       <c r="P114" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q114">
         <v>4</v>
@@ -23191,7 +23197,7 @@
         <v>92</v>
       </c>
       <c r="P116" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23278,7 +23284,7 @@
         <v>0.5</v>
       </c>
       <c r="AS116">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT116">
         <v>1</v>
@@ -23382,7 +23388,7 @@
         <v>112</v>
       </c>
       <c r="P117" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -23660,7 +23666,7 @@
         <v>1.57</v>
       </c>
       <c r="AS118">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT118">
         <v>1.45</v>
@@ -23764,7 +23770,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -24045,7 +24051,7 @@
         <v>1.64</v>
       </c>
       <c r="AT120">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU120">
         <v>1.85</v>
@@ -24337,7 +24343,7 @@
         <v>162</v>
       </c>
       <c r="P122" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24528,7 +24534,7 @@
         <v>163</v>
       </c>
       <c r="P123" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q123">
         <v>1</v>
@@ -25101,7 +25107,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q126">
         <v>8</v>
@@ -25483,7 +25489,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25573,7 +25579,7 @@
         <v>0.92</v>
       </c>
       <c r="AT128">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU128">
         <v>1.43</v>
@@ -25865,7 +25871,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -26438,7 +26444,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -26525,7 +26531,7 @@
         <v>1.14</v>
       </c>
       <c r="AS133">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT133">
         <v>1.27</v>
@@ -26719,7 +26725,7 @@
         <v>2.64</v>
       </c>
       <c r="AT134">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU134">
         <v>1.67</v>
@@ -26820,7 +26826,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -27011,7 +27017,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q136">
         <v>2</v>
@@ -27098,7 +27104,7 @@
         <v>0.25</v>
       </c>
       <c r="AS136">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT136">
         <v>0.27</v>
@@ -27393,7 +27399,7 @@
         <v>81</v>
       </c>
       <c r="P138" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q138">
         <v>1</v>
@@ -27584,7 +27590,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27775,7 +27781,7 @@
         <v>160</v>
       </c>
       <c r="P140" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -27966,7 +27972,7 @@
         <v>176</v>
       </c>
       <c r="P141" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q141">
         <v>2</v>
@@ -28157,7 +28163,7 @@
         <v>151</v>
       </c>
       <c r="P142" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q142">
         <v>12</v>
@@ -28539,7 +28545,7 @@
         <v>125</v>
       </c>
       <c r="P144" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -29011,7 +29017,7 @@
         <v>1.73</v>
       </c>
       <c r="AT146">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU146">
         <v>1.89</v>
@@ -29112,7 +29118,7 @@
         <v>81</v>
       </c>
       <c r="P147" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q147">
         <v>1</v>
@@ -29393,7 +29399,7 @@
         <v>2.64</v>
       </c>
       <c r="AT148">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU148">
         <v>1.7</v>
@@ -29494,7 +29500,7 @@
         <v>163</v>
       </c>
       <c r="P149" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q149">
         <v>2</v>
@@ -29581,7 +29587,7 @@
         <v>2.44</v>
       </c>
       <c r="AS149">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT149">
         <v>2.36</v>
@@ -29685,7 +29691,7 @@
         <v>81</v>
       </c>
       <c r="P150" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -29876,7 +29882,7 @@
         <v>178</v>
       </c>
       <c r="P151" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30640,7 +30646,7 @@
         <v>181</v>
       </c>
       <c r="P155" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q155">
         <v>5</v>
@@ -30831,7 +30837,7 @@
         <v>147</v>
       </c>
       <c r="P156" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q156">
         <v>3</v>
@@ -31022,7 +31028,7 @@
         <v>182</v>
       </c>
       <c r="P157" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q157">
         <v>6</v>
@@ -31404,7 +31410,7 @@
         <v>183</v>
       </c>
       <c r="P159" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -31491,7 +31497,7 @@
         <v>1.11</v>
       </c>
       <c r="AS159">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT159">
         <v>1.27</v>
@@ -32168,7 +32174,7 @@
         <v>185</v>
       </c>
       <c r="P163" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q163">
         <v>5</v>
@@ -32255,7 +32261,7 @@
         <v>0.5</v>
       </c>
       <c r="AS163">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT163">
         <v>0.45</v>
@@ -32449,7 +32455,7 @@
         <v>2</v>
       </c>
       <c r="AT164">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU164">
         <v>1.66</v>
@@ -32550,7 +32556,7 @@
         <v>81</v>
       </c>
       <c r="P165" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q165">
         <v>8</v>
@@ -32640,7 +32646,7 @@
         <v>2.09</v>
       </c>
       <c r="AT165">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU165">
         <v>1.61</v>
@@ -32932,7 +32938,7 @@
         <v>81</v>
       </c>
       <c r="P167" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q167">
         <v>2</v>
@@ -33123,7 +33129,7 @@
         <v>81</v>
       </c>
       <c r="P168" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33210,7 +33216,7 @@
         <v>1.5</v>
       </c>
       <c r="AS168">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT168">
         <v>1.64</v>
@@ -33505,7 +33511,7 @@
         <v>81</v>
       </c>
       <c r="P170" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q170">
         <v>9</v>
@@ -33696,7 +33702,7 @@
         <v>112</v>
       </c>
       <c r="P171" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q171">
         <v>5</v>
@@ -33887,7 +33893,7 @@
         <v>188</v>
       </c>
       <c r="P172" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q172">
         <v>8</v>
@@ -34460,7 +34466,7 @@
         <v>81</v>
       </c>
       <c r="P175" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q175">
         <v>0</v>
@@ -34651,7 +34657,7 @@
         <v>81</v>
       </c>
       <c r="P176" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q176">
         <v>9</v>
@@ -35033,7 +35039,7 @@
         <v>192</v>
       </c>
       <c r="P178" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -35174,6 +35180,388 @@
         <v>4</v>
       </c>
       <c r="BK178">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:63">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>2717621</v>
+      </c>
+      <c r="C179" t="s">
+        <v>63</v>
+      </c>
+      <c r="D179" t="s">
+        <v>64</v>
+      </c>
+      <c r="E179" s="2">
+        <v>44996.3125</v>
+      </c>
+      <c r="F179">
+        <v>23</v>
+      </c>
+      <c r="G179" t="s">
+        <v>77</v>
+      </c>
+      <c r="H179" t="s">
+        <v>78</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>2</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <v>2</v>
+      </c>
+      <c r="O179" t="s">
+        <v>193</v>
+      </c>
+      <c r="P179" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q179">
+        <v>6</v>
+      </c>
+      <c r="R179">
+        <v>6</v>
+      </c>
+      <c r="S179">
+        <v>12</v>
+      </c>
+      <c r="T179">
+        <v>2.63</v>
+      </c>
+      <c r="U179">
+        <v>2.1</v>
+      </c>
+      <c r="V179">
+        <v>4.5</v>
+      </c>
+      <c r="W179">
+        <v>1.46</v>
+      </c>
+      <c r="X179">
+        <v>2.61</v>
+      </c>
+      <c r="Y179">
+        <v>3.1</v>
+      </c>
+      <c r="Z179">
+        <v>1.32</v>
+      </c>
+      <c r="AA179">
+        <v>7.9</v>
+      </c>
+      <c r="AB179">
+        <v>1.06</v>
+      </c>
+      <c r="AC179">
+        <v>1.86</v>
+      </c>
+      <c r="AD179">
+        <v>3.5</v>
+      </c>
+      <c r="AE179">
+        <v>4.28</v>
+      </c>
+      <c r="AF179">
+        <v>1.04</v>
+      </c>
+      <c r="AG179">
+        <v>7.8</v>
+      </c>
+      <c r="AH179">
+        <v>1.36</v>
+      </c>
+      <c r="AI179">
+        <v>2.81</v>
+      </c>
+      <c r="AJ179">
+        <v>2.12</v>
+      </c>
+      <c r="AK179">
+        <v>1.64</v>
+      </c>
+      <c r="AL179">
+        <v>1.95</v>
+      </c>
+      <c r="AM179">
+        <v>1.81</v>
+      </c>
+      <c r="AN179">
+        <v>1.25</v>
+      </c>
+      <c r="AO179">
+        <v>1.29</v>
+      </c>
+      <c r="AP179">
+        <v>1.73</v>
+      </c>
+      <c r="AQ179">
+        <v>0.91</v>
+      </c>
+      <c r="AR179">
+        <v>0.91</v>
+      </c>
+      <c r="AS179">
+        <v>1.08</v>
+      </c>
+      <c r="AT179">
+        <v>0.83</v>
+      </c>
+      <c r="AU179">
+        <v>1.31</v>
+      </c>
+      <c r="AV179">
+        <v>0.87</v>
+      </c>
+      <c r="AW179">
+        <v>2.18</v>
+      </c>
+      <c r="AX179">
+        <v>0</v>
+      </c>
+      <c r="AY179">
+        <v>0</v>
+      </c>
+      <c r="AZ179">
+        <v>0</v>
+      </c>
+      <c r="BA179">
+        <v>0</v>
+      </c>
+      <c r="BB179">
+        <v>0</v>
+      </c>
+      <c r="BC179">
+        <v>0</v>
+      </c>
+      <c r="BD179">
+        <v>0</v>
+      </c>
+      <c r="BE179">
+        <v>0</v>
+      </c>
+      <c r="BF179">
+        <v>7</v>
+      </c>
+      <c r="BG179">
+        <v>3</v>
+      </c>
+      <c r="BH179">
+        <v>6</v>
+      </c>
+      <c r="BI179">
+        <v>2</v>
+      </c>
+      <c r="BJ179">
+        <v>13</v>
+      </c>
+      <c r="BK179">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:63">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>2717624</v>
+      </c>
+      <c r="C180" t="s">
+        <v>63</v>
+      </c>
+      <c r="D180" t="s">
+        <v>64</v>
+      </c>
+      <c r="E180" s="2">
+        <v>44996.41666666666</v>
+      </c>
+      <c r="F180">
+        <v>23</v>
+      </c>
+      <c r="G180" t="s">
+        <v>71</v>
+      </c>
+      <c r="H180" t="s">
+        <v>69</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+      <c r="K180">
+        <v>2</v>
+      </c>
+      <c r="L180">
+        <v>1</v>
+      </c>
+      <c r="M180">
+        <v>2</v>
+      </c>
+      <c r="N180">
+        <v>3</v>
+      </c>
+      <c r="O180" t="s">
+        <v>194</v>
+      </c>
+      <c r="P180" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q180">
+        <v>10</v>
+      </c>
+      <c r="R180">
+        <v>4</v>
+      </c>
+      <c r="S180">
+        <v>14</v>
+      </c>
+      <c r="T180">
+        <v>3.1</v>
+      </c>
+      <c r="U180">
+        <v>2</v>
+      </c>
+      <c r="V180">
+        <v>3.75</v>
+      </c>
+      <c r="W180">
+        <v>1.49</v>
+      </c>
+      <c r="X180">
+        <v>2.52</v>
+      </c>
+      <c r="Y180">
+        <v>3.3</v>
+      </c>
+      <c r="Z180">
+        <v>1.29</v>
+      </c>
+      <c r="AA180">
+        <v>8.5</v>
+      </c>
+      <c r="AB180">
+        <v>1.05</v>
+      </c>
+      <c r="AC180">
+        <v>2.2</v>
+      </c>
+      <c r="AD180">
+        <v>3.05</v>
+      </c>
+      <c r="AE180">
+        <v>3.05</v>
+      </c>
+      <c r="AF180">
+        <v>1.05</v>
+      </c>
+      <c r="AG180">
+        <v>7.2</v>
+      </c>
+      <c r="AH180">
+        <v>1.41</v>
+      </c>
+      <c r="AI180">
+        <v>2.68</v>
+      </c>
+      <c r="AJ180">
+        <v>2.25</v>
+      </c>
+      <c r="AK180">
+        <v>1.57</v>
+      </c>
+      <c r="AL180">
+        <v>1.96</v>
+      </c>
+      <c r="AM180">
+        <v>1.8</v>
+      </c>
+      <c r="AN180">
+        <v>1.36</v>
+      </c>
+      <c r="AO180">
+        <v>1.3</v>
+      </c>
+      <c r="AP180">
+        <v>1.53</v>
+      </c>
+      <c r="AQ180">
+        <v>0.82</v>
+      </c>
+      <c r="AR180">
+        <v>0.91</v>
+      </c>
+      <c r="AS180">
+        <v>0.75</v>
+      </c>
+      <c r="AT180">
+        <v>1.08</v>
+      </c>
+      <c r="AU180">
+        <v>1.38</v>
+      </c>
+      <c r="AV180">
+        <v>1.31</v>
+      </c>
+      <c r="AW180">
+        <v>2.69</v>
+      </c>
+      <c r="AX180">
+        <v>0</v>
+      </c>
+      <c r="AY180">
+        <v>0</v>
+      </c>
+      <c r="AZ180">
+        <v>0</v>
+      </c>
+      <c r="BA180">
+        <v>0</v>
+      </c>
+      <c r="BB180">
+        <v>0</v>
+      </c>
+      <c r="BC180">
+        <v>0</v>
+      </c>
+      <c r="BD180">
+        <v>0</v>
+      </c>
+      <c r="BE180">
+        <v>0</v>
+      </c>
+      <c r="BF180">
+        <v>6</v>
+      </c>
+      <c r="BG180">
+        <v>5</v>
+      </c>
+      <c r="BH180">
+        <v>6</v>
+      </c>
+      <c r="BI180">
+        <v>2</v>
+      </c>
+      <c r="BJ180">
+        <v>12</v>
+      </c>
+      <c r="BK180">
         <v>7</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="271">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -601,6 +601,15 @@
     <t>['8']</t>
   </si>
   <si>
+    <t>['24', '40']</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['20', '75', '90+1']</t>
+  </si>
+  <si>
     <t>['78']</t>
   </si>
   <si>
@@ -635,9 +644,6 @@
   </si>
   <si>
     <t>['21', '29']</t>
-  </si>
-  <si>
-    <t>['81']</t>
   </si>
   <si>
     <t>['28', '73']</t>
@@ -818,6 +824,9 @@
   </si>
   <si>
     <t>['4', '49']</t>
+  </si>
+  <si>
+    <t>['8', '34']</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK180"/>
+  <dimension ref="A1:BK184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1423,7 +1432,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1614,7 +1623,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1805,7 +1814,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2083,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AT5">
         <v>1.27</v>
@@ -2187,7 +2196,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2277,7 +2286,7 @@
         <v>1.64</v>
       </c>
       <c r="AT6">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2468,7 +2477,7 @@
         <v>2.64</v>
       </c>
       <c r="AT7">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2850,7 +2859,7 @@
         <v>1.27</v>
       </c>
       <c r="AT9">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2951,7 +2960,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3229,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT11">
         <v>1.45</v>
@@ -3423,7 +3432,7 @@
         <v>1.64</v>
       </c>
       <c r="AT12">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AU12">
         <v>1.23</v>
@@ -3611,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT13">
         <v>0.27</v>
@@ -3906,7 +3915,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4097,7 +4106,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4479,7 +4488,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4670,7 +4679,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -4757,7 +4766,7 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AT19">
         <v>2.36</v>
@@ -5052,7 +5061,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5142,7 +5151,7 @@
         <v>1.73</v>
       </c>
       <c r="AT21">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU21">
         <v>2.4</v>
@@ -5243,7 +5252,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5524,7 +5533,7 @@
         <v>0.92</v>
       </c>
       <c r="AT23">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU23">
         <v>0.78</v>
@@ -5715,7 +5724,7 @@
         <v>2.64</v>
       </c>
       <c r="AT24">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU24">
         <v>1.75</v>
@@ -5816,7 +5825,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -6094,7 +6103,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT26">
         <v>0.27</v>
@@ -6389,7 +6398,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6771,7 +6780,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6962,7 +6971,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -7344,7 +7353,7 @@
         <v>81</v>
       </c>
       <c r="P33" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7434,7 +7443,7 @@
         <v>1.27</v>
       </c>
       <c r="AT33">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU33">
         <v>1.33</v>
@@ -7535,7 +7544,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7622,10 +7631,10 @@
         <v>0.5</v>
       </c>
       <c r="AS34">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AT34">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU34">
         <v>1.22</v>
@@ -7813,7 +7822,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT35">
         <v>0.55</v>
@@ -7917,7 +7926,7 @@
         <v>81</v>
       </c>
       <c r="P36" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8198,7 +8207,7 @@
         <v>2</v>
       </c>
       <c r="AT37">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU37">
         <v>1.6</v>
@@ -8490,7 +8499,7 @@
         <v>81</v>
       </c>
       <c r="P39" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8872,7 +8881,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q41">
         <v>13</v>
@@ -9636,7 +9645,7 @@
         <v>111</v>
       </c>
       <c r="P45" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9726,7 +9735,7 @@
         <v>1.73</v>
       </c>
       <c r="AT45">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU45">
         <v>2.02</v>
@@ -9827,7 +9836,7 @@
         <v>112</v>
       </c>
       <c r="P46" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9917,7 +9926,7 @@
         <v>0.75</v>
       </c>
       <c r="AT46">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU46">
         <v>1.55</v>
@@ -10105,7 +10114,7 @@
         <v>2</v>
       </c>
       <c r="AS47">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT47">
         <v>0.83</v>
@@ -10296,7 +10305,7 @@
         <v>2</v>
       </c>
       <c r="AS48">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AT48">
         <v>1.08</v>
@@ -10400,7 +10409,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10591,7 +10600,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10678,10 +10687,10 @@
         <v>0.33</v>
       </c>
       <c r="AS50">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT50">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU50">
         <v>0</v>
@@ -10782,7 +10791,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10973,7 +10982,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11546,7 +11555,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -11928,7 +11937,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12119,7 +12128,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12310,7 +12319,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12591,7 +12600,7 @@
         <v>1.08</v>
       </c>
       <c r="AT60">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU60">
         <v>0.97</v>
@@ -12779,7 +12788,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT61">
         <v>1.08</v>
@@ -12973,7 +12982,7 @@
         <v>0.75</v>
       </c>
       <c r="AT62">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AU62">
         <v>1.5</v>
@@ -13352,7 +13361,7 @@
         <v>0</v>
       </c>
       <c r="AS64">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AT64">
         <v>0.55</v>
@@ -13543,7 +13552,7 @@
         <v>1.5</v>
       </c>
       <c r="AS65">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT65">
         <v>0.83</v>
@@ -13737,7 +13746,7 @@
         <v>0.92</v>
       </c>
       <c r="AT66">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU66">
         <v>1.66</v>
@@ -13925,10 +13934,10 @@
         <v>1.5</v>
       </c>
       <c r="AS67">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT67">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU67">
         <v>3.06</v>
@@ -14411,7 +14420,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14984,7 +14993,7 @@
         <v>81</v>
       </c>
       <c r="P73" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -15366,7 +15375,7 @@
         <v>81</v>
       </c>
       <c r="P75" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q75">
         <v>1</v>
@@ -15557,7 +15566,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15748,7 +15757,7 @@
         <v>81</v>
       </c>
       <c r="P77" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q77">
         <v>1</v>
@@ -15838,7 +15847,7 @@
         <v>0.55</v>
       </c>
       <c r="AT77">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU77">
         <v>0.9399999999999999</v>
@@ -16026,7 +16035,7 @@
         <v>0.75</v>
       </c>
       <c r="AS78">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AT78">
         <v>1</v>
@@ -16130,7 +16139,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16411,7 +16420,7 @@
         <v>2</v>
       </c>
       <c r="AT80">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU80">
         <v>1.41</v>
@@ -16599,7 +16608,7 @@
         <v>0</v>
       </c>
       <c r="AS81">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT81">
         <v>0.55</v>
@@ -16790,10 +16799,10 @@
         <v>2</v>
       </c>
       <c r="AS82">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT82">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AU82">
         <v>2.83</v>
@@ -16894,7 +16903,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q83">
         <v>11</v>
@@ -16981,10 +16990,10 @@
         <v>1.2</v>
       </c>
       <c r="AS83">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT83">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU83">
         <v>2.07</v>
@@ -17276,7 +17285,7 @@
         <v>140</v>
       </c>
       <c r="P85" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -17557,7 +17566,7 @@
         <v>1.64</v>
       </c>
       <c r="AT86">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU86">
         <v>1.74</v>
@@ -18040,7 +18049,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18231,7 +18240,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18613,7 +18622,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q92">
         <v>2</v>
@@ -19082,7 +19091,7 @@
         <v>0.6</v>
       </c>
       <c r="AS94">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT94">
         <v>1</v>
@@ -19273,7 +19282,7 @@
         <v>0.2</v>
       </c>
       <c r="AS95">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT95">
         <v>0.58</v>
@@ -19467,7 +19476,7 @@
         <v>1.55</v>
       </c>
       <c r="AT96">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU96">
         <v>1.48</v>
@@ -19655,10 +19664,10 @@
         <v>1.67</v>
       </c>
       <c r="AS97">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AT97">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU97">
         <v>1.62</v>
@@ -19759,7 +19768,7 @@
         <v>81</v>
       </c>
       <c r="P98" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -20037,10 +20046,10 @@
         <v>1.33</v>
       </c>
       <c r="AS99">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT99">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AU99">
         <v>2.23</v>
@@ -20228,7 +20237,7 @@
         <v>1.5</v>
       </c>
       <c r="AS100">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT100">
         <v>1.27</v>
@@ -20422,7 +20431,7 @@
         <v>1.64</v>
       </c>
       <c r="AT101">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU101">
         <v>1.55</v>
@@ -20523,7 +20532,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q102">
         <v>7</v>
@@ -20613,7 +20622,7 @@
         <v>1.64</v>
       </c>
       <c r="AT102">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU102">
         <v>1.76</v>
@@ -21183,7 +21192,7 @@
         <v>0.17</v>
       </c>
       <c r="AS105">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AT105">
         <v>0.27</v>
@@ -21669,7 +21678,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -21860,7 +21869,7 @@
         <v>81</v>
       </c>
       <c r="P109" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q109">
         <v>3</v>
@@ -21950,7 +21959,7 @@
         <v>1.73</v>
       </c>
       <c r="AT109">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AU109">
         <v>1.86</v>
@@ -22051,7 +22060,7 @@
         <v>157</v>
       </c>
       <c r="P110" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22332,7 +22341,7 @@
         <v>0.75</v>
       </c>
       <c r="AT111">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU111">
         <v>1.39</v>
@@ -22433,7 +22442,7 @@
         <v>83</v>
       </c>
       <c r="P112" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22520,7 +22529,7 @@
         <v>1.67</v>
       </c>
       <c r="AS112">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT112">
         <v>1.45</v>
@@ -22711,7 +22720,7 @@
         <v>1.67</v>
       </c>
       <c r="AS113">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT113">
         <v>1.45</v>
@@ -22815,7 +22824,7 @@
         <v>81</v>
       </c>
       <c r="P114" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q114">
         <v>4</v>
@@ -22905,7 +22914,7 @@
         <v>1.55</v>
       </c>
       <c r="AT114">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AU114">
         <v>1.44</v>
@@ -23093,7 +23102,7 @@
         <v>0.17</v>
       </c>
       <c r="AS115">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT115">
         <v>0.58</v>
@@ -23197,7 +23206,7 @@
         <v>92</v>
       </c>
       <c r="P116" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23388,7 +23397,7 @@
         <v>112</v>
       </c>
       <c r="P117" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -23770,7 +23779,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23860,7 +23869,7 @@
         <v>2.09</v>
       </c>
       <c r="AT119">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AU119">
         <v>1.72</v>
@@ -24239,7 +24248,7 @@
         <v>1.57</v>
       </c>
       <c r="AS121">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT121">
         <v>1.45</v>
@@ -24343,7 +24352,7 @@
         <v>162</v>
       </c>
       <c r="P122" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24430,7 +24439,7 @@
         <v>0.14</v>
       </c>
       <c r="AS122">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT122">
         <v>0.27</v>
@@ -24534,7 +24543,7 @@
         <v>163</v>
       </c>
       <c r="P123" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q123">
         <v>1</v>
@@ -24812,7 +24821,7 @@
         <v>0.86</v>
       </c>
       <c r="AS124">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT124">
         <v>1</v>
@@ -25107,7 +25116,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q126">
         <v>8</v>
@@ -25197,7 +25206,7 @@
         <v>2</v>
       </c>
       <c r="AT126">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AU126">
         <v>1.58</v>
@@ -25489,7 +25498,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25770,7 +25779,7 @@
         <v>1.73</v>
       </c>
       <c r="AT129">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU129">
         <v>1.76</v>
@@ -25871,7 +25880,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -25958,7 +25967,7 @@
         <v>0.38</v>
       </c>
       <c r="AS130">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AT130">
         <v>0.55</v>
@@ -26152,7 +26161,7 @@
         <v>1.27</v>
       </c>
       <c r="AT131">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU131">
         <v>1.34</v>
@@ -26340,10 +26349,10 @@
         <v>1.5</v>
       </c>
       <c r="AS132">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT132">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU132">
         <v>1.79</v>
@@ -26444,7 +26453,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -26826,7 +26835,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -27017,7 +27026,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q136">
         <v>2</v>
@@ -27399,7 +27408,7 @@
         <v>81</v>
       </c>
       <c r="P138" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q138">
         <v>1</v>
@@ -27489,7 +27498,7 @@
         <v>1.64</v>
       </c>
       <c r="AT138">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AU138">
         <v>1.69</v>
@@ -27590,7 +27599,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27677,7 +27686,7 @@
         <v>1.13</v>
       </c>
       <c r="AS139">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT139">
         <v>1.09</v>
@@ -27781,7 +27790,7 @@
         <v>160</v>
       </c>
       <c r="P140" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -27972,7 +27981,7 @@
         <v>176</v>
       </c>
       <c r="P141" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q141">
         <v>2</v>
@@ -28163,7 +28172,7 @@
         <v>151</v>
       </c>
       <c r="P142" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q142">
         <v>12</v>
@@ -28250,7 +28259,7 @@
         <v>1.5</v>
       </c>
       <c r="AS142">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT142">
         <v>1.45</v>
@@ -28545,7 +28554,7 @@
         <v>125</v>
       </c>
       <c r="P144" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -28632,7 +28641,7 @@
         <v>2.38</v>
       </c>
       <c r="AS144">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT144">
         <v>2.36</v>
@@ -28823,7 +28832,7 @@
         <v>1.13</v>
       </c>
       <c r="AS145">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT145">
         <v>1.27</v>
@@ -29118,7 +29127,7 @@
         <v>81</v>
       </c>
       <c r="P147" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q147">
         <v>1</v>
@@ -29205,10 +29214,10 @@
         <v>1.33</v>
       </c>
       <c r="AS147">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT147">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU147">
         <v>2.27</v>
@@ -29396,7 +29405,7 @@
         <v>0.78</v>
       </c>
       <c r="AS148">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AT148">
         <v>0.83</v>
@@ -29500,7 +29509,7 @@
         <v>163</v>
       </c>
       <c r="P149" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q149">
         <v>2</v>
@@ -29691,7 +29700,7 @@
         <v>81</v>
       </c>
       <c r="P150" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -29781,7 +29790,7 @@
         <v>0.92</v>
       </c>
       <c r="AT150">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU150">
         <v>1.48</v>
@@ -29882,7 +29891,7 @@
         <v>178</v>
       </c>
       <c r="P151" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -29972,7 +29981,7 @@
         <v>1.27</v>
       </c>
       <c r="AT151">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AU151">
         <v>1.32</v>
@@ -30163,7 +30172,7 @@
         <v>2</v>
       </c>
       <c r="AT152">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU152">
         <v>1.61</v>
@@ -30351,7 +30360,7 @@
         <v>0.33</v>
       </c>
       <c r="AS153">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT153">
         <v>0.55</v>
@@ -30646,7 +30655,7 @@
         <v>181</v>
       </c>
       <c r="P155" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q155">
         <v>5</v>
@@ -30837,7 +30846,7 @@
         <v>147</v>
       </c>
       <c r="P156" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q156">
         <v>3</v>
@@ -31028,7 +31037,7 @@
         <v>182</v>
       </c>
       <c r="P157" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q157">
         <v>6</v>
@@ -31410,7 +31419,7 @@
         <v>183</v>
       </c>
       <c r="P159" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -31688,7 +31697,7 @@
         <v>1.33</v>
       </c>
       <c r="AS160">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT160">
         <v>1.09</v>
@@ -32070,10 +32079,10 @@
         <v>1.2</v>
       </c>
       <c r="AS162">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AT162">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU162">
         <v>1.78</v>
@@ -32174,7 +32183,7 @@
         <v>185</v>
       </c>
       <c r="P163" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q163">
         <v>5</v>
@@ -32264,7 +32273,7 @@
         <v>0.75</v>
       </c>
       <c r="AT163">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU163">
         <v>1.31</v>
@@ -32556,7 +32565,7 @@
         <v>81</v>
       </c>
       <c r="P165" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q165">
         <v>8</v>
@@ -32643,7 +32652,7 @@
         <v>0.7</v>
       </c>
       <c r="AS165">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT165">
         <v>0.83</v>
@@ -32938,7 +32947,7 @@
         <v>81</v>
       </c>
       <c r="P167" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q167">
         <v>2</v>
@@ -33028,7 +33037,7 @@
         <v>0.92</v>
       </c>
       <c r="AT167">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AU167">
         <v>1.44</v>
@@ -33129,7 +33138,7 @@
         <v>81</v>
       </c>
       <c r="P168" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33219,7 +33228,7 @@
         <v>1.08</v>
       </c>
       <c r="AT168">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU168">
         <v>1.3</v>
@@ -33407,7 +33416,7 @@
         <v>2.5</v>
       </c>
       <c r="AS169">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT169">
         <v>2.36</v>
@@ -33511,7 +33520,7 @@
         <v>81</v>
       </c>
       <c r="P170" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q170">
         <v>9</v>
@@ -33702,7 +33711,7 @@
         <v>112</v>
       </c>
       <c r="P171" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q171">
         <v>5</v>
@@ -33893,7 +33902,7 @@
         <v>188</v>
       </c>
       <c r="P172" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q172">
         <v>8</v>
@@ -34466,7 +34475,7 @@
         <v>81</v>
       </c>
       <c r="P175" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q175">
         <v>0</v>
@@ -34657,7 +34666,7 @@
         <v>81</v>
       </c>
       <c r="P176" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q176">
         <v>9</v>
@@ -34744,7 +34753,7 @@
         <v>0.3</v>
       </c>
       <c r="AS176">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT176">
         <v>0.55</v>
@@ -35039,7 +35048,7 @@
         <v>192</v>
       </c>
       <c r="P178" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -35421,7 +35430,7 @@
         <v>194</v>
       </c>
       <c r="P180" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q180">
         <v>10</v>
@@ -35547,22 +35556,786 @@
         <v>0</v>
       </c>
       <c r="BF180">
+        <v>7</v>
+      </c>
+      <c r="BG180">
+        <v>4</v>
+      </c>
+      <c r="BH180">
+        <v>4</v>
+      </c>
+      <c r="BI180">
+        <v>2</v>
+      </c>
+      <c r="BJ180">
+        <v>11</v>
+      </c>
+      <c r="BK180">
         <v>6</v>
       </c>
-      <c r="BG180">
+    </row>
+    <row r="181" spans="1:63">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>2717622</v>
+      </c>
+      <c r="C181" t="s">
+        <v>63</v>
+      </c>
+      <c r="D181" t="s">
+        <v>64</v>
+      </c>
+      <c r="E181" s="2">
+        <v>44996.52083333334</v>
+      </c>
+      <c r="F181">
+        <v>23</v>
+      </c>
+      <c r="G181" t="s">
+        <v>75</v>
+      </c>
+      <c r="H181" t="s">
+        <v>73</v>
+      </c>
+      <c r="I181">
+        <v>2</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>2</v>
+      </c>
+      <c r="L181">
+        <v>2</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>2</v>
+      </c>
+      <c r="O181" t="s">
+        <v>195</v>
+      </c>
+      <c r="P181" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q181">
+        <v>14</v>
+      </c>
+      <c r="R181">
+        <v>4</v>
+      </c>
+      <c r="S181">
+        <v>18</v>
+      </c>
+      <c r="T181">
+        <v>1.67</v>
+      </c>
+      <c r="U181">
+        <v>2.4</v>
+      </c>
+      <c r="V181">
+        <v>15</v>
+      </c>
+      <c r="W181">
+        <v>1.4</v>
+      </c>
+      <c r="X181">
+        <v>2.88</v>
+      </c>
+      <c r="Y181">
+        <v>3.3</v>
+      </c>
+      <c r="Z181">
+        <v>1.29</v>
+      </c>
+      <c r="AA181">
+        <v>8.5</v>
+      </c>
+      <c r="AB181">
+        <v>1.05</v>
+      </c>
+      <c r="AC181">
+        <v>1.2</v>
+      </c>
+      <c r="AD181">
+        <v>5.25</v>
+      </c>
+      <c r="AE181">
+        <v>14</v>
+      </c>
+      <c r="AF181">
+        <v>1.04</v>
+      </c>
+      <c r="AG181">
+        <v>11</v>
+      </c>
+      <c r="AH181">
+        <v>1.4</v>
+      </c>
+      <c r="AI181">
+        <v>2.73</v>
+      </c>
+      <c r="AJ181">
+        <v>2.2</v>
+      </c>
+      <c r="AK181">
+        <v>1.6</v>
+      </c>
+      <c r="AL181">
+        <v>3.67</v>
+      </c>
+      <c r="AM181">
+        <v>1.26</v>
+      </c>
+      <c r="AN181">
+        <v>1.05</v>
+      </c>
+      <c r="AO181">
+        <v>1.1</v>
+      </c>
+      <c r="AP181">
         <v>5</v>
       </c>
-      <c r="BH180">
+      <c r="AQ181">
+        <v>1.91</v>
+      </c>
+      <c r="AR181">
+        <v>0.45</v>
+      </c>
+      <c r="AS181">
+        <v>2</v>
+      </c>
+      <c r="AT181">
+        <v>0.42</v>
+      </c>
+      <c r="AU181">
+        <v>2.19</v>
+      </c>
+      <c r="AV181">
+        <v>1.3</v>
+      </c>
+      <c r="AW181">
+        <v>3.49</v>
+      </c>
+      <c r="AX181">
+        <v>1.03</v>
+      </c>
+      <c r="AY181">
+        <v>18</v>
+      </c>
+      <c r="AZ181">
+        <v>14.5</v>
+      </c>
+      <c r="BA181">
+        <v>1.21</v>
+      </c>
+      <c r="BB181">
+        <v>1.35</v>
+      </c>
+      <c r="BC181">
+        <v>1.64</v>
+      </c>
+      <c r="BD181">
+        <v>2.09</v>
+      </c>
+      <c r="BE181">
+        <v>2.76</v>
+      </c>
+      <c r="BF181">
+        <v>10</v>
+      </c>
+      <c r="BG181">
+        <v>4</v>
+      </c>
+      <c r="BH181">
+        <v>8</v>
+      </c>
+      <c r="BI181">
+        <v>1</v>
+      </c>
+      <c r="BJ181">
+        <v>18</v>
+      </c>
+      <c r="BK181">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:63">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>2717623</v>
+      </c>
+      <c r="C182" t="s">
+        <v>63</v>
+      </c>
+      <c r="D182" t="s">
+        <v>64</v>
+      </c>
+      <c r="E182" s="2">
+        <v>44997.29166666666</v>
+      </c>
+      <c r="F182">
+        <v>23</v>
+      </c>
+      <c r="G182" t="s">
+        <v>80</v>
+      </c>
+      <c r="H182" t="s">
+        <v>79</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>1</v>
+      </c>
+      <c r="O182" t="s">
+        <v>196</v>
+      </c>
+      <c r="P182" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q182">
+        <v>4</v>
+      </c>
+      <c r="R182">
+        <v>0</v>
+      </c>
+      <c r="S182">
+        <v>4</v>
+      </c>
+      <c r="T182">
+        <v>3.4</v>
+      </c>
+      <c r="U182">
+        <v>2</v>
+      </c>
+      <c r="V182">
+        <v>3.6</v>
+      </c>
+      <c r="W182">
+        <v>1.53</v>
+      </c>
+      <c r="X182">
+        <v>2.41</v>
+      </c>
+      <c r="Y182">
+        <v>3.48</v>
+      </c>
+      <c r="Z182">
+        <v>1.28</v>
+      </c>
+      <c r="AA182">
+        <v>9.6</v>
+      </c>
+      <c r="AB182">
+        <v>1.04</v>
+      </c>
+      <c r="AC182">
+        <v>2.31</v>
+      </c>
+      <c r="AD182">
+        <v>3.33</v>
+      </c>
+      <c r="AE182">
+        <v>2.34</v>
+      </c>
+      <c r="AF182">
+        <v>1.06</v>
+      </c>
+      <c r="AG182">
+        <v>6.65</v>
+      </c>
+      <c r="AH182">
+        <v>1.44</v>
+      </c>
+      <c r="AI182">
+        <v>2.53</v>
+      </c>
+      <c r="AJ182">
+        <v>2.43</v>
+      </c>
+      <c r="AK182">
+        <v>1.52</v>
+      </c>
+      <c r="AL182">
+        <v>2.04</v>
+      </c>
+      <c r="AM182">
+        <v>1.73</v>
+      </c>
+      <c r="AN182">
+        <v>1.42</v>
+      </c>
+      <c r="AO182">
+        <v>1.36</v>
+      </c>
+      <c r="AP182">
+        <v>1.49</v>
+      </c>
+      <c r="AQ182">
+        <v>2.09</v>
+      </c>
+      <c r="AR182">
+        <v>1.09</v>
+      </c>
+      <c r="AS182">
+        <v>2.17</v>
+      </c>
+      <c r="AT182">
+        <v>1</v>
+      </c>
+      <c r="AU182">
+        <v>1.62</v>
+      </c>
+      <c r="AV182">
+        <v>1.14</v>
+      </c>
+      <c r="AW182">
+        <v>2.76</v>
+      </c>
+      <c r="AX182">
+        <v>0</v>
+      </c>
+      <c r="AY182">
+        <v>0</v>
+      </c>
+      <c r="AZ182">
+        <v>0</v>
+      </c>
+      <c r="BA182">
+        <v>0</v>
+      </c>
+      <c r="BB182">
+        <v>0</v>
+      </c>
+      <c r="BC182">
+        <v>0</v>
+      </c>
+      <c r="BD182">
+        <v>0</v>
+      </c>
+      <c r="BE182">
+        <v>0</v>
+      </c>
+      <c r="BF182">
+        <v>5</v>
+      </c>
+      <c r="BG182">
+        <v>0</v>
+      </c>
+      <c r="BH182">
+        <v>1</v>
+      </c>
+      <c r="BI182">
+        <v>5</v>
+      </c>
+      <c r="BJ182">
         <v>6</v>
       </c>
-      <c r="BI180">
-        <v>2</v>
-      </c>
-      <c r="BJ180">
-        <v>12</v>
-      </c>
-      <c r="BK180">
+      <c r="BK182">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:63">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>2717620</v>
+      </c>
+      <c r="C183" t="s">
+        <v>63</v>
+      </c>
+      <c r="D183" t="s">
+        <v>64</v>
+      </c>
+      <c r="E183" s="2">
+        <v>44997.38541666666</v>
+      </c>
+      <c r="F183">
+        <v>23</v>
+      </c>
+      <c r="G183" t="s">
+        <v>74</v>
+      </c>
+      <c r="H183" t="s">
+        <v>76</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <v>2</v>
+      </c>
+      <c r="K183">
+        <v>3</v>
+      </c>
+      <c r="L183">
+        <v>3</v>
+      </c>
+      <c r="M183">
+        <v>2</v>
+      </c>
+      <c r="N183">
+        <v>5</v>
+      </c>
+      <c r="O183" t="s">
+        <v>197</v>
+      </c>
+      <c r="P183" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q183">
+        <v>11</v>
+      </c>
+      <c r="R183">
+        <v>0</v>
+      </c>
+      <c r="S183">
+        <v>11</v>
+      </c>
+      <c r="T183">
+        <v>1.91</v>
+      </c>
+      <c r="U183">
+        <v>2.25</v>
+      </c>
+      <c r="V183">
+        <v>9</v>
+      </c>
+      <c r="W183">
+        <v>1.46</v>
+      </c>
+      <c r="X183">
+        <v>2.61</v>
+      </c>
+      <c r="Y183">
+        <v>3.1</v>
+      </c>
+      <c r="Z183">
+        <v>1.34</v>
+      </c>
+      <c r="AA183">
+        <v>8</v>
+      </c>
+      <c r="AB183">
+        <v>1.06</v>
+      </c>
+      <c r="AC183">
+        <v>1.31</v>
+      </c>
+      <c r="AD183">
+        <v>4.25</v>
+      </c>
+      <c r="AE183">
+        <v>8</v>
+      </c>
+      <c r="AF183">
+        <v>1.04</v>
+      </c>
+      <c r="AG183">
+        <v>7.6</v>
+      </c>
+      <c r="AH183">
+        <v>1.34</v>
+      </c>
+      <c r="AI183">
+        <v>2.93</v>
+      </c>
+      <c r="AJ183">
+        <v>2.12</v>
+      </c>
+      <c r="AK183">
+        <v>1.67</v>
+      </c>
+      <c r="AL183">
+        <v>2.57</v>
+      </c>
+      <c r="AM183">
+        <v>1.48</v>
+      </c>
+      <c r="AN183">
+        <v>1.04</v>
+      </c>
+      <c r="AO183">
+        <v>1.21</v>
+      </c>
+      <c r="AP183">
+        <v>3.1</v>
+      </c>
+      <c r="AQ183">
+        <v>2.18</v>
+      </c>
+      <c r="AR183">
+        <v>1.64</v>
+      </c>
+      <c r="AS183">
+        <v>2.25</v>
+      </c>
+      <c r="AT183">
+        <v>1.5</v>
+      </c>
+      <c r="AU183">
+        <v>2.11</v>
+      </c>
+      <c r="AV183">
+        <v>1.47</v>
+      </c>
+      <c r="AW183">
+        <v>3.58</v>
+      </c>
+      <c r="AX183">
+        <v>0</v>
+      </c>
+      <c r="AY183">
+        <v>0</v>
+      </c>
+      <c r="AZ183">
+        <v>0</v>
+      </c>
+      <c r="BA183">
+        <v>0</v>
+      </c>
+      <c r="BB183">
+        <v>0</v>
+      </c>
+      <c r="BC183">
+        <v>0</v>
+      </c>
+      <c r="BD183">
+        <v>0</v>
+      </c>
+      <c r="BE183">
+        <v>0</v>
+      </c>
+      <c r="BF183">
+        <v>5</v>
+      </c>
+      <c r="BG183">
+        <v>4</v>
+      </c>
+      <c r="BH183">
+        <v>8</v>
+      </c>
+      <c r="BI183">
+        <v>2</v>
+      </c>
+      <c r="BJ183">
+        <v>13</v>
+      </c>
+      <c r="BK183">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:63">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>2717625</v>
+      </c>
+      <c r="C184" t="s">
+        <v>63</v>
+      </c>
+      <c r="D184" t="s">
+        <v>64</v>
+      </c>
+      <c r="E184" s="2">
+        <v>44997.48958333334</v>
+      </c>
+      <c r="F184">
+        <v>23</v>
+      </c>
+      <c r="G184" t="s">
+        <v>68</v>
+      </c>
+      <c r="H184" t="s">
+        <v>70</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+      <c r="M184">
+        <v>1</v>
+      </c>
+      <c r="N184">
+        <v>1</v>
+      </c>
+      <c r="O184" t="s">
+        <v>81</v>
+      </c>
+      <c r="P184" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q184">
+        <v>2</v>
+      </c>
+      <c r="R184">
+        <v>2</v>
+      </c>
+      <c r="S184">
+        <v>4</v>
+      </c>
+      <c r="T184">
+        <v>3.5</v>
+      </c>
+      <c r="U184">
+        <v>2.05</v>
+      </c>
+      <c r="V184">
+        <v>3.4</v>
+      </c>
+      <c r="W184">
+        <v>1.5</v>
+      </c>
+      <c r="X184">
+        <v>2.49</v>
+      </c>
+      <c r="Y184">
+        <v>3.28</v>
+      </c>
+      <c r="Z184">
+        <v>1.31</v>
+      </c>
+      <c r="AA184">
+        <v>9</v>
+      </c>
+      <c r="AB184">
+        <v>1.05</v>
+      </c>
+      <c r="AC184">
+        <v>2.8</v>
+      </c>
+      <c r="AD184">
+        <v>2.9</v>
+      </c>
+      <c r="AE184">
+        <v>2.63</v>
+      </c>
+      <c r="AF184">
+        <v>1.05</v>
+      </c>
+      <c r="AG184">
+        <v>7.2</v>
+      </c>
+      <c r="AH184">
+        <v>1.4</v>
+      </c>
+      <c r="AI184">
+        <v>2.68</v>
+      </c>
+      <c r="AJ184">
+        <v>2.5</v>
+      </c>
+      <c r="AK184">
+        <v>1.5</v>
+      </c>
+      <c r="AL184">
+        <v>1.95</v>
+      </c>
+      <c r="AM184">
+        <v>1.81</v>
+      </c>
+      <c r="AN184">
+        <v>1.47</v>
+      </c>
+      <c r="AO184">
+        <v>1.35</v>
+      </c>
+      <c r="AP184">
+        <v>1.46</v>
+      </c>
+      <c r="AQ184">
+        <v>2.64</v>
+      </c>
+      <c r="AR184">
+        <v>2.27</v>
+      </c>
+      <c r="AS184">
+        <v>2.42</v>
+      </c>
+      <c r="AT184">
+        <v>2.33</v>
+      </c>
+      <c r="AU184">
+        <v>1.73</v>
+      </c>
+      <c r="AV184">
+        <v>1.43</v>
+      </c>
+      <c r="AW184">
+        <v>3.16</v>
+      </c>
+      <c r="AX184">
+        <v>0</v>
+      </c>
+      <c r="AY184">
+        <v>0</v>
+      </c>
+      <c r="AZ184">
+        <v>0</v>
+      </c>
+      <c r="BA184">
+        <v>0</v>
+      </c>
+      <c r="BB184">
+        <v>0</v>
+      </c>
+      <c r="BC184">
+        <v>0</v>
+      </c>
+      <c r="BD184">
+        <v>0</v>
+      </c>
+      <c r="BE184">
+        <v>0</v>
+      </c>
+      <c r="BF184">
+        <v>2</v>
+      </c>
+      <c r="BG184">
+        <v>5</v>
+      </c>
+      <c r="BH184">
         <v>7</v>
+      </c>
+      <c r="BI184">
+        <v>4</v>
+      </c>
+      <c r="BJ184">
+        <v>9</v>
+      </c>
+      <c r="BK184">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="271">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1188,7 +1188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK184"/>
+  <dimension ref="A1:BK185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT4">
         <v>0.55</v>
@@ -4387,7 +4387,7 @@
         <v>2.09</v>
       </c>
       <c r="AT17">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -5339,7 +5339,7 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT22">
         <v>0.83</v>
@@ -6870,7 +6870,7 @@
         <v>2.64</v>
       </c>
       <c r="AT30">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU30">
         <v>1.64</v>
@@ -8204,7 +8204,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT37">
         <v>1</v>
@@ -10499,7 +10499,7 @@
         <v>0.92</v>
       </c>
       <c r="AT49">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU49">
         <v>1.43</v>
@@ -13170,7 +13170,7 @@
         <v>0.33</v>
       </c>
       <c r="AS63">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT63">
         <v>0.58</v>
@@ -13364,7 +13364,7 @@
         <v>2.42</v>
       </c>
       <c r="AT64">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU64">
         <v>1.44</v>
@@ -16417,7 +16417,7 @@
         <v>2</v>
       </c>
       <c r="AS80">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT80">
         <v>1.5</v>
@@ -16611,7 +16611,7 @@
         <v>2.17</v>
       </c>
       <c r="AT81">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU81">
         <v>2.08</v>
@@ -18136,7 +18136,7 @@
         <v>1.4</v>
       </c>
       <c r="AS89">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT89">
         <v>1.45</v>
@@ -18903,7 +18903,7 @@
         <v>1.08</v>
       </c>
       <c r="AT93">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU93">
         <v>1.3</v>
@@ -21574,7 +21574,7 @@
         <v>1.29</v>
       </c>
       <c r="AS107">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT107">
         <v>1.09</v>
@@ -23487,7 +23487,7 @@
         <v>0.55</v>
       </c>
       <c r="AT117">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU117">
         <v>1.04</v>
@@ -25015,7 +25015,7 @@
         <v>1.55</v>
       </c>
       <c r="AT125">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU125">
         <v>1.41</v>
@@ -25203,7 +25203,7 @@
         <v>1.86</v>
       </c>
       <c r="AS126">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT126">
         <v>2.33</v>
@@ -26922,7 +26922,7 @@
         <v>2.29</v>
       </c>
       <c r="AS135">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT135">
         <v>2.36</v>
@@ -28071,7 +28071,7 @@
         <v>1.64</v>
       </c>
       <c r="AT141">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU141">
         <v>1.58</v>
@@ -30169,7 +30169,7 @@
         <v>0.44</v>
       </c>
       <c r="AS152">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT152">
         <v>0.42</v>
@@ -30936,7 +30936,7 @@
         <v>1.64</v>
       </c>
       <c r="AT156">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU156">
         <v>1.6</v>
@@ -32461,7 +32461,7 @@
         <v>1</v>
       </c>
       <c r="AS164">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT164">
         <v>1.08</v>
@@ -32846,7 +32846,7 @@
         <v>1.73</v>
       </c>
       <c r="AT166">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU166">
         <v>1.86</v>
@@ -36336,6 +36336,197 @@
       </c>
       <c r="BK184">
         <v>9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:63">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>2717626</v>
+      </c>
+      <c r="C185" t="s">
+        <v>63</v>
+      </c>
+      <c r="D185" t="s">
+        <v>64</v>
+      </c>
+      <c r="E185" s="2">
+        <v>44998.52083333334</v>
+      </c>
+      <c r="F185">
+        <v>23</v>
+      </c>
+      <c r="G185" t="s">
+        <v>67</v>
+      </c>
+      <c r="H185" t="s">
+        <v>72</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+      <c r="M185">
+        <v>0</v>
+      </c>
+      <c r="N185">
+        <v>0</v>
+      </c>
+      <c r="O185" t="s">
+        <v>81</v>
+      </c>
+      <c r="P185" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q185">
+        <v>5</v>
+      </c>
+      <c r="R185">
+        <v>3</v>
+      </c>
+      <c r="S185">
+        <v>8</v>
+      </c>
+      <c r="T185">
+        <v>2.4</v>
+      </c>
+      <c r="U185">
+        <v>2.1</v>
+      </c>
+      <c r="V185">
+        <v>5</v>
+      </c>
+      <c r="W185">
+        <v>1.49</v>
+      </c>
+      <c r="X185">
+        <v>2.52</v>
+      </c>
+      <c r="Y185">
+        <v>3.22</v>
+      </c>
+      <c r="Z185">
+        <v>1.32</v>
+      </c>
+      <c r="AA185">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB185">
+        <v>1.05</v>
+      </c>
+      <c r="AC185">
+        <v>1.78</v>
+      </c>
+      <c r="AD185">
+        <v>3.4</v>
+      </c>
+      <c r="AE185">
+        <v>4.5</v>
+      </c>
+      <c r="AF185">
+        <v>1.05</v>
+      </c>
+      <c r="AG185">
+        <v>7.3</v>
+      </c>
+      <c r="AH185">
+        <v>1.38</v>
+      </c>
+      <c r="AI185">
+        <v>2.75</v>
+      </c>
+      <c r="AJ185">
+        <v>2.1</v>
+      </c>
+      <c r="AK185">
+        <v>1.68</v>
+      </c>
+      <c r="AL185">
+        <v>2.13</v>
+      </c>
+      <c r="AM185">
+        <v>1.68</v>
+      </c>
+      <c r="AN185">
+        <v>1.16</v>
+      </c>
+      <c r="AO185">
+        <v>1.29</v>
+      </c>
+      <c r="AP185">
+        <v>2.12</v>
+      </c>
+      <c r="AQ185">
+        <v>2</v>
+      </c>
+      <c r="AR185">
+        <v>0.55</v>
+      </c>
+      <c r="AS185">
+        <v>1.92</v>
+      </c>
+      <c r="AT185">
+        <v>0.58</v>
+      </c>
+      <c r="AU185">
+        <v>1.71</v>
+      </c>
+      <c r="AV185">
+        <v>1.2</v>
+      </c>
+      <c r="AW185">
+        <v>2.91</v>
+      </c>
+      <c r="AX185">
+        <v>1.46</v>
+      </c>
+      <c r="AY185">
+        <v>9</v>
+      </c>
+      <c r="AZ185">
+        <v>3.34</v>
+      </c>
+      <c r="BA185">
+        <v>1.36</v>
+      </c>
+      <c r="BB185">
+        <v>1.7</v>
+      </c>
+      <c r="BC185">
+        <v>2.17</v>
+      </c>
+      <c r="BD185">
+        <v>2.95</v>
+      </c>
+      <c r="BE185">
+        <v>4.1</v>
+      </c>
+      <c r="BF185">
+        <v>3</v>
+      </c>
+      <c r="BG185">
+        <v>2</v>
+      </c>
+      <c r="BH185">
+        <v>2</v>
+      </c>
+      <c r="BI185">
+        <v>2</v>
+      </c>
+      <c r="BJ185">
+        <v>5</v>
+      </c>
+      <c r="BK185">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK187"/>
+  <dimension ref="A1:BK190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>0.92</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT7" t="n">
         <v>1</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT9" t="n">
         <v>0.42</v>
@@ -3136,7 +3136,7 @@
         <v>2</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.08</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT16" t="n">
         <v>0.92</v>
@@ -4354,7 +4354,7 @@
         <v>2.42</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AU19" t="n">
         <v>0.96</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT20" t="n">
         <v>1.08</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT24" t="n">
         <v>1.5</v>
@@ -5569,10 +5569,10 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU25" t="n">
         <v>1.07</v>
@@ -5775,7 +5775,7 @@
         <v>2.25</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU26" t="n">
         <v>1.81</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT30" t="n">
         <v>0.58</v>
@@ -7193,7 +7193,7 @@
         <v>1.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT33" t="n">
         <v>1.5</v>
@@ -8411,7 +8411,7 @@
         <v>2</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT39" t="n">
         <v>1</v>
@@ -8617,7 +8617,7 @@
         <v>2.09</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU40" t="n">
         <v>1.51</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT41" t="n">
         <v>0.58</v>
@@ -9020,7 +9020,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT42" t="n">
         <v>0.92</v>
@@ -9429,7 +9429,7 @@
         <v>1.55</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU44" t="n">
         <v>1.57</v>
@@ -10850,7 +10850,7 @@
         <v>1.08</v>
       </c>
       <c r="AT51" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AU51" t="n">
         <v>1</v>
@@ -11253,7 +11253,7 @@
         <v>1.33</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT53" t="n">
         <v>1.45</v>
@@ -11662,7 +11662,7 @@
         <v>1.75</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU55" t="n">
         <v>1.49</v>
@@ -11862,7 +11862,7 @@
         <v>0.25</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT56" t="n">
         <v>0.55</v>
@@ -12271,7 +12271,7 @@
         <v>1.75</v>
       </c>
       <c r="AT58" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AU58" t="n">
         <v>1.54</v>
@@ -12471,10 +12471,10 @@
         <v>2.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU59" t="n">
         <v>1.69</v>
@@ -14298,10 +14298,10 @@
         <v>0</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU68" t="n">
         <v>1.24</v>
@@ -14504,7 +14504,7 @@
         <v>1.73</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU69" t="n">
         <v>1.9</v>
@@ -15110,7 +15110,7 @@
         <v>1.8</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT72" t="n">
         <v>1</v>
@@ -15316,7 +15316,7 @@
         <v>1.55</v>
       </c>
       <c r="AT73" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AU73" t="n">
         <v>1.65</v>
@@ -16125,7 +16125,7 @@
         <v>0.2</v>
       </c>
       <c r="AS77" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT77" t="n">
         <v>0.42</v>
@@ -17752,7 +17752,7 @@
         <v>0.92</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU85" t="n">
         <v>1.61</v>
@@ -18361,7 +18361,7 @@
         <v>1.75</v>
       </c>
       <c r="AT88" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AU88" t="n">
         <v>1.56</v>
@@ -18564,7 +18564,7 @@
         <v>1.92</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU89" t="n">
         <v>1.48</v>
@@ -18764,7 +18764,7 @@
         <v>0.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT90" t="n">
         <v>0.55</v>
@@ -18967,7 +18967,7 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT91" t="n">
         <v>1.27</v>
@@ -19170,7 +19170,7 @@
         <v>1.4</v>
       </c>
       <c r="AS92" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT92" t="n">
         <v>1.08</v>
@@ -21606,7 +21606,7 @@
         <v>0.86</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT104" t="n">
         <v>0.83</v>
@@ -21812,7 +21812,7 @@
         <v>2.42</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU105" t="n">
         <v>1.55</v>
@@ -22418,10 +22418,10 @@
         <v>2.17</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT108" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AU108" t="n">
         <v>1.38</v>
@@ -23233,7 +23233,7 @@
         <v>2.17</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU112" t="n">
         <v>1.86</v>
@@ -24245,7 +24245,7 @@
         <v>0.17</v>
       </c>
       <c r="AS117" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT117" t="n">
         <v>0.58</v>
@@ -25060,7 +25060,7 @@
         <v>2</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU121" t="n">
         <v>2.37</v>
@@ -25263,7 +25263,7 @@
         <v>2.17</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU122" t="n">
         <v>1.74</v>
@@ -25463,7 +25463,7 @@
         <v>0.14</v>
       </c>
       <c r="AS123" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT123" t="n">
         <v>0.58</v>
@@ -27087,7 +27087,7 @@
         <v>1.13</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT131" t="n">
         <v>1</v>
@@ -27696,7 +27696,7 @@
         <v>1</v>
       </c>
       <c r="AS134" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT134" t="n">
         <v>1.08</v>
@@ -27902,7 +27902,7 @@
         <v>1.92</v>
       </c>
       <c r="AT135" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AU135" t="n">
         <v>1.68</v>
@@ -28105,7 +28105,7 @@
         <v>1.08</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU136" t="n">
         <v>1.31</v>
@@ -28914,7 +28914,7 @@
         <v>1.5</v>
       </c>
       <c r="AS140" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT140" t="n">
         <v>1.45</v>
@@ -29323,7 +29323,7 @@
         <v>2.25</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU142" t="n">
         <v>2.08</v>
@@ -29729,7 +29729,7 @@
         <v>2.17</v>
       </c>
       <c r="AT144" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AU144" t="n">
         <v>1.69</v>
@@ -30744,7 +30744,7 @@
         <v>0.75</v>
       </c>
       <c r="AT149" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AU149" t="n">
         <v>1.32</v>
@@ -31147,7 +31147,7 @@
         <v>2.11</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT151" t="n">
         <v>2.33</v>
@@ -32365,7 +32365,7 @@
         <v>0.44</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT157" t="n">
         <v>0.58</v>
@@ -32571,7 +32571,7 @@
         <v>1.55</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU158" t="n">
         <v>1.49</v>
@@ -33177,10 +33177,10 @@
         <v>0.22</v>
       </c>
       <c r="AS161" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU161" t="n">
         <v>1.14</v>
@@ -34804,7 +34804,7 @@
         <v>2</v>
       </c>
       <c r="AT169" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AU169" t="n">
         <v>2.21</v>
@@ -35007,7 +35007,7 @@
         <v>1.75</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU170" t="n">
         <v>1.53</v>
@@ -35207,7 +35207,7 @@
         <v>0.8</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT171" t="n">
         <v>0.92</v>
@@ -35613,7 +35613,7 @@
         <v>1.5</v>
       </c>
       <c r="AS173" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT173" t="n">
         <v>1.45</v>
@@ -36019,7 +36019,7 @@
         <v>1.1</v>
       </c>
       <c r="AS175" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT175" t="n">
         <v>1.27</v>
@@ -36428,7 +36428,7 @@
         <v>2.09</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU177" t="n">
         <v>1.78</v>
@@ -38510,6 +38510,615 @@
       </c>
       <c r="BK187" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>2717630</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45003.29166666666</v>
+      </c>
+      <c r="F188" t="n">
+        <v>24</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Beroe</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>CSKA 1948 Sofia</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="n">
+        <v>2</v>
+      </c>
+      <c r="K188" t="n">
+        <v>3</v>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="n">
+        <v>3</v>
+      </c>
+      <c r="N188" t="n">
+        <v>4</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>['10', '35', '86']</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>4</v>
+      </c>
+      <c r="R188" t="n">
+        <v>5</v>
+      </c>
+      <c r="S188" t="n">
+        <v>9</v>
+      </c>
+      <c r="T188" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U188" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V188" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X188" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>2717635</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>45003.39583333334</v>
+      </c>
+      <c r="F189" t="n">
+        <v>24</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Hebar 1918</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Ludogorets</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
+      <c r="K189" t="n">
+        <v>2</v>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="n">
+        <v>3</v>
+      </c>
+      <c r="N189" t="n">
+        <v>4</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>['22', '70', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>2</v>
+      </c>
+      <c r="R189" t="n">
+        <v>5</v>
+      </c>
+      <c r="S189" t="n">
+        <v>7</v>
+      </c>
+      <c r="T189" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="U189" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V189" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X189" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>2717631</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="F190" t="n">
+        <v>24</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>CSKA Sofia</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Spartak Varna</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0</v>
+      </c>
+      <c r="N190" t="n">
+        <v>1</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q190" t="n">
+        <v>3</v>
+      </c>
+      <c r="R190" t="n">
+        <v>2</v>
+      </c>
+      <c r="S190" t="n">
+        <v>5</v>
+      </c>
+      <c r="T190" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U190" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="V190" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="W190" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X190" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN190" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO190" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP190" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="AQ190" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AR190" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AS190" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AT190" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU190" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX190" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AZ190" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB190" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC190" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BD190" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE190" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BF190" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG190" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH190" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI190" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ190" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK190" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK193"/>
+  <dimension ref="A1:BK196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT4" t="n">
         <v>0.58</v>
@@ -2324,7 +2324,7 @@
         <v>1.17</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT11" t="n">
         <v>1.42</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT13" t="n">
         <v>0.25</v>
@@ -3745,7 +3745,7 @@
         <v>0.5</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1.17</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU20" t="n">
         <v>1.45</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT22" t="n">
         <v>0.83</v>
@@ -5166,7 +5166,7 @@
         <v>0.92</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU23" t="n">
         <v>0.78</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT26" t="n">
         <v>0.25</v>
@@ -6790,7 +6790,7 @@
         <v>1.92</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU31" t="n">
         <v>1.34</v>
@@ -7399,7 +7399,7 @@
         <v>2.42</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU34" t="n">
         <v>1.22</v>
@@ -7599,7 +7599,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT35" t="n">
         <v>0.58</v>
@@ -7805,7 +7805,7 @@
         <v>0.92</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU36" t="n">
         <v>1.28</v>
@@ -8005,7 +8005,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT37" t="n">
         <v>1</v>
@@ -9023,7 +9023,7 @@
         <v>2.67</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU42" t="n">
         <v>1.68</v>
@@ -10035,7 +10035,7 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT47" t="n">
         <v>0.83</v>
@@ -10241,7 +10241,7 @@
         <v>2.42</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU48" t="n">
         <v>1.37</v>
@@ -10647,7 +10647,7 @@
         <v>2.17</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU50" t="n">
         <v>0</v>
@@ -11053,7 +11053,7 @@
         <v>1.67</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU52" t="n">
         <v>1.85</v>
@@ -12677,7 +12677,7 @@
         <v>1.08</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU60" t="n">
         <v>0.97</v>
@@ -12880,7 +12880,7 @@
         <v>2.17</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU61" t="n">
         <v>2.4</v>
@@ -13283,7 +13283,7 @@
         <v>0.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT63" t="n">
         <v>0.58</v>
@@ -13689,7 +13689,7 @@
         <v>1.5</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT65" t="n">
         <v>0.83</v>
@@ -14095,7 +14095,7 @@
         <v>1.5</v>
       </c>
       <c r="AS67" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT67" t="n">
         <v>1</v>
@@ -16128,7 +16128,7 @@
         <v>0.5</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU77" t="n">
         <v>0.9399999999999999</v>
@@ -16331,7 +16331,7 @@
         <v>2.42</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU78" t="n">
         <v>1.49</v>
@@ -16534,7 +16534,7 @@
         <v>1.08</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU79" t="n">
         <v>1.26</v>
@@ -16734,7 +16734,7 @@
         <v>2</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT80" t="n">
         <v>1.5</v>
@@ -17140,7 +17140,7 @@
         <v>2</v>
       </c>
       <c r="AS82" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT82" t="n">
         <v>2.33</v>
@@ -17343,7 +17343,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT83" t="n">
         <v>1</v>
@@ -17955,7 +17955,7 @@
         <v>1.75</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU86" t="n">
         <v>1.74</v>
@@ -18561,7 +18561,7 @@
         <v>1.4</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT89" t="n">
         <v>1.58</v>
@@ -19173,7 +19173,7 @@
         <v>0.5</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU92" t="n">
         <v>0.99</v>
@@ -19579,7 +19579,7 @@
         <v>2.17</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU94" t="n">
         <v>2.01</v>
@@ -19779,7 +19779,7 @@
         <v>0.2</v>
       </c>
       <c r="AS95" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT95" t="n">
         <v>0.58</v>
@@ -20591,7 +20591,7 @@
         <v>1.33</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT99" t="n">
         <v>2.33</v>
@@ -21000,7 +21000,7 @@
         <v>1.75</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU101" t="n">
         <v>1.55</v>
@@ -22215,7 +22215,7 @@
         <v>1.29</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT107" t="n">
         <v>1</v>
@@ -22827,7 +22827,7 @@
         <v>1.92</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU110" t="n">
         <v>1.65</v>
@@ -23433,7 +23433,7 @@
         <v>1.67</v>
       </c>
       <c r="AS113" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT113" t="n">
         <v>1.42</v>
@@ -23839,7 +23839,7 @@
         <v>0.17</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT115" t="n">
         <v>0.58</v>
@@ -24045,7 +24045,7 @@
         <v>1.08</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU116" t="n">
         <v>1.3</v>
@@ -24857,7 +24857,7 @@
         <v>1.75</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU120" t="n">
         <v>1.85</v>
@@ -25057,7 +25057,7 @@
         <v>1.57</v>
       </c>
       <c r="AS121" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT121" t="n">
         <v>1.58</v>
@@ -25666,10 +25666,10 @@
         <v>0.86</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU124" t="n">
         <v>2.01</v>
@@ -26072,7 +26072,7 @@
         <v>1.86</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT126" t="n">
         <v>2.33</v>
@@ -26684,7 +26684,7 @@
         <v>1.67</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU129" t="n">
         <v>1.76</v>
@@ -27699,7 +27699,7 @@
         <v>2.67</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU134" t="n">
         <v>1.67</v>
@@ -27899,7 +27899,7 @@
         <v>2.29</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT135" t="n">
         <v>2.42</v>
@@ -28711,7 +28711,7 @@
         <v>1.13</v>
       </c>
       <c r="AS139" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT139" t="n">
         <v>1</v>
@@ -29320,7 +29320,7 @@
         <v>1.5</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT142" t="n">
         <v>1.58</v>
@@ -29526,7 +29526,7 @@
         <v>1.5</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU143" t="n">
         <v>1.45</v>
@@ -29929,7 +29929,7 @@
         <v>1.13</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT145" t="n">
         <v>1.42</v>
@@ -30135,7 +30135,7 @@
         <v>1.67</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU146" t="n">
         <v>1.89</v>
@@ -30335,7 +30335,7 @@
         <v>1.33</v>
       </c>
       <c r="AS147" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT147" t="n">
         <v>1.5</v>
@@ -31350,10 +31350,10 @@
         <v>0.44</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU152" t="n">
         <v>1.61</v>
@@ -31962,7 +31962,7 @@
         <v>1.75</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU155" t="n">
         <v>1.58</v>
@@ -32974,7 +32974,7 @@
         <v>1.33</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT160" t="n">
         <v>1</v>
@@ -33586,7 +33586,7 @@
         <v>0.75</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU163" t="n">
         <v>1.31</v>
@@ -33786,10 +33786,10 @@
         <v>1</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU164" t="n">
         <v>1.66</v>
@@ -34801,7 +34801,7 @@
         <v>2.5</v>
       </c>
       <c r="AS169" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT169" t="n">
         <v>2.42</v>
@@ -35210,7 +35210,7 @@
         <v>1.17</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU171" t="n">
         <v>1.29</v>
@@ -36222,7 +36222,7 @@
         <v>0.3</v>
       </c>
       <c r="AS176" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT176" t="n">
         <v>0.58</v>
@@ -37037,7 +37037,7 @@
         <v>0.75</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU180" t="n">
         <v>1.38</v>
@@ -37237,10 +37237,10 @@
         <v>0.45</v>
       </c>
       <c r="AS181" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU181" t="n">
         <v>2.19</v>
@@ -37643,7 +37643,7 @@
         <v>1.64</v>
       </c>
       <c r="AS183" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT183" t="n">
         <v>1.5</v>
@@ -38049,7 +38049,7 @@
         <v>0.55</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT185" t="n">
         <v>0.58</v>
@@ -38255,7 +38255,7 @@
         <v>1.75</v>
       </c>
       <c r="AT186" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU186" t="n">
         <v>1.66</v>
@@ -39728,6 +39728,615 @@
       </c>
       <c r="BK193" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>2717643</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>45023.5625</v>
+      </c>
+      <c r="F194" t="n">
+        <v>25</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Lokomotiv Plovdiv</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Septemvri Sofia</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="n">
+        <v>2</v>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="n">
+        <v>3</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>['42', '58']</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>5</v>
+      </c>
+      <c r="R194" t="n">
+        <v>0</v>
+      </c>
+      <c r="S194" t="n">
+        <v>5</v>
+      </c>
+      <c r="T194" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U194" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V194" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X194" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP194" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT194" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AU194" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF194" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG194" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH194" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI194" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ194" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK194" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>2717637</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>45024.47916666666</v>
+      </c>
+      <c r="F195" t="n">
+        <v>25</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Ludogorets</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Botev Vratsa</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>3</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>3</v>
+      </c>
+      <c r="L195" t="n">
+        <v>8</v>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="n">
+        <v>9</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>['29', '35', '43', '46', '57', '60', '89', '90+2']</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
+        <v>9</v>
+      </c>
+      <c r="R195" t="n">
+        <v>4</v>
+      </c>
+      <c r="S195" t="n">
+        <v>13</v>
+      </c>
+      <c r="T195" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U195" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="V195" t="n">
+        <v>13</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X195" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AT195" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF195" t="n">
+        <v>14</v>
+      </c>
+      <c r="BG195" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH195" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI195" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ195" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK195" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>2717639</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>45024.58333333334</v>
+      </c>
+      <c r="F196" t="n">
+        <v>25</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Levski Sofia</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Lokomotiv Sofia 1929</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>1</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0</v>
+      </c>
+      <c r="N196" t="n">
+        <v>1</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>['45+2']</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q196" t="n">
+        <v>10</v>
+      </c>
+      <c r="R196" t="n">
+        <v>5</v>
+      </c>
+      <c r="S196" t="n">
+        <v>15</v>
+      </c>
+      <c r="T196" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U196" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V196" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W196" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X196" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AT196" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF196" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH196" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI196" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ196" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK196" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK196"/>
+  <dimension ref="A1:BK199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,7 +1715,7 @@
         <v>1.75</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT8" t="n">
         <v>1</v>
@@ -2933,7 +2933,7 @@
         <v>1.75</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AU12" t="n">
         <v>1.23</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT16" t="n">
         <v>0.85</v>
@@ -3948,7 +3948,7 @@
         <v>1.92</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT18" t="n">
         <v>0.58</v>
@@ -5369,7 +5369,7 @@
         <v>2.67</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU24" t="n">
         <v>1.75</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT25" t="n">
         <v>1.58</v>
@@ -6587,7 +6587,7 @@
         <v>2.67</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU30" t="n">
         <v>1.64</v>
@@ -6990,7 +6990,7 @@
         <v>1.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT32" t="n">
         <v>0.83</v>
@@ -7196,7 +7196,7 @@
         <v>1.17</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU33" t="n">
         <v>1.33</v>
@@ -8411,7 +8411,7 @@
         <v>2</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT39" t="n">
         <v>1</v>
@@ -9632,7 +9632,7 @@
         <v>1.67</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU45" t="n">
         <v>2.02</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT46" t="n">
         <v>1</v>
@@ -10444,7 +10444,7 @@
         <v>0.92</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU49" t="n">
         <v>1.43</v>
@@ -10644,7 +10644,7 @@
         <v>0.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT50" t="n">
         <v>0.38</v>
@@ -11862,7 +11862,7 @@
         <v>0.25</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT56" t="n">
         <v>0.58</v>
@@ -12877,7 +12877,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT61" t="n">
         <v>1</v>
@@ -13080,10 +13080,10 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT62" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AU62" t="n">
         <v>1.5</v>
@@ -13489,7 +13489,7 @@
         <v>2.42</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU64" t="n">
         <v>1.44</v>
@@ -13895,7 +13895,7 @@
         <v>0.92</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU66" t="n">
         <v>1.66</v>
@@ -15922,7 +15922,7 @@
         <v>0.25</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT76" t="n">
         <v>0.58</v>
@@ -16125,7 +16125,7 @@
         <v>0.2</v>
       </c>
       <c r="AS77" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT77" t="n">
         <v>0.38</v>
@@ -16737,7 +16737,7 @@
         <v>2</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU80" t="n">
         <v>1.41</v>
@@ -16937,10 +16937,10 @@
         <v>0</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU81" t="n">
         <v>2.08</v>
@@ -17143,7 +17143,7 @@
         <v>2.08</v>
       </c>
       <c r="AT82" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AU82" t="n">
         <v>2.83</v>
@@ -19170,7 +19170,7 @@
         <v>1.4</v>
       </c>
       <c r="AS92" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT92" t="n">
         <v>1</v>
@@ -19376,7 +19376,7 @@
         <v>1.08</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU93" t="n">
         <v>1.3</v>
@@ -19576,7 +19576,7 @@
         <v>0.6</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT94" t="n">
         <v>0.85</v>
@@ -20188,7 +20188,7 @@
         <v>2.42</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU97" t="n">
         <v>1.62</v>
@@ -20388,7 +20388,7 @@
         <v>1.4</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT98" t="n">
         <v>1.42</v>
@@ -20594,7 +20594,7 @@
         <v>2.31</v>
       </c>
       <c r="AT99" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AU99" t="n">
         <v>2.23</v>
@@ -20794,7 +20794,7 @@
         <v>1.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT100" t="n">
         <v>1.42</v>
@@ -22624,7 +22624,7 @@
         <v>1.67</v>
       </c>
       <c r="AT109" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AU109" t="n">
         <v>1.86</v>
@@ -23027,10 +23027,10 @@
         <v>1.57</v>
       </c>
       <c r="AS111" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU111" t="n">
         <v>1.39</v>
@@ -23230,7 +23230,7 @@
         <v>1.67</v>
       </c>
       <c r="AS112" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT112" t="n">
         <v>1.58</v>
@@ -23639,7 +23639,7 @@
         <v>1.5</v>
       </c>
       <c r="AT114" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AU114" t="n">
         <v>1.44</v>
@@ -24245,10 +24245,10 @@
         <v>0.17</v>
       </c>
       <c r="AS117" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU117" t="n">
         <v>1.04</v>
@@ -24654,7 +24654,7 @@
         <v>1.92</v>
       </c>
       <c r="AT119" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AU119" t="n">
         <v>1.72</v>
@@ -25260,7 +25260,7 @@
         <v>0.14</v>
       </c>
       <c r="AS122" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT122" t="n">
         <v>0.25</v>
@@ -25463,7 +25463,7 @@
         <v>0.14</v>
       </c>
       <c r="AS123" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT123" t="n">
         <v>0.58</v>
@@ -25872,7 +25872,7 @@
         <v>1.5</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU125" t="n">
         <v>1.41</v>
@@ -26075,7 +26075,7 @@
         <v>2</v>
       </c>
       <c r="AT126" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AU126" t="n">
         <v>1.58</v>
@@ -27290,10 +27290,10 @@
         <v>1.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU132" t="n">
         <v>1.79</v>
@@ -27493,7 +27493,7 @@
         <v>1.14</v>
       </c>
       <c r="AS133" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT133" t="n">
         <v>1.42</v>
@@ -28511,7 +28511,7 @@
         <v>1.75</v>
       </c>
       <c r="AT138" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AU138" t="n">
         <v>1.69</v>
@@ -28914,7 +28914,7 @@
         <v>1.5</v>
       </c>
       <c r="AS140" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT140" t="n">
         <v>1.42</v>
@@ -29120,7 +29120,7 @@
         <v>1.75</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU141" t="n">
         <v>1.58</v>
@@ -29726,7 +29726,7 @@
         <v>2.38</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT144" t="n">
         <v>2.42</v>
@@ -30338,7 +30338,7 @@
         <v>2.08</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU147" t="n">
         <v>2.27</v>
@@ -30741,7 +30741,7 @@
         <v>2.44</v>
       </c>
       <c r="AS149" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT149" t="n">
         <v>2.42</v>
@@ -31150,7 +31150,7 @@
         <v>1.17</v>
       </c>
       <c r="AT151" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AU151" t="n">
         <v>1.32</v>
@@ -31553,7 +31553,7 @@
         <v>0.33</v>
       </c>
       <c r="AS153" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT153" t="n">
         <v>0.58</v>
@@ -32165,7 +32165,7 @@
         <v>1.75</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU156" t="n">
         <v>1.6</v>
@@ -33177,7 +33177,7 @@
         <v>0.22</v>
       </c>
       <c r="AS161" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT161" t="n">
         <v>0.25</v>
@@ -33583,7 +33583,7 @@
         <v>0.5</v>
       </c>
       <c r="AS163" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT163" t="n">
         <v>0.38</v>
@@ -33989,7 +33989,7 @@
         <v>0.7</v>
       </c>
       <c r="AS165" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT165" t="n">
         <v>0.83</v>
@@ -34195,7 +34195,7 @@
         <v>1.67</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU166" t="n">
         <v>1.86</v>
@@ -34398,7 +34398,7 @@
         <v>0.92</v>
       </c>
       <c r="AT167" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AU167" t="n">
         <v>1.44</v>
@@ -34601,7 +34601,7 @@
         <v>1.08</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU168" t="n">
         <v>1.3</v>
@@ -36019,7 +36019,7 @@
         <v>1.1</v>
       </c>
       <c r="AS175" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT175" t="n">
         <v>1.42</v>
@@ -37034,7 +37034,7 @@
         <v>0.91</v>
       </c>
       <c r="AS180" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT180" t="n">
         <v>1</v>
@@ -37440,7 +37440,7 @@
         <v>1.09</v>
       </c>
       <c r="AS182" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT182" t="n">
         <v>1</v>
@@ -37646,7 +37646,7 @@
         <v>2.31</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU183" t="n">
         <v>2.11</v>
@@ -37849,7 +37849,7 @@
         <v>2.42</v>
       </c>
       <c r="AT184" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AU184" t="n">
         <v>1.73</v>
@@ -38052,7 +38052,7 @@
         <v>2</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU185" t="n">
         <v>1.71</v>
@@ -38861,7 +38861,7 @@
         <v>2.36</v>
       </c>
       <c r="AS189" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT189" t="n">
         <v>2.42</v>
@@ -40324,19 +40324,628 @@
         <v>7</v>
       </c>
       <c r="BG196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH196" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BI196" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BJ196" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BK196" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>2717636</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>45025.38541666666</v>
+      </c>
+      <c r="F197" t="n">
+        <v>25</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Hebar 1918</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Cherno More</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0</v>
+      </c>
+      <c r="L197" t="n">
+        <v>0</v>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="n">
+        <v>1</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
+        <v>1</v>
+      </c>
+      <c r="R197" t="n">
+        <v>11</v>
+      </c>
+      <c r="S197" t="n">
+        <v>12</v>
+      </c>
+      <c r="T197" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U197" t="n">
+        <v>2</v>
+      </c>
+      <c r="V197" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W197" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X197" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF197" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG197" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH197" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI197" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ197" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK197" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>2717641</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>45025.48958333334</v>
+      </c>
+      <c r="F198" t="n">
+        <v>25</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Spartak Varna</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Beroe</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>1</v>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0</v>
+      </c>
+      <c r="M198" t="n">
+        <v>4</v>
+      </c>
+      <c r="N198" t="n">
+        <v>4</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>['15', '53', '65', '82']</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>9</v>
+      </c>
+      <c r="R198" t="n">
+        <v>6</v>
+      </c>
+      <c r="S198" t="n">
+        <v>15</v>
+      </c>
+      <c r="T198" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U198" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V198" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W198" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X198" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AT198" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF198" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG198" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH198" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI198" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ198" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK198" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>2717640</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>45025.59375</v>
+      </c>
+      <c r="F199" t="n">
+        <v>25</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Slavia Sofia</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>CSKA Sofia</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L199" t="n">
+        <v>0</v>
+      </c>
+      <c r="M199" t="n">
+        <v>2</v>
+      </c>
+      <c r="N199" t="n">
+        <v>2</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>['62', '67']</t>
+        </is>
+      </c>
+      <c r="Q199" t="n">
+        <v>2</v>
+      </c>
+      <c r="R199" t="n">
+        <v>3</v>
+      </c>
+      <c r="S199" t="n">
+        <v>5</v>
+      </c>
+      <c r="T199" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U199" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V199" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X199" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS199" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT199" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU199" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ199" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BA199" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB199" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC199" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BD199" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BE199" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF199" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG199" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH199" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI199" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ199" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK199" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK199"/>
+  <dimension ref="A1:BK201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT5" t="n">
         <v>1.42</v>
@@ -2527,7 +2527,7 @@
         <v>1.5</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT19" t="n">
         <v>2.42</v>
@@ -6384,7 +6384,7 @@
         <v>1.75</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU29" t="n">
         <v>1.29</v>
@@ -7396,7 +7396,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT34" t="n">
         <v>0.38</v>
@@ -8820,7 +8820,7 @@
         <v>1.17</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU41" t="n">
         <v>1.22</v>
@@ -10238,7 +10238,7 @@
         <v>2</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT48" t="n">
         <v>1</v>
@@ -13286,7 +13286,7 @@
         <v>2</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU63" t="n">
         <v>1.37</v>
@@ -13486,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT64" t="n">
         <v>0.77</v>
@@ -15925,7 +15925,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU76" t="n">
         <v>1.45</v>
@@ -16328,7 +16328,7 @@
         <v>0.75</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT78" t="n">
         <v>0.85</v>
@@ -19782,7 +19782,7 @@
         <v>2.08</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU95" t="n">
         <v>2.61</v>
@@ -20185,7 +20185,7 @@
         <v>1.67</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT97" t="n">
         <v>1.62</v>
@@ -21809,7 +21809,7 @@
         <v>0.17</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT105" t="n">
         <v>0.25</v>
@@ -23842,7 +23842,7 @@
         <v>2.31</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU115" t="n">
         <v>2.05</v>
@@ -25466,7 +25466,7 @@
         <v>0.46</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU123" t="n">
         <v>1.05</v>
@@ -26884,7 +26884,7 @@
         <v>0.38</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT130" t="n">
         <v>0.58</v>
@@ -28308,7 +28308,7 @@
         <v>1.92</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU137" t="n">
         <v>1.7</v>
@@ -30538,7 +30538,7 @@
         <v>0.78</v>
       </c>
       <c r="AS148" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT148" t="n">
         <v>0.83</v>
@@ -32368,7 +32368,7 @@
         <v>2.67</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU157" t="n">
         <v>1.75</v>
@@ -33380,7 +33380,7 @@
         <v>1.2</v>
       </c>
       <c r="AS162" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT162" t="n">
         <v>1</v>
@@ -35413,7 +35413,7 @@
         <v>1.75</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU172" t="n">
         <v>1.6</v>
@@ -36631,7 +36631,7 @@
         <v>0.92</v>
       </c>
       <c r="AT178" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU178" t="n">
         <v>1.39</v>
@@ -37846,7 +37846,7 @@
         <v>2.27</v>
       </c>
       <c r="AS184" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT184" t="n">
         <v>2.38</v>
@@ -40946,6 +40946,412 @@
       </c>
       <c r="BK199" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>2717638</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>45026.47916666666</v>
+      </c>
+      <c r="F200" t="n">
+        <v>25</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>OFK Pirin</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Arda</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="n">
+        <v>2</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>4</v>
+      </c>
+      <c r="R200" t="n">
+        <v>1</v>
+      </c>
+      <c r="S200" t="n">
+        <v>5</v>
+      </c>
+      <c r="T200" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U200" t="n">
+        <v>2</v>
+      </c>
+      <c r="V200" t="n">
+        <v>3</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X200" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK200" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>2717642</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>45026.58333333334</v>
+      </c>
+      <c r="F201" t="n">
+        <v>25</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>CSKA 1948 Sofia</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Botev Plovdiv</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>2</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>2</v>
+      </c>
+      <c r="L201" t="n">
+        <v>2</v>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="n">
+        <v>3</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>['1', '44']</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>7</v>
+      </c>
+      <c r="R201" t="n">
+        <v>4</v>
+      </c>
+      <c r="S201" t="n">
+        <v>11</v>
+      </c>
+      <c r="T201" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U201" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V201" t="n">
+        <v>5</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X201" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH201" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK201"/>
+  <dimension ref="A1:BK205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.67</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT6" t="n">
         <v>1.62</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT10" t="n">
         <v>0.54</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT12" t="n">
         <v>2.38</v>
@@ -3542,7 +3542,7 @@
         <v>1.08</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT17" t="n">
         <v>0.77</v>
@@ -4151,7 +4151,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU18" t="n">
         <v>0.97</v>
@@ -4354,7 +4354,7 @@
         <v>2.46</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AU19" t="n">
         <v>0.96</v>
@@ -4963,7 +4963,7 @@
         <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU22" t="n">
         <v>1.42</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT23" t="n">
         <v>0.38</v>
@@ -5572,7 +5572,7 @@
         <v>0.46</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU25" t="n">
         <v>1.07</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT27" t="n">
         <v>1.42</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT29" t="n">
         <v>0.54</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT31" t="n">
         <v>0.85</v>
@@ -6993,7 +6993,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU32" t="n">
         <v>1.22</v>
@@ -7602,7 +7602,7 @@
         <v>2.08</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU35" t="n">
         <v>3.77</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT36" t="n">
         <v>1</v>
@@ -8211,7 +8211,7 @@
         <v>1.75</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU38" t="n">
         <v>1.46</v>
@@ -8614,10 +8614,10 @@
         <v>2</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU40" t="n">
         <v>1.51</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT43" t="n">
         <v>1.42</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT44" t="n">
         <v>0.25</v>
@@ -10038,7 +10038,7 @@
         <v>2.08</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU47" t="n">
         <v>3.04</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT49" t="n">
         <v>0.77</v>
@@ -10850,7 +10850,7 @@
         <v>1.08</v>
       </c>
       <c r="AT51" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AU51" t="n">
         <v>1</v>
@@ -11456,7 +11456,7 @@
         <v>2.25</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT54" t="n">
         <v>1</v>
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT55" t="n">
         <v>0.25</v>
@@ -11865,7 +11865,7 @@
         <v>0.46</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU56" t="n">
         <v>0.96</v>
@@ -12065,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT57" t="n">
         <v>1.42</v>
@@ -12271,7 +12271,7 @@
         <v>1.75</v>
       </c>
       <c r="AT58" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AU58" t="n">
         <v>1.54</v>
@@ -12474,7 +12474,7 @@
         <v>2.67</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU59" t="n">
         <v>1.69</v>
@@ -13692,7 +13692,7 @@
         <v>2.31</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU65" t="n">
         <v>2.05</v>
@@ -13892,7 +13892,7 @@
         <v>2.25</v>
       </c>
       <c r="AS66" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT66" t="n">
         <v>1.62</v>
@@ -14504,7 +14504,7 @@
         <v>1.67</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU69" t="n">
         <v>1.9</v>
@@ -14704,7 +14704,7 @@
         <v>1.5</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT70" t="n">
         <v>1.42</v>
@@ -14910,7 +14910,7 @@
         <v>1.75</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU71" t="n">
         <v>1.7</v>
@@ -15313,10 +15313,10 @@
         <v>2.5</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT73" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AU73" t="n">
         <v>1.65</v>
@@ -15516,10 +15516,10 @@
         <v>0.4</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU74" t="n">
         <v>1.52</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT75" t="n">
         <v>1.42</v>
@@ -17546,10 +17546,10 @@
         <v>1</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU84" t="n">
         <v>1.5</v>
@@ -17749,7 +17749,7 @@
         <v>0</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT85" t="n">
         <v>0.25</v>
@@ -18358,10 +18358,10 @@
         <v>2.6</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT88" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AU88" t="n">
         <v>1.56</v>
@@ -18564,7 +18564,7 @@
         <v>2</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU89" t="n">
         <v>1.48</v>
@@ -18767,7 +18767,7 @@
         <v>2.67</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU90" t="n">
         <v>1.67</v>
@@ -19982,7 +19982,7 @@
         <v>1.17</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT96" t="n">
         <v>1</v>
@@ -20997,7 +20997,7 @@
         <v>0.57</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT101" t="n">
         <v>0.38</v>
@@ -21406,7 +21406,7 @@
         <v>1.67</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU103" t="n">
         <v>1.81</v>
@@ -21609,7 +21609,7 @@
         <v>2.67</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU104" t="n">
         <v>1.62</v>
@@ -22012,7 +22012,7 @@
         <v>1.2</v>
       </c>
       <c r="AS106" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT106" t="n">
         <v>1.42</v>
@@ -22421,7 +22421,7 @@
         <v>1.17</v>
       </c>
       <c r="AT108" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AU108" t="n">
         <v>1.38</v>
@@ -22824,7 +22824,7 @@
         <v>1.17</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT110" t="n">
         <v>1</v>
@@ -23233,7 +23233,7 @@
         <v>2</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU112" t="n">
         <v>1.86</v>
@@ -23636,7 +23636,7 @@
         <v>1.4</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT114" t="n">
         <v>2.38</v>
@@ -24651,7 +24651,7 @@
         <v>1.67</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT119" t="n">
         <v>2.38</v>
@@ -25060,7 +25060,7 @@
         <v>2.08</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU121" t="n">
         <v>2.37</v>
@@ -25869,7 +25869,7 @@
         <v>0.29</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT125" t="n">
         <v>0.77</v>
@@ -26478,10 +26478,10 @@
         <v>0.75</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU128" t="n">
         <v>1.43</v>
@@ -26887,7 +26887,7 @@
         <v>2.46</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU130" t="n">
         <v>1.7</v>
@@ -27902,7 +27902,7 @@
         <v>2</v>
       </c>
       <c r="AT135" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AU135" t="n">
         <v>1.68</v>
@@ -28305,7 +28305,7 @@
         <v>0.5</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT137" t="n">
         <v>0.54</v>
@@ -29117,7 +29117,7 @@
         <v>0.25</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT141" t="n">
         <v>0.77</v>
@@ -29323,7 +29323,7 @@
         <v>2.31</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU142" t="n">
         <v>2.08</v>
@@ -29523,7 +29523,7 @@
         <v>0.75</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT143" t="n">
         <v>0.85</v>
@@ -29729,7 +29729,7 @@
         <v>2</v>
       </c>
       <c r="AT144" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AU144" t="n">
         <v>1.69</v>
@@ -30541,7 +30541,7 @@
         <v>2.46</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU148" t="n">
         <v>1.7</v>
@@ -30744,7 +30744,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT149" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AU149" t="n">
         <v>1.32</v>
@@ -30944,7 +30944,7 @@
         <v>1</v>
       </c>
       <c r="AS150" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT150" t="n">
         <v>1</v>
@@ -31556,7 +31556,7 @@
         <v>2</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU153" t="n">
         <v>1.66</v>
@@ -31756,7 +31756,7 @@
         <v>1.67</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT154" t="n">
         <v>1.42</v>
@@ -31959,7 +31959,7 @@
         <v>0.78</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT155" t="n">
         <v>0.85</v>
@@ -32568,10 +32568,10 @@
         <v>1.44</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU158" t="n">
         <v>1.49</v>
@@ -33992,7 +33992,7 @@
         <v>2</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU165" t="n">
         <v>1.61</v>
@@ -34395,7 +34395,7 @@
         <v>2.2</v>
       </c>
       <c r="AS167" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT167" t="n">
         <v>2.38</v>
@@ -34804,7 +34804,7 @@
         <v>2.08</v>
       </c>
       <c r="AT169" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AU169" t="n">
         <v>2.21</v>
@@ -35004,10 +35004,10 @@
         <v>1.3</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU170" t="n">
         <v>1.53</v>
@@ -35816,7 +35816,7 @@
         <v>1.2</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT174" t="n">
         <v>1</v>
@@ -36225,7 +36225,7 @@
         <v>2.31</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU176" t="n">
         <v>2.05</v>
@@ -36425,7 +36425,7 @@
         <v>0.3</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT177" t="n">
         <v>0.25</v>
@@ -36628,7 +36628,7 @@
         <v>0.64</v>
       </c>
       <c r="AS178" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT178" t="n">
         <v>0.54</v>
@@ -36834,7 +36834,7 @@
         <v>1.08</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU179" t="n">
         <v>1.31</v>
@@ -38455,7 +38455,7 @@
         <v>1.09</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT187" t="n">
         <v>1</v>
@@ -38661,7 +38661,7 @@
         <v>1.17</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU188" t="n">
         <v>1.32</v>
@@ -38864,7 +38864,7 @@
         <v>0.46</v>
       </c>
       <c r="AT189" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AU189" t="n">
         <v>1.04</v>
@@ -39267,10 +39267,10 @@
         <v>0.55</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU191" t="n">
         <v>1.42</v>
@@ -39470,7 +39470,7 @@
         <v>1.27</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT192" t="n">
         <v>1.42</v>
@@ -41352,6 +41352,818 @@
       </c>
       <c r="BK201" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>2717651</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>45029.47916666666</v>
+      </c>
+      <c r="F202" t="n">
+        <v>26</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Botev Vratsa</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Hebar 1918</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L202" t="n">
+        <v>0</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0</v>
+      </c>
+      <c r="N202" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>6</v>
+      </c>
+      <c r="R202" t="n">
+        <v>4</v>
+      </c>
+      <c r="S202" t="n">
+        <v>10</v>
+      </c>
+      <c r="T202" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U202" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V202" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X202" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>2717649</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>45030.3125</v>
+      </c>
+      <c r="F203" t="n">
+        <v>26</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Lokomotiv Sofia 1929</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>OFK Pirin</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>1</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="n">
+        <v>2</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0</v>
+      </c>
+      <c r="N203" t="n">
+        <v>2</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>['45+1', '82']</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>9</v>
+      </c>
+      <c r="R203" t="n">
+        <v>2</v>
+      </c>
+      <c r="S203" t="n">
+        <v>11</v>
+      </c>
+      <c r="T203" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U203" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V203" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X203" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK203" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>2717645</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45030.40625</v>
+      </c>
+      <c r="F204" t="n">
+        <v>26</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Septemvri Sofia</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>CSKA 1948 Sofia</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="n">
+        <v>2</v>
+      </c>
+      <c r="K204" t="n">
+        <v>3</v>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="n">
+        <v>3</v>
+      </c>
+      <c r="N204" t="n">
+        <v>4</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>['38', '41', '52']</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>5</v>
+      </c>
+      <c r="R204" t="n">
+        <v>6</v>
+      </c>
+      <c r="S204" t="n">
+        <v>11</v>
+      </c>
+      <c r="T204" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="U204" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V204" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X204" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>2717650</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45030.5</v>
+      </c>
+      <c r="F205" t="n">
+        <v>26</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Arda</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Ludogorets</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>1</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="n">
+        <v>2</v>
+      </c>
+      <c r="N205" t="n">
+        <v>3</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>['45+2']</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>['77', '89']</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>2</v>
+      </c>
+      <c r="R205" t="n">
+        <v>6</v>
+      </c>
+      <c r="S205" t="n">
+        <v>8</v>
+      </c>
+      <c r="T205" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U205" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V205" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X205" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK205"/>
+  <dimension ref="A1:BK207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT2" t="n">
         <v>0.85</v>
@@ -2121,7 +2121,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT8" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT9" t="n">
         <v>0.38</v>
@@ -3136,7 +3136,7 @@
         <v>2.08</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.75</v>
       </c>
       <c r="AT14" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT20" t="n">
         <v>1</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT21" t="n">
         <v>1</v>
@@ -5775,7 +5775,7 @@
         <v>2.31</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AU26" t="n">
         <v>1.81</v>
@@ -6181,7 +6181,7 @@
         <v>1.08</v>
       </c>
       <c r="AT28" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU28" t="n">
         <v>0.9399999999999999</v>
@@ -7193,7 +7193,7 @@
         <v>1.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT33" t="n">
         <v>1.62</v>
@@ -8414,7 +8414,7 @@
         <v>0.46</v>
       </c>
       <c r="AT39" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU39" t="n">
         <v>1.05</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT41" t="n">
         <v>0.54</v>
@@ -9429,7 +9429,7 @@
         <v>1.46</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AU44" t="n">
         <v>1.57</v>
@@ -9629,7 +9629,7 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT45" t="n">
         <v>1.62</v>
@@ -11050,7 +11050,7 @@
         <v>1</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT52" t="n">
         <v>0.85</v>
@@ -11253,7 +11253,7 @@
         <v>1.33</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT53" t="n">
         <v>1.42</v>
@@ -11459,7 +11459,7 @@
         <v>1.77</v>
       </c>
       <c r="AT54" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU54" t="n">
         <v>1.59</v>
@@ -11662,7 +11662,7 @@
         <v>1.85</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AU55" t="n">
         <v>1.49</v>
@@ -14298,10 +14298,10 @@
         <v>0</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AU68" t="n">
         <v>1.24</v>
@@ -14501,7 +14501,7 @@
         <v>1.75</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT69" t="n">
         <v>1.69</v>
@@ -15113,7 +15113,7 @@
         <v>2.67</v>
       </c>
       <c r="AT72" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU72" t="n">
         <v>1.73</v>
@@ -17752,7 +17752,7 @@
         <v>0.85</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AU85" t="n">
         <v>1.61</v>
@@ -18155,10 +18155,10 @@
         <v>1.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT87" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU87" t="n">
         <v>1.88</v>
@@ -18967,7 +18967,7 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT91" t="n">
         <v>1.42</v>
@@ -21403,7 +21403,7 @@
         <v>0.43</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT103" t="n">
         <v>0.54</v>
@@ -21812,7 +21812,7 @@
         <v>2.46</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AU105" t="n">
         <v>1.55</v>
@@ -22218,7 +22218,7 @@
         <v>2</v>
       </c>
       <c r="AT107" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU107" t="n">
         <v>1.53</v>
@@ -22418,7 +22418,7 @@
         <v>2.17</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT108" t="n">
         <v>2.46</v>
@@ -22621,7 +22621,7 @@
         <v>1</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT109" t="n">
         <v>2.38</v>
@@ -25263,7 +25263,7 @@
         <v>2</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AU122" t="n">
         <v>1.74</v>
@@ -26681,7 +26681,7 @@
         <v>0.5</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT129" t="n">
         <v>0.38</v>
@@ -27087,7 +27087,7 @@
         <v>1.13</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT131" t="n">
         <v>1</v>
@@ -28105,7 +28105,7 @@
         <v>1.08</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AU136" t="n">
         <v>1.31</v>
@@ -28714,7 +28714,7 @@
         <v>2.08</v>
       </c>
       <c r="AT139" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU139" t="n">
         <v>2.31</v>
@@ -30132,7 +30132,7 @@
         <v>1</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT146" t="n">
         <v>1</v>
@@ -31147,7 +31147,7 @@
         <v>2.11</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT151" t="n">
         <v>2.38</v>
@@ -32977,7 +32977,7 @@
         <v>2.31</v>
       </c>
       <c r="AT160" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU160" t="n">
         <v>2.1</v>
@@ -33180,7 +33180,7 @@
         <v>0.46</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AU161" t="n">
         <v>1.14</v>
@@ -34192,7 +34192,7 @@
         <v>0.6</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT166" t="n">
         <v>0.77</v>
@@ -35207,7 +35207,7 @@
         <v>0.8</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT171" t="n">
         <v>0.85</v>
@@ -35819,7 +35819,7 @@
         <v>1.46</v>
       </c>
       <c r="AT174" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU174" t="n">
         <v>1.44</v>
@@ -36428,7 +36428,7 @@
         <v>1.77</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AU177" t="n">
         <v>1.78</v>
@@ -38458,7 +38458,7 @@
         <v>1.85</v>
       </c>
       <c r="AT187" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU187" t="n">
         <v>1.56</v>
@@ -38658,7 +38658,7 @@
         <v>1.45</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT188" t="n">
         <v>1.69</v>
@@ -39067,7 +39067,7 @@
         <v>2.67</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AU190" t="n">
         <v>1.69</v>
@@ -39673,7 +39673,7 @@
         <v>1.45</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT193" t="n">
         <v>1.42</v>
@@ -42164,6 +42164,412 @@
       </c>
       <c r="BK205" t="n">
         <v>21</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>2717647</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>45031.33333333334</v>
+      </c>
+      <c r="F206" t="n">
+        <v>26</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Beroe</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Slavia Sofia</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>1</v>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="n">
+        <v>0</v>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="n">
+        <v>1</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>4</v>
+      </c>
+      <c r="R206" t="n">
+        <v>4</v>
+      </c>
+      <c r="S206" t="n">
+        <v>8</v>
+      </c>
+      <c r="T206" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U206" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V206" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W206" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X206" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF206" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG206" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH206" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ206" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>2717646</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>45033.36458333334</v>
+      </c>
+      <c r="F207" t="n">
+        <v>26</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Botev Plovdiv</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Spartak Varna</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>1</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="n">
+        <v>2</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>4</v>
+      </c>
+      <c r="R207" t="n">
+        <v>3</v>
+      </c>
+      <c r="S207" t="n">
+        <v>7</v>
+      </c>
+      <c r="T207" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U207" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V207" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="W207" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X207" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF207" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG207" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH207" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ207" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK207" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK207"/>
+  <dimension ref="A1:BK209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>2.46</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.67</v>
+        <v>2.54</v>
       </c>
       <c r="AT7" t="n">
         <v>1</v>
@@ -2730,7 +2730,7 @@
         <v>2.31</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT14" t="n">
         <v>1.15</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.67</v>
+        <v>2.54</v>
       </c>
       <c r="AT24" t="n">
         <v>1.62</v>
@@ -5978,7 +5978,7 @@
         <v>1.46</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU27" t="n">
         <v>1.65</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.67</v>
+        <v>2.54</v>
       </c>
       <c r="AT30" t="n">
         <v>0.77</v>
@@ -8208,7 +8208,7 @@
         <v>0.33</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT38" t="n">
         <v>0.54</v>
@@ -9020,7 +9020,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.67</v>
+        <v>2.54</v>
       </c>
       <c r="AT42" t="n">
         <v>0.85</v>
@@ -9226,7 +9226,7 @@
         <v>1.85</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU43" t="n">
         <v>1.44</v>
@@ -11256,7 +11256,7 @@
         <v>1.08</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU53" t="n">
         <v>1.26</v>
@@ -12068,7 +12068,7 @@
         <v>1.46</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU57" t="n">
         <v>1.9</v>
@@ -12268,7 +12268,7 @@
         <v>2.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT58" t="n">
         <v>2.46</v>
@@ -12471,7 +12471,7 @@
         <v>2.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.67</v>
+        <v>2.54</v>
       </c>
       <c r="AT59" t="n">
         <v>1.69</v>
@@ -14707,7 +14707,7 @@
         <v>1.85</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU70" t="n">
         <v>1.63</v>
@@ -14907,7 +14907,7 @@
         <v>1.2</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT71" t="n">
         <v>0.85</v>
@@ -15110,7 +15110,7 @@
         <v>1.8</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.67</v>
+        <v>2.54</v>
       </c>
       <c r="AT72" t="n">
         <v>1.15</v>
@@ -15722,7 +15722,7 @@
         <v>0.85</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU75" t="n">
         <v>1.67</v>
@@ -17952,7 +17952,7 @@
         <v>0.67</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT86" t="n">
         <v>0.38</v>
@@ -18764,7 +18764,7 @@
         <v>0.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.67</v>
+        <v>2.54</v>
       </c>
       <c r="AT90" t="n">
         <v>0.54</v>
@@ -18970,7 +18970,7 @@
         <v>1.08</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU91" t="n">
         <v>1.49</v>
@@ -20391,7 +20391,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU98" t="n">
         <v>1.38</v>
@@ -20797,7 +20797,7 @@
         <v>2</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU100" t="n">
         <v>2.04</v>
@@ -21200,7 +21200,7 @@
         <v>1.14</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT102" t="n">
         <v>1</v>
@@ -21606,7 +21606,7 @@
         <v>0.86</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.67</v>
+        <v>2.54</v>
       </c>
       <c r="AT104" t="n">
         <v>0.85</v>
@@ -22015,7 +22015,7 @@
         <v>0.85</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU106" t="n">
         <v>1.54</v>
@@ -23436,7 +23436,7 @@
         <v>2.08</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU113" t="n">
         <v>2.51</v>
@@ -24451,7 +24451,7 @@
         <v>1.08</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU118" t="n">
         <v>1.33</v>
@@ -24854,7 +24854,7 @@
         <v>1.14</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT120" t="n">
         <v>1</v>
@@ -26275,10 +26275,10 @@
         <v>1.17</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU127" t="n">
         <v>1.86</v>
@@ -27496,7 +27496,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU133" t="n">
         <v>1.32</v>
@@ -27696,7 +27696,7 @@
         <v>1</v>
       </c>
       <c r="AS134" t="n">
-        <v>2.67</v>
+        <v>2.54</v>
       </c>
       <c r="AT134" t="n">
         <v>1</v>
@@ -28508,7 +28508,7 @@
         <v>2</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT138" t="n">
         <v>2.38</v>
@@ -28917,7 +28917,7 @@
         <v>0.46</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU140" t="n">
         <v>1.03</v>
@@ -29932,7 +29932,7 @@
         <v>2.31</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU145" t="n">
         <v>2.18</v>
@@ -31759,7 +31759,7 @@
         <v>1.77</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU154" t="n">
         <v>1.73</v>
@@ -32162,7 +32162,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT156" t="n">
         <v>0.77</v>
@@ -32365,7 +32365,7 @@
         <v>0.44</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.67</v>
+        <v>2.54</v>
       </c>
       <c r="AT157" t="n">
         <v>0.54</v>
@@ -32774,7 +32774,7 @@
         <v>1.08</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU159" t="n">
         <v>1.33</v>
@@ -35410,7 +35410,7 @@
         <v>0.4</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT172" t="n">
         <v>0.54</v>
@@ -35613,10 +35613,10 @@
         <v>1.5</v>
       </c>
       <c r="AS173" t="n">
-        <v>2.67</v>
+        <v>2.54</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU173" t="n">
         <v>1.7</v>
@@ -36022,7 +36022,7 @@
         <v>0.46</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU175" t="n">
         <v>1.1</v>
@@ -38252,7 +38252,7 @@
         <v>1</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT186" t="n">
         <v>0.85</v>
@@ -39064,7 +39064,7 @@
         <v>0.27</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.67</v>
+        <v>2.54</v>
       </c>
       <c r="AT190" t="n">
         <v>0.31</v>
@@ -39473,7 +39473,7 @@
         <v>1.77</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU192" t="n">
         <v>1.76</v>
@@ -39676,7 +39676,7 @@
         <v>1.62</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU193" t="n">
         <v>1.85</v>
@@ -42570,6 +42570,412 @@
       </c>
       <c r="BK207" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>2717648</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>45033.47916666666</v>
+      </c>
+      <c r="F208" t="n">
+        <v>26</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>CSKA Sofia</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Levski Sofia</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="n">
+        <v>0</v>
+      </c>
+      <c r="L208" t="n">
+        <v>0</v>
+      </c>
+      <c r="M208" t="n">
+        <v>0</v>
+      </c>
+      <c r="N208" t="n">
+        <v>0</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>3</v>
+      </c>
+      <c r="R208" t="n">
+        <v>3</v>
+      </c>
+      <c r="S208" t="n">
+        <v>6</v>
+      </c>
+      <c r="T208" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="U208" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V208" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X208" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BD208" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BF208" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG208" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH208" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI208" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ208" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK208" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>2717644</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>45033.59375</v>
+      </c>
+      <c r="F209" t="n">
+        <v>26</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Cherno More</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Lokomotiv Plovdiv</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>1</v>
+      </c>
+      <c r="J209" t="n">
+        <v>1</v>
+      </c>
+      <c r="K209" t="n">
+        <v>2</v>
+      </c>
+      <c r="L209" t="n">
+        <v>2</v>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="n">
+        <v>3</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>['31', '72']</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="Q209" t="n">
+        <v>9</v>
+      </c>
+      <c r="R209" t="n">
+        <v>3</v>
+      </c>
+      <c r="S209" t="n">
+        <v>12</v>
+      </c>
+      <c r="T209" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U209" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V209" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W209" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X209" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL209" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN209" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO209" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP209" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ209" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR209" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS209" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AT209" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU209" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ209" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA209" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB209" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC209" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD209" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE209" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF209" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG209" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH209" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI209" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ209" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK209" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
